--- a/기사데이터/토스/엑셀파일/news(토스, 2023.07.01~2023.07.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.07.01~2023.07.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.07.02.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>인뱅·지방은행, 신용대출 문턱 높였다…하반기에도 이어지나</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004906570?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>연체율이 오르면서 인터넷전문은행과 지방은행이 대출문턱을 높이고 있다. 하반기에도 고금리 기조가 이어지고 건전성 우려가 사그러들지 않을 것으로 보수적인 영업형태는 이어질 것으로 보인다. 2일 은행연합회에 따르면 인터넷전문은행 3사(카카오·케이·토스뱅크)가 지난 5월 취급한 일반신용대출의 평균 신용점수는 897점으로 나타났다. 같은 기간 5대 지방은행(부산·경남·대구·광주·전북은행)의 평균 점수는 828점이었다. 고금리 기조가 시작되던 지난해 11월에는 인뱅 3사가 859점, 5대 지방은행이 804점이었다. 평균 신용점수가 오른다는 건 그만큼 신용대출 영업을 보수적으로 운용하고 있다고 해석할 수 있다. .인뱅과 지방은행의 보수적인 대출 기조에는 연체율 상승세와 관련이 깊다는 분석이 제기된다. 인뱅 3사의 올 1분기말 연체율은 0.90%로 지난해 4분기(0.67%)에 비해 0.23%포인트(p) 올랐다. 같은 기간 5대 지방은행은 0.40%에서 0.58%로 0.18%p 올랐다. 반면 5대 은행은 0.06% 오른데 그쳤을 뿐만 아니라 연체율도 0.27%로 낮다. 보수적인 신용대출 영업 기조는 한동안 이어질 것으로 보인다. 대출금리 상승세가 이어지고 있고 연체율 상승세도 쉽게 꺾이지 않을 전망이기 때문이다. 최근 미국 연방준비제도(Fed·연준)가 연내 추가 금리 인상 가능성을 시사하면서 시장금리는 높게 유지되고 있다. 실제로 국고채 3년물은 6월 한달간 100bp(1bp=0.01%포인트) 가량 올랐다. 올  9월 코로나19(COVID-19) 대출 상환유예 조치가 종료되면서 연체율이 더 오를 수밖에 없다. 지방은행 관계자는 "상반기 연체율 상승으로 리스크 관리에 중점을 두고 보수적인 영업기조를 유지했다"며 "지방 경기 회복세가 두드러지지 않아 하반기에도 연체율이 소폭 오를 수 있다고 보고 있어, 상반기 영업기조가 언제까지 이어질지는 두고봐야 한다"고 밝혔다.인터넷은행 관계자는 "평균 신용점수가 오른 것은 사실이나 대출을 실행하고자 하는 차주의 평균 신용도가 높아진 점도 작용했을 수 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>롯데카드, 올 3분기 카카오페이 '대환대출 플랫폼' 입점</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000342343?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>롯데카드가 카카오페이의 대환대출 플랫폼에 들어갈 예정입니다. 그간 카드사들의 대환대출 플랫폼 참여가 소극적이라는 지적이 있었는데 조금씩 확대되는 양상입니다.5일 카드업계에 따르면 롯데카드는 조만간 카카오페이 대환대출 서비스에 입점할 예정입니다.롯데카드 관계자는 "올 3분기 안으로 들어갈 예정"이라며 "다른 플랫폼 입점은 아직 정해진 바 없다"고 설명했습니다.대환대출 비교 플랫폼은 차주들의 부담을 덜기 위해 금융당국 주도로 지난 5월 출시한 서비스입니다. 토스나 카카오페이, 네이버페이와 같은 핀테크 플랫폼에서 은행, 저축은행, 카드사 등의 대출조건을 한 번에 비교하고 쉽게 갈아탈 수 있습니다.현재 실제 플랫폼에 입점해 있는 카드사는 신한카드와 KB국민카드 두 곳에 불과했습니다. 여기에 롯데카드가 3분기 입점을 선언하면서 대환대출 플랫폼에 참여하는 카드사가 점차 늘고 있는 겁니다.그간 카드사는 다른 카드사로의 고객 이탈 등을 우려해 해당 서비스 참여를 꺼려왔습니다. 특히 중·소형 카드사의 경우 대형 카드사와의 금리 경쟁에서 밀릴 가능성이 커 이런 경향이 더욱 두드러졌습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>토스페이, 오프라인 결제 시작… CU 전국 지점에서 사용한다</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000915452?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>/토스 제공        토스가 자사의 간편결제 서비스 토스페이 오프라인 결제 영역을 편의점 CU 전국 지점에서 지원한다고 10일 밝혔다.기존 토스페이는 온라인 결제 수단 제공에 집중하며 쇼핑과 배달은 물론 통신비, 보험료, 세금 납부 등에 사용돼 왔다.그러나 올해 하반기부터는 온라인에서 오프라인으로 서비스 범위를 확대하며 토스페이의 범용성을 높여나갈 계획이다. 토스페이 오프라인 진출의 첫 제휴처는 편의점 CU다. 이제부터 전국에 있는 CU 1만7000여개 지점에서 토스페이로 결제할 수 있다. 별도의 지갑을 가지고 다닐 필요 없이 토스앱을 이용해 CU에서 결제할 수 있다.결제수단은 토스페이에 등록된 계좌, 신용카드 등이며 결제 방법은 바코드 스캔이다. 토스앱 하단에서 토스페이 버튼을 누른 후에 화면 오른쪽 상단의 바코드 아이콘을 선택하면 현장 결제를 할 수 있는 바코드가 생성된다. 가맹점 리더기로 바코드를 스캔하면 결제가 완료되는 방식이다. 토스페이에 CU 멤버십을 등록한 이용자들은 토스페이 결제와 동시에 CU 포인트가 자동으로 적립된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>진화하는 신세계 유니버스…'물류·결제 보완' 본격 경쟁</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011955020?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>SSG닷컴, '공산품 익일' 쓱원데이 배송픽업 풀필먼트 개선…토스 파트너십도[서울=뉴시스]﻿신세계그룹이 계열사와 대외 협력을 통해 멤버십 확장에 본격적으로 나섰다. SSG닷컴과 G마켓 연계 물류 강화, 토스와의 협업 등이 눈길을 끈다. 사진은 신세계 유니버스 클럽 이미지. (사진=G마켓 제공)[서울=뉴시스] 심동준 기자 = 신세계그룹이 계열사와 대외 협력을 통해 멤버십 확장에 본격적으로 나섰다. SSG닷컴과 G마켓 연계 물류 강화, 토스와의 협업 등이 눈길을 끈다. 5일 업계에 따르면 신세계그룹은 '신세계 유니버스'를 역점 사업으로 추진 중이다. 오프라인 역량을 바탕으로 한 온라인 채널 영향력 확대 기조가 눈에 띈다.가깝게는 SSG닷컴이 공산품 익일배송인 '쓱원데이 배송'을 운영키로 한 사례가 있다. 기존 새벽배송, 당일배송에 이어 익일배송 라인업을 구축했단 것이다.쓱원데이 배송은 당일 오후 11시까지 상온 상품을 주문하면, 다음날 한 번에 받아볼 수 있는 서비스 개념으로 제안됐다.익일배송 가능 품목을 라이프스타일 분야까지 늘려 기존 식료품 중심 배송을 보완한다는 방향이다. 배송은 G마켓 동탄 물류센터를 활용한다. 지난해 8월엔 G마켓이 스마일프레시를 통해 쓱배송 이용층을 넓힌 바 있다. 계열 업체 상호 간 물류 시너지를 내고 있단 게 업체 측 설명이다.또 G마켓은 신세계 유니버스 내 '디지털 허브'를 자처하면서 배송 강화를 진행 중이다. 멤버십 대상 무료 스마일배송 확대 등이 관련 행보다.이에 더해 입고 대행 서비스를 '스마일픽업'으로 리뉴얼했다. 이는 업계 추세인 풀필먼트 서비스 강화 일환으로 읽히고 있다.[서울=뉴시스]신세계그룹이 계열사와 대외 협력을 통해 멤버십 확장에 본격적으로 나섰다. SSG닷컴과 G마켓 연계 물류 강화, 토스와의 협업 등이 눈길을 끈다. 사진은 G마켓의 찾아가는 풀필먼트 서비스인 '스마일픽업' 이미지. (사진=G마켓 제공)이는 일종의 찾아가는 풀필먼트 개념으로, 스마일배송 이용 판매자의 상품을 전담 차량과 기사가 직접 받아 동탄물류센터로 옮겨 보관하는 식으로 운영된다.판매자의 택배 발송·재고 부담을 줄인다는 취지로, 거리·지역·무게와 무관하게 상자 크기별로 요금을 일괄 적용해 비용 측면에서 유리하단 게 업체 측 설명이다.신세계 진영의 배송 물류 강화 움직임은 시장에 유료 멤버십 유인을 주는 것과 동시에, 이 분야 강자로 인식되고 있는 쿠팡 아성에 도전하는 것이란 시선이 존재한다.먼저 쓱원데이배송이 다루는 공산품 익일배송은 쿠팡의 대표 서비스인 '로켓배송'과 그 범주가 상당 부분 겹칠 수 있다고 받아들여진다.스마일픽업의 경우엔 쿠팡은 물론 업계 전반에서 강화 추세인 풀필먼트 서비스 분야에서 차별화를 통해 영향력을 넓히기 위한 시도로 바라보는 견해가 있다.최근 마켓컬리·뷰티컬리를 운영하는 컬리도 수도권 남부·충청권 일부의 샛별배송을 맡는 평택물류센터를 열었다.[서울=뉴시스] 박미선 기자=신세계그룹이 계열사와 대외 협력을 통해 멤버십 확장에 본격적으로 나섰다. SSG닷컴과 G마켓 연계 물류 강화, 토스와의 협업 등이 눈길을 끈다.  사진은 지난달 8일 정용진 신세계 부회장이 서울 강남구 삼성동 코엑스에서 열린 '신세계 유니버스 페스티벌'에 방문하는 모습. 2023.06.08 only@newsis.com *재판매 및 DB 금지한편 신세계가 토스와의 파트너십을 통해 신세계 유니버스의 금융 분야 보완을 시도하고 있는 점도 유의미하게 언급되는 지점이다.현재 온라인 커머스 생태계에서 배송과 함께 주요 축으로 작동하고 있는 '결제' 분야를 강화하기 위한 행보로 인식될 수 있는 까닭이다.토스는 이미 잘 알려진 결제·금융 플랫폼으로, 신세계 측은 계열의 온·오프라인 커머스 인프라와 함께 했을 때 시너지가 날 수 있을 것으로 기대 중이다.협업 방식으론 토스 애플리케이션을 경로로 한 신세계 유니버스 클럽 가입 확대, 포인트·혜택 관리 등이 고려되고 있는 걸로 보인다. 우선 이용자층을 넓히겠단 뜻으로 읽힌다.결제를 토스가 맡는 양태를 점치는 시선도 있다. 최근 SSG페이·스마일페이 영업 관련 영업양수도 우선협상대상자에 토스가 선정된 것 등이 이런 맥락의 해석을 부르는 모양새다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>은행 과점 깬다...“시중·인터넷은행 신규 인가 적극 추진”</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003114440?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>진옥동 신한금융 회장, 임종룡 우리금융 회장, 함영주 하나금융 회장, 윤종규 KB금융 회장, 김태오 DGB금융 회장, 이복현 금융감독원장, 김주현 금융위원회 위원장, 김광수 은행연합회 회장, 김기홍 JB금융 회장, 빈대인 BNK금융 회장, 김익수 NH금융 부사장(왼쪽부터)이 기념 촬영을 하고 있다.금융당국이 5대 시중은행(국민·신한·하나·우리·농협) 위주 시장 구도를 흔들기 위해 신규 사업자 진입로를 넓힌다. 지방은행을 시중은행으로 전환해 과점 체제를 깰 수 있는 '메기' 역할을 부여한다. 또 인터넷은행 등 신규 사업자 진출을 적극 유도해 금융시장 경쟁 활성화를 꾀한다.김주현 금융위원장은 5일 서울 명동 은행연합회에서 은행지주회장 간담회를 개최하고, 은행권 경영·영업 관행·제도 개선방안을 발표했다.금융당국은 이날 우선 지방은행의 시중은행 전환을 적극 장려하기로 했다. 은행업 경험이 있는 지방은행이 규모를 확대할 경우 신규사업자 진입보다 빠른 시간 내 실질적인 경쟁이 가능하다고 판단했다.첫번째 후보로 대구은행이 꼽힌다. 대구은행은 7월 현재 금융당국에 시중은행 전환 의사를 밝히고 제반사항을 준비 중이다. 금융당국은 대구은행이 시중은행 전환을 신청할 경우 요건 충족 여부를 심사해 빠르면 올해 내 전환을 결정짓는다.김 위원장은 “대구은행이 전환할 경우 30여년 만에 시중은행 시장에 신규 진입이 일어나는 것”이라면서 “지방에 본점을 둔 시중은행이 출현해 경쟁구도에도 의미있는 변화를 가져올 수 있다”고 강조했다.시중은행·지방은행·인터넷전문은행 신규 인가도 적극 추진한다. 언제든 기존 은행 경쟁자가 진입할 수 있도록 문을 열어놓겠다는 것이다.지금까지 신규 은행 인가는 당국의 인가방침 발표 후 신청과 심사를 진행했지만, 앞으로는 별도 발표가 없어도 건전성과 사업계획을 갖춘 사업자가 신청할 경우 심사를 시작한다. 특히, 신규 인터넷전문은행은 심사 과정에서 기존 3개사(카카오뱅크, 케이뱅크, 토스뱅크) 성과와 국민경제 미친 영향 등을 고려한다는 기준을 마련했다.저축은행간 인수·합병 범위 확대도 추진한다. 당국은 이달 중 저축은행 인가지침 개선방안을 추가 발표할 예정이다. 이외에도 인터넷전문은행과 지방은행 자금과 강점을 결합한 대출상품을 출시를 장려하기로 했다.금융당국은 이날 특화전문은행은 당장 제도를 도입하지는 않는다고 밝혔다. 신규 인가 신청 시 현행 제도 안에서 심사한다. 향후 필요성, 성과, 안정성 등을 감안해 인적·물적 설비나 건전성·유동성 규제 차등화 등을 포함한 새 제도 도입을 계속 검토한다. 관심을 모았던 증권사, 보험사 등 비은행권 지급결제 업무 허용 여부도 발표를 미뤘다. 당국은 안전성 등을 추가 검토해 결론 내리기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>온라인 대환대출 92%가 은행서 은행으로 환승</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002167334?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>초반 8일간 활기 이후 절반 급감“2금융권 전환 활성화돼야” 지적스마트폰 애플리케이션(앱)을 통해 신용대출을 갈아탈 수 있는 ‘온라인 대환대출 인프라’ 이용 금액 증가세가 개시 초반보다 더 줄어들고 있는 것으로 나타났다. 시작 당시에는 8영업일간 3000억원 이상의 금액이 이동됐다면, 현재는 같은기간 증가세가 1000억원대에 머무는 것이다.여기에 1금융권에서 1금융권으로 갈아탄 비중이 90%를 넘는 등 대부분인 것으로 집계되면서, 2금융권에서 1금융권으로, 2금융권 간 대출 전환이 활성화돼야 한다는 지적이 제기된다.10일 강병원 더불어민주당 의원이 금융위원회와 금융감독원으로부터 받은 자료에 따르면 5월 31일부터 6월 21일까지 16영업일동안 대환대출 인프라를 통해 이동된 대출 자산은 5353억원에 해당한다. 5월 31일부터 6월 9일까지 8 영업일간 3844억원이 이동한 것과 비교하면, 그 증가분이 8일만에 3844억원에서 1408억원으로 2분의 1 이상 줄어든 것이다.인프라 개시 첫 초반부에 신용대출 대환대출이 절박했던 금융 소비자들이 몰리고, 그 이후로는 증가세가 주춤하고 있는 것으로 풀이된다.또 정무위원회 소속 윤창현 국민의힘 의원이 금융위로부터 받은 자료에 따르면 5월 31일부터 6월 30일까지 22영업일 동안 대환대출 인프라를 통해 총 2만6883건, 6684억원의 대출 자산이 이동했으며, 이동 유형은 은행 간 대출 이동이 대부분을 차지했다.1금융권에서 1금융권으로 이동한 액수가 6161억원(2만2052건)으로 전체의 92% 수준이었고, 2금융권에서 1금융권으로 이동한 액수는 315억원(2352건)에 불과했다. 나머지는 2금융권에서 2금융권 169억원(2098건), 1금융권에서 2금융권 39억원(381건)이었다. 앞서 김희곤 국민의힘 의원이 금융감독원으로부터 받은 자료에 따르면 대환대출 인프라 개시 초기 10일간 고객들은 기존 거래 은행에서 하나은행(1497억원), 토스뱅크(885억원), 우리은행(762억원), 카카오뱅크(469억원) 순으로 많이 옮겼다. 1금융권으로의 대환대출이 절대적으로 많이 차지하는 것이다.다만 타 금융권 고객 유출을 우려해 대환대출 플랫폼 참여에 다소 소극적이었던 카드사들도 최근 플랫폼 참여에 속속 나서면서 2금융권 대환대출 경쟁도 보다 활성화될 것으로 기대된다.앞서 신한카드(카카오페이·토스·핀다), KB국민카드(카카오페이·네이버페이)가 대환대출 서비스 플랫폼에 입점했고, 현대카드도 이달 6일 핀다에 입점했다. 롯데카드도 3분기 중 대환대출 플랫폼에 입점을 계획하고 있다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>알체라, ‘인천공항 스마트패스 시스템’ 사업 참여</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005530333?sid=105</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>경쟁입찰서 1위 기술력 검증받아 2차 사업에 채택여객 편의성 개선 및 공항 보안 강화에 도움기대2021 이데일리 AI코리아 대상 산자부 장관상 수상업체이기도[이데일리 김현아 기자]영상인식 인공지능(AI) 전문기업 알체라(대표 황영규)가 인천국제공항이 추진하는 스마트패스 시스템에 자사 얼굴인식 솔루션을 공급한다고 밝혔다. 알체라는 얼굴인식 AI 솔루션을 통해 인천공항의 복잡한 출입국 절차를 간소화함으로써 여행자의 편의성과 공항 운영의 효율성을 높일 전망이다.인천국제공항공사의 스마트패스 시스템은 여권이나 탑승권 없이도 사전등록한 얼굴정보를 통해 체크인, 수하물 위탁, 출국장 보안검색, 항공기 탑승 등의 절차를 빠르게 진행할 수 있도록 지원한다. 국제항공운송협회(IATA)는 얼굴인식 등 생체인식 출국 서비스를 도입했을 때 체크인에 걸리는 시간이 10%, 탑승은 40%가량 감소한다고 예측한 바 있다. 이번 알체라 솔루션 도입을 통해 여객이 몰리는 극성수기에도 원활한 공항운영을 돕고, 여객 편의성을 획기적으로 개선할 것으로 기대된다.KT컨소시엄에 솔루션 납품스마트패스 2차 사업자 선정을 위한 경쟁입찰에서 KT 컨소시엄이 1위를 차지함에 따라, 공급사로서 알체라는 관련 솔루션을 납품하게 됐다. 알체라는 2D 카메라 방식으로 미국 아이베타(iBeta)의 ‘얼굴 위·변조 탐지 성능(PAD)’ 테스트를 통과한 국내 유일 업체이며, 2022년 행정안전부 주관 스마트 정부청사 통합관리체계 구축사업 BMT에서도 1위를 차지하는 등 기술력을 꾸준히 인정받아 왔다. 서울·대전·과천 4대 청사에 얼굴인식 시스템 구축을 완료했으며, 올해 4월부터 22만명이 넘는 공무원의 효율적인 출입관리를 지원하고 있다.이외에도 알체라는 얼굴인식 AI 솔루션의 적용분야를 공공부문의 보안시장 뿐만 아니라 금융기업을 대상으로 확대해 나가고 있다. 코로나 이후 비대면 금융사고가 5배 이상 급증하면서 본인인증의 중요성이 강조되고 있으며, 은행권을 중심으로 내부 정보접근 통제를 강화하기 위해 ‘얼굴인증’을 통한 생체인증 도입 의무화가 주목받고 있다. 알체라는 현재 토스뱅크, 신한카드, 현대해상 등 다양한 금융고객을 대상으로 얼굴인증 솔루션을 공급하고 있으며 올해 고객기반 확대를 적극적으로 추진하고 있다.황영규 알체라 대표황영규 알체라 대표는 “코로나19 이후 비대면 트렌드가 가속화되면서, 전세계 공항에서 얼굴인식 기반 출입국 시스템을 빠르게 도입하고 있다”며 “알체라의 얼굴인식 AI 솔루션은 고도화된 보안 절차를 제공하는 동시에 여행자의 신원 확인과 출입 관리를 간소화하며, 안전하고 효율적인 여행 환경 조성을 위한 중요한 역할을 할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.07.12.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>토스, '제2회 버그 바운티 챌린지' 개최</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001221740?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>토스는 '정보보호의 날'을 맞아 '버그 바운티 챌린지'를 개최한다고 12일 밝혔다.'버그 바운티'란 잠재적 보안 취약점을 찾아내기 위해 공개적으로 공격을 요청하고 유의미한 취약점을 찾아낸 제보자에게 포상하는 제도다. 국내에서는 금융보안원과 한국인터넷진흥원(KISA)이 주관하는 프로그램이 대표적이다. 또한 애플이나 구글 등 글로벌 기업들 또한 자체적으로 시행 중이다.토스는 지난해 최초로 자체 ‘버그 바운티’ 프로그램을 개최한 바 있다. 2회째를 맞은 올해는 더욱 많은 제보를 받기 위해 개최 기간을 다섯 달로 늘렸다. 토스뿐 아니라 토스뱅크, 토스증권, 토스페이먼츠, 토스씨엑스(CX) 등 주요 계열사가 참여한다.취약점 신고 대상은 토스뱅크와 토스증권을 제외한 토스 애플리케이션 내 주요 서비스와 각 법인의 공식 홈페이지 등이다. 접수된 취약점은 토스의 보안기술팀이 검증하고 평가한다. 보안기술팀은 세계 최고 수준의 화이트해커인 이종호 리더를 주축으로 팀원 전원이 화이트해커로 구성됐다. 매일 레드 티밍(문제점이나 취약점을 발견하고 의도적으로 공격하는 행위)을 통해 취약점을 점검하고 필요한 조치를 선제적으로 시행하며 보안을 강화해 나가고 있다.운영 기간은 13일부터 12월 15일까지다. 국내 토스 가입자라면 누구나 참가할 수 있다. 참가 접수는 ‘버그 바운티 챌린지’ 공식 홈페이지에서 회원가입 후 신청서를 작성해 제출하면 완료된다. 이후 버그 바운티에 참여할 수 있는 별도 환경을 제공하며, 해당 환경에서 모의 해킹을 진행할 수 있다. 마감 후 평가 결과에 따라 건당 최대 3000만 원까지 포상금을 지급한다.특히 오는 31일까지 ‘토스 버그 바운티 챌린지’ 참가 신청까지 완료한 지원자들을 대상으로는 별도의 이벤트도 실시한다. 홈페이지 회원 가입 후 참가 신청서를 작성해 제출하면 랜덤으로 20명을 추첨해 맨투맨과 스티커 등 굿즈를 선물한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>'2023 금융소비자권익대상' 성료...."소비자 관점 금융혁신 지속"</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004908797?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>6일 서울 중구 웨스틴조선호텔에서 열린 머니투데이 주최 '2023 대한민국 금융소비자권익대상 시상식'에서 수상자 및 주요 참석자들이 기념촬영을 하고 있다.  (윗줄 왼쪽부터) 정희경 머니투데이 대표, 권대영 금융위원회 상임위원, 최종구 전 금융위원장, (아랫줄 왼쪽부터) 김원 웰컴디지털뱅크 소비자보호 담당 전무, 임민순 KB국민은행 소비자보호부 부장 , 홍민택 토스뱅크 대표, 이현애 NH농협은행 개인금융부문 부행장, 박현주 신한은행 소비자보호그룹 부행장, 최창선 NH투자증권 금융소비자보호본부 대표, 유홍 교보생명 소비자보호실장, 최성연삼성화재 소비자정책팀장, 이승목 롯데카드 카드마케팅실장. /사진=김휘선 기자 hwijpg@올해 처음으로 열린 '2023 대한민국 금융소비자권익대상'이 성황리에 마무리됐다. 신한은행은 금융 소비자와 취약계층의 권익 증진과 보호를 위해 애쓴 결과, 첫번째 대상 주인공으로 선정됐다.  머니투데이가 주최하고 금융위원회, 금융감독원, 은행연합회, 생명보험협회, 손해보험협회, 금융투자협회, 여신금융협회, 저축은행중앙회가 후원한 '2023 대한민국 금융소비자권익대상' 시상식이 6일 오전 서울 중구 웨스틴 조선 서울에서 열렸다. '2023 대한민국 금융소비자권익대상'은 금융 소비자 권익 증진에 앞장 선 금융회사와 임직원을 선정해 격려하고 금융 소비자 보호 우수 사례를 널리 확산하자는 취지로 올해 처음 제정됐다. 금융 소비자 중심의 경영 혁신에 나선 24개 금융회사가 부문별로 모두 38개의 신청작을 제출했다. 심사위원장을 맡은 최종구 전 금융위원장(법무법인 화우 특별고문)은 "저성장과 고물가, 고금리로 금융 취약계층의 고통이 커지고 있는 올해는 그 어느 때보다 금융 소비자 보호가 중요한 시기"라며 "어려움 속에서도  금융 소비자 보호와 권익 제고를 위한 금융회사들의 혁신 의지와 열의를 심사 과정에서 확인할 수 있었다"고 말했다.  엄정한 심사를 거쳐 영예의 대상인 금융위원장상은 신한은행이 차지했다. 부문별로는 △소비자권익상품상 KB국민은행·롯데카드 △금융소비자보호상(불법금융피해예방상) 토스뱅크·NH투자증권·웰컴저축은행 △소비자교육상 NH농협은행·교보생명 △금융분쟁예방·조정상 삼성화재 등이 수상했다. 대상을 수상한 신한은행의 박현주 소비자보호그룹 부행장은 "지속가능한 경영과 고객 신뢰를 위한 그룹 차원의 노력을 인정받아 귀한 상을 받게 됐다"며 "소비자 보호를 위한 금융회사들의 노력이 금융권과 사회 전체적으로 보편화될 수 있도록 더 노력하겠다"고 소감을 밝혔다.  권대영 금융위 상임위원은 축사에서 "금융 소비자 보호를 위해 제정된 금융소비자보호법의 철학을 현장에서 구현하는 게 금융회사 건전성과 수익성을 보장하는 길이기도 하다"며 "금융권이 제대로 된 소비자 보호 및 내부통제 시스템으로 관심을 갖고  소비자 보호를 위해 노력해 달라"고 당부했다. 정희경 머니투데이 대표는 "2021년 금소법 시행 이후 금융 소비자 중심의 경영 문화가 점차 확산하고 상생금융 환경이 만들어지고 있다는 긍정 평가도 늘어나고 있다"며 "금융 소비자들의 기대치가 높아지고 있는 만큼 금융회사들이 고객 관점의 금융 혁신을 멈추지 않았으면 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>온라인 대출 갈아타기 한달간 6700억 이동...카드사도 속속 동참</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002812211?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스    지난 5월말 '온라인 대환대출 인프라'가 개시된 이후 한 달간 6700억원가량의 대출자산이 이동한 것으로 나타났다. 온라인 대환대출 인프라를 이용하면 스마트폰 앱을 이용해 기존에 받은 신용대출을 더 유리한 조건으로 갈아탈 수 있다. 특히 카드사들이 대환대출 플랫폼에 잇따라 입접하면서 제2 금융권 대환대출이 활성화할 것으로 기대된다.10일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융위원회로부터 받은 자료에 따르면 5월 31일부터 6월 30일까지 22영업일 동안 대환대출 인프라를 통해 총 2만6883건, 6684억원의 대출 자산이 이동했다. 이동 유형은 은행 간 대출 이동이 대부분을 차지했다.제1금융권에서 제1금융권으로 이동한 액수가 6161억원(2만252건)으로 전체의 92% 수준이었다. 제2금융권에서 제1금융권으로 이동한 액수는 315억원(2352건)에 불과했다. 나머지는 제2금융권에서 제2금융권 169억원(2098건), 제1금융권에서 제2금융권 39억원(381건)이었다. 한편 타 금융권 고객 유출을 우려해 대환대출 플랫폼 참여에 다소 소극적이었던 카드사들도 최근 플랫폼 참여에 속속 나서면서 제2금융권 대환대출 경쟁도 보다 활성화될 것으로 기대된다.앞서 신한카드(카카오페이·토스·핀다), KB국민카드(카카오페이·네이버페이)가 대환대출 서비스 플랫폼에 입점했고, 현대카드도 이달 6일 핀다에 입점했다. 롯데카드도 3분기 중 대환대출 플랫폼에 입점을 계획하고 있다.  .</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스뱅크, 한투·KB 이어 미래에셋 '주식계좌 개설' 서비스</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000045530?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>(사진=토스뱅크) 토스뱅크는 '목돈 굴리기' 서비스에서 미래에셋증권의 주식계좌인 '다이렉트(Direct) 주식계좌' 개설 서비스를 개시하고, 최대 6만5000원 상당의 현금 혜택 이벤트도 실시한다고 4일 밝혔다.미래에셋증권의 다이렉트 주식계좌는 국내 및 해외주식, 채권, 펀드 등 금융투자상품 거래가 가능한 계좌로, 19세 이상의 한국 거주 내국인이라면 가입이 가능하다. 토스뱅크 내에서 목돈 굴리기 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거쳐 1인 1계좌까지 개설할 수 있다.최초 신규 주식계좌 개설 고객을 대상으로 8월 말까지 다양한 혜택도 제공한다. 토스뱅크에서 미래에셋증권 계좌를 개설하면 1만5000원 현금을 토스뱅크 통장으로 즉시 지급하고, 해외주식 매수 시 투자지원금 5만원도 제공한다. 주식 매수시 부과되는 수수료 무료 혜택과 환전 우대 혜택도 제공된다. 현재 토스뱅크에서 주식계좌 개설이 가능한 증권사는 이번 미래에셋증권을 비롯해 한국투자증권, KB증권과 같은 국내 대표 대형 증권사들이 입점해 있다. 토스뱅크 관계자는 "주식계좌 개설 서비스 대상 증권사가 국내 대형 증권사들을 시작으로 점차 확대되며 고객의 선택권을 넓혀가는 중"이라며 "앞으로도 더욱 다양한 증권사와의 제휴를 통해 고객 중심의 다양한 혜택을 제공해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.07.12.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>[단독]플랫폼, 지방·저축은행 새 대출 절반 차지…단 3년만에</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004910830?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[MT리포트]금융, 플랫폼에 종속되다[편집자주] 금융도 플랫폼에 휘둘리고 있다. 특히 지방은행과 저축은행은 신용대출 고객 대부분을 플랫폼에 의존하고 있다. 고객 접점이 약한 금융회사에 기회라는 시각과 금융회사가 '납품회사'로 전락하고 있다는 시각이 공존한다. 금융권의 플랫폼 종속도와 금융권의 대응 방안을 알아봤다.플랫폼 종속 논란이 금융권에도 번지고 있다. 오프라인 영업기반이 약한 일부 지방은행과 저축은행은 플랫폼 대출 비중이 70%까지 높아졌다. 강한 시장 지배력을 가진 플랫폼사의 갑질 우려가 커지고 있다. 11일 강병원 더불어민주당 의원이 금융감독원으로부터 받은 자료를 분석한 결과, BNK경남·부산·대구·전북·광주은행 등 5개 지방은행의 지난해 신규 취급한 가계신용대출 4조7052억원 가운데 52.4%(2조4699억원)가 토스, 카카오페이, 핀다 등 플랫폼사에서 이뤄졌다. 특히, 경남은행의 플랫폼 대출 종속도가 71%로 가장 높았다. 광주은행(58%), 전북은행(54.1%), 대구은행(41%), 부산은행(28.2%)이 뒤를 이었다.  자산 기준 상위 10개 저축은행의 플랫폼 종속도도 34.4%로 높은 편이다. 이들이 지난해 취급한 12조987억원의 신규 가계신용대출 가운데 4조1681억원이 플랫폼사를 통해 나갔다. 애큐온저축은행의 플랫폼 종속도가 70%로 가장 높았다. 한국투자저축은행(54%)과 KB저축은행(53%)의 신규대출도 절반 이상이 플랫폼사에서 성사됐다.지방은행과 저축은행의 대출 모집 채널이 플랫폼에 종속되는데 걸린 시간은 3년이다. 2019년 10개 저축은행과 5개 지방은행의 플랫폼 대출 비중은 각각 0.6%, 1.7%에 불과했다. 지난해 전 금융권의 가계대출이 줄어드는 상황에서도 일부 금융업권의 플랫폼 대출은 증가했다는 점도 눈에 띈다. 5개 지방은행의 신규 가계신용대출이 전년보다 3903억원 줄어드는 동안 플랫폼을 통한 대출 규모는 2조3177억원에서 2조4699억원으로 불어났다. 10개 저축은행의 신규 가계신용대출도 3조8727억원 감소할 때 플랫폼 대출 규모는 3047억원 증가했다. 자산 상위 5개 캐피탈사의 경우에도 신규 취급 대출이 1조9484억원 줄어드는 동안 플랫폼 대출 규모는 760억원 늘었다.금융권에서는 오프라인 영업점이 부족해 영업기반이 약한 금융업권을 중심으로 플랫폼 종속도가 높아졌다고 분석했다. 실제 올 1분기 기준 5개 지방은행의 국내 지점·출장소 수는 755개, 10개 저축은행의 본점·지점·출장소 수는 99개다. 반면, 신한·우리·하나은행의 지점·출장소 수는 2032개다. 많은 영업점을 기반으로 한 3개 시중은행은 지난해 신규 가계신용대출 9조1343억원에서 플랫폼 대출이 차지하는 비중은 3.6%에 불과했다. 대출뿐 아니라 카드발급에서도 플랫폼 종속 현상이 나타나고 있다. 카드업계에 따르면 지난해 발급된 카드 가운데 48.1%는 인터넷·모바일에서 발급됐다. 이 비중은 2019년 26.6%에서 3년만에 20%포인트(p) 이상 높아졌다. 카드사 자체 앱을 통한 발급도 있지만, 플랫폼사를 통한 카드발급도 많은 것으로 알려졌다. 강 의원은 "플랫폼은 소비자들의 편의성을 높여준다는 장점이 있지만, 시장 지배력을 키운 후 과도한 이윤을 추구해왔던 점도 꾸준히 지적받아왔다"며 "플랫폼사의 시장 지배력에 대한 우려가 커지는 만큼 이제는 소비자뿐 아니라 입점 금융사와의 상생 방안도 모색해야 할 시기"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.07.15.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>민간중금리 대출 벌써 상한선…서민 대출문턱 더 높아지나</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011975238?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>상호금융·저축은행·캐피탈, 중금리대출 금리상한 한도 도달중금리 위축 우려…당국, 법정최고금리 때문에 한도 상향 난색[서울=뉴시스] 박민석 기자 = 23일 오후 서울 종로구 정부서울청사에서 금융위원회 직원들이 업무를 보고 있다. 2020.04.23. mspark@newsis.com[서울=뉴시스] 김형섭 기자 = 조달금리 상승 영향으로 서민들이 주로 이용하는 제2금융권의 민간중금리 대출 한도가 벌써 금융당국이 정한 상한선에 도달하고 있다. 금리 상한에 가로막힌 민간중금리 대출의 수익성 악화로 중저신용자들에 대한 2금융권의 대출문이 더욱 좁아질 수 있다는 우려가 나온다. 15일 금융권에 따르면 금융위원회는 지난달 말 올해 하반기에 적용될 2금융권의 민간중금리대출 금리상한을 고시했다. 고시안에 따르면 업권별로 카드의 경우 상반기 11.88%에서 12.14%로 0.26%포인트 올랐으며 캐피탈은 14.99%에서 15.5%로 0.51%포인트 상향 조정됐다. 상호금융과 저축은행은 각각 10.5%, 17.5%로 올해 상반기와 같았다.문제는 조달금리 상승세에 따라 상호금융과 저축은행은 이미 올해 상반기에 금리상한 한도를 채워 변동이 없었던 데다 캐피탈의 경우도 하반기 금리조정을 통해 한도에 도달하게 됐다는 점이다.금융당국은 조달금리 상승에 따라 민간중금리 대출 금리상한이 지나치게 상승하지 못하도록 업권별로 금리상한 한도를 두고 있는데 현재 상호금융 10.5%, 카드 13%, 캐피탈 15.5%, 저축은행 17.5% 등이다.중금리 대출이란 중저신용자에게 상대적으로 낮은 금리로 대출을 해주는 상품이다. 금융당국은 서민 금융지원 차원에서 중금리 대출 확대를 유도하고 있다. 신용평점 하위 50% 차주에게 업권별 금리상한 이내의 비보증부 신용대출을 내주면 이를 민간중금리 대출로 인정하고 인센티브를 준다. 매해 반기별로 조달금리 변동 폭만큼 민간중금리 금리상한도 조정하고 있다.이런 가운데 지난해부터 이어진 기준금리 인상으로 조달금리가 급등함에 따라 민간중금리 대출의 금리상한은 벌써 한도까지 높아진 것이다.[서울=뉴시스]2023년도 하반기 민간중금리대출 금리상한 고시. (자료=금융위원회 제공) *재판매 및 DB 금지2금융권은 은행에 비해 자금조달 방법이 한정적이다. 저축은행과 상호금융은 주로 예적금, 카드와 캐피탈은 여신전문금융회사채(여전채) 발행 의존 비율이 높은데 기준금리 인상 여파로 예적금 금리가 가파르게 상승하고 채권시장 불안 여파로 여전채 금리도 뛰면서 2금융권의 조달비용은 급격히 늘어났다. 금융사 입장에서는 민간중금리 대출로 벌 수 있는 이자가 상한선에 묶인 가운데 조달비용이 늘어나면 수익성이 악화된다. 따라서 금융당국이 금리상한 한도를 상향하지 않으면 민간중금리 대출은 더욱 위축될 수 있다는 전망이 나온다.살제 저축은행 업계에서는 최근 자금조달 여건 악화로 중금리 대출 공급량이 계속 줄고 있다. 저축은행중앙회에 따르면 저축은행의 올해 1분기 민간중금리 대출(사잇돌 대출 제외) 취급액은 1조6685억원인 것으로 나타났다. 이는 지난해(2조7595억원)보다 40% 줄어든 수치다.물론 중저신용자 대출 활성화라는 취지에서 탄생한 카카오·케이·토스 등 인터넷전문은행 3사가 지난 1분기에 전분기 대비 2배 가까이 증가한 8101억원의 중금리 대출을 공급했지만 저축은행과 1금융권인 인터넷은행은 차주의 신용등급에 차이가 있어 2금융권에서 예상되는 중금리대출 위축을 온전히 대체하기는 힘들다는 평가다.그러나 금융당국은 법정최고금리가 20%로 정해져 있어 민간중금리 대출 한도를 더 높일 수 없다는 입장이다. 민간중금리 대출 금리상한은 2021년 12월 민간중금리 금리요건 대비 상호금융·카드는 '+2%포인트', 캐피탈·저축은행은 '+1.5%포인트'를 적용하고 있다. 이를 조정할 수 있는 여지가 아예 없는 것은 아니지만 한도를 높여줘 법정최고금리와 큰 차이가 안 날 수준까지 오를 경우 '중(中)금리'라는 취지 자체가 무색해진다는 고민이다.금융당국 관계자는 "중금리대출 금리상한은 법정최고금리 상황에 따라 조정해야 하는데 최고금리는 국회 입법 사항이기 때문에 당국도 고민은 하고 있는 상황"이라며 "지금 기준으로 한도를 더 올리면 최고금리와 중금리가 차이가 없게 된다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.07.11.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>"퇴직하세요" 홍준표도 반대한 주4일제…카카오 반년만에 유턴 왜</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003293060?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>사진 셔터스톡       “월급을 받아 주머니 사정이 좋아진 데다 휴일까지 생기니 보너스 받은 기분이었습니다. 주말이 길어 휴식에 몰입할 수 있었고, 업무 집중도도 높아졌어요.”      지난달 23일 첫 ‘패밀리데이’ 휴일을 보낸 삼성전자 직원 전모(20대) 프로의 말이다. 삼성전자가 부분적 주 4일 근무제를 도입한 뒤 산업계에선 제도 확산 여부를 두고 눈치 싸움에 돌입한 모양새다. ‘워라밸’(일과 삶의 밸런스)을 중시하는 2030대 직원들을 중심으로 제도 확대 목소리가 거세지고 있다.      ━   삼성·SK·CJ ENM 등 부분 주4일제 도입       11일 삼성전자는 노사 협의에 따라 지난달부터 월 1회 주 4일 근무제를 도입했다고 밝혔다. 반도체(DS)부문에선 ‘패밀리데이’, 디바이스경험(DX)부문은 ‘디벨롭먼트데이’란 이름이 각각 붙었다. 필수 근무시간을 채우면 연차소진 없이 월급날(21일)이 속한 주 금요일을 쉴 수 있게 한 것이다. 다만 교대근무를 하는 생산직 등 일부 직군은 제외됐다.      이에 앞서 SK텔레콤은 2020년부터, SK하이닉스는 지난해부터 ‘해피프라이데이’라는 명칭으로 이 제도를 시행하고 있다. SK텔레콤과 SK스퀘어는 격주 금요일, SK하이닉스는 매달 둘째 주 금요일 필수 인력을 제외한 전 직원이 출근하지 않는다. SK 관계자는 “해피프라이데이를 불가피하게 사용하지 못할 경우 다른 날을 지정해 쉴 수도 있다. 사용률이 거의 100%에 이른다”며 “직원 만족도가 매우 높다”고 전했다.      카카오게임즈는 격주 금요일을 휴무일로 하고 있고, CJ ENM은 월 2회 금요일을 ‘이노베이션플러스데이’로 지정해 외부 활동이나 자기 계발을 자유롭게 할 수 있도록 했다.       정근영 디자이너      ━   탄력근무제 도입하고, 월요일 오후 출근도      근무시간을 줄이거나 유연하게 바꾸는 기업도 늘고 있다. 포스코퓨처엠은 지난 4월부터 월~목요일을 총근무시간을 채우면 금요일엔 2~4시간 일찍 퇴근할 수 있는 탄력근무제를 시행 중이다. 금융 애플리케이션인 토스 운영사인 비바리퍼블리카도 월~목요일 40시간 근무를 채우면 금요일 오후 2시부터 퇴근할 수 있도록 하는 ‘얼리 프라이데이’를 도입했다. 우아한형제들·여기어때컴퍼니 등은 아예 월요일엔 오후부터 근무하도록 해 ‘월요병’을 없앴다.       일부의 경우를 제외하면 사실 주 4일제는 회사나 직원 모두에게 이익이 된다. 회사 입장에선 근무시간 총량은 같은데 초과 인건비 부담을 줄일 수 있다. 직원들도 불필요하게 회사에 묶여있을 필요 없이 업무에 몰입하면서 긴 휴식을 가질 수 있다. 이에 따라 정치권과 노동계를 중심으로 주 4일제 도입 목소리가 커지고 있다.      다만 근무 일수가 줄어들면 생산성 하락으로 이어질 수 있다는 것이 변수다. 실제로 일부 기업은 주 4일제를 도입했다가 유턴한 경우도 있다. 카카오는 지난해 7월 도입한 ‘격주 놀금제’를 반년 만에 폐지하고, 마지막주 금요일만 놀금제를 유지하고 있다. 2019년 전면 주 4일제를 도입했던 교육 전문기업 에듀윌은 올해 비상경영에 돌입하며 일부 부서를 주 5일제로 되돌렸다.      서울 김포공항역 9호선 승강장이 출근길 승객으로 붐비고 있다. 뉴스1      ━   “생산성 저하, 노노 갈등 나타날 우려도”       세대 간 견해 차이도 극명하다. 지난 10일 있었던 홍준표 대구시장과 1990년대생 공무원 간 공감 토크가 대표적이다. 홍 시장은 한 공무원이 주 4일제에 대한 의견을 묻자 “퇴직하세요. 제일 좋은 거는 사표 내고 나가는 것”이라며 “그런 직장으로 가시라”고 잘라 말했다. 이어 “아직 산업 전반에 적용하기엔 시기상조”라고 이유를 설명했는데, 근로시간 단축이 곧 생산성 저하로 이어질 것이란 우려를 나타낸 것으로 풀이된다.      전문가들은 노동 집약형으로 성장한 국내 산업계 특성상 생산성이 줄어들 가능성이 있고, 업종이나 고용 형태에 따른 노노 갈등이 나타날 소지도 있다고 지적한다.      이병훈 중앙대 사회학과 교수는 “워라밸을 중시하는 문화가 확산하는 만큼 주 4일제 요구는 더 커질 것으로 본다. 다만 생산량 감소→급여 삭감 등으로 이어질 수 있다”며 “노사 간 합의를 통해 근로시간이 줄어도 생산성을 높여 동일산 산출을 내는 방식으로 공감과 타협을 도출해야 한다”고 말했다.      그러면서도 “주 4일제가 어려운 제조업·서비스업, 중소기업, 비정규직 등에선 근무 체제와 관련한 노동시장의 이중구조가 더 벌어질 수 있다”며 “먼저 대기업 등이 제도를 견인하되, 불평등 문제를 해소할 수 있게 법제화하는 등 정부 차원의 대책도 필요하다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>노랑풍선, 추석 황금연휴 맞이 ‘풍요로운 좌석 확보’ 기획전</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003114002?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>노랑풍선은 다가오는 2023년 추석 황금연휴 기간 동안 여행을 미리 계획하고 있는 고객을 위해 '풍요로운 좌석 확보' 기획전을 오픈했다고 4일 밝혔다.9월 28일부터 시작되는 추석을 앞두고 최소 4일부터 최대 17일까지 이어지는 황금연휴 기간 동안 고객이 좌석에 대한 걱정 없이 오직 여행 계획과 준비에만 집중할 수 있도록 준비했다.기획전은 △동남아 △일본 △중국 △괌·사이판 △유럽 △미주 △대만 등 다양한 지역을 구분했다. 짧은 기간 동안에도 여행을 떠날 수 있는 '훌쩍 다녀오기!', 올해 마지막 황금연휴 틈새를 공략할 수 있는 '작정하고 떠나기!' 등 총 2가지 테마로 구성돼 있다.노랑풍선은 14일까지 진행되는 기획전 기간 동안 9월 23일에서 10월 7일까지 출발하는 여행객을 대상으로 상품가 최대 10만원 할인, 과일 증정 등의 특전을 제공한다. 토스페이·신한카드 결제 고객 7% 즉시 할인(최대 7만원), 토스페이 첫 결제 고객이 50만원 이상 결제할 경우 2만원 캐시백 등의 혜택도 제공한다.노랑풍선 관계자는 “최근 추석 황금연휴 동안 여행을 계획하는 고객 문의가 늘어나 이번 기획전을 준비했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.07.11.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>"온라인은 좁다" 네이버·카카오·토스, 오프라인 결제시장서 격돌</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000934055?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>사진=이미지투데이 네이버페이·카카오페이·토스페이 등 간편결제사들이 오프라인으로 발을 넓히고 있다. 간편결제 시장이 빠르게 성장하는 가운데 결제 가능  제휴사를 늘려 시장 점유율 확대에 나서는 모습이다.11일 토스페이에 따르면 지난 10일부터 전국 1만7000개 CU편의점에서 결제를 개시했다. 그동안 토스페이는 온라인 시장에 주목해 왔지만 소비자 편의성을 위해 오프라인 결제처를 확대하게 됐다.결제 방식은 간단하다. 토스앱 하단에서 토스페이 버튼을 누른 후에 화면 오른쪽 상단의 바코드 아이콘을 선택하면 현장 결제를 할 수 있는 바코드가 생성된다.가맹점 리더기로 바코드를 스캔하면 결제가 완료되는 방식이다. 토스페이에 CU 멤버십을 등록한 이용자들은 토스페이 결제와 동시에 CU포인트가 자동으로 적립된다.토스 관계자는 "이후에도 다양한 편의점, 커피 프랜차이즈와 적극적으로 제휴 관계를 맺고 오프라인에서 결제 접점을 확대해 나갈 예정"이라며 "온·오프라인 일상생활에서 가장 많이 사용하는 결제수단이 될 수 있도록 노력하겠다"고 말했다.토스페이가 오프라인 결제를 시작하면서 간편결제 서비스를 제공하는 빅테크 3사의 경쟁은 더욱 치열해질 전망이다. 최근 카카오페이는 GFFG 그룹과 제휴해 '노티드', '미뉴트 빠삐용', '베이커리 블레어' 등 결제 서비스를 확장하는 중이다. 카페, 외식, 다이닝 등 다양한 외식 브랜드에서 카카오페이 간편결제를 이용할 수 있도록 환경을 구축하고 있다. 현재 250여개 브랜드와 제휴해 오프라인 결제 서비스를 제공 중이다.네이버파이낸셜은 지난 3월말 삼성페이와 결제 기능을 연동했다. 삼성페이 결제가 가능한 전국 300만개 오프라인 가맹점에서도 네이버페이 앱으로 현장결제가 가능해진 것이다.제휴 이후 사용자는 빠르게 늘고 있다. 삼성페이 결제 기능 연동 직후 지난 4월 한 달간 네이버페이 앱 신규 설치 건 수는 약 47만건으로 전월 대비 186% 증가했다.같은 기간 사용자 1인당 평균 현장결제 금액은 한 달 전과 비교해 123%나 증가했다. 2회 이상 결제한 사용자 비중은 전체의 72%에 달하며 반복해 서비스를 이용하는 고정 고객층도 늘었다.간편결제사 관계자는 "업계에서는 올해 상반기에는 오프라인 결제 시장이 뜨거워지면서 더 많은 결제가 이뤄졌을 거라고 예상하고 있으며 하반기는 결제 건수가 더더욱 늘어날 것으로 보인다"고 전망했다.지난 3월 한국은행이 발표한 '2022년 중 전자지급서비스 이용 현황' 자료에 따르면 하루 평균 간편결제 서비스 이용실적은 2342만건, 이용금액은 7326억원으로 집계됐다. 이는 1년 전과 비교해 각각 18.2%, 20.8% 증가한 수치다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>‘늘봄학교’ 참관한 尹 “아이 돌봄 위해 부모·이웃·정부 힘 합쳐야”</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003773362?sid=100</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>수원初 찾아 티볼 수업 등 참관”교육 다양성으로 선택 폭 넓혀줘야”장미란 차관도 첫 배석윤석열 대통령이 방과후 돌봄·교육 프로그램인 '늘봄학교' 참관을 위해 3일 경기도 수원초등학교를 방문, 전직 프로야구 선수들이 강사로 초등학생들을 지도하는 간이야구 프로그램을 지켜보고 있다./연합뉴스 										윤석열 대통령이 3일 경기 수원초등학교를 찾아 늘봄학교 수업을 참관했다. 늘봄학교는 방과 후 오후 8시까지 돌봄 교실을 확대하고 인공지능(AI), 코딩, 예술, 체육 등 맞춤형 방과 후 프로그램 사업이다. 내후년 전국 시행을 목표로 현재 시범 운영 중이다.윤 대통령은 이날 오후 수원초에서 진행된 늘봄학교 프로그램을 둘러봤다. 윤 대통령은 전직 프로야구 선수가 초등학생들을 지도하는 간이야구(티볼) 프로그램에 직접 참여하고 디지털 코딩, 방송 댄스, 바이올린 등 방과 후 프로그램도 참관했다.윤 대통령은 티볼 수업장에선 직접 티(Tee) 위에 공을 올려놓고 배팅 시범도 했다. 윤 대통령은 학생들에게 “공을 칠 때 몸이 같이 움직이면 안 되고 머리를 뒤에 놔두고 가까이 와서 쳐야 한다”면서 재킷을 벗고 스윙을 했다.윤 대통령은 “야구 시범을 보여줄게”라며 세 차례 스윙을 했지만 모두 티를 때렸다. 그러자 윤 대통령은 “아, 어렵네”라며 학생들이 스윙하는 모습을 지켜봤다. 윤 대통령은 학생들 티에 직접 공을 올려주고 배팅볼 토스도 했다.윤 대통령은 학생들 배팅을 도와주다 주변에서 다시 티배팅을 해보라고 하자 재킷을 벗고 배트를 잡았다. 이번엔 정확하게 네차례 공을 타격했고 학생들이 함성은 “와” 하고 함성을 터뜨렸다.이날 티볼 프로그램엔 허구연 한국야구위원회(KBO) 총재, 프로야구 선수 출신인 양상문, 조계현, 장종훈, 류지현씨도 함께 했다.윤 대통령은 이어 수원초 학부모, 이주호 교육부 장관, 이배용 국가교육위원장, 장미란 문화체육관광부 2차관, 교사 등이 참석한 간담회를 했다.이 자리에서 윤 대통령은 “정부는 어르신 돌봄은 순수한 복지의 문제인데 아이들 돌봄은 교육의 문제로 접근하고 있다”며 “교육 다양성을 추구하고 교육의 수요자들이 원하는 것을 배울 수 있게 선택의 폭을 넓혀주는 것이 정부와 교육 당국이 해야 할 일”이라고 했다.윤 대통령은 “아프리카 속담에 아이 하나를 키우려면 마을 사람들이 전부 힘을 합쳐야 한다는 얘기가 있다”면서 “아이를 키우려면 부모, 형제, 이웃집, 선생님, 교육 당국, 지방정부, 중앙정부가 모두 힘을 합쳐야 한다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>네이버·카카오 개인사업자 보증서 대출, 금융 사각지대 없앤다</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003114450?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>빅테크 업계가 개인사업자 보증서대출 상품을 출시하며 사업자 대출 영역을 확장하고 있다. 상대적으로 신용과 담보가 부족한 사각지대까지 포섭하며, 포용 금융 실천과 향후 기업 금융 진출 포석을 마련했다.카카오뱅크는 개인사업자 보증서대출 상품 공급액이 한 달만에 500억원을 돌파했다고 5일 밝혔다. 100% 비대면 대출 실행과 다양한 상품선택지, 보증료 50% 절감 혜택 덕분이라는 분석이다.카카오뱅크는 은행권 최초로 재단을 방문해 보증 심사를 승인받은 고객도 금융기관 방문 없이 비대면 대출을 실행할 수 있도록 했다. 인터넷전문은행 중에서는 처음으로 시스템 자동심사 상품과 재단 직원의 인적 심사를 필요로 하는 재창업·중신용 소상공인 특례보증도 취급했다.카카오뱅크 개인사업자 보증서 대출 성과카카오뱅크 보증료 50% 지원 혜택으로 지난 한 달간 대출 실행 고객 1인당 절감 보증료는 평균 27만원인 것으로 나타났다.빅테크 업계는 개인사업자 보증서 대출을 통해 설립 취지인 '포용 금융'을 달성하는데 주력한다. 상대적으로 신용·담보가 부족했던 소기업이나 소상공인 성장성과 사업성을 판단해 자금조달을 지원하겠다는 것이다. 특히 비금융데이터를 활용한 심사와 완전 비대면 시스템 도입 등으로 정책 금융 혜택 사각지대에 있던 이들의 자금조달이 원활하도록 돕는다.기업 금융으로 확장이 가능하다는 것도 빅테크가 개인사업자 보증서 대출에 관심을 갖는 배경이다. 개인 상품보다 금액이 큰 개인사업자 대출 포트폴리오를 확장하며 리테일에서 기업 금융으로 나아가기 위한 발판을 마련할 수 있다.네이버파이낸셜은 지난 27일 'e커머스 소상공인 성공 보증부대출'을 출시했다. 기업은행, 신용보증기금과 손잡고 이커머스 전용 혁신상품 개발을 추진한다. 재무·금융 이력 부족으로 신용평가 승인 어려웠던 네이버 스마트스토어 등 e커머스 사업자 금융 애로 해소에 기여할 수 있을 것으로 기대했다.케이뱅크도 지난해 개인사업자 보증서담보대출과 신용대출을 차례로 출시했다. 토스뱅크 역시 신용보증기금과 손잡고 이커머스 사업자 보증·상거래 신용지수 연계보증 등 비대면 보증상품을 개발할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>LGU+, 삼성 새 폴더블폰 사전예약 알람 신청하면 명품백 쏜다</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011956608?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>LGU+, 삼성 뉴 갤럭시 사전알람 이벤트 31일까지 진행샤넬 미니백, 나이키 신발, 셀린느 선글라스 등 경품 증정[서울=뉴시스] LG유플러스가 다음 달 출시될 예정인 삼성전자 새 스마트폰 사전알람 이벤트를 31일까지 진행한다고 6일 밝혔다. (사진=유플러스닷컴 홈페이지 캡처) *재판매 및 DB 금지[서울=뉴시스]윤정민 기자 = LG유플러스는 다음 달 출시될 예정인 삼성전자 새 스마트폰 사전알람 이벤트를 31일까지 진행한다고 6일 밝혔다.사전알람 신청은 LG유플러스 공식 온라인몰인 유플러스닷컴과 모바일 금융 플랫폼 토스에서 할 수 있다.LG유플러스는 추첨을 통해 ▲샤넬 클래식 체인 미니백(1명) ▲보테가 베네타 패딩 카세트백(1명) ▲나이키 조던1X트래비스스캇(1명) ▲셀린느 트리옹프 선글라스(1명)을 증정한다고 전했다.유플러스닷컴을 통해 사전알람을 신청한 고객 전원에게는 추후 진행할 스마트폰 사전예약 시 사용할 수 있는 2만원 할인 쿠폰을 제공한다. 선착순 9만명에게는 카카오페이 1000포인트를 준다.토스도 자사 앱을 통해 사전알람을 신청한 고객 중 선착순 9만명에게 토스 1000포인트를 제공한다. LG유플러스는 토스가 사전알람 고객에게 신제품 출시 소식 외 사전예약 신청, 기기 구매 등 서비스를 제공할 예정이라고 전했다.이밖에 LG유플러스는 유플러스닷컴에서만 구매할 수 있는 스페셜 에디션 상품 출시도 예고했다.LG유플러스가 언급한 삼성전자 새 스마트폰은 갤럭시Z플립5와 갤럭시Z폴드5일 가능성이 크다. 삼성전자는 이달 26일 서울 강남구 코엑스와 중구 서울시청 앞 서울광장에서 갤럭시 언팩 행사를 열고 새 스마트폰을 공개할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.07.11.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>[은행, 판 바뀌나]'네이버뱅크' 등장 가능할까</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000017796?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>특례법 도입으로 문턱 낮춰인뱅 메기효과 크지 않아 지적도중저신용 비중 등 규제도 걸림돌인터넷전문은행(인터넷은행)은 금융권에 새바람을 몰고 올 수 있을 것이란 기대와 함께 등장했다. 정부는 특례법(인터넷전문은행 설립 및 운영에 관한 특례법)을 만들며 인터넷은행을 인가했다.하지만 인터넷은행들이 시중은행 경쟁자로 자리매김하는 것이 쉽지는 않다. 여전히 존재감에 비해 시장에 미치는 영향력은 미미하다.이같은 상황에서 금융당국이 인터넷은행을 비롯한 시중은행과 지방은행 등 은행업 인가 문을 열었다. 건전성과 사업계획 등을 갖춘 사업자는 언제든 은행업 인가를 신청할 수 있다.하지만 문을 두드리고 열기를 시도하는 사업자가 있을지는 의문이다. 업계에선 빅테크인 네이버의 인터넷은행 도전 가능성을 점치고 있지만 현실성은 낮다는 분석이 우세하다.특례법까지 도입했지만…금융위원회는 시중은행들의 경쟁자들을 늘리기 위해 시중은행과 지방은행, 인터넷은행 등의 신규인가를 추진하기로 했다. 특히 건전성과 사업계획 등을 갖춘 사업자가 은행업 인가를 받고 싶다면 앞으로는 언제든 신청할 수 있도록 방향을 바꿨다.지방은행인 대구은행이 시중은행으로의 전환을 선언한 가운데 인터넷은행 신규인가에 도전할 사업자가 나타날지에 관심이 쏠린다.디지털 금융과 함께한 인터넷은행은 금융·ICT 융합으로 금융산업 경쟁과 혁신을 촉진하고, 소비자 편익을 증대한다는 목적으로 도입됐다. 2017년 4월 케이뱅크를 시작으로 그해 7월 카카오뱅크, 2021년 토스뱅크까지 영업에 뛰어들었다.금융당국은 보수적인 금융권에 IT를 기반으로 차별화된 서비스를 제공하고, 지점 없이 비대면 금융을 통해 기존 시중은행들과는 다른 경쟁력을 가질 것으로 기대했다. 시중은행과 달리 지점을 운영하지 않아 비용 절감을 기반으로 금리 경쟁 강도를 높이고, 빅데이터를 활용한 중·저신용자 대출 확대 역할을 맡겼다. 특히 인터넷은행 인가를 위해 특례법까지 제정하며 힘을 쏟았다. 시중은행은 은산분리를 위해 비금융주력자(산업자본)가 보유할 수 있는 은행 지분이 4%로 제한된다. 반면 인터넷은행은 특례법을 통해 혁신정보통신기술(ICT) 기업에 한해 은행 지분 보유 한도를 34%까지 늘렸다.국내은행 및 인터넷은행 총 자산/그래픽=비즈워치은산분리 문턱까지 낮추며 인터넷은행을 도입했지만 기대했던 효과는 아직 크지 않다. 최근 인터넷은행들은 시중은행과 비교해 대출 금리 경쟁력을 갖추고 신용대출을 넘어 주택담보대출 등으로 시장을 확대하고 있지만 여전히 점유율은 2%대에 머물러 있다. 금융감독원에 따르면 지난해 말 기준 인터넷은행 3사의 총 자산은 79조5000억원으로 국내은행(3570조원)의 2.2% 수준이다.금융당국 역시 인터넷은행 메기 효과가 제한적이라고 평가하기도 했다. 이는 은행 제도개선TF가 시작된 원인중 하나이기도 하다.한 금융권 관계자는 "빅데이터를 활용한 새로운 신용평가모델을 개발한다는 구상이었지만 5년 동안 성과를 보면 쉽지 않다는 게 입증됐다"며 "빅테크 기업도 은행업에 진출했지만 혁신적인 서비스라고 평가할 만한 것은 없는 게 사실"이라고 말했다.네이버뱅크? 현 시점은 아냐인터넷은행 도입 효과가 미미한 상황에서 새로운 사업자가 나타날 수 있을지도 의문이다. 현재 거론되는 곳은 네이버(네이버파이낸셜)와 다우키움그룹 정도다. 인터넷은행은 30대 그룹 계열 제조사는 설립할 수 없지만 네이버와 다음카카오 등 IT 기반 기업은 가능하다.IT 혁신 기술을 기반으로 금융권 판을 흔든다는 청사진을 제시했지만 현실의 벽은 높았다. 마지막 진입자인 토스뱅크는 여전히 적자를 기록하고 있다. 사업을 조기에 안착시키기 쉽지 않다는 의미다.한 인터넷은행 관계자는 "인터넷은행이 경쟁력을 갖고 지속 성장하려면 차별화된 서비스 등이 필요한데 현 시점에선 새로운 것을 만들어내기 쉽지 않다"고 말했다.  무엇보다 최근의 금융시장이 녹록지 않다. 고금리 상황이 지속되고 경기위축 등으로 차주들의 상환능력이 떨어진 까닭이다. 이에 금융당국은 인터넷은행을 포함한 금융권에 손실흡수능력 확충을 강조하고 있다. 시중은행에 비해 자본력이 떨어지는 인터넷은행은 더 큰 부담이다.또 다른 인터넷은행 업계 관계자는 "인터넷은행은 초기 자본을 상당부분 확보한 후 영업을 시작해야 하는데 현 상황에선 자본금을 투자해 은행업을 하려는 사업자가 없을 것"이라며 "기업대출도 어렵고 100% 비대면 주담대 시스템을 갖추는 것도 쉽지 않다"고 말했다. 이어 "최근 연체율도 오르는 등 대출 자산 확대에 대한 부담도 크다"고 덧붙였다.금융당국이 인터넷은행에 요구하는 중저신용자 대출 목표도 부담이다. 인터넷은행 도입 이유중 하나가 중금리대출 활성화를 통한 금리단층 해소인 만큼 이들은 중저신용자 대출 비중을 유지해야 한다. 올해 중저신용자 대출 비중 목표는 카카오뱅크 30%, 케이뱅크와 토스뱅크는 각각 32%와 44%이다.이로 인해 인터넷은행들의 연체율 상승 등 재정 건전성에 빨간불이 들어올 수 있다는 우려도 커지고 있다. ▷관련기사: 중저신용자 늘렸더니 건전성이 문제?…인뱅 '속탄다'(7월6일)한 금융권 관계자는 "기존 인터넷은행들에게도 중저신용자 대출 의무 비중은 실적에 직접적인 영향을 주는 만큼 신규 사업자에는 부담이 더 클 수밖에 없다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스뱅크, 미래에셋증권 ‘주식계좌 개설’ 서비스 오픈</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000047036?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>계좌만 만들어도 1만5000원 현금 즉시 지급해외주식 매수 시 투자지원금 5만원 등 혜택 “고객 중심 편리한 비대면 주식 계좌 개설 대상 증권사 확대해 나갈 것”[사진 토스뱅크][이코노미스트 이용우 기자] 토스뱅크가 ‘목돈 굴리기’ 서비스에서 미래에셋증권의 주식계좌인 ‘Direct 주식계좌’ 개설 서비스를 개시하고, 최대 6만5000원 상당의 현금 혜택 이벤트도 실시한다고 4일 밝혔다. 미래에셋증권의 ‘Direct 주식계좌’는 국내 및 해외주식, 채권, 펀드 등 금융투자상품 거래가 가능한 계좌로, 19세 이상의 한국 거주 내국인이라면 가입할 수 있다. 미래에셋증권의 ‘Direct 주식계좌’ 개설은 토스뱅크 내에서 ‘목돈 굴리기’ 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 가능하고 1인 1계좌까지 개설할 수 있다. 최초 신규 주식계좌 개설 고객을 대상으로 8월 말까지 다양한 혜택도 제공한다. 토스뱅크에서 미래에셋증권 계좌를 개설하면 1만5000원 현금을 토스뱅크 통장으로 즉시 지급하고, 해외주식 매수 시 투자지원금 5만원도 제공한다. 주식 매수시 부과되는 수수료 무료 혜택과 환전 우대 혜택도 제공된다. 현재 토스뱅크에서 주식계좌 개설이 가능한 증권사는 이번 미래에셋증권을 비롯해 한국투자증권, KB증권과 같은 국내 대표 대형 증권사들이 입점해 있다. 토스뱅크 관계자는 “주식계좌 개설 서비스 대상 증권사가 국내 대형 증권사들을 시작으로 점차 확대되며 고객의 선택권을 넓혀가는 중”이라며 “앞으로도 더욱 다양한 증권사와의 제휴를 통해 고객 중심의 다양한 혜택을 제공해 나갈 것” 이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>31년만의 새 시중은행, 저축은행 M&amp;A... ‘5대 은행 과점’ 깬다</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003773842?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>정부, 은행업 문턱 낮춰 경쟁 촉진5일 오전 서울 중구 은행회관에서 열린 ‘은행지주 회장 간담회’에 왼쪽부터 진옥동 신한금융 회장, 임종룡 우리금융 회장, 함영주 하나금융 회장, 윤종규 KB금융 회장, 김태오 DGB금융 회장, 이복현 금융감독원장, 김주현 금융위원회 위원장, 김광수 은행연합회 회장, 김기홍 JB금융 회장, 빈대인 BNK금융 회장, 김익수 NH금융지주 부회장이 한자리에 모였다. 이날 간담회에선 지방은행인 대구은행을 시중은행으로 전환하는 등 은행권의 경쟁을 촉진하는 방안이 발표됐다. /장련성 기자										정부가 20년 넘게 이어진 은행 과점 체제를 깨기 위해 은행 산업의 진입 문턱을 대폭 낮추기로 했다.대구·경북에 기반을 둔 국내 최초 지방 은행인 대구은행을 시중은행으로 전환하고, 지방 은행, 인터넷 전문 은행, 특화 전문 은행을 늘려 시중은행과 경쟁하는 ‘메기’ 역할을 맡기겠다는 것이다. 금융위원회는 5일 이런 내용의 ‘은행권 경쟁 촉진화 방안’을 발표했다.은행 과점 깨기 위한 ‘신규 인가’ 카드							시중은행이 새로 생기는 것은 1992년 평화은행 이후 31년 만이다. 대구은행은 최소 자본금(1000억원), 지배 구조(산업자본 보유 한도 4%), 대주주 위법 여부 등 요건을 모두 충족해 금융위 심사가 속전속결로 진행될 것으로 보인다.금융위는 시중은행 외에 지방 은행이나 인터넷 전문 은행, 특화 전문 은행에 관심 있는 사업자에게 은행 문호를 완전히 개방하기로 했다. 종전엔 인가 방침을 발표한 후 잠재적 후보군에서 신청을 받고 심사를 했다. 하지만 앞으론 충분한 자금력과 실현 가능한 사업 계획이 있으면 언제든 인가 신청을 할 수 있다. 문이 열렸을 때만 제한적으로 신청받는 것이 아니라 언제든 문을 열어두고 누구나 두드려볼 수 있게 한다는 것이다. 이날 전국 130만 소상공인에게 경영 관리 서비스(캐시노트)를 제공하는 한국신용데이터(KCD)가 “소상공인 특화 은행 설립을 추진하겠다”고 밝히기도 했다.대구은행 본점 전경./대구은행 제공										새로운 은행 인가에 인색하던 정부가 ‘신규 사업자’ 카드를 꺼낸 것은 KB국민·신한·하나·우리·NH농협 등 5대 은행 중심의 과점 체제가 고착되면서 소비자 혜택이 줄고 있다는 판단 때문이다. 국내에선 1997년 외환 위기 이후 한일은행과 상업은행(1999년), 국민은행과 주택은행(2001년), 신한은행과 조흥은행(2006년)의 합병 등을 거치며 은행 과점 체계가 확고해졌다. 현재 5대 은행이 은행권 대출·예금의 63.5%, 74.1%를 차지할 정도다. 대형 은행들이 과점 체제에 안주하다 보니 금리 경쟁은 실종되고, 비슷한 금융 상품만 우후죽순 출시하는 등 은행들이 ‘땅 짚고 헤엄치기’식 영업을 하고 있다는 비판이 많았다. 김주현 금융위원장은 “국내 은행이 손쉽게 수익을 내면서 국제적 금융회사로 발전하려는 변화 노력은 부족하다”며 “무엇보다 시장의 힘에 의한 경쟁 촉진이 필요하다”고 말했다.김 위원장이 언급한 ‘시장의 힘’은 앞으로 등장할 신규 은행들이다. 1968년 설립돼 55년 업력을 가진 대구은행은 당장 5대 은행과 경쟁 구도를 형성할 수도 있을 것으로 보인다. 대구은행은 비록 5대 은행에 비해 덩치는 작지만, 올 1분기 기준 외국계인 SC제일은행(45조원)보다 대출 규모(약 50조원)가 크고, 수협은행(52조원)보다 자산(약 67조원)이 많다. 수익성 지표인 총자산 순이익률(ROA)도 지난해 0.56%로 NH농협은행(0.46%), SC제일은행(0.35%)을 앞섰다.그래픽=김성규 ”은행 판도 변화 쉽지 않을 것”							금융위는 신규 사업자를 허용하는 것 외에도 은행의 세부 경영 상황과 임원 보수 등의 비교 공시를 강화하고, 은행이 비이자 이익을 늘리도록 규제를 완화하는 등의 조치로 은행권 경쟁을 활성화하기로 했다. 또 저축은행의 영업 권역 제한을 완화해 자연스러운 인수·합병으로 부실 은행을 정리하면서 동시에 은행에 견줄 수 있는 초대형 저축은행이 출현할 수 있게 하겠다고 밝혔다.신규 은행 진입이 늘면 은행권 판도가 흔들리고 경쟁이 촉진될 것이란 기대가 높다. 하지만 2017년 이후 큰 기대를 갖고 출범한 인터넷 전문 은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 존재감이 아직 미미하다는 점을 들어 대구은행을 비롯한 신규 은행들이 성공하기 쉽지 않을 것이라는 지적도 나온다. 실제 지난해 말 기준 인터넷 은행 3곳의 은행권 예금과 대출 점유율은 각각 2.6%, 2%에 그친다. 금융권 관계자는 “대형 은행들도 뾰족한 수가 없어서 지점망으로 이자 장사나 하고 있는데, 신규 은행들이 어떤 경쟁력으로 그 틈바구니에서 혁신을 만들어낼 수 있을지 회의적”이라며 “기술력과 참신한 서비스로 무장했다고 해도 인터넷 은행처럼 새 은행들도 난항을 겪을 가능성이 높다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>티웨이항공, 대구~울란바타르 신규 취항..기념 프로모션</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005526573?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>인천-몽골 노선 취항 후 1만 7000명 수송특가 판매 23일까지 진행[이데일리 손의연 기자] 티웨이항공(091810)이 대구~몽골 울란바타르 하늘 길을 열며 특가 프로모션을 진행한다.티웨이항공은 오는 28일 대구에서 출발하는 울란바타르(몽골) 노선 신규 취항을 앞두고 홈페이지와 모바일 웹(앱)에서 오늘 오전 10시부터 이달 23일(일)까지 특가 프로모션을 선보인다고 10일 밝혔다.대구-울란바타르 노선은 7월 28일부터 8월14일까지 주2회(월·금), 8월17일부터 10월8일까지 주2회(목·일) 스케줄로 운항한다.유류할증료와 공항세를 포함한 1인 편도 총액 기준 17만5600원부터 특가 판매하며 해당 항공권의 탑승기간은 오는 8월 27일부터 10월 8일까지다. (일부 기간 제외)할인권 검색 시 할인코드 ‘대구몽골’을 입력하면 운임의 10%가 즉시 할인 적용된다. 할인코드는 편도와 왕복 예약 모두 적용 가능하다.이번 프로모션은 특히 기본으로 제공되는 20kg에 23kg이 추가된 최대 43kg(2PC) 까지 무료로 수하물을 위탁할 수 있는 혜택도 누릴 수 있어 수하물 무게 걱정 없이 합리적인 운임의 해외 여행이 될 것으로 기대된다.이외에도 신규 가입 2만원 할인 쿠폰과 카카오페이, 토스페이, 우리카드, NH농협카드로 결제 시 최대 2만원 추가 할인 쿠폰도 만나볼 수 있다.자세한 프로모션 관련 사항은 티웨이항공 공식 웹사이트에서 확인할 수 있다.티웨이항공은 지난해 7월부터 9월까지 3개월간 인천-울란바타르 노선을 신규 취항 후 총 76편의 항공편을 운항해 1만 7000여명의 승객을 수송했다.티웨이항공 관계자는 “티웨이항공은 지난 2014년부터 꾸준히 대구공항을 통한 하늘 길을 넓혀가며 지역민 여행 편의를 확대하고자 노력하고 있다”며 “앞으로도 더욱 다양한 노선과 서비스로 대구경북 지역민들의 사랑에 보답하는 시민들의 항공사가 되겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>한투證, 인터넷은행들과 MZ고객 공략 본격화</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002727243?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>카뱅 ‘주식 거래 서비스’·토스뱅크 ‘발행어음 특판’ 등리테일 사업 경쟁력 향상 기대…STO 등 신사업 협업도한국투자증권 전경. ⓒ한국투자증권[데일리안 = 노성인 기자] 한국투자증권이 인터넷은행들과 함께 MZ세대(1981년~ 2010년에 출생한 세대) 투자자들 확보에 공을 들이고 있다. 아울러 이들과 함께 토큰증권(STO) 관련 공동체를 구성하는 등 협업 영역도 확대해 나가고 있다.4일 금융투자업계에 따르면 한국투자증권은 지난달 30일 케이뱅크와 비대면 주식계좌 개설 서비스 제휴를 시작했다. 양사의 제휴로 케이뱅크의 애플리케이션(앱) 내에서 한국투자증권 주식거래 계좌를 개설할 수 있게 됐다.이로써 한국투자증권은 케이뱅크를 포함해 카카오뱅크와 토스뱅크 등 국내 인터넷은행 3사와 모두 사업 제휴를 맺게 됐다.회사는 지난 2019년 국내 증권사 중 처음으로 카카오뱅크와 비대면 주식계좌 개설 서비스를 출시했다. 이어 작년 말에는 카카오뱅크 모바일 앱을 통한 국내 주식 거래 서비스를 시작했다. 카카오뱅크 입출금통장을 한국투자증권 계좌(뱅키스 계좌)와 연결하면 증권사 모바일트레이딩시스템(MTS)이 아닌 카카오뱅크 앱으로도 주식거래가 가능한 서비스다.앞서 한국투자증권은 지난해 8월 토스뱅크 앱을 통해 연 최대 4.5% 발행어음을 특별 판매해 4일 만에 판매금액이 2000억원을 돌파하는 흥행을 거두기도 했다. 현재 한국투자증권은 토스뱅크 앱를 통한 발행어음 거래 서비스를 연중무휴 운영하고 있다.이처럼 한국투자증권이 인터넷 은행들과의 협업에 적극 나서는 것은 신규 MZ고객을 확보하기 위한 전략으로 풀이된다.카카오뱅크는 지난해 말 기준 가입자수 2042만 명, 월간 활성 이용자 수(MAU)는 역대 최다인 1644만 명을 기록했다. 케이뱅크도 작년 말 기준 가입자 850만명 수준을 기록했으며 토스뱅크도 지난 3월 가입 고객이 600만명을 돌파한 것으로 집계됐다. 한국투자증권은 이들 플랫폼을 활용하면 리테일 사업 경쟁력을 키울 수 있을 것으로 보고 있다.특히 제휴를 맺은 인터넷은행들의 주 고객들이 디지털 금융에 친숙한 젊은 세대인 만큼 젊은 고객들의 신규 유입도 기대하는 분위기다. 실제 한국예탁결제원에 따르면 작년 기준 국내 개인투자자 수는 총 1441만명으로 이 중 20·30대는 32.3%(약 460만명)를 차지한 것으로 집계됐다.한국투자증권은 인터넷 은행에 대한 전략적인 지분 투자를 늘리는 가운데 새로운 먹거리를 발굴하기 위한 파트너로서 추가적인 협업도 기대된다.한국투자증권은 카카오뱅크의 2대 주주로 지분 27.17%(1억2953만3724주)를 보유하고 있다. 아울러 자회사인 한국투자캐피탈을 이용해 지난 3월 토스뱅크의 유상증자에 참여해 지분 4%(1013만800주) 확보하기도 했다.한국투자증권과 인터넷은행들의 협업 사업 중 업계가 가장 주목하고 있는 것은 ‘토큰증권’이다. 토큰증권은 분산원장(블록체인) 기술로 전자화한 증권으로 이를 통해 규모가 커 투자가 힘들었던 현물 자산에 대한 접근성이 크게 개선될 것이라는 기대가 나온다.이에 한국투자증권은 지난 3월 카카오뱅크와 토스뱅크 등과 손을 잡고 ‘한국투자 ST프렌즈’를 결성하고 시장 선점에 나선 상황이다.한국투자증권 관계자는 “인터넷은행 포함한 여러 금융 기업과의 제휴를 통해 고객들에 대한 서비스를 강화해 나갈 것”이라며 “이를 통해 고객의 투자 기회 확대에 도움이 되는 양질의 상품을 발굴해 선보일 예정”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>사회공헌 힘싣는 카뱅… 1년새 8배 늘렸다</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005039673?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>인뱅 최초 ESG위원회 구성포용금융 확대 팔걷고 나서  금융당국의 상생금융 압박이 2금융권까지 확장되는 가운데 1금융권 중 가장 미진한 사회공헌활동을 펼쳐온 카카오뱅크가 달라졌다. 지난해 출범한 ESG위원회를 통해 전년 대비 8배 이상 사회공헌금액을 늘리는 등 포용금융에 적극 나서고 있다. 케이뱅크와 토스뱅크도 지난해부터 상생금융 활동에 적극 나서고 있어 올해 인터넷전문은행의 사회공헌활동액은 크게 늘어날 전망이다.   10일 금융권에 따르면 지난해 카카오뱅크의 사회공헌액은 25억6000만원으로 전년 대비 753.3%(22억6000만원) 증가했다. 순이익 대비 사회공헌액 비중도 지난 2021년 0.15%에서 2022년 0.97%까지 확대됐다.   특히 햇살론 등 취약계층을 대상으로 하는 사회책임금융액이 크게 늘었다. 카카오뱅크의 지난해 사회책임금융액은 2204억원으로 전년(830억원) 대비 165.54% 늘어났다. 대출 이자 감면을 포함하는 포용금융액도 지난해 1753억원에 달했다.   이는 당기순이익에 비해 사회공헌금액이 저조했던 카카오뱅크가 ESG위원회를 신설해 본격적인 사회공헌활동에 나섰기 때문이다. 카카오뱅크는 당기순이익이 2020년 1136억원에서 2021년 2041억원으로 79.67% 증가하는 동안 사회공헌액을 오히려 4800만원 가량 줄이는 등 소극적인 태도를 보였다. 지난 2021년 카카오뱅크의 이익 대비 사회공헌 비율은 전체 1금융권 중 꼴찌에 머물기도 했다.   이에 카카오뱅크는 지난 3월 인터넷전문은행 최초로 대표이사 직속 ESG전담 부서를 신설하고 이사회 내 ESG위원회를 구성했다. 사회공헌 전담 직원 수가 기존 5명에서 3명으로 줄어들자, 포용금융 확대를 위해 조직 쇄신에 나선 것이다. 카카오뱅크 관계자는 "지난해 ESG위원회를 5차례 개최해 포용금융의 사회적 가치를 측정하고 지속가능경영보고서 발간하는 등의 활동을 통해 사회공헌 활동을 강화하고 있다"고 설명했다.   한편 지난 2017년 출범한 이후 사회공헌액이 줄곧 1억원 미만에 머물렀던 케이뱅크도 지난해 2억7000만원 규모의 사회공헌활동을 펼쳤다. 지난 2020년까지 줄곧 1000억원 가량의 적자를 기록한 후 지난 2021년에 흑자 전환한 케이뱅크는 지난해 당기순이익 830억원을 기록하는 등 이익이 확대되자 취약계층 아동 주거환경 개선부터 기부 캠페인까지 사회공헌활동폭을 늘리는 추세다.   출범 2년 차로 인터넷은행 중 가장 후발주자인 토스뱅크도 올해 사회공헌액을 늘릴 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>빛의 정령이 사는 땅, 밤마다 보석처럼 빛난다</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003376862?sid=103</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>이국적인 항구도시 日 하코다테일본에서 가장 먼저 개항한 항구유럽식 가옥·노면전차 ‘낭만 가득’해변 따라 붉은 벽돌 창고들 장관하치만자카 언덕, 영화·광고 ‘단골’고료가쿠, 사무라이 ‘마지막 무대’일본 홋카이도의 가장 남쪽에 항구도시 하코다테가 있다. 일본에서 가장 먼저 개항한 곳 중 하나다. 그 덕에 이국적인 옛 색채가 도시 곳곳에 남아 있다. 100년이 훌쩍 지난 유럽식 가옥들, 고풍스런 노면 전차, 푸른 항구와 포근한 만을 끼고 늘어선 옛 창고군 등을 기웃대다 보면 온몸이 낭만적인 기운으로 채워지는 듯하다. 여기에 일본에서 가장 아름답다고 정평이 난 야경도 있다. 그야말로 ‘나인 투 나인’, 아침부터 밤까지 볼거리가 가득한 도시다.하코다테산 전망대에서 본 하코다테 야경. 밤 풍경 가운데 일본 내 최고 절경으로 꼽힌다.●골목마다 고풍스런 건물 ‘빼곡’이번 여정의 이동 수단은 크루즈다. 무엇보다 기항지 투어 때 승·하선 시간을 엄격히 지켜야 한다. 아름다운 하코다테를 돌아볼 수 있는 시간이라야 고작 한나절 남짓. 그래도 노면전차 등 대중교통이나 도보로 돌아보는 데 문제는 없다. 대부분 명소들이 가까운 거리에 몰려 있어서다. 지금부터 소개하려는 명소들은 크루즈에서 내려 찾은 순서일 뿐, 감동의 깊이와는 무관하다.일본 젊은이들이 ‘핫플’로 꼽는 아카렌가 창고군.가장 먼저 들른 곳은 하코다테항 인근의 가네모리 아카렌가 창고군이다. 하코다테가 교역항으로 번성했던 시절의 유산이다. 이름 그대로 ‘붉은 벽돌’로 지은 창고들이 해변을 따라 늘어서 있다. 풍경이 예뻐 소셜네트워크서비스(SNS)를 즐기는 일본 젊은이들의 발걸음이 잦다. 특히 옛 하코다테 우체국을 재활용한 메이지관이 ‘핫플’이다. 대부분의 창고 건물 내부는 특산품, 기념품들을 파는 쇼핑몰, 맛집 등으로 활용되고 있다.아카렌가 창고군이 있는 베이 구역에서 모토마치가 멀지 않다. 1854년 개항과 함께 형성된 마을이다. 당시 조성된 유럽식 건축물들이 모여 있다. 옛 하코다테 공회당과 옛 영국 영사관, 러시아 정교회 소속의 하리스토스 정교회, 프랑스 가톨릭 성당인 모토마치 성당, 히가시혼간지 등 고풍스런 건물들이 골목마다 빼곡하다. 모토마치 공원에 서면 하코다테산과 항구가 시원스레 내다보인다.별 모양의 요새 고료가쿠. 사무라이 시대의 종언을 고한 ‘하코다테 전쟁’이 벌어진 곳이다.●별 모양 서양식 보루 ‘고료가쿠’구릉지대에 조성된 마을이라 도심과 연결된 비탈길이 아주 많다. 그 가운데 가장 유명한 비탈길은 하치만자카 언덕이다. 언덕 꼭대기에 서면 푸른 바다와 아기자기한 집들이 어우러진 풍경이 펼쳐진다. 이 일대가 늘 방문객으로 북적이는 이유다. 영화와 광고에 숱하게 등장한 것도 포토 스폿으로 발돋움한 계기가 됐다.고료가쿠는 필수 방문지다. 별 모양으로 생긴 서양식 보루(성곽)다. 모토마치 거리가 ‘서구화와 근대화의 창’이라면 고료가쿠는 막부시대 사무라이들이 메이지 신정부에 항거한, 그러니까 사무라이 시대의 종언을 상징하는 ‘하코다테 전쟁’의 유적이다.고료가쿠는 에도(도쿠가와) 막부가 당시 중심 관청으로 쓰였던 하코다테 부교쇼(봉행소)의 방비를 굳건히 할 목적으로 1857년 축조하기 시작해 1864년에 완성됐다. 별 모양의 성은 15세기 유럽에서 고안된 것으로 전해진다. 방어의 사각지대가 없는 게 강점이다.일본 최대의 서양식 보루인 고료가쿠는 그러나 외국과의 전쟁에 쓰인 적이 없다. 외려 내전의 상처가 더 깊다. 고료가쿠는 1868년부터 이듬해에 걸쳐 도쿠가와 막부 탈주병과 메이지 정부군 사이에서 벌어진 ‘하코다테 전쟁’의 무대가 된다. 이 전쟁을 통해 지금도 끊임없이 콘텐츠로 재생산되는 ‘마지막 칼잡이’ 히지카타 도시조, 도쿠가와 막부의 해군 참모차장 에노모토 다케아키, 톰 크루즈 ‘형’이 주연을 맡은 영화 ‘마지막 사무라이’의 실제 모델인 프랑스 대위 쥘 브뤼네 등 일본인이 마음속 영웅으로 추앙하는 인물들이 탄생한다. 이들을 ‘800년 무사 정권의 최후를 장식한 사무라이’로 포장해 낸 인물은 작가 시바 료타로다. ‘국민 소설가’로 불리는 그는 히지카타와 에노모토, 사카모토 료마 등 자칫 역사의 뒤안길에 묻혔을 인물들을 발굴해 ‘영웅’으로 빚어냈다.‘국가특별사적’인 고료가쿠의 면적은 25만 1000㎡다. 도쿄돔의 약 5배에 달하는 규모라고 한다. 동서와 남북의 길이 약 500m, 해자 둘레 약 1.8㎞, 사적 지정지 전체 둘레는 약 3㎞에 이른다. 공원 맞은편의 고료가쿠 타워에 오르면 요새와 주변 경관이 한눈에 들어온다.하코다테의 명물 노면전차.●주민들 “세계 3대 야경” 자부심이제 저 유명한 하코다테 야경에 대해 말할 차례다. 주민들 스스로 ‘빛의 정령이 산다’고 말할 만큼 자부심을 갖는 풍경이다. 누가 정했는지 모르겠지만 세계 3대 야경이라고도 하고, 일본 3대 야경이라고도 한다. 하코다테를 ‘디폴트값’으로 놓을 경우 세계 3대 야경엔 홍콩과 나폴리가, 일본 3대 야경엔 효고현 고베시, 나가사키현 나가사키시가 각각 ‘포함’된단다.하코다테 야경을 보려면 하코다테산(334m)을 찾아야 한다. 약 200만년 전에 화산 활동을 멈춘 화산이다. 전망대가 선사하는 밤의 하코다테는 보석에 비유될 만큼 화려하다. 하코다테항과 쓰가루 해협에 끼어 잘록하게 휘어진 오시마 반도를 따라 거리의 가로등이 불을 밝히며 하코다테의 야경은 시작된다. 절정은 하코다테항 베이 구역에 경관조명이 들어올 때다. 항구를 수놓은 일루미네이션과 검푸른 바다에서 불을 밝힌 오징어잡이배들, 모토마치 주변의 옛 교회와 건물들이 저마다 오색 조명을 쏘아내면 곳곳에서 화려한 빛의 군무가 펼쳐진다. 낮에 만나는 전경도 절경이다. 멀리 시모기타반도까지 조망하며 파노라마를 연출한다.하코다테 명물 오징어.■여행수첩→하코다테는 아침시장과 해산물덮밥(가이센동), 소금라면(시오라멘) 등이 유명하다. 아침시장은 하코다테항 바로 앞에 있다. 시장은 일찍 문을 닫지만 음식점 등 상가는 밤늦게까지 운영한다. 아침시장을 지나면 본격적으로 하코다테 시가지가 펼쳐지는데 이 일대에도 맛집들이 수두룩하다. ‘구글링’ 한 번이면 어디가 맛집인지 금방 찾을 수 있다. 특산물은 오징어다. 담백한 시오라멘과 ‘아래 바삭, 위 촉촉’의 만두도 꼭 맛보길 권한다.→고료가쿠의 부교쇼는 2010년에 복원된 것이다. 역사는 깊어도 건물 자체는 그리 오래되지 않았다. 내부를 보기 위해 적지 않은 입장료를 내고 들어갈 필요까지는 없을 듯하다.→하코다테산 전망대는 버스, 택시, 케이블카 등을 이용해 갈 수 있다. 택시를 타고 갈 경우 내려갈 때도 같은 차로 오는 게 좋다. 빈 차로 올라오는 택시는 거의 없고, 대부분 승객을 태우고 올라 주차장에서 대기하다 함께 내려가기 때문이다. 대기 요금은 안 받는다.→아오모리의 오소레잔 보다이지 경내에 작은 온천 4개가 있다. 남녀탕이 구분돼 있다. 온천을 즐기려면 수건 등을 가져가야 한다. 사찰 입장료를 내면 온천은 무료다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>핀테크 선불충전 무럭무럭...주요업체 잔액만 7000억원</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003116066?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>일본 도쿄 스카이트리 전망대 매표소에서 직원이 바코드 인식을 통해 카카오페이 결제를 진행하고 있다.주요 핀테크 업체 선불충전금 규모가 올해 7000억원을 넘어서며 꾸준히 성장하고 있다. 온라인 간편결제에서도 카드사용을 대체하는 등 빠르게 영역을 확장하고 있다.카카오페이는 올 6월말 기준 선불충전금 규모가 4800억원을 넘어섰다. 1분기 4570억원에서 230억원 늘었다. 지난해 연말 보다는 약 400억원이 증가한 수치다.지난해 3분기 선불충전금 1000억원을 돌파한 네이버파이낸셜은 올해도 1000억원대를 꾸준히 유지 중이다. 바비퍼블리카(토스)도 6월 말 기준 950억원대 선불 충전금을 보유하며 연초 대비 약 30억원 규모를 늘렸다. 추세대로라면 연내 1000억원 돌파가 가능할 것으로 보인다. 페이코 역시 7월 기준 135억원으로 연초에 비해 10억원 이상 잔액을 늘렸다. 상반기 기준 카카오페이, 네이버파이낸셜, 토스, 페이코에 쌓인 선불충전금 잔액만 약 7000억원에 육박한다.적립 규모가 커짐에 따라 선불결재 사용량도 늘어나고 있다. 특히 온라인에서는 선불충전금이 신용카드를 빠르게 대체하고 있다. 여신금융협회가 최근 국회에 제공한 '지급결제 서비스 시장 현황' 자료에 따르면 국내 간편결제 규모는 지난해 267조4000억원에서 2032년 1173조4000억원으로 4배 이상 커진다. 2022년 기준 카드 이용액 대비 한 자릿수에 불과한 선불충전 이용액 비중도 2025년에는 10%를 넘길 것으로 전망된다.일각에서는 예금자보호법 적용 대상에 선불충전금을 포함하자는 의견도 꾸준히 나오고 있다.업계 관계자는 “대형업체들은 이미 가이드라인 이상으로 선불충전금을 관리 중”이라면서 “머지포인트 사태 등 중소형 업체 사각지대를 보완하는 차원에서 정부가 개입하는 것이 효율적”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>'전국은행' 간판 다는 대구은행…금리·서비스 경쟁에 본격 가세</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014046814?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>"연내 '지방은행→시중은행' 추진"…자본금·지배구조 요건 충족'체급 차이'에 한계 지적도…"중장기적 효과 지켜봐야" 대구은행 제1 본점[DGB대구은행 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 임수정 오지은 기자 = 금융당국이 5일 은행권 경쟁 촉진 대책으로 내세운 '지방은행의 시중은행 전환' 첫 타자는 DGB대구은행이 될 전망이다.    대구은행은 전국 단위로 영업 범위를 넓히고 이를 통해 낮아진 조달 금리를 앞세워 5대 시중은행과 서비스 경쟁을 벌일 것으로 예상된다.     금융당국과 은행권 등에 따르면 금융위원회는 대구은행의 시중은행 전환 신청이 들어오는 대로 신속히 심사를 진행한다는 방침이다.     김태오 DGB금융지주 회장은 이날 금융당국과 금융지주 회장단과의 간담회를 마친 뒤 기자들과 만나 "올해 중 시중은행 전환을 검토하고 추진할 예정"이라며 "대구에 본점을 둔 시중은행이자 지역 대표은행으로서 역할을 해나갈 것"이라고 말했다.      김 회장은 "창립 이래 56년간 축적된 중소기업 금융 노하우를 활용해 수도권과 강원, 충청 등 보다 넓은 지역에서 중소기업과 함께 성장하겠다"는 계획을 밝혔다.     금융당국의 심사 절차가 남아있지만, 현재로선 별다른 결격 사유가 없어 빠른 추진이 가능할 것으로 보인다.     은행법 8조에 따르면 지방은행 인가를 위해서는 250억원 이상의 자본금만 있으면 되지만, 시중은행 인가를 받기 위해서는 1천억원 이상의 자본금을 갖춰야 한다.     전자공시에 따르면 대구은행의 지난 1분기 자본금은 6천806억원으로, 이러한 자본금 요건을 충족한다.     지배구조 요건에도 부합한다.    현재 금산분리 원칙에 따라 비금융주력자(산업 자본)의 일반은행 지분 보유 한도는 4%로 제한된다. 지방은행의 경우 보유 한도가 15%로 조금 더 느슨하다.     그러나 대구은행 지분 100%를 보유한 DGB금융지주의 경우 국민연금(보유 지분 8.78%), OK저축은행(8.0%) 등이 주요 주주로 산업 자본 요건 측면에서도 자유롭다.     김소영 금융위 부위원장은 사전 브리핑을 통해 "대구은행이 자본금 요건은 충족하는 상태"라며 "추가로 볼 부분은 사업 계획이 얼마나 타당한지와 지배구조 이슈 등인데 현재까진 큰 문제가 없을 것으로 본다"고 말했다.은행권 경영ㆍ영업 관행ㆍ제도개선 방안 발표(서울=연합뉴스) 황광모 기자 = 김소영 금융위원회 부위원장이 지난 3일 오후 서울 종로구 정부서울청사에서 은행권 경영ㆍ영업 관행ㆍ제도개선 방안을 발표하고 있다. 2023.7.5 hkmpooh@yna.co.kr    예정대로 대구은행이 시중은행으로 전환한다면 31년 만에 새로운 시중은행의 출현이다.     시중은행 인가는 케이뱅크·카카오뱅크·토스뱅크 등 인터넷3사를 제외하면 1992년 평화은행이 마지막이었다.    대구은행은 시중은행 전환 이유로 '조달 금리 이점'을 꼽고 있다. 자금조달 측면에서 유리해지면서 시중은행과 견줄 만큼 경쟁력 있는 금리를 제공할 수 있게 되고 이를 통해 다양한 고객군을 확보할 수 있게 된다는 것이다.     다만 대구은행이 '5대 은행'과 실질적인 경쟁이 가능할지에 대해서는 회의적인 시각도 읽힌다.     자본금이 수조원 수준인 5대 은행과 체급 차이가 상당하기 때문에 여·수신 비중을 바꾸는 정도의 경쟁은 역부족이란 분석이다.    인터넷전문은행도 기존 은행과 차별화된 서비스 및 금리 제공을 목표로 도입됐지만, '찻잔 속 태풍'에 그쳤다는 평가가 많다. 실제 인터넷은행 3사가 은행권 내에서 차지하는 비중은 약 2%(작년 말 기준 예금 2.6%·대출 2.0%) 수준에 그친다.     김소영 부위원장도 "사실 대구은행 크기가 일반 시중은행에 대해 상당히 작은 상황이라 당장 큰 효과가 없을 수 있다는 생각은 하고 있다"면서도 "사이즈는 작지만, 시중은행이 5개에서 하나가 더 늘어난다는 것 자체만으로도 큰 의미가 있고, 중장기적으로도 중요한 효과가 나올 것"이라고 기대했다.     sj9974@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>상반기 인기 체크카드 톱10는</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002309516?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>◆…카드고릴라 제공신용카드 플랫폼 카드고릴라가 3일 '2023년 1분기 인기 체크카드 TOP 10'을 발표했다. 우리 010페이(PAY) 체크카드가 1위에 올랐다. 이번 집계는 1월 1일부터 지난달 25일까지 카드고릴라 웹사이트에서 집계된 각 신용카드 상품조회수 및 신청전환수를 기준으로 매겨졌다.   1위는 '우리 010PAY 체크카드'다. 지난해 1분기 결산부터 올 상반기 결산까지 1년 반 연속 1위 자리를 유지했다. 결제 시 최대 0.4% 기본 적립되며, 매월 10일 단위로 진행되는 응DAY에는 결제금액의 3.3%가 추가 적립된다. 계좌 잔액이 부족할 때 월 최대 20만원까지 휴대폰으로 010PAY 머니를 충전해 쓸 수 있다.   2위는 엔에이치엔페이코의 '페이코(PAYCO) 포인트 카드'다. 전월실적 없이 온라인 1%, 오프라인 0.5% 적립된다. 온라인/오프라인 카테고리 별로 이달의 브랜드를 매월 선정해 최대 10% 적립 혜택을 제공한다. 해외겸용 카드로 발급받을 경우 해외결제수수료가 무료다.   3위는 '우리카드 NU 오하첵(오늘하루체크)'가 차지했다. 간편결제, 교통, 통신 등 생활 영역 캐시백과 함께 안경/렌즈, 무신사, 지그재그 등 독특한 혜택을 제공한다. 해외겸용카드로 해외 이용 시 5% 캐시백된다.   4위는 '신한카드 딥드림(Deep Dream) 체크'다. 모든가맹점에서 실적 조건 없이 0.2%가 적립된다. 자주 가는 DREAM 영역에서 3배, DREAM 영역 중 가장 많이 이용한 영역은 5배 적립된다. DREAM 영역은 할인점, 편의점/잡화, 영화/커피, 해외, 통신 등으로 구성됐다.   5위와 6위는 KB국민카드의 '노리2 체크카드(KB Pay)'와 '노리체크카드'가 나란히 이름을 올렸다. 'KB국민 노리2 체크카드(KB Pay)'는 통신, 편의점, OTT, 드럭스토어 등 일상 할인과 함께 온/오프라인에서 KB Pay 결제 시 2% 추가 할인을 제공하는 간편결제 특화 카드다. '노리체크카드' 역시 전방위 할인 체크카드로 교통, 통신, 영화, 푸드 등에서의 할인을 제공한다.   7위는 한패스의 '트리플카드'로 국내 가맹점 결제 시 0.3%, 해외 가맹점 결제 시 3% 캐시백을 제공하는 해외 결제 특화 카드다. 연회비는 1만원이다. 8위는 '네이버페이 우리카드 체크'로 연회비 5000원에 국내, 해외 각각 월 최대 1만점까지 네이버페이 포인트를 적립할 수 있다.   9위는 상반기 동안 네이버페이 머니 하나 통장과 결합해 사용 시 1.2% 네이버페이 포인트 적립, 해외결제/국제브랜드수수료 무료 혜택을 제공한 '네이버페이 머니 하나 체크카드'가, 10위는 실적 조건 없이 구독, 영화, 디저트, 편의점 등 8개 영역에서 매일 최대 4000원 즉시 캐시백, 해외에서 결제 시 조건 없이 2% 캐시백을 제공하는 '토스뱅크카드'가 차지했다.   고승훈 카드고릴라 대표는 "각 발급사의 머니, 포인트 등이 충전 후 차감되거나 실물카드 없이 앱만 있어도 결제가 가능해지는 등 체크카드의 모습도 다양해지고 있다"며 "최근에는 해외 이용 시 할인뿐만 아니라 수수료 무료, 환전 우대 등의 혜택을 기본으로 주는 카드가 많아 해외여행 시 체크카드를 찾는 이용자도 많은 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.07.13.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>상담사 연계 ‘주담대’ 비교 플랫폼 경쟁 활활…토스도 참전</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005529504?sid=105</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>파운트 이어 토스, 뱅크몰, 담비까지4개 업체 혁신금융서비스로 지정돼 경쟁 예고전체 가계대출 잔액 중 주담대 비중 75% 이상대출상담사, 플랫폼에서 활동 가능해져플랫폼 통한 주담대 비교·실행 활성화될 전망[이데일리 임유경 기자] 하반기 대출상담사(대출모집인)와 연계한 주택담보대출 플랫폼이 쏟아진다. 지난달 혁신금융서비스로 지정된 파운트파이낸스에 이어 이달 중 토스, 뱅크몰, 담비도 규제 특례를 적용받아 서비스를 선보일 예정이다.13일 업계에 따르면 금융위원회는 오는 19일 7월 정례회의를 통해 토스, 뱅크몰, 담비 3개 업체가 신청한 ‘대출모집인을 활용한 주택담보대출 비교 플랫폼’을 혁신금융서비스로 지정할 예정이다. 지난달에는 파운트파이낸스가 신청한 같은 서비스도 혁신금융서비스로 지정했다.서울 시내 한 시중은행 앞에 붙어 있는 대출상품 관련 현수막. (사진=연합뉴스)대출모집인을 활용한 주택담보대출 비교 서비스가 가능해지면, 이용자들은 플랫폼을 통해 여러 금융사의 주택담보대출 상품을 비교하면서도 복잡한 대출 신청 과정에 대해선 대출상담사의 도움받을 수 있게 된다. 대출모집인은 금융사와 위탁계약을 체결하고 대출 신청상담, 접수 및 전달 등 금융사가 위탁한 업무를 수행하는 상담사다.그동안 대출모집인이 온라인 대출플랫폼에서 활동하는 건 불가능했다. 현행법상 대출대리·중개업자의 재위탁이 금지돼 있고, 일사전속주의(대출모집인이 1개 금융사의 대출 상품만 취급하도록 제한한 규제)를 적용받는 오프라인 대출상담사가 여러 금융사 상품을 비교하는 온라인 플랫폼에서 활동하는 것도 위법소지가 있어서다. 금융위원회가 금융규제샌드박스를 통해 한시적으로 규제 특례를 적용하면서 해당 서비스가 가능해졌다.금융위원회 관계자는 “신용대출에 비해 주택담보대출은 제출해야 하는 서류가 많은데 자동화도 잘 돼 있지 않은 상황이라, 소비자들이 플랫폼을 통해 상품을 비교하다가 중도에 이탈하는 경우가 많다”며 “대출모집인을 허용해 온·오프라인을 연계하면, 서비스가 보다 원활히 이뤄져 소비자 효용이 증대할 것으로 기대된다”고 했다.페인포인트 해소한 주담대 비교 서비스…하반기 경쟁 불붙나주택담보대출 비교 플랫폼 시장 경쟁도 한층 치열해질 전망이다. 한국은행에 따르면 6월 말 기준 주택담보대출 잔액은 814조원으로, 전체 가계 대출에서 75% 이상을 차지한다. 여러 금융사의 대출상품을 중개하고 수수료를 받는 플랫폼 입장에서 보면 시장 규모가 매력적이지만, 지금까진 적극적으로 취급하지 않았다. 주택담보대출 상품 특성상 전 과정을 비대면으로 진행하기 어려워서다. 대출모집인 연계를 통해 이같은 고충점들이 해소되면, 관련 사업도 적극 확대될 것으로 전망된다.이용자들의 금융사 선택권도 더 확대될 것으로 보인다. 그동안 플랫폼에는 제1 금융권 입점 상품 수가 적어 선택할 수 있는 상품에 제한이 컸다. 이제 플랫폼에서 활동하는 대출모집인이 속해있는 금융사를 통해 1금융권 상품도 플랫폼에서 쉽게 접근하게 될 것으로 보인다.한 핀테크 업체 관계자는 “전국에 대출 상담사 및 대출 모집법인이 많이 있기 때문에 플랫폼에서 활동하고자 하는 수요도 쉽게 확보할 수 있을 것으로 보이며 뱅크몰이나 담비는 플랫폼 사업 이전에 오프라인 대출상담사 중개사업을 해온 업체라 관련 업계와 네트워크를 활용하기 더 수월할 것”이라고 예상했다.플랫폼마다 대출모집인 연계 주택담보대출 비교 서비스 모델은 각기 다를 전망이다.  가장 먼저 혁신금융서비스로 지정된 파운트파이낸스는 소비자가 플랫폼을 통해 주택담보대출 한도를 조회한 후 대출모집인에게 견적을 요청하는 구조로 서비스를 구성했다. 받은 견적 중 최적의 대출상품을 선택하고 상품을 제안한 대출모집인과 대면 상담을 거쳐 실행하게 된다.역으로 이용자가 소득, 대출현황 개인의 조건을 입력하면 대출상담사가 최적의 상품을 제안하는 구조를 구상하는 업체도 있다. 신규 주택담보대출 실행뿐 아니라, 갈아타기 수요에도 대출모집인을 연결해주는 방안을 모색하는 곳도 있다.토스도 관련 서비스를 4분기 안에는 출시하겠다는 계획이다. 토스 관계자는 “아직 서비스 구성 방식은 구체화하지 않았지만, 4분기 정도에는 서비스를 선보일 계획”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.07.02.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>코레일유통, 순천역·성균관대역에 ‘쏘카존’ 마련</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002580335?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>코레일유통이 전남 순천역에 마련한 쏘카 전용주차장 전경(코레일유통 제공)  순천역에 공유자동차 27대 운영, 순천만정원박람회 접근성 높여모빌리티 서비스 기업 코레일유통이 7월부터 철도와 공유자동차를 연결한 모빌리티 서비스를 선보인다.2일 코레일유통은 순천역, 성균관대역에 쏘카존을 구성해 공유차량을 배치하고, 카셰어링 서비스를 시작한다고 밝혔다.쏘카존에는 순천역 27대, 성균관대역 6대의 신형 승용·승합차량을  구비했다. 특히 순천역 쏘카존은 순천시와 협력하여 순천만정원박람회 방문 관광객의 편의를 위해 서비스 개시 일정을 앞당겼다. 10월까지 약 800만 관광객이 방문할 것으로 예상되는 순천만국제정원박람회에 카셰어링 서비스를 제공해 고객 이동편의를 향상시켰다. 향후 쏘카존에는 전기차 이용고객의 편의를 위한 전기차 충전서비스를 추가할 예정이다. 코레일유통은 5월 쏘카와 업무 협약을 맺고 철도역과 공유자동차를 결합하는 서비스 제공을 준비했다.코레일유통 관계자는 "지역 관광 활성화를 위해 철도 연계 카셰어링 서비스를 시작했다"며 "앞으로도 지역발전과 고객편의를 위해  다양한 방법으로 서비스를 제공할 것"이라고 전했다.한편 코레일유통은 모바일 금융 플랫폼 토스와 토스존 설치, 지방자치단체 캐릭터 협업 등 철도 이용고객의 편의와 즐거움을 위한 복합문화공간 개발에 지속적으로 노력하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>토스, 어린이·청소년 대상 모의투자 대회 개최</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005527105?sid=105</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>1등에 10만 포인트 지급[이데일리 임유경 기자] 토스가 10일부터 14일까지 닷새간 어린이·청소년을 대상으로 하는 ‘틴즈 모의투자 대회’를 개최한다.기존 ‘토스 모의투자’ 서비스를 이용하는 틴즈 사용자(만 7세부터 만 18세 이하)가 참가할 수 있다. 토스는 지난 4월 틴즈 사용자들이 가상의 1000달러로 직접 주식 투자를 경험할 수 있는 ‘토스 모의투자’ 서비스를 출시한 바 있다.대회 참여 시 본인의 기존 투자 내역은 백업되며, 대회 종료까지는 ‘틴즈 모의투자‘ 서비스를 이용할 수 없다. 대회가 종료되면 참여 전 보유하고 있던 본인의 ‘토스 모의투자’ 내역이 복구된다.참가자에게는 투자 금액으로 가상의 1000만 원을 지급한다. 대회 기간 동안 토스는 투자 가능 종목으로 넷플릭스, 나이키, 코카콜라, 현대자동차, 하이브 등 국내외 주식 일부를 선정해 제공한다. 종목의 가격은 시세 정보를 활용해 실시간으로 반영한다. 랭킹은 투자 수익 금액을 기준으로 정해진다. 본인뿐 아니라 타인의 랭킹도 한눈에 확인할 수 있다. 수익 금액이 동일한 사용자가 있을 경우, 해당 수익 금액을 달성한 선착순으로 순위가 기록된다.대회가 종료되는 이달 14일 23시 59분을 기준으로 최종 순위에 따라 토스포인트를 상금으로 지급한다. 1등 10만·2등 5만·3등 3만·4등과 5등 각 1만·6등부터 100등까지 각 5000포인트를, 101등부터 1000등까지는 각 1000포인트를 수령할 수 있다.틴즈 사일로를 담당하는 윤주승 제품책임자(PO)는 “틴즈 이용자들이 쉽게 주식 투자를 익히는 동시에, 직접 종목을 보유했다는 성취감도 느낄 수 있도록 UX·UI 디자인 하나까지 각별한 노력을 기울였다”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>집값 꿈틀대자 주담대 경쟁… 가계부채 ‘적신호’</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003509325?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>‘부동산 경기 바닥’ 인식 확산에카뱅 등 저금리로 주담대 확장시중은행은 ‘최장 50년’ 맞불“경쟁 과열, 가계부채 악화 우려”인천 연수구에 거주하는 직장인 김모 씨(29)는 지난달 결혼을 앞두고 신혼집을 마련하기 위해 주택담보대출 4억 원을 받았다. 특례보금자리론 등 정부 지원 대출은 소득 기준에 걸려 다른 대출 상품을 찾아보던 중 연 4%로 금리가 가장 낮은 카카오뱅크를 선택하게 됐다. 김 씨는 “창구에 갈 필요 없이 애플리케이션(앱)을 통해 서류를 제출할 수 있어 시간도 아낄 수 있었다”고 말했다. 최근 정부의 부동산 규제 완화와 한국은행의 4연속 금리 동결로, 침체했던 부동산 시장이 꿈틀대고 있다. 은행권에선 늘어난 주담대 수요를 끌어오기 위한 영업 경쟁이 거세지고 있다. 인터넷전문은행들은 낮은 금리를 앞세워 공격적으로 영업 확대에 나서고 있고, 시중은행들도 만기를 최장 50년까지 늘린 ‘초장기 주담대’ 상품을 속속 내놓고 있다. 자칫 은행권의 과도한 주담대 영업 경쟁이 가계부채 불씨를 키울 수 있다는 지적도 나온다.● 주담대 영업 경쟁, 가계부채 키운다 13일 한국은행에 따르면 최근 주담대를 중심으로 은행권 가계대출이 큰 폭으로 늘고 있다. 6월 말 기준 은행권 가계대출 잔액은 전월 대비 5조9000억 원 늘어난 1062조3000억 원으로 역대 최대치였다. 올해 4월부터 석 달 연속 증가했는데 주담대 규모가 늘어난 영향이 컸다. 지난달 주담대는 7조 원 불어나 2020년 2월(7조8000억 원) 이후 가장 많이 늘었다. 최근 주담대 증가세는 부동산 가격이 바닥을 쳤다는 인식이 확산하고 있기 때문이다. 1년 뒤 집값을 전망한 한은의 주택가격전망지수는 지난달 100으로 2022년 5월(111) 이후 처음 기준치(100)에 도달했다. 지수는 작년 11월 61까지 떨어졌지만 올해 상반기(1∼6월) 급등세를 보였다. 향후 집값이 오를 것으로 보는 소비자들이 많으면 지수가 100을 넘게 된다. 은행권의 주담대 영업 경쟁도 가계부채 증가를 부채질하고 있다. 특히 인터넷전문은행들은 낮은 금리를 앞세워 시장 점유율을 확보하고 있다. 은행연합회 공시에 따르면 5월 중 취급된 카카오뱅크의 분할상환 방식 주담대 평균 금리는 연 3.88%로 공시 대상인 16개 은행 중 유일하게 3%대를 유지했다. 케이뱅크 역시 올해 들어 주담대와 전세자금대출 금리를 각각 5차례, 4차례 내린 바 있다. 주택 관련 대출이 없었던 토스뱅크도 다음 달 전세대출 상품 출시를 목표로 하고 있다. 주요 은행들도 차주의 원리금 상환 부담을 줄인다는 명목하에 초장기 주담대 상품을 내놓고 있다. 올해 초 Sh수협은행을 시작으로 DGB대구은행에 이어 이달 하나은행, NH농협은행도 주담대 상품의 최장 만기를 40년에서 50년으로 연장했다. 다른 시중은행들도 연장 방안을 검토 중이다.● 대환대출 확대 앞두고 경쟁 가속화금융당국이 신용대출을 더 낮은 금리로 갈아탈 수 있도록 한 ‘대환대출 인프라’를 연내 주담대까지 확대하기로 한 것도 은행권의 영업 경쟁을 부추기고 있다. 대환대출 인프라는 5월 말 출시 이후 한 달 동안 약 6700억 원의 대출자산이 이동하는 효과를 가져왔다. 최근 주담대 규모가 뚜렷한 증가세를 나타내는 가운데 연체율도 오름세를 보이고 있다. 금융감독원에 따르면 주담대 연체율은 올해 4월 말 기준 0.21%로 1년 전(0.11%)보다 0.10%포인트 올랐을 뿐 아니라 집값이 오르기 시작하던 2020년 4월(0.20%)을 앞질렀다. 석병훈 이화여대 경제학과 교수는 “소비자들이 더 나은 조건의 금리로 갈아탈 수 있는 길을 터주게 되면 이자 부담이 줄어 연체율도 낮아질 수 있다”면서도 “부동산 시장이 저점에 도달하고 상승 추세로 전환한 상황에서 은행들의 영업 경쟁이 치열해질수록 집을 사려는 소비자도 늘어 가계부채가 증가할 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.07.08.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>“예금이탈 막아라”…저축은행, 파킹통장 금리 최대 연 5%로 올려</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002166797?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>[연합][헤럴드경제=서경원 기자] 저축은행들이 수신 잔고 급감을 막기 위해 파킹통장 금리를 최대 연 5%까지 올리며 자금 유치에 열을 올리고 있다.8일 금융권에 따르면 SBI저축은행은 지난달 파킹통장 금리를 연 3.5%로 지난 3월의 연 2.8%보다 0.7%포인트(p) 올렸다.OK저축은행의 파킹통장인 '읏백만통장2'는 100만원 이하 예치금에 대해 최고 연 5% 이자를 제공한다. 100만∼500만원 잔액에는 최고 연 3.5%, 500만∼2000만원 예금에는 최고 연 3% 금리를 적용한다.다올저축은행도 지난달 연 4% 금리를 제공하는 파킹통장 상품 'Fi 커넥트 통장'을 출시했다.저축은행의 이런 움직임은 지난해 하반기 연 5∼6%에 제공한 고금리 특판상품의 만기가 도래하면서 수신 잔고가 줄어드는 걸 막기 위한 것으로 보인다.저축은행권의 지난 4월 말 수신 잔액은 114조6159억원으로 고금리 특판 상품을 선보였던 지난해 11월보다 5.6% 줄었다.이에 따라 저축은행업권은 이자 비용이 높은 예·적금 상품보다 파킹통장으로 수신 유치에 주력하는 분위기다.파킹통장은 수시로 돈을 예치하고 인출할 수 있어 통상 정기예금보다 금리가 낫다. 약정금리도 바꿀 수 있어 시장 상황에 따라 유연하게 자금을 운용할 수 있다.저축은행업권은 지난해 말 예·적금 금리가 연 5.5%까지 치솟아 이자 비용이 상승하자 올해 초 정기예금 금리를 연 3%대로 내린 바 있다.8일 기준 저축은행의 12개월 정기예금 상품의 평균 금리는 3.98%다.저축은행 관계자는 "예금보다 비용 측면에서 효율적인 파킹통장 금리를 올려 자금을 조달할 방침"이라고 설명했다.반면 인터넷은행 3사(카카오·케이·토스뱅크)는 파킹통장 금리를 2%대에 제공하고 있다.카카오뱅크, 케이뱅크, 토스뱅크의 파킹통장 금리는 각각 2.2%, 2.3%, 2.0%다. 3사는 지난달 파킹통장 금리를 0.1∼0.2% 포인트 낮췄다.은행권 관계자는 "수신 상품 포트폴리오 관리 차원에서 파킹통장 금리를 낮췄다"고 말했다.한국은행은 '상반기 금융안정보고서'에서 "인터넷은행은 시중은행에 비해 예금 조달 의존도가 높은데 수시입출식예금 비중이 시중은행보다 높다"며 "이탈이 쉬운 비대면 예금의 특성을 고려할 때 인터넷은행은 수신예금의 안정성을 높일 필요가 있다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>[블루오션 스탄]①30만 고려인 앞으로 '금융 출정식'</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000755935?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>경쟁 치열한 동남아 대신 중앙아시아로금융당국 규제 완화해 진출 적극 독려금융사들이 동남아를 넘어 '스탄(Stan) 국가' 중앙아시아로 영역을 넓히고 있다. 금융당국도 중앙아시아 국가로의 진출을 적극 지원하고 나섰다. 금융회사들의 중앙아시아 진출 배경과 전망을 짚어본다. [편집자]국내 금융사들이 경쟁이 심화한 동남아시아에서 눈을 돌려 중앙아시아 금융시장을 주목하고 있다. 중앙아시아의 금융산업은 아직 개척 단계라, 현지에 진출한 국내 금융사가 함께 성장할 기회가 무궁무진하다고 본다. 금융당국도 어느 때보다 국내 금융사의 중앙아시아 시장 진출을 적극 지원하고 있다.김소영 금융위원회 부위원장(왼쪽에서 네 번째)이 정완규 여신금융협회장(왼쪽에서 다섯 번째) 등 여신업계 관계자들과 기념 촬영하고 있다. [사진=비씨카드]3일 외교부에 따르면 중앙아시아 전체 인구는 이코노미스트 인텔리전스 유닛(EIU) 기준 7천600만여 명이다. 특히 중앙아시아 지역에는 약 30만 명의 고려인 동포가 거주하고 있어 경제·문화 부문에서 우리나라에 우호적이다.수교 31주년을 맞은 우리나라와 중앙아시아는 그간 보건·디지털·관광·환경·경제 안보 등 다양한 분야에서 긴밀한 관계를 지속해 왔다. 중앙아시아 5개국과의 교역규모도 최근 4년간 2배 이상 성장했다.아직 금융 부문의 교류는 제한적이다. 다만 최근 중앙아시아 국가들이 금융산업 고도화를 목표로 금융경제의 디지털화 전략을 추진하면서 국내 금융권과의 교류가 활발해지고 있다. 무엇보다 중앙아시아가 먼저 손을 내밀고 있다는 점이 긍정적이다.실제로 우즈베키스탄 은행예금보장기구(FBOKF)는 우리나라 예금보험공사로부터 예금보호제도 역량 강화를 지원받기로 했다. 지난 6월1일에는 토스를 방문한 우즈베키스탄 경제정책부처 대표단에 대출 비교 서비스 도입에 대한 노하우를 전수했다.◆진출 지원 사격 나선 금융당국김소영 금융위원회 부위원장은 중앙아시아 국가에서 국내 금융산업 해외 진출을 위해 직접 일종의 '세일즈' 활동을 벌이기도 했다. 키르기스스탄 현지를 다녀온 김 부위원장은 "해외 진출 현장에서 국내 여신전문금융사 등 금융사의 글로벌화 가능성을 엿볼 수 있었다"며 "우리 금융사의 성공적인 해외 진출을 위해 지원 노력을 아끼지 않겠다"고 강조했다.앞서 금융위는 지난 3월 금융산업 국제화 전담 조직인 '금융 국제화 대응단'을 신설했다. 대응단 단장인 김 부위원장은 각 업권별 릴레이 세미나·간담회를 했고, 이를 통해 금융사들의 해외 진출을 막는 규제 개선을 위해 4가지 중점 검토 방향을 세웠다.우선 금융위는 금융사의 해외 자회사 인수 설립과 관련한 규제를 폭넓게 완화해 영업 범위 확장을 지원하기로 했다. 해외 자회사가 모회사로부터 자금을 조달하는 데 어려움이 없도록 규제를 개선하고, 해외 점포에 적용하기 어려운 규제는 유연하게 적용하도록 할 계획이다.중복되거나 과도한 수준의 보고·공시 규정을 통폐합하고 사후 보고로 전환하는 등 행정 부담을 경감하는 방안도 포함했다. 금융위 관계자는 "금융사 해외 진출 지원을 위한 규제개선 방안을 이번 7월에 발표할 예정"이라며 "금융사들이 실질적으로 체감할 규제 완화 방안을 검토하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.07.07.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>제2의 토스·직방을 꿈꾼다…창업 후 상장까지 한 기업의 비결은?</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004909029?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>권인택 오픈놀 대표.스타트업으로 시작해 코스닥 상장까지 일군 기업이 있어 눈길을 끈다. 진로·취업·창업의 생애주기 커리어 채용 플랫폼을 운영하는 '㈜오픈놀'.권인택 대표가 이끄는 오픈놀은 채용시장 변화에 맞춘 인재 매칭 서비스를 제공한다. 스펙 중심의 정시 채용에서 직무 중심의 수시 채용으로 변하고 있는 채용시장 트렌드를 포착했다. 오픈놀의 주력 서비스는 구인구직 온·오프라인 플랫폼 '미니인턴'이다. 미니인턴은 △교육형·채용형 미니인턴 서비스 △구직자 역량강화 콘텐츠를 제공하는 'M클래스' △프로젝트를 통해 구직자 역량 평가해 매칭 솔루션을 제공하는'채용관' 등으로 구성됐다. 구직자에게는 실무 경험 및 취업 기회를, 구인기업에게는 우수 인재를 채용할 수 있는 기회를 제공한다. 인공지능(AI) 기업맞춤 프로젝트 추천 기술을 활용해 업종 및 규모에 따라 구직자에게 적합한 프로젝트를 제시하도록 돕는다. 또 스코어링 AI 역량평가 기술을 통해 지원자의 활동을 추적하고 데이터화해 역량을 분석한다.지금의 오픈놀 서비스를 만들기까지 과정이 순조롭지만은 않았다. 권 대표는 '스토리가 스펙을 이기는 사회를 구현하자'는 비전과 기획력은 있었지만 초기 자금과 마케팅 전략을 짜는데 어려움을 겪었다. 이 때 '키다리아저씨' 역할을 하며 손을 내민 곳이 중소벤처기업진흥공단이다. 중진공의 청년창업사관학교(청창사)를 통한 지원이 권 대표의 걱정을 덜어줬다. 중소벤처기업부와 중진공에서 운영하는 청창사는 2011년에 개교했다. 유망 창업 아이템을 보유한 우수 창업자를 발굴하고 혁신적인 청년 CEO를 양성하기 위해 입교생에게 창업공간 및 교육, 기술지원 등 종합 연계지원 방식의 원스톱 패키지 프로그램이다. 국내 대표 청년창업가 양성의 요람이다.중진공에 따르면 청창사는 최근 5년 동안 우수한 청년CEO 4753명을 양성했고 졸업한 기업 중 토스나 직방같은 예비유니콘 기업 등을 다수 배출했다.권 대표는 2012년 청창사에 지원했는데 당시 8개월 간 매출이 없었다. 청창사는 사업비, 창업 교육, 코칭, 네트워킹 등을 지원했고 권 대표는 오픈놀 웹서비스 베타 버전을 선 보일 수 있었다. 이를 기반으로 오픈놀만의 진로·채용 플랫폼이 완성됐다. 오픈놀은 이후 2019년부터 2022년까지 총 1056건의 미니인턴 프로젝트를 진행했다. 2022년 기준 누적 회원수 약 51만명, 가입 기업 6296개사, 취업자수는 5300여명이다.오픈놀은 현재 회사를 든든하게 지원해 주고 성장시킨 청창사의 민간 운영사로 참여해 창업과정에서 겪은 노하우를 같은 길을 걷고 있는 청년창업가에게 전수하며 창업기업 육성에도 힘쓰고 있다. 권 대표는 "청년창업사관학교 덕에 무너지기 쉬운 창업초기 단계를 버틸 수 있었다"며 "고민과 어려움이 많은 초기 창업자들이 청년창업사관학교에서 마음껏 창업의 꿈을 계속 키워 나가기를 바란다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>[토큰증권] '새 시장 열린다' 서두르는 금융권…'합종연횡' 속도</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014040001?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>증권사 주도 토큰증권 연합체 출범…금융·ICT 기업과 손잡아은행권도 'STO 컨소시엄' 구성…"공동 사업 기회 찾는다"여의도 증권가 모습[연합뉴스 자료사진]    (서울=연합뉴스) 민선희 송은경 기자 = 조각투자로 대표되는 토큰증권(ST·Security Token)이 금융권의 새로운 먹거리로 떠오르면서 시장을 선점하기 위한 업계 움직임도 분주하다.    토큰증권이란 분산원장(블록체인) 기술로 전자화한 증권이다.     금융당국이 올해 초 토큰증권을 증권의 한 형태로 인정하고 토큰증권 발행(STO·Security Token Offering)과 유통을 제도화하기로 하면서 금융권의 관심이 높아졌다.    토큰증권이 '증권'인 만큼, 증권업계가 가장 적극적으로 신사업을 준비 중이다. 은행권도 자체 컨소시엄을 결성하고 대비에 나섰다.  "발행·유통 신사업 기회"…증권사 주도 토큰증권 연합체 출범    3일 금융투자업계에 따르면 증권사들은 토큰증권 시장 선점을 위해 각종 조각투자사업자는 물론, 기존 금융사·정보통신기술(ICT) 기업 등과 연합체를 꾸리고 있다.     대표 주자로 미래에셋증권이 주도하고 SK텔레콤, 하나금융그룹이 참여하는 토큰증권 컨소시엄 '넥스트파이낸스 이니셔티브'(NFI)가 있다.     ICT, 금융 등 산업별 대표기업들이 서로 손을 잡았다는 점에서 관심을 모은다.    미래에셋증권 관계자는 "NFI는 다른 증권사의 토큰증권 연합체보다 큰 개념으로 토큰증권의 확장성에 집중했다"며 "토큰화할 수 있는 후보 자산을 발굴하고 플랫폼을 확보하는 차원"이라고 말했다.     한국투자증권은 카카오뱅크, 토스뱅크 등 인터넷 은행 2곳 및 카카오엔터프라이즈 등과 손을 잡고 '한국투자 ST프렌즈'를 결성했다.    한국투자증권 관계자는 "개별 조각투자 사업자와의 협업보다는 일단 토큰증권을 발행할 수 있는 환경과 생태계 조성에 초점을 맞추고 있다"고 설명했다.    이외에도 연내 토큰증권 플랫폼 출범을 추진하고 있는 신한투자증권의 개방형 협의체 'STO 얼라이언스', 지난해 6월부터 전담 조직을 만들어 토큰증권 사업에 착수한 KB증권의 'ST 오너스', 주요 조각투자사업자들이 참여하는 NH투자증권의 'STO 비전그룹' 등도 시장 참여 준비를 착착 진행하고 있다.     이처럼 증권사들이 가장 적극적으로 나서는 이유는 토큰증권 자체가 기존 사업과 유사하고, 발행과 유통 두 분야에서 새로운 사업을 꾀할 수 있기 때문이다.    토큰증권은 부동산, 미술품 등 유동화하려는 기초자산을 지닌 발행인이 일정 요건을 갖춘 경우 분산원장에 직접 증권을 등록하는 방식으로 발행할 수 있다.    그러나 요건을 갖추지 못한 경우에는 증권사, 은행 등 계좌관리기관의 지원을 받아 발행해야 한다.    금융투자업계 관계자는 "조각투자사가 발행인계좌관리기관으로서 토큰증권을 직접 발행하려면 증권사 수준의 인프라를 갖춰야 해 쉽지 않을 것"이라며 "결국 증권사들과 손잡고 토큰증권을 발행하는 구조가 대세를 이룰 것 같다"고 전망했다.    토큰증권의 유통은 전용 장외시장을 통해 이뤄질 예정이다.    장외거래 중개업을 별도로 인가받은 전문 플랫폼이 나올 수 있지만, 전통적으로 주식·채권 거래 중개업을 해온 증권사 역시 새롭게 신설되는 장외거래중개업 라이선스를 받을 수 있게 될 전망이다.주요 은행 현금인출기[연합뉴스 자료사진]  은행권, 농협 주도 'STO 컨소시엄' 구성…일부는 "시장상황 보고 대응"    '증권'은 은행이 주도권을 갖기 어려운 시장인 만큼 일단 은행권의 토큰증권 시장 준비 움직임은 증권사보다는 신중하다.    은행권에서 가장 적극적으로 토큰증권 시장에 뛰어든 곳은 NH농협은행이다.     농협은행은 기업은행, 신한은행, 우리은행, 전북은행, 수협은행이 참여하는 '은행권 STO 컨소시엄'을 주도하고 있다.    농협은행 관계자는 "은행별로 블록체인 조직에서 STO를 고민하는 것을 알고, 같이 토큰증권 발행을 위한 분산원장을 구축해보면 어떨지 제안했다"며 "공동의 사업 기회 영역을 찾을 수 있을 것으로 생각한다"고 말했다.    '은행권 STO 컨소시엄'은 기업 채권을 토큰증권으로 발행하거나 혁신적인 조각투자 모델들이 시장에 진입할 수 있도록 하고, 유통시장을 구축하는 방안도 논의한다는 계획이다.    은행권은 은행연합회를 통해 금융당국에 은행 참여를 위한 제도 개선을 건의하거나 부수업무·스몰라이센스를 요청하는 방안도 고려 중이다.    다만 대형 금융사 중에서도 KB국민은행과 삼성증권 등 일부는 조금 더 시장 조성 상황을 신중히 지켜보겠다는 입장이다.    아직 장외거래중개업 인가 요건과 일반투자자의 연간 투자 한도 제한 등 구체적인 법령과 하위 규제안이 나오지 않은 상황이라 불확실성이 높기 때문이다.    대부분의 토큰증권 연합체가 법적 구속력 없는 제휴, 업무협약(MOU)으로 구성된 것도 같은 이유다.    KB국민은행 관계자는 "아직은 시장 상황을 모니터링하는 단계"라고 설명했다.    삼성증권 관계자도 "현재는 시장 세팅 방향을 읽고 차분히 준비하고 있다"고 말했다.    금융투자업계는 토큰증권 시장의 본격적인 출범은 일러야 내년 하반기 정도로 보고 있다.     다만 금융당국은 혁신성이 인정되는 경우는 법 개정 전이라도 규제 샌드박스를 통해 테스트할 수 있다는 입장이다.    투자계약증권·수익증권 등 비정형 증권을 상장시켜 거래할 수 있는 한국거래소의 디지털증권시장은 연내 먼저 시범 운영을 하고, 그 결과를 자본시장법 시행령 개정 시 반영할 예정이다.    이를 위해 거래소는 이달 안으로 금융위원회에 혁신금융서비스 지정을 신청할 방침이다.     거래소 관계자는 "현재 금융당국과 관련 협의를 진행하고 있다"고 말했다.    ssun@yna.co.kr, norae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>토스뱅크 앱에서 미래에셋증권 계좌 개설 가능해진다</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004863880?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공토스뱅크는 앱에서 미래에셋증권의 주식계좌인 ‘Direct 주식계좌’를 개설할 수 있는 서비스를 개시하고, 최대 6만5000원 상당의 현금 혜택 이벤트도 실시한다고 4일 밝혔다.미래에셋증권의 ‘Direct 주식계좌’는 국내 및 해외주식, 채권, 펀드 등 금융투자상품 거래가 가능한 계좌로, 19세 이상의 한국 거주 내국인이라면 가입할 수 있다.미래에셋증권의 ‘Direct 주식계좌’ 개설은 토스뱅크 내에서 ‘목돈 굴리기’ 메뉴를 선택하고 계좌개설에 필요한 본인 실명확인 절차 등을 거치면 가능하다. 1인 1계좌까지 개설할 수 있다.토스뱅크는 최초 신규 주식계좌 개설 고객을 대상으로 오는 8월 말까지 다양한 혜택도 제공한다. 토스뱅크에서 미래에셋증권 계좌를 개설하면 현금 1만5000원을 토스뱅크 통장으로 즉시 지급하고, 해외주식 매수 시 투자지원금 5만원도 제공한다. 주식 매수시 부과되는 수수료 무료 혜택과 환전 우대 혜택도 제공된다.현재 토스뱅크에서 주식계좌 개설이 가능한 증권사는 이번에 추가된 미래에셋증권을 비롯해 한국투자증권, KB증권 등 세 곳이다.토스뱅크 관계자는 “주식계좌 개설 서비스 대상 증권사가 국내 대형 증권사들을 중심으로 점차 확대되며 고객의 선택권을 넓혀가는 중” 이라며 “앞으로도 더욱 다양한 증권사와의 제휴를 통해 고객 중심의 다양한 혜택을 제공해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.07.02.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>티웨이항공 "후코오카 노선 특가로 모십니다"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005280562?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>티웨이항공은 후쿠오카 공항 및 나가사키현과 공동으로 인천·대구 ~ 후쿠오카 노선 여행객을 위한 프로모션을 실시한다고 2일 밝혔다.티웨이항공 홈페이지와 모바일 앱, 웹에서 진행되는 ‘후쿠오카 할인의 모든 것‘ 프로모션은 오는 3일 오전10시부터 31일까지 진행된다. 인천~후쿠오카 노선과 대구~후쿠오카 노선을 각각 1인 편도총액 6만8600원, 12만3600원부터 특가 판매한다. 탑승기간은 7월3일~10월28일까지이다.티웨이항공은 자사 항공편을 이용하여 여행을 계획하고 있는 고객들의 경비 부담을 덜어주기 위해 후쿠오카 공항 및 나가사키현과 손잡고 다양한 추가 혜택도 제공한다.항공권 예약 시 할인코드 ‘후쿠오카’를 입력하면 운임의 10%가 즉시 추가 할인 적용된다. 예매한 고객 대상으로 후쿠오카~하우스텐보스 고속버스를 36% 할인된 가격에 이용할 수 있는 혜택도 제공된다.이와 함께 일본의 대표 드럭스토어 ‘돈키호테’와 제휴를 맺고 탑승객 대상으로 쇼핑 할인 및 경품 이벤트를 진행한다. 티웨이항공은 일본 내 모든 돈키호테 매장(일부 매장 제외)에서 사용 가능한 쿠폰을 제공하며 최대 15%까지 할인이 가능하다. 또 돈키호테 ▲후쿠오카 텐진점 ▲나카스점 ▲하카타에키미나미점에서 티웨이항공 탑승권을 제시하면 1만엔 이상 면세 구매 고객 대상으로 다양한 경품을 선착순으로 제공한다.이외에도 신규 가입 2만원 할인 쿠폰과 카카오페이, 토스페이, 우리카드, NH농협카드로 결제 시 최대 2만원 추가 할인 쿠폰도 만나볼 수 있다.자세한 프로모션 관련 사항은 티웨이항공 공식 웹사이트에서 확인할 수 있다. 티웨이항공 관계자는 "후쿠오카는 가족, 친구, 연인뿐만 아니라 나홀로 여행객에게도 안성맞춤인 여행지”라며 “간편하고 부담 없이 다채로운 매력을 느낄 수 있는 해외여행을 고민하는 고객 분들은 이번 프로모션을 꼭 놓치지 마시길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>보이스피싱 당한 내계좌…'일괄 지급정지' 오프라인도 가능</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011952049?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>고객센터나 영업점에서도 내계좌 일괄 지급정지 신청할 수 있어[그래픽][서울=뉴시스] 김형섭 기자 = 보이스피싱 피해시 금전적 피해를 최소화하기 위해 본인 명의의 모든 계좌에 대한 일괄 지급정지를 신청할 수 있는 '본인계좌 지급정지' 서비스를 금융사 고객센터나 영업점에서도 신청할 수 있게 됐다.금융위원회는 오는 5일부터 보이스피싱 피해 발생하거나 우려될 경우 피해자가 본인명의 계좌를 일괄 또는 선택해 지급정지할 수 있는 일괄지급정지 서비스를 온라인 채널 뿐만 아니라 오프라인 채널까지 확대 시행한다고 4일 밝혔다.이 서비스는 최근 오픈뱅킹 서비스 등을 통해 피해자의 여러 금융계좌에서 자금을 한번에 편취하는 보이스피싱 피해가 발생함에 따라 개발된 것이다.과거에는 보이스피싱 피해자가 금융회사별로 각각 연락해 지급정지를 개별적으로 신청해야 했지만 지난해 12월27일부터 본인계좌 일괄지급정지 서비스 도입에 따라 본인 명의로 개설된 전 금융권의 모든 계좌를 신속히 지급정지할 수 있게 됐다.그러나 온라인으로만 서비스를 신청할 수 있어 고령층 등 디지털 소외계층은 여전히 보이스피싱 피해에 노출돼 있다는 지적이 있었다. 이에 따라 서비스 신청채널을 영업점과 고객센터까지 확대했다.앞으로 금융소비자는 본인이 거래하는 금융회사 영업점에 방문하거나 고객센터로 전화해 본인 명의로 개설된 모든 금융계좌 현황을 일괄 조회하고 보이스피싱 등 금융사기 피해가 우려되는 계좌를 선택 또는 일괄로 즉시 지급정지를 신청할 수 있게 됐다.거래 금융회사 영업점을 방문하면 지급정지한 본인 명의 모든 계좌의 해제도 가능하다.영업점이나 고객센터에서도 일괄지급정지가 가능한 금융사는 은행의 경우 산업·농협·신한·우리·기업·국민·SC제일·하나·씨티·수협·대구·부산·광주·제주·전북·경남·케이·카카오·토스 등 19개사다.증권사는 DB금융투자·KB·NH투자·교보·다올·대신·메리츠·미래에셋·부국·삼성·신영·신한금융투자·유안타·유진투자·케이프투자·키움·하나·한국투자·한화투자·현대차 등 20개사이며 제2금융권은 농협중앙회·수협중앙회·산림조합중앙회·신협중앙회·저축은행중앙회·새마을금고중앙회 등 6개사다.향후 이베트스트투자증권과 SK증권, 하이투자증권, 우전사업본부 등도 이 서비스를 제공할 예정이다.금융위는 "본인계좌에 대한 일괄지급정지 서비스를 오프라인 채널까지 확대함으로써 디지털 소외계층도 해당 서비스 이용 혜택을 누릴 수 있고 영업시간 외 야간 및 주말에도 고객센터를 통해 해당 서비스를 제공함으로써 신속한 피해 예방에 크게 도움이 될 것으로 기대된다"고 전했다.금융당국은 일괄지급정지 확대 서비스의 제공 현황 및 소비자 만족도 등을 금융결제원과 함께 지속적으로 모니터링해 불편사항이 발생하는 즉시 개선해나갈 방침이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.07.12.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>글로벌 100대 유니콘…"韓 기업은 '토스' 하나 뿐"</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011968068?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>한경연 "신산업 규제, 유니콘 탄생 제약…규제 개선해야"12일 한국경제연구원과 미국 기업분석회사 CB인사이트에 따르면 올해 5월 말 기준 글로벌 100대 '유니콘 기업'(기업 가치 10억 달러 이상 비상장 스타트업) 중 국내 기업은 '토스' 단 한 곳뿐인 것으로 나타났다. (사진=한경연 제공) photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]이인준 기자 = 글로벌 100대 '유니콘 기업'(기업 가치 10억 달러 이상 비상장 스타트업) 중 국내 기업은 '토스' 단 한 곳뿐인 것으로 나타났다.한국경제연구원과 미국 기업분석회사 CB인사이트에 따르면 올해 5월 말 기준 이같이 집계됐다. 글로벌 100대 유니콘 기업의 국가별 비중은 미국 59개, 중국 12개, 영국 7개, 인도 6개, 독일 3개, 캐나다 2개, 이스라엘 2개, 한국 1개 등 순이다.한경연은 한국의 유니콘 기업 탄생이 저조한 배경으로 국내 규제 상황을 들었다. 글로벌 100대 유니콘기업 중 8곳은 국내 규제로 인해 사업이 불가능하며, 9곳은 사업 기회가 제한된다. 공유숙박 유니콘인 'OYO 룸스'(인도), 승차공유 분야 'Ola'(인도), 산업용 및 소비자용 드론 제조업체인 'DJI 이노베이션'(중국)와 '앤듀릴(Anduril)'(미국) 등이 대표적이다. 또 원격진료, 로보택시, 핀테크(금융·기술), 게임 분야 기업들도 국내 사업에 어려움이 큰 것으로 나타났다.한경연은 "정부가 2019년 규제샌드박스를 도입한 이래로 총 918건의 신산업 규제를 크게 완화하고 포괄적 네거티브 규제 방식 등을 도입하는 노력에도 불구하고 여전히 규제 완화의 필요성이 크다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.07.12.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>"글로벌 100대 유니콘기업 중 17곳, 규제로 국내사업 제약"</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014060523?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>한경연 보고서…"샌드박스 도입 후에도 신산업분야 규제 여전"(서울=연합뉴스) 임기창 기자 = 글로벌 100대 유니콘 기업(기업가치 10억달러 이상인 비상장 스타트업) 중 17곳이 한국에서 규제로 인해 사업이 불가능하거나 제한적이라는 지적이 나왔다.    전국경제인연합회 산하 한국경제연구원(한경연)은 12일 '글로벌 100대 유니콘기업과 국내 신산업 규제 개선방향' 보고서에서 기술 발전 속도와 산업 현실에 맞는 규제 완화가 필요하다며 이같이 밝혔다.    미국 기업분석회사 CB 인사이트에 따르면 올해 5월 말 기준 글로벌 100대 유니콘 기업의 국가별 비중은 미국 59개, 중국 12개, 영국 7개, 인도 6개, 독일 3개, 캐나다·이스라엘 각 2개 등 순이었다. 한국 스타트업은 1곳(토스)만 포함됐다.[한국경제연구원 제공. 재판매 및 DB금지]한경연이 100대 유니콘 기업의 국내 사업 가능성을 분석한 결과, 8곳이 국내 규제로 사업이 불가능했고 9곳은 제한적으로만 가능했다.     분야별로는 공유 숙박, 승차 공유, 원격의료, 드론, 로보택시, 핀테크, 게임 등 분야의 유니콘 기업들이 국내 진출 시 규제로 인해 사업에 제약을 받는 것으로 조사됐다.    일례로 공유숙박 및 글로벌 호텔체인 사업은 농어촌정비법과 관광진흥법, 외국인 관광도시 민박업 관련 지침, 공중위생관리법 등이 규제로 작용하며, 승차 공유 플랫폼 서비스는 여객자동차운수사업법, 주차장법 등의 규제를 적용받는 것으로 나타났다.    보고서는 한국 정부가 2019년 규제 샌드박스 도입 이후 918건의 신산업 규제를 완화하고 포괄적 네거티브 규제 방식 등을 도입했으나, 공유경제, 신기술, 신산업 분야 규제가 여전히 적용되고 있다며 규제 완화가 필요하다고 강조했다.    하나의 사업에도 소관 부처가 여러 곳이어서 규제 혁신에 비효율이 발생해 스타트업이 실제 사업으로 진입하는 데 어려움이 있는 점, 규제 샌드박스 특례 적용 후에도 법령이 개정되지 않아 규제 공백이 생기는 점 등도 개선이 필요하다고 보고서는 지적했다.    아울러 국내 대기업과 스타트업 간 멘토링, 교육, 투자 등 연계가 강화될 수 있는 환경 조성, 기업형 벤처캐피털(CVC) 규제 완화를 통한 대기업의 스타트업 투자 활성화 등도 필요하다고 보고서는 강조했다.    이규석 한경연 부연구위원은 "CVC를 통해 스타트업은 대기업의 투자와 사업 노하우를 전수받을 수 있고 대기업은 미래 유망한 스타트업에 투자해 신성장 동력을 확보할 수 있다"며 "국내 CVC 규제 개선으로 국내 스타트업과 대기업이 상생할 수 있는 기반을 마련해야 한다"고 말했다.[그래픽] 글로벌 100대 유니콘기업 국가별 분포(서울=연합뉴스) 김민지 기자 = minfo@yna.co.kr    트위터 @yonhap_graphics  페이스북 tuney.kr/LeYN1    pulse@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>카카오페이 이어 토스도 '40兆 차 할부금융 시장' 출사표</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005038340?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>'신차 카드할부 비교' 시범서비스카카오페이는 제휴사 확대 나서핀테크 가세에 전통강자들 긴장"경쟁 가능하도록 규제 풀어줘야"  토스, 카카오페이 등 핀테크 기업들이 자동차 할부금융시장에 뛰어들고 있다. 자동차 할부금융 시장 규모가 40조원을 넘으면서 핀테크 기업들이 신차 카드 할부 결제 비교 서비스를 시작으로 자동차 힐부시장에 본격적으로 진출할 전망이다. 이에 여신업계와 캡티브 금융사들도 핀테크 기업들의 움직임을 예의주시하며 마케팅을 강화하고 있다.   ■토스 신차 카드할부 비교서비스   6일 금융권에 따르면 토스는 이달 말 신차 카드 할부 비교 서비스 베타 버전을 출시할 예정이다. 토스 관계자는 "일부 사용자에게 (서비스를) 먼저 오픈하는 형태로 시작해 순차적으로 (사용자를) 확대해 전체 오픈을 할 계획"이라고 밝혔다.   카카오페이도 지난달 30일 사용자가 신차를 구입할 때 카드사 금리와 캐시백 혜택을 비교하는 '신차 사고 캐시백 받기' 서비스를 기존 일시불에서 할부 영역까지 확대했다. '자동차 카드결제 비교'를 통해 할부 서비스 카드사도 우리카드에서 7일부터 롯데카드로 확대된다. 카카오페이 관계자는 "이달 안에 카드사 약 3곳이 추가될 예정"이라고 말했다.   카카오페이의 '신차 사고 캐시백 받기' 서비스는 '선수금'에 따라 일시불 서비스와 할부 서비스가 결정된다. 선수금을 100%로 조절할 경우 일시불 결제로 인식되면서 그에 해당하는 캐시백을 비교할 수 있고, 선수금을 그 이하로 줄이면 나머지를 할부로 결제한다는 의미로, 그에 맞는 금리와 캐시백을 비교하는 식이다. 사용자의 신용점수 등을 기반으로 이용 가능한 상품을 조회할 수 있으며, 조건 설정에 따라 노출되는 상품도 달라진다.   ■'대세'로 떠오른 차 할부금융시장   이같이 핀테크 기업들이 자동차할부금융서비스에 뛰어드는 것은 자동차할부금융시장 규모가 급속도로 성장하고 있어서다.   실제 여신금융협회에 따르면 자동차 할부금융 취급잔액은 8년 연속 증가세로, 지난 2014년 16조1534억원에서 지난해 40조7208억원으로 24조5674억원이나 늘어났다.   특히 여전채 금리가 하락하며 조달비용이 낮아지자 자동차 할부금융금리가 올 초 연 7%대에서 5%대로 하락하면서 자동차 할부금융시장이 대중화됐다. 신차 기준 현대자동차 쏘나타를 현금구매비율 30%, 대출기간 36개월로 잡아 조회하면 최저 연 5.2%의 금리를 적용받을 수 있다.   ■"편의 극대화" vs "출혈경쟁 우려 "   핀테크 기업들이 본격적으로 자동차할부 금융시장에 뛰어들 기세에 업계 간 신경전도 고조되고 있다. 핀테크 기업들은 접근성과 편의성이라는 주특기로 자동차시장의 정보 비대칭성 문제를 해결해 사용자 편의성을 극대화하겠다는 각오지만 핀테크 플랫폼에 올라탄 여신업계나 캡티브 금융사의 시각은 다르다. 금융사가 규제로 타사 할부금융 서비스를 제공하지 못하는 가운데 핀테크 기업만 모든 금융사의 할부 비교 서비스를 제공하는 상황이 '기울어진 운동장'이라는 것이다.   여신업계의 한 관계자는 "자율시장 경쟁에 따라 (시장이) 움직이도록 하려면 빅테크뿐 아니라 금융사도 비교 서비스를 제공할 수 있도록 규제를 풀어줘야 한다"고 강조했다. 또 다른 업계 관계자도 "시장을 장악하는 기업은 빅테크가 될 확률이 큰데 편익에 대한 대가로 소비자가 부담스러워지는 상황이 발생할 수 있다"고 우려했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>尹, 늘봄학교 참관 "교육 다양성으로 풍부한 상상력 키워줘야"</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003291119?sid=100</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>윤석열 대통령이 3일 경기 팔달구 수원초등학교에서 열린 늘봄학교를 현장 방문한 가운데 참석자들과 현장간담회를 하고 있다. 대통령실사진기자단       윤석열 대통령은 3일 오후 경기 수원의 수원초등학교를 방문해 ‘늘봄학교’ 프로그램을 참관하고 학부모, 교사 등과 간담회를 열었다.      초등학생 정규 수업 전후로 양질의 교육·돌봄 통합 서비스를 제공하는 늘봄학교는 윤석열 정부 교육 분야 핵심 국정과제 중 하나로, 내후년 전국 시행을 목표로 현재 시범 운영 중인 사업이다.      이날 대통령은 전직 프로야구 선수들이 강사로 초등학생을 지도하는 간이야구(티볼) 프로그램에 참여하고, 디지털 코딩, 방송 댄스, 바이올린, 초1 에듀케어 등 다양한 방과 후 프로그램을 참관했다.        윤 대통령은 티볼 수업장에선 직접 티(Tee) 위에 공을 올려놓고 배팅 시범도 했다. 윤 대통령은 학생들에게 자세를 교정해주면서 “공을 칠 때 몸이 같이 움직이면 안 되고 머리를 뒤에 놔두고 가까이 와서 쳐야 한다”고 했다.      윤석열 대통령이 3일 경기 팔달구 수원초등학교에서 열린 늘봄학교를 현장 방문한 가운데 아이들 간이야구 수업에서 티볼을 시타해보고 있다. 대통령실사진기자단       윤 대통령은 “야구 시범을 보여줄게”라며 두 차례 스윙을 했지만 모두 티를 때렸다. 이어 “이게 공을 때려야 하는데 밑에 맞는구나. 이게 어렵다”며 세 번째 스윙을 했지만 이번에도 티를 때렸다. 그러자 윤 대통령은 “아, 어렵네”라며 학생들이 스윙하는 모습을 지켜봤다. 윤 대통령은 학생들 티에 직접 공을 올려주고 배팅볼 토스도 했다.      주변 권유로 다시 스윙을 시도한 윤 대통령은 네 차례 모두 성공했다. 이후 대통령은 아이들과 기념사진을 찍었다.      이날 티볼 프로그램엔 허구연 한국야구위원회(KBO) 허구연 총재, 프로야구 선수 출신인 양상문, 조계현, 장종훈, 류지현씨도 함께 했다.      특히 베트남, 몽골, 아프가니스탄, 중국 등 다양한 이주 배경 학생들의 한국어 수업을 지켜보고, 글로벌 미래 인재로 성장하라고 격려했다.      이어진 간담회에서 대통령은 현장의 교사들과 학부모들의 의견을 청취하고 걱정 없이 아이를 키울 수 있도록 국가책임을 강화, 세계 최고 수준의 교육과 돌봄을 제공하는 시스템을 구축하는 방안에 대해 논의했다.        대통령을 비롯한 참석자들은 2025년까지 늘봄학교를 전국에 확산하는 한편 유보통합에서 늘봄학교까지 교육부를 중심으로 아동돌봄 체계를 단계적으로 통합해 저출산을 극복하고 아이 키우기 좋은 나라를 만들 수 있도록 범정부적으로 힘을 모아야 한다는데 의견을 같이했다.        윤석열 대통령이 3일 경기 팔달구 수원초등학교에서 열린 늘봄학교를 현장 방문한 가운데 간이야구 수업을 마친 뒤 아이들과 기념촬영을 하고 있다. 대통령실사진기자단       대통령은 “학과 공부뿐 아니라 예체능, 컴퓨터 코딩 등 교육의 다양성을 통해서 아이들에게 풍부한 상상력을 키워주는 것이 제일 중요하다”고 강조했다.        이어 “어르신 돌봄은 복지의 문제지만 아이 돌봄은 교육의 문제인 만큼 세계 최고 수준의 교육과 돌봄이 이뤄질 수 있도록 다함께 노력해 나가자”고 덧붙였다.      이날 행사에는 국민의힘 김기현 대표와 박대출 정책위의장, 이태규 국회 교육위원회 여당 간사, 이주호 사회부총리 겸 교육부 장관, 이배용 국가교육위원회 위원장, 김영미 저출산고령사회위원회 부위원장, 장미란 문체부 2차관, 임태희 경기교육감, 허구연 한국야구위원회 총재 등이 함께했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.07.09.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>"신작으로 중국 공략"…한국 게임, 흥행몰이 나선다</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004865857?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>넥슨, RPG '블루 아카이브'내달 출시…시범테스트 1위 스마일게이트·넷마블도 출격인기작 상당수 포함돼 주목넥슨, 넷마블, 스마일게이트 등 국내 주요 게임사가 이달부터 중국 시장에서 신작을 선보인다. 국내외에서 인기를 끌고 있는 게임들이 포함된 만큼 흥행 기대도 높다. ‘던전 앤 파이터’(넥슨), ‘크로스파이어’(스마일게이트) 등 중국에서 장기 흥행 중인 히트작의 뒤를 이을 수 있을지 주목된다.9일 게임업계에 따르면 넥슨은 서브컬처 수집형 역할수행게임(RPG) ‘블루 아카이브’(사진)를 다음달 3일 중국 주요 안드로이드 마켓과 애플 앱스토어를 통해 정식 출시한다.블루 아카이브는 가상의 학원 도시 ‘키보토스’를 배경으로 이용자가 다양한 학원 소속의 학생들을 이끌며 도시에서 발생한 사건을 해결하는 게임이다. 서브컬처의 본고장인 일본을 타깃으로 한 게임이다. 2021년 2월 일본에 출시한 이후 같은 해 11월 한국, 북미 등 237개국에 출시했다. 일본 구글 플레이스토어와 애플 앱스토어에서 최고 매출 순위 1위를 기록하는 등 인기를 끌고 있다.서브컬처 게임의 선호도가 높은 중국에서도 관심이 뜨겁다. 지난달 22일부터 2주간 진행된 중국 내 비공개 시범 테스트 기간 주요 앱 마켓 플랫폼에서 인기 순위 1위에 올랐다. 사전 예약자 수도 340만 명에 달한다. 넥슨은 중국 현지화 콘텐츠로 시장 공략에 나선다는 계획이다.스마일게이트는 오는 20일 대규모 다중접속역할수행게임(MMORPG) ‘로스트 아크’를 중국에 출시한다. 한국은 물론 서구권에서도 인기를 끈 게임이다. 지난달 먼저 내놓은 모바일 RPG ‘에픽세븐’도 중국 앱스토어 매출 순위 10위권에 드는 등 좋은 반응을 얻었다. 넷마블 역시 올해 ‘제2의 나라: 크로스 월드’ ‘A3: 스틸 얼라이브’ 등 신작으로 중국 시장을 공략할 계획이다.최근 몇 년 동안 중국 당국은 게임 규제를 강화하면서 한국을 비롯한 외국 게임의 서비스 허가(판호)를 거의 내주지 않았다. 하지만 작년 12월과 올해 3월 해외 게임에 대한 판호를 대거 발급했다. 업계에선 규제 강화로 중국 게임산업의 성장세가 멈추면서 정부의 정책이 바뀐 것으로 분석하고 있다.업계 관계자는 “중국은 미국에 이어 두 번째 게임 시장이고 모바일에선 최대 규모 시장”이라며 “규제가 강화되더라도 게임사로선 놓치기 어려운 시장인 만큼 계속 진출할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>알스퀘어, 삼성물산 출신 정일환 본부장 영입…건축사업 진출</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004908585?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>정일환 알스퀘어디자인 건축본부 본부장/사진제공=알스퀘어상업용 부동산 종합 서비스 기업 알스퀘어가 삼성물산 출신의 건축업계 베테랑 정일환 본부장을 영입하고 본격적인 건축 사업에 나선다. 기존 인테리어·리모델링에 건축 사업을 더해 업무·상업용 건물 내·외관에 대한 모든 솔루션을 제공할 계획이다. 6일 알스퀘어는 자회사 알스퀘어디자인이 삼성물산과 CJ대한통운 건설부문, 쿠팡 컨스트럭션(Construction) 총괄 디렉터 등을 거친 정일환 본부장을 최근 영입하고 건축 사업에 나선다고 밝혔다. 이를 위해 알스퀘어디자인은 대형 건설사와 건축설계사 등을 거친 건축 전문가들도 영입해 건축사업본부를 조직했다. 건축본부를 이끄는 정 본부장은 CJ 블러썸 파크 연구개발(R&amp;D) 센터, 힐튼 가든인 호텔 신축 공사, 아난티 캐비닛 드 이터널 져니 신축공사 등을 진행한 바 있다.알스퀘어디자인은 오피스 건물과 소규모 공장, 물류센터, 상업시설 등 업무·상업용 건물을 설계하고 건설하는 조직으로 건축 사업을 확대한다. 서울 광진구 일원 근린생활시설, 대기업 물류창고 건축사업 등도 최근 마수걸이로 수주했다.알스퀘어디자인의 인테리어·리모델링 사업과의 시너지도 기대된다. 알스퀘어디자인은 HMM, 비바리퍼블리카(토스), 무신사, 카카오페이증권 등의 오피스 인테리어와 서울 강남구 이투데이빌딩(옛 논현빌딩), 서초구 방배빌딩, 영등포구 여의도 파이낸스타워 등의 리모델링 사업을 성공적으로 수행했다. 알스퀘어디자인은 "인테리어·리모델링에 이어 건축을 더해 실내외 건축의 전 과정을 진행할 수 있게 됐다"며 "경쟁력을 높여 차별화된 원스톱 솔루션 서비스를 선보이겠다"고 말했다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.07.08.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>토스뱅크, 시스템 업데이트 중 일부 서비스 오류</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002728716?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>ⓒ토스뱅크[데일리안 = 황인욱 기자] 토스뱅크에서 일부 서비스에 오류가 발생해 이용자들이 불편을 겪었다.8일 연합뉴스와 토스뱅크에 따르면 이날 오전 9시10분부터 9시 30분까지 토스뱅크 애플리케에션(앱)에서 대출 실행, 신규 예·적금 가입 등 일부 서비스 접속이 원활하지 않았다.이용자마다 기능 오류 시간이 달랐지만, 평균 20분가량 지속된 것으로 전해졌다.다만 잔액 조회와 송금 기능에는 문제가 없었다는 게 토스뱅크 측 설명이다.토스뱅크는 “시스템 업데이트로 인해 일부 고객에게 오류가 발생했다”며 “현재는 조치를 완료한 상태”라고 말했다.이어 “이번 사안을 분석해 유사한 일이 발생하지 않도록 하겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>[게시판] 토스뱅크, 미래에셋증권 주식계좌 개설 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014042986?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>▲ 토스뱅크는 '목돈 굴리기' 서비스에서 미래에셋증권 '다이렉트(Direct) 주식계좌' 개설 서비스를 출시한다고 4일 밝혔다. 다이렉트 주식계좌는 국내·해외주식, 채권, 펀드 등 금융투자상품 거래가 가능한 계좌다. 토스뱅크는 내달 말까지 신규 주식계좌 개설 고객을 대상으로 현금 증정 등 혜택을 제공한다. 수수료 무료, 환전 우대 혜택 등도 마련됐다. (서울=연합뉴스) 토스뱅크 미래에셋증궈 주식계좌[토스뱅크 제공. 재판매 및 DB 금지]</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.07.13.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"이 은행이 금리 싸네" 플랫폼 몰려가 비교 대출…금융사 쓴웃음</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004911445?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>[MT리포트]금융, 플랫폼에 종속되다(上)[편집자주] 금융도 플랫폼에 휘둘리고 있다. 특히 지방은행과 저축은행은 신용대출 고객 대부분을 플랫폼에 의존하고 있다. 고객 접점이 약한 금융회사에 기회라는 시각과 금융회사가 '납품회사'로 전락하고 있다는 시각이 공존한다. 금융권의 플랫폼 종속도와 금융권의 대응 방안을 알아봤다.━[단독]플랫폼, 지방·저축은행 새 대출 절반 차지…단 3년만에━플랫폼 종속 논란이 금융권에도 번지고 있다. 오프라인 영업기반이 약한 일부 지방은행과 저축은행은 플랫폼 대출 비중이 70%까지 높아졌다. 강한 시장 지배력을 가진 플랫폼사의 갑질 우려가 커지고 있다. 11일 강병원 더불어민주당 의원이 금융감독원으로부터 받은 자료를 분석한 결과, BNK경남·부산·대구·전북·광주은행 등 5개 지방은행의 지난해 신규 취급한 가계신용대출 4조7052억원 가운데 52.4%(2조4699억원)가 토스, 카카오페이, 핀다 등 플랫폼사에서 이뤄졌다. 특히, 경남은행의 플랫폼 대출 종속도가 71%로 가장 높았다. 광주은행(58%), 전북은행(54.1%), 대구은행(41%), 부산은행(28.2%)이 뒤를 이었다.  자산 기준 상위 10개 저축은행의 플랫폼 종속도도 34.4%로 높은 편이다. 이들이 지난해 취급한 12조987억원의 신규 가계신용대출 가운데 4조1681억원이 플랫폼사를 통해 나갔다. 애큐온저축은행의 플랫폼 종속도가 70%로 가장 높았다. 한국투자저축은행(54%)과 KB저축은행(53%)의 신규대출도 절반 이상이 플랫폼사에서 성사됐다.지방은행과 저축은행의 대출 모집 채널이 플랫폼에 종속되는데 걸린 시간은 3년이다. 2019년 10개 저축은행과 5개 지방은행의 플랫폼 대출 비중은 각각 0.6%, 1.7%에 불과했다. 지난해 전 금융권의 가계대출이 줄어드는 상황에서도 일부 금융업권의 플랫폼 대출은 증가했다는 점도 눈에 띈다. 5개 지방은행의 신규 가계신용대출이 전년보다 3903억원 줄어드는 동안 플랫폼을 통한 대출 규모는 2조3177억원에서 2조4699억원으로 불어났다. 10개 저축은행의 신규 가계신용대출도 3조8727억원 감소할 때 플랫폼 대출 규모는 3047억원 증가했다. 자산 상위 5개 캐피탈사의 경우에도 신규 취급 대출이 1조9484억원 줄어드는 동안 플랫폼 대출 규모는 760억원 늘었다.금융권에서는 오프라인 영업점이 부족해 영업기반이 약한 금융업권을 중심으로 플랫폼 종속도가 높아졌다고 분석했다. 실제 올 1분기 기준 5개 지방은행의 국내 지점·출장소 수는 755개, 10개 저축은행의 본점·지점·출장소 수는 99개다. 반면, 신한·우리·하나은행의 지점·출장소 수는 2032개다. 많은 영업점을 기반으로 한 3개 시중은행은 지난해 신규 가계신용대출 9조1343억원에서 플랫폼 대출이 차지하는 비중은 3.6%에 불과했다. 대출뿐 아니라 카드발급에서도 플랫폼 종속 현상이 나타나고 있다. 카드업계에 따르면 지난해 발급된 카드 가운데 48.1%는 인터넷·모바일에서 발급됐다. 이 비중은 2019년 26.6%에서 3년만에 20%포인트(p) 이상 높아졌다. 카드사 자체 앱을 통한 발급도 있지만, 플랫폼사를 통한 카드발급도 많은 것으로 알려졌다. 강 의원은 "플랫폼은 소비자들의 편의성을 높여준다는 장점이 있지만, 시장 지배력을 키운 후 과도한 이윤을 추구해왔던 점도 꾸준히 지적받아왔다"며 "플랫폼사의 시장 지배력에 대한 우려가 커지는 만큼 이제는 소비자뿐 아니라 입점 금융사와의 상생 방안도 모색해야 할 시기"라고 말했다.━대형은행도 '안전지대' 아니다…자체 플랫폼 만드는 은행권━금융권의 플랫폼 종속이 심해지면서 대형 은행들도 '안전지대'는 아니라는 위기 의식에 자체 플랫품을 구축하는 등 대응 방안을 마련중이다.11일 강병원 더불어민주당 의원이 금융감독원으로부터 받은 자료에 따르면 지난해 5대 은행(KB국민·신한·하나·우리·NH농협)이 신규 취급한 가계신용대출 18조4856억원 가운데 1.79%인 3312억원이 토스·카카오페이·핀다 등 플랫폼사를 거쳐 실행됐다. 하나은행이 전체 대출액 중 7.7%가 플랫폼을 통해 실행되면서 비율이 가장 높았다. 이어 우리은행(3.5%), 신한은행(0.5%)이 뒤를 이었다. 국민은행과 농협은행은 플랫폼사를 통해 들어온 신규 신용대출액이 없었다.지방은행이나 저축은행 등 다른 금융사와 비교해 플랫폼 의존도가 높지 않지만 매년 비율은 높아지고 있다. 5대 은행이 신규 취급한 가계신용대출의 플랫폼 의존도는 2020년 0.28%였으나 지난해 1.79%로 상승했다. 은행권에서는 올해 대환대출 플랫폼의 등장으로 플랫폼 의존도가 더 높아질 거라고 보고 있다. 한 대형은행 관계자는 "대환대출 플랫폼이 불씨가 돼서 전 금융사의 대출상품 비교가 대출고객에게 기본이 됐다"며 "대형은행 입장에서도 '안전지대'는 없다는 생각으로 임하고 있다"고 말했다.5대 은행 모두 공통적으로 높아지는 플랫폼 의존 비율에 경각심을 갖고 대응책을 마련하고 있으나 각자 방향이 다르다. 우선 하나·신한·농협은행은 자체적으로 플랫폼의 역할을 할 수 있는 시스템 구축에 나서고 있다.하나금융그룹은 2016년 자회사 '핀크'를 설립해 금융 플랫폼으로서의 역량을 집중하고 있다. 토스·카카오페이 등 플랫폼사가 하는 일을 따라가는 게 아니라 먼저 혁신을 만들고자 하기 위함이었다. 지난 6월 말 기준 430만명이 핀크를 이용 중인데, 이 중 70%가 2030세대다. 신한은행은 '신한 쏠(SOL)'을 플랫폼 역할을 하도록 구축하고 있다. 지난 5월에는 시중은행 가운데 유일하게 대환대출 서비스 개시에 발맞춰 타사 금융상품을 쏠에 배치했다. 플랫폼 시장이 커지는 만큼 직접 플랫폼에 뛰어들겠다는 것이다.농협은행도 고객 접점 확대를 위해 타사 금융상품까지 비교·가입 가능한 플랫폼을 개발하기 위한 계획을 수립 중이다. 아직 세부적인 내용은 확정되지 않았지만, 내년 중 출시를 목표로 하고 있다. 반면 우리·국민은행은 당장 플랫폼 역할을 하기보다 자체 앱을 고도화해 고객에게 더 매력적인 상품을 제공하는 데 집중하겠다는 입장이다. 특히 국민은행 대출상품은 현재 대환대출을 제외하고는 플랫폼을 통해 신규 가입할 수 없다. 국민은행 측은 플랫폼 입점여부는 검토하고 있지 않으며, 자체 앱과 상품경쟁력을 강화할 예정이라고 밝혔다. 은행권 관계자는 "현재는 대형은행들이 플랫폼사에 큰 영향을 받는다고 보기는 어렵다"면서도 "새로운 플랫폼을 만들어 기존 플랫폼사를 이기기 쉽지 않기 때문에 결국 플랫폼에 입점하면서 동시에 자체 플랫폼을 키워야 할 것으로 본다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.07.07.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>토스증권, 국내 증권사 최초 글로벌 데이터 표안보준 인증 취득</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004211195?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>PCI-DSS v4.0 취득6일 서울 강남구 토스증권 본사에서 진행된 PCI-DSS v4.0 수여식에서 지정호 토스증권 최고정보보호책임자(CISO, 왼쪽)와 임성환 BSI코리아 대표가 기념 촬영을 하고 있다. 사진제공=토스증권[서울경제] 토스증권이 국내 증권사 중 처음으로 글로벌 데이터 보안표준인 PCI-DSS(Payment Card Industry Data Security Standard) 인증을 취득했다고 7일 밝혔다.PCI-DSS는 지불 결제 산업의 정보 보호 및 정보 유출을 방지할 목적으로 만든 금융에 특화된 글로벌 보안 표준이다. 주로 신용카드사나 지급결제(PG)사 등이 인증 대상이다.토스증권이 취득한 PCI-DSS 보안표준은 최상위 등급인 v4.0이다. 보안 네트워크 및 시스템·데이터 보호·취약성 유지관리 프로그램·정기적인 모니터링 및 보안 정책 등 6가지 목표 항목을 두고 있다. 매년 현장 심사를 통해 모든 항목이 기준에 충족될 경우 인증서가 발행·유지된다.지정호 토스증권 최고정보보호책임자(CISO)는 “자체 인력만으로 이뤄낸 PCI-DSS 인증 취득은 토스증권의 보안 수준이 글로벌 최고 수준으로 인정받은 결과”라며 “앞으로도 고객이 안전하게 거래할 수 있는 신뢰받는 서비스를 제공하는 데 최선을 다할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>새 시중은행, 31년 만에 나온다</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003507732?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>대구은행 연내 시중銀 전환 추진당국, 금융 부문 경쟁력 제고 나서이복현 금융감독원장(가운데)이 5일 서울 중구 은행회관에서 열린 ‘은행권 경영·영업 관행·제도 개선 방안’ 관련 은행지주회장  간담회에 앞서 인사말을 하고 있다. 대구은행이 시중은행으로 전환 신청할 경우 금융당국은 이르면 연내에 인가를 내주겠다는 방침이다.  뉴시스31년 만에 새 시중은행이 탄생할 가능성이 커졌다. 신규 경쟁자를 투입해 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 견고한 과점 체제를 흔들고 금융 부문의 경쟁력을 높이겠다는 구상이다.  금융위원회와 금융감독원은 5일 이 같은 내용을 담은 ‘은행권 경영·영업 관행·제도 개선 방안’을 발표했다. 은행권 경쟁을 촉진하기 위해 신규 사업자의 진입 문턱을 대폭 낮추는 것이 핵심이다. 금융당국은 기존 지방은행의 시중은행 전환을 적극 허용하고, 인터넷전문은행과 지방은행의 신규 인가도 추진한다.  지방은행 중에선 대구은행이 가장 먼저 시중은행으로 전환하겠다는 뜻을 밝혔다. 이날 은행지주회장 간담회에 참석한 김태오 DGB금융그룹 회장은 기자들과 만나 “대구은행은 올해 안에 시중은행 전환을 추진할 예정”이라고 말했다. 김소영 금융위 부위원장도 사전 브리핑에서 “빠르게 진행하면 올해 안에 (인가가) 가능하지 않을까 생각한다”고 했다. 소상공인에게 경영관리 서비스를 제공하는 스타트업 한국신용데이터도 이날 소상공인 특화 은행 설립을 추진한다고 밝혔다. 대구은행이 인가를 받으면 1992년 평화은행 이후 31년 만에 시중은행이 탄생한다. 2017년 이후 케이뱅크·카카오뱅크·토스뱅크 등 인터넷전문은행 3사가 신규 진입했지만 은행권에서 차지하는 예금 및 대출 비중은 약 2% 수준에 불과하다.과점 누리던 은행들 경쟁 유도… 대구銀, 연내 시중銀 전환 추진 당국 “언제든 경쟁자 진입하게 해은행 산업을 경합시장으로 바꿀 것”저축-인터넷銀 인가 정책도 완화업계 “경쟁 효과에 시간 걸릴 것”시중은행은 오랜 과점 체제 속에서 ‘이자 장사’에만 치중해 손쉽게 돈을 벌어왔다는 비판을 받았다. 김주현 금융위원회 위원장도 5일 각 은행지주 회장들과 간담회에서 “우리 은행 산업이 경쟁이 제한된 산업의 특성을 기반으로 손쉽게 수익을 내왔다”고 질타했다. 지난해 말 기준 5대 시중은행은 전체 대출의 63.5%, 예금의 74.1%, 자산의 63.4%를 점유하고 있다. 금융당국이 이번에 지방은행의 시중은행 진입 장벽을 대폭 낮춘 건 신규 경쟁자를 투입해 시장에 경각심을 일깨우고 나아가 은행권의 경쟁력을 강화하려는 의도가 깔려 있다. 김소영 금융위원회 부위원장은 “은행 산업을 언제든 경쟁자가 진입할 수 있는 경합 시장으로 바꿔 나갈 것”이라며 “실제 경쟁자가 진입하지 않더라도 잠재적 경쟁자에 대해 인식하게 될 경우 경쟁 효과를 불러일으킬 수 있다”고 설명했다.● 시중은행의 잠재적 경쟁자 육성 대구은행이 시중은행으로 전환하면 전국 단위로 영업망을 넓히고 낮아진 조달 금리를 무기로 5대 시중은행과 경쟁할 예정이다. 금융당국은 지방은행은 물론 저축은행과 인터넷전문은행 관련 규제를 완화해 시중은행과 서비스 경쟁에 나설 수 있는 시장 환경을 조성할 방침이다. 우선 비수도권 등 일부 저축은행의 인수 범위를 4개까지 확대해 인수합병(M&amp;A) 족쇄를 풀었다. 지방은행과 시중은행의 중소기업 대출 비중도 기존 각각 60%, 45%에서 50%로 일원화해 지방은행의 경쟁력을 높이기로 했다. 금융당국은 시중은행과 지방은행, 인터넷전문은행에 대한 인가 정책을 ‘오픈 포지션’으로 열어뒀다. 기존에는 당국에서 인가 방침을 발표한 뒤에 신청을 받았지만 앞으로는 적절한 자본금과 사업계획만 갖추고 있으면 언제든 인가 신청을 할 수 있도록 했다. 금융회사들의 상품 경쟁은 더욱 치열해질 것으로 전망된다. 기존 신용대출을 다른 금융회사의 더 낮은 금리로 갈아탈 수 있는 온라인 대환대출 인프라가 연내 주택담보대출까지 확대된다. 은행의 고정금리 주담대를 확대하는 등 금리 체계도 개선해 소비자의 선택권도 넓힌다. 금융당국은 또 시중은행의 ‘성과급 잔치’를 막기 위해 고액의 성과급을 한 번에 지급하는 것을 막기 위해 이연 지급(성과급 등을 여러 해에 걸쳐 나눠 주는 것)을 확대한다. 은행들이 개별 등기임원의 보수 지급 계획을 주주총회에서 설명(세이온페이·Say-on-Pay)하도록 하고 개별 임원의 보수 지급액 공시도 강화한다. 은행권 경쟁을 위한 ‘당근책’으로 규제 완화도 추진한다. 은행의 투자자문업 대상이 기존 부동산에서 금융상품까지 확대된다.● 5대 시중은행 “당장은 경쟁 효과 의문” 금융당국의 이러한 방침에 전문가들의 전망은 엇갈린다. 성태윤 연세대 경제학부 교수는 “재무건전성을 갖춘 지방은행이 시중은행이 된다면 경쟁을 촉진할 수 있을 것”이라 말했다. 이정환 한양대 경제금융학부 교수도 “금융위가 예대마진 공시를 강화하는 등 은행과 소비자의 정보 비대칭성을 완화하고 지방은행의 좋은 상품들이 선택을 받을 수 있다면 시너지 효과가 날 수 있을 것”이라고 내다봤다. 반면 서지용 상명대 경영학부 교수는 “인터넷 전문은행이 출범했을 때처럼 기존에 없던 편의성이 소비자들에게 제공돼 시중은행의 혁신이 일어났을 때와 같은 현상이 벌어질지는 의문”이라고 했다. 31년 만에 시중은행 탄생이 임박했지만 기존 시중은행 사이에선 “당장 실질적인 경쟁 효과는 없을 것”이라는 목소리도 나온다. A시중은행 관계자는 “지방은행의 ‘지역 기반’ 이미지 등을 감안하면 전국 영업망으로 확장이 쉽지 않아 이번 방안이 시중은행의 경쟁 구도를 당장 변화시킬 가능성은 낮다”고 전망했다. B시중은행 관계자는 “대구은행이 기존 시중은행과 견줘 영업 규모가 작기 때문에 경쟁 효과가 나타나기 위해선 시간이 걸릴 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>토스, 편의점 CU에서 ‘토스페이’ 결제 지원</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003749529?sid=103</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 토스가 간편결제 서비스 토스페이를 편의점 CU에서 지원한다고 10일 밝혔다.토스페이는 토스 모바일 앱(애플리케이션)에 탑재돼 있다. 계좌·신용카드 등 결제수단을 등록한 후 사용 가능하다.이용방법은 토스 앱 하단에서 토스페이를 누른 후에 오른쪽 상단 바코드 아이콘을 선택하면 된다. 가맹점 리더기로 바코드를 스캔하면 결제가 완료된다. 토스페이에 CU 멤버십을 등록한 이용자는 토스페이 결제와 동시에 CU포인트가 자동 적립된다. 올 하반기부터 토스는 토스페이 범용성을 높일 계획이다. 토스 관계자는 “커피 프랜차이즈, 주유소 등으로 제휴처를 적극 확대하며 온·오프라인 일상생활에서 가장 많이 사용하는 결제수단이 되도록 노력하겠다”고 말했다. [사진 = 토스](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>내년 34조 토큰시장 잡아라…금융권 넘어 공공 확산</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003113795?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>KISA, 활용사례 연구·컨설팅 추진코스콤, 18일 기업 매칭데이 개최마사회, 신사업 발굴 담당 신설올 초 전면 허용…경쟁 본격화증권사·은행권 합종연횡 활발조각투자. 사진=이미지투데이금융당국이 올해 초 토큰증권발행(STO) 전면 허용 방침을 밝히자 금융업권에 시장을 선점하기 위한 레이스가 시작됐다. 금융권에서 시작한 'STO 시장 판 키우기' 양상이 공공기관으로도 번지고 있다.한국인터넷진흥원(KISA)은 이달 블록체인 기반 토큰증권 활용 사례 연구를 추진한다. 연말까지 약 70여개에 달하는 국내외 서비스 대상 사례분석을 통해 유망 분야를 도출하고 사업모델을 분석한다. 여기에 국내 STO 관련 기업 1개사를 선정해 기술컨설팅을 추진할 계획이다. 실제 활용방안을 찾는 기업을 지원하는 방식으로 시장에 진입해보겠다는 것이다. 한국인터넷진흥원 관계자는 “이번 연구를 통해 유의미한 결과가 도출된다면 추가 검토를 이어나가는 식으로 사업을 확장할 계획”이라고 설명했다.코스콤은 오는 18일 '토큰증권 매칭데이'를 열고 STO 발행사와 유통사 등 시장 진출을 꾀하는 기업 간 네트워킹을 지원한다. 코스콤 공동 플랫폼 사용을 촉진하기 위한 일환이다. 경주마 조각투자를 추진 중인 한국마사회는 디지털혁신처 산하 신사업추진부에 신사업 발굴(조각투자) 담당을 신설하는 등 관련 사업을 준비 중이다.국내 STO 관련 주요 사업 현황일찌감치 STO 시장에 관심을 보여온 민간 증권사들은 이미 관련 기업을 포섭하고 플랫폼을 띄우는 등 사업을 구체화하고 있다.한국투자증권은 최근 '한국투자 ST 프렌즈'를 결성하면서 사업 진출을 공식화했다. 카카오뱅크, 토스뱅크를 비롯해 문화 콘텐츠 투자 업체 '펀더풀', 블록체인 개발 업체 '오픈에셋', 토지·건물 거래플랫폼 '밸류맵'과 손을 잡았다. 한국투자증권은 이르면 올해 STO 플랫폼을 구축 완료해 추가 기업 참여를 유도할 계획이다.미래에셋증권 역시 SK텔레콤과 토큰증권 컨소시엄 '넥스트 파이낸스 이니셔티브(NFI)'를 결성했다. 미국, 일본, 유럽 등 글로벌 금융회사와 토큰증권발행 시장을 공조할 계획으로 알려졌다. 이밖에도 NH투자증권은 'STO비전그룹', KB증권은 'ST오너스', 신한투자증권은 'STO얼라이언스'을 구성하며 진용을 갖추는데 열을 올리고 있다.은행권도 유관시장에 출사표를 던지며 판을 키우고 있다. NH농협은행은 은행권 최초로 '은행권 토큰증권(STO) 컨소시엄'을 결성했다. SH수협은행, 전북은행, IBK기업은행, 신한은행, 우리은행과 부동산 조각투자사업자 '펀블', 예술품과 엔터테인먼트 사업자 '블레이드En', 핀테크 기업 '트랙체인', 미술품 조각투자사 '아티피오', 전기차 충전 플랫폼기업 '차지인' 등이 협의체에 이름을 올렸다.두나무 자회사 람다256은 한화투자증권, 신한투자증권, 유진투자증권과 STO 플랫폼 개발을 협력한다. 지난 달에는 유럽 자산 토큰화 플랫폼 기업 VNX와 토큰증권발행(STO) 네트워크 확대를 위한 전략적 파트너십을 체결하는 등 국내외에서 활발히 파트너를 물색 중이다.STO는 블록체인(분산원장) 기술로 증권을 디지털화한 상품이다. 투자 시장에 혁신을 불러 올 것으로 기대를 모은다. 하나금융경영연구소는 국내 토큰증권 시장이 내년 34조원 규모로, 2030년에는 367조원에 달할 것으로 예상했다. 미국 시티은행은 2030년까지 글로벌 토큰증권 산업 규모를 4~5조 달러(한화 5200~6500조원)로 예상했다.STO 가장 큰 특징은 유연성, 신뢰성이다. STO는 부동산, 미술품 같은 실물자산을 쪼개서 투자자에게 제공하는 것이 가능하다. 기업 투자의 경우 채권이나 기업공개(IPO) 외에 해당 기업 프로젝트 별로 투자할 수 있게 된다. 특허 같은 무형자산 역시 STO 체제에서는 각각 개별로 투자 가치를 지닐 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.07.12.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>디지털플랫폼정부, 성과 창출 본격화</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003116714?sid=105</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[사진= 게티이미지뱅크 제공]디지털플랫폼정부 추진을 통한 성과가 하나둘씩 나타나고 있다.대통령 직속 디지털플랫폼정부위원회는 '국민드림 프로젝트 상반기 점검 회의'를 위원회 대회의실에서 개최했다. 위원회와 관계부처가 참여했다.회의에선 총 31개 가운데 10개 프로젝트 추진 실적과 향후 계획을 발표했다. 프로젝트 구현 시 국민과 기업에 미칠 효과와 실제 사례를 구체 논의했다.실손보험 간편청구는 위원회가 주관하는 태스크포스(TF)에서 논의한 내용을 반영한 보험업법 개정안이 지난 달 정무위 전체회의를 통과했다. 법안이 시행되면 병원 창구나 모바일 애플리케이션(앱)을 통해 보험금을 청구할 수 있다. 청구포기 사례가 많은 소액보험금을 편리하게 지급받을 것으로 기대된다.청약정보 통합제공은 민간 앱(토스 등)으로 청약정보를 보고 맞춤 안내를 받아 청약할 수 있게 됐다.일자리 지원은 올해 3월부터 인공지능(AI)·빅데이터 분석 기반 '맞춤형 직업상담지원(잡케어) 서비스'를 워크넷을 통해 제공한다. 디지털 온라인고용센터(가칭 고용24) 시스템이 연말에 완성되면, 내년부터는 실업 급여 등 고용보험 서비스 신청 절차가 온라인으로 이뤄진다.무역금융 신청간소화는 무역 기업이 수출입 데이터를 은행, 공공기관에 손쉽게 전송하고 관리 가능한 온라인 플랫폼 서비스를 지난 달 시작했다.진료기록 조회·관리는 국민이 의료데이터를 주도적으로 관리·활용토록 국가적 의료데이터 중계 플랫폼(건강정보 고속도로)을 구축하고 있다. 시스템 사전 검증을 위해 플랫폼과 의료기관(245개)을 연계, 시범운영을 마쳤다. 시스템 구축· 운영을 위한 법적 근거도 마련했다. 올해 하반기 가동하면 여러 기관에 흩어진 진료기록을 개인이 모바일(나의건강기록 앱)로 통합·관리 가능하다.디지털플랫폼정부위원회는 복지 사각지대 발굴 등 21개 과제 추진상황도 지속 점검·지원할 계획이다. 부처와 관계기관 간에 협력을 강화한다는 방침이다.고진 디지털플랫폼정부위원회 위원장은 “부처 간 칸막이를 허물고, 민간 플랫폼을 적극 활용하는 등 철저히 국민 관점에서 서비스를 제공할 것”이라며 “디지털플랫폼정부 성과가 조기에 실현되도록 노력할 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>토스뱅크, 미래에셋증권 주식계좌 개설 서비스 개시</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000958148?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>사진|토스뱅크[스포츠서울 | 홍성효기자] 토스뱅크가 ‘목돈 굴리기’ 서비스에 미래에셋증권의 주식계좌인 ‘Direct 주식계좌’ 개설 서비스를 개시하고 최대 6만5000원 상당의 현금 혜택 이벤트도 실시한다고 4일 밝혔다.미래에셋증권의 ‘Direct 주식계좌’는 국내 및 해외주식, 채권, 펀드 등 금융투자상품 거래가 가능한 계좌로, 19세 이상의 한국 거주 내국인이라면 가입이 가능하다. ‘Direct 주식계좌’ 개설은 토스뱅크 내에서 ‘목돈 굴리기’ 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 가능하고 1인 1계좌까지 개설할 수 있다.최초 신규 주식계좌 개설 고객을 대상으로 8월 말까지 다양한 혜택도 제공한다. 토스뱅크에서 미래에셋증권 계좌를 개설하면 1만5000원 현금을 토스뱅크 통장으로 즉시 지급하고 해외주식 매수 시 투자지원금 5만원도 제공한다. 주식 매수시 부과되는 수수료 무료 혜택과 환전 우대 혜택도 제공된다.현재 토스뱅크에서 주식계좌 개설이 가능한 증권사는 이번 미래에셋증권을 비롯해 한국투자증권, KB증권과 같은 국내 대표 대형 증권사들이 입점해 있다.토스뱅크 관계자는 “주식계좌 개설 서비스 대상 증권사가 국내 대형 증권사들을 시작으로 점차 확대되며 고객의 선택권을 넓혀가는 중”이라며 “앞으로도 더욱 다양한 증권사와의 제휴를 통해 고객 중심의 다양한 혜택을 제공해 나갈 것”이라고 말했다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>미래에셋證 "토스뱅크 앱에서 주식 계좌 개설하세요"</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001111282?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>미래에셋증권, 토스뱅크 내 디지털 브랜치 오픈…계좌개설 서비스 시작신규 투자자, 최대 6만 5천 원 투자지원 혜택[자료사진 = 토스뱅크 제공]미래에셋증권이 토스뱅크 내 디지털 브랜치를 오픈하고, 계좌개설 서비스를 시작한다고 4일 밝혔다.기존 토스뱅크에 계좌를 보유한 투자자는 토스 앱을 통해 정보를 입력 후, 미래에셋증권 계좌 개설이 가능하다.토스뱅크 디지털 브랜치를 통해 미래에셋증권 계좌를 개설하는 투자자들은 토스뱅크 연결 계좌로 1만5천원의 개설 축하금을 즉시 지원받을 수 있다.특히 미래에셋증권을 최초로 이용하는 투자자는 기존 이벤트 혜택을 포함하여 최대 6만 5천 원까지 투자지원 혜택을 받을 수 있다.미래에셋증권 관계자는 "미래에셋증권의 투자전문성을 활용하여 토스뱅크의 젊은 고객들이 건강한 투자경험을 쌓을 수 있는 고객 동맹의 시작점이 될 것으로 기대된다"며 "앞으로 토스뱅크 고객들의 투자성장을 위한 맞춤형 서비스로 확장을 준비할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.07.12.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>은행 부동산 부실대출 1년 새 47% 급증</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005527951?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>1분기 부실대출 14% 증가, 건설·부동산업 증가폭 커경기 악화에 관련 업황 부진 탓…PF 리스크도 내재[이데일리 김정훈 기자][이데일리 이명철 기자] 새마을금고 사태로 금융권의 부동산 프로젝트파이낸싱(PF) 등 대출 부실 우려가 커지고 있다. 은행권의 경우 상호금융 같은 2금융권에 비해 상대적으로 안전하다는 평가지만 부실 대출 규모는 크게 증가하는 추세다. 은행들은 충당금을 쌓아 대응하고 있지만 한 곳이 무너지면 여파가 번지는 PF 특성을 감안할 때 연쇄적인 리스크 관리에 신경 써야 한다는 지적이다.4대 은행 건설·부동산 부실대출, 1년새 10% 껑충11일 4대 시중은행(KB국민·신한·하나·우리)과 특수은행(NH농협·Sh수협), 지방은행(부산·대구·경남·광주·전북·제주) 12곳의 경영 공시를 분석한 결과, 건설·부동산업의 부실 대출(부실 채권) 규모는 약 6917억원으로 전년동기(5335억원)대비 29.7증가했다. 같은 기간 12개 은행의 총 부실 대출은 3조5945억원으로 14.4% 늘었다. 전체 부실 대출 증가폭보다 건설·부동산 분야의 증가 규모가 더 컸다. 이번 조사에서 가계대출이 주를 이룬 인터넷은행(카카오뱅크(323410)·케이뱅크·토스뱅크)은 포함하지 않았다. 은행이 경영 공시에 명시하는 부실 대출은 고정이하여신으로 편입된 계좌를 말한다. 연체가 됐거나 신용평가등급이 하락한 대출 등을 의미한다.업종별로 보면 부동산업이 지난해 1분기 3067억원에서 올해 1분기 4509억원으로 47.0% 증가했다. 건설업의 경우 올해 1분기 2409억원으로 전년동기대비 6.2% 늘었다.4대 은행은 올해 1분기 부동산·건설업 부실 대출이 4406억원으로 전년동기대비 36.2% 늘었다. 부동산업(2611억원)이 83.4% 늘었고 건설업(1795억원) 0.8% 줄었다. 지방은행의 경우 부동산업 789억(8.1%), 건설업 391억원(32.1%) 등 총 1180억원의 부실 대출이 쌓였다. 1년 전보다는 15.0% 늘어난 수준이다.은행별로 보면 전북은행의 건설·부동산업 부실 대출 증가율이 145.1%(올해 1분기 353억원)으로 가장 높았다. 4대 은행 중에선 신한은행 70.1%(757억원)로 가장 많이 늘었고 이어 우리은행 58.6%(755억원), 국민은행 44.4%(1340억원), 하나은행 12.2%(1554억원) 순이다.“PF 부실 드러나지 않았을 뿐, 연쇄 영향 우려”건설업에는 건설사뿐 아니라 인테리어업체 등 건설 관련 업무를 영위하는 업체들이 포함된다. 부동산 관련 업종은 상가 같은 상업용 부동산의 임대업과 부동산 PF 형태의 공급업(중개·개발·공급·분양)이 대표적이다.부동산건설업의 부실 대출이 늘었다는 것은 말 그대로 관련 업황이 악화됐다는 의미다. 경기 침체로 상가 등 임대 시장과 건설업자들의 사업이 어려움을 겪으면서 원리금 상환에도 어려움을 겪은 것이다.물론 아직 2금융권에 비해 은행권의 부실 리스크는 수면으로 드러나지 않았다. 올해 1분기말 국내 은행 고정이하여신 비율은 0.51%다. 저축은행의 1분기 고정이하여신 비율이 5.1%인 것과 비교하면 크게 낮은 수준이다. 충당금도 충분히 쌓고 있다. 4대 금융그룹(KB·신한·하나·우리)이 올해 1분기 추가 전입한 대손충당금 규모는 1조7338억원으로 전년동기대비 139.0% 급증했는데 이중 은행의 비중이 7713억원으로 44% 정도다.실제 은행권의 경우 부동산 PF 연체율이 표면으로 드러난 곳은 아직 없는 것으로 알려졌다. 대체로 대형 건설사가 참여해 안정성이 높은 사업장 비중이 많아서다. 그럼에도 은행권 부실 대출에 우려의 시각이 지속적으로 나타나는 이유는 다양한 시행 주체와 2금융권 등 금융사들이 참여한 부동산 PF 사업장에서 발생할 수 있는 리스크의 전이 현상 때문이다.한 금융권 관계자는 “부동산 PF의 경우 부실이 해소된 것이 아니라 대주단 협약 등을 통해 막고만 있는 상황”이라며 “금융비용이 증가하고 부동산 경기가 더 악화하면 연쇄적인 악영향이 미칠 수 있어 대응을 철저히 해야 할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>저축은행도 인뱅처럼 ‘지금 이자받기’ 서비스 출시한다</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003751103?sid=103</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 향후 저축은행이 토스뱅크 등 인터넷전문은행처럼 ‘지금 이자받기’ 서비스를 출시할 전망이다. 14일 금융업계에 따르면 저축은행중앙회는 최근 수시입출금식 예금에 고객이 요청하면 수시로 이자지급을 할 수 있도록 표준약관을 개정했다.개정한 약관에 따라 개별 저축은행은 고객이 원하는 날에 이자를 내주고 매일 남은 잔액을 기준으로 이자가 쌓이는 수신 상품을 내놓을 수 있다.지금 이자받기 서비스는 토스뱅크가 작년 3월 처음 선보였으며 1년여간 토스뱅크 고객 298만명이 해당 서비스로 이자 2670억원을 받았다.이후 케이뱅크, 카카오뱅크도 지금 이자받기 서비스를 도입했다. Sh수협은행도 올해 4월 ‘Sh매일받는통장’ 가입고객에게 지금 이자받기 서비스를 제공하기 시작했다. 저축은행중앙회 관계자는 “검토 결과 개별 저축은행에서 지금 이자받기 서비스를 출시하려면 먼저 약관 개정이 필요했고, 최근 개정을 완료했다”고 말했다. [사진 = 픽사베이](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.07.08.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>인터넷은행은 금리 2% 주는데..저축은행은 5% 준다고?</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002581588?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크  저축은행들이 수신 잔고 급감을 막기 위해 파킹통장 금리를 최대 연 5%까지 올렸다. 인터넷은행들이 파킹통장 금리를 2%대에 제공하고 있는 것과 대조적이다.8일 금융권에 따르면 SBI저축은행은 지난달 파킹통장 금리를 연 3.5%로 지난 3월의 연 2.8%보다 0.7%포인트 올렸다. OK저축은행의 파킹통장인 ‘읏백만통장2’는 100만 원 이하 예치금에 대해 최고 연 5% 이자를 제공한다. 100만∼500만 원 잔액에는 최고 연 3.5%, 500만∼2000만 원 예금에는 최고 연 3% 금리를 적용한다. 다올저축은행도 지난달 연 4% 금리를 제공하는 파킹통장 상품 ‘Fi 커넥트 통장’을 출시했다.저축은행의 이런 움직임은 지난해 하반기 연 5∼6%에 제공한 고금리 특판상품의 만기가 도래하면서 수신 잔고가 줄어드는 걸 막기 위한 것으로 보인다. 저축은행권의 지난 4월 말 수신 잔액은 114조6159억 원으로 고금리 특판 상품을 선보였던 지난해 11월보다 5.6% 줄었다.이에 따라 저축은행업권은 이자 비용이 높은 예·적금 상품보다 파킹통장으로 수신 유치에 주력하는 분위기다. 파킹통장은 수시로 돈을 예치하고 인출할 수 있어 통상 정기예금보다 금리가 낫다. 약정금리도 바꿀 수 있어 시장 상황에 따라 유연하게 자금을 운용할 수 있다. 저축은행업권은 지난해 말 예·적금 금리가 연 5.5%까지 치솟아 이자 비용이 상승하자 올해 초 정기예금 금리를 연 3%대로 내린 바 있다. 8일 기준 저축은행의 12개월 정기예금 상품의 평균 금리는 3.98%다.반면 인터넷은행 3사(카카오·케이·토스뱅크)는 파킹통장 금리를 2%대에 제공하고 있다. 카카오뱅크, 케이뱅크, 토스뱅크의 파킹통장 금리는 각각 2.2%, 2.3%, 2.0%다. 3사는 지난달 파킹통장 금리를 0.1∼0.2% 포인트 낮췄다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>거듭되는 증권사 MTS ‘오류’…디지털 혁신 ‘무색’</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002727571?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>최근 카카오페이·토스 접속장애·오류 발생전산운용비 9% 증액에도 민원 2배 이상↑하반기 IPO 대응 총력…전산 안정 시험대ⓒ게티이미지뱅크[데일리안 = 황인욱 기자] 증권사들이 앞다퉈 모바이트레이딩시스템(MTS) 서비스 강화에 나서고 있으나 전산 장애나 오류가 줄지 않고 있어 내실을 다질 필요가 있다는 지적이 나온다. 토큰증권 발행(STO·Security Token Offerings) 사업 시행 등으로 MTS 활용 범위가 광범위해질 것으로 예상돼 시스템 안정화 요구 목소리는 지속적으로 커질 전망이다.4일 금융투자업계에 따르면 최근 카카오페이증권과 토스증권에서 MTS 오류가 발생했다. 2건 모두 미국증시 개장시간에 맞물려 해외주식 투자자들이 이용에 불편을 겪은 것으로 알려졌다.우선 전날인 4일 오후 10시30분경 카카오페이증권 MTS에서 서비스 지연에 따른 접속장애가 발생했다. 해당 문제는 약 40분 간 지속됐다. 접속 장애는 당일 모두 정상화됐지만 사용자들의 불편이 야기됐고 이에 카카오페이증권은 불편 사항에 대한 민원을 접수하고 있다.지난달 말에는 토스증권 MTS 일부 계좌에서 보유 종목의 실제 수익률과 관련 없이 수익률이 1000% 혹은 -99% 수익률이 표기되는 문제가 발생했다. 이 오류는 당일 오후 10시30분부터 약 30분 간 지속됐다.양사에서 각각 발생한 오류는 이번이 처음은 아니다. 카카오페이증권은 올해 1월, 토스증권은 작년 4월 동일한 MTS 오류를 내 투자자들로부터 질타를 받았다.MTS 오류는 비단 이 두 증권사만이 아닌 증권업계 전반의 문제로 최근 몇 년 간 지적 받아온 증권사 MTS 오류가 여전히 개선되지 않고 있는 모양새다. 실제로 증권업계가 MTS 리뉴얼에 나서는 등 노력하고 있으나 오류는 오히려 증가세로 관련 민원도 증가하고 있다.금융투자협회에 따르면 올해 1분기 전산장애 민원이 가장 많았던 곳은 DB금융투자로 1만3803건에 달했고 이베스트투자증권도 1250건을 기록했다.서울 여의도 증권가 전경. ⓒ데일리안DB특히 각 증권사들이 전산 안정화를 위해 관련 예산을 늘리고 있음에도 이같은 상황이 지속되고 있다는 것이 문제다.미래에셋·한국투자·삼성·키움·KB·신한투자·NH투자·대신·메리츠증권 등 국내 주요 증권사 10곳의 올해 1분기 평균 전산운용비는 124억원으로 전년 동기(113억원) 대비 8.8%(11억원) 늘었으나 같은 기간 전산장애 관련 민원 건수는 6056건에서 1만5128건으로 249.8%나 증가했다.이에 시장에선 증권사들의 MTS 시스템 안정화 구축에 더 노력해야 한다는 지적이 나오고 있다. 당장 새로운 먹거리로 추진 중인 STO 사업 시행시 시스템에 더 많은 문제가 발생할 수 있는 만큼 관련 인력과 예산을 늘려야 한다는 요구가 나온다. STO 사업 시행시 증권사들은 자체적으로 구축한 플랫폼을 MTS에 얹는 형태로 서비스 할 가능성이 높기 때문이다.윤유동 NH투자증권 연구원은 “STO 시장이 내년 말 개화할 것으로 전망되는 가운데 그 전까지는 일시적 규제 면제(샌드박스) 형태로 영업할 것”이라며 “장기적으로 주식·채권 같은 자산들도 전자 증권에서 토큰증권 형태로 전환될 수 있기 때문에 관련 인프라 구축 노하우를 지금부터 축적할 필요가 있다”고 지적했다.업계는 하반기 쏟아지는 기업공개(IPO)가 MTS 안정화를 위한 시험대가 될 것으로 보고 있다. 상당수 증권사들이 공모청약 과정 중 MTS 오류를 내지 않기 위한 대비책 마련에 나서고 있어 효과가 나타날지 기대되기 때문이다.최근 신한투자증권은 청약시 단기간 유동적으로 대응할 수 있는 클라우드 서비스를 도입해 MTS 서버 안정화를 노리고 있고 하나증권은 서버 과부하에 대비해 정보통신(IT) 전문 인력으로 구성된 대응팀을 구축했다.업계 한 관계자는 “서버를 확충하는 것은 현실적으로 비용과 시간이 들어 장기적인 노력이 필요하다”며 “단기 유동성에 맞춘 대응책 마련이 현실적인 방안으로 적합할 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>토스뱅크, '공모주 청약 일정' 서비스 출시… 실시간 경쟁률 제공</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000933860?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크  토스뱅크는 '공모주 청약 일정' 서비스를 시작했다고 10일 밝혔다. 코스피, 코스닥 시장에 상장을 앞둔 공모주의 청약 일정 확인부터 실제 청약까지 가능한 서비스다. 고객들은 자신이 원하는 공모주의 희망 가격, 경쟁률 등도 한눈에 확인할 수 있다.  토스뱅크 '공모주 청약 일정' 서비스는 제휴 증권사의 계좌개설은 물론 모바일 웹을 통해 바로 청약까지 한 번에 진행할 수 있다는 점이 특징이다. 기존에 고객들은 공모주 청약을 위해 증권사 애플리케이션(앱)을 다운로드 받아 공모주 청약을 위한 경로를 직접 찾아 들어갔어야 했다.토스뱅크는 한국투자증권과 제휴해 증권계좌 개설 서비스를 제공하는 것은 물론, 한국투자증권이 주간사인 공모주 청약은 토스뱅크에서 한국투자증권의 모바일 웹을 통해 청약까지 바로 진행할 수 있게 해 고객 편의성을 높였다.'공모주 청약 일정' 서비스에서는 현재 청약 중인 공모주와 3일 이내 청약을 앞둔 공모주, 앞으로 다가오는 공모주 등의 정보를 제공하며 상장 완료한 공모주의 공모가 대비 시초가 수익률도 확인할 수 있다.고객이 청약을 희망하는 기업을 클릭하면 청약일과 주식 배정 및 환불일, 상장 매매 시작 등 기본 정보를 제공한다. 또 청약 경쟁률까지 확인할 수 있다.토스뱅크가 안내하는 청약 경쟁률은 두 가지다. 기관 수요예측 결과와 청약 시작 후 각 증권사에서 고객들이 얼마나 청약에 참여하고 있는지를 보여주는 청약 경쟁률을 실시간으로 제공해 고객은 이를 통해 얼마나 인 기있는 공모주인지 판단할 수 있다.토스뱅크 고객은 청약 일정을 놓치지 않게 알림도 받을 수 있다. '공모주 청약 알림'은 공모주와 관련된 청약 일정과 예상 공모가 등의 정보를 안내한다. 공모주 알림 관리는 화면 하단에 '공모주 알림 설정'을 클릭하면 된다.토스뱅크 관계자는 "'공모주 청약 일정' 서비스에서 고객이 증권사 모바일 웹으로 청약까지 가능케 하는 등 고객 편의성을 높였다"며 "이를 통해 고객들이 공모주 관련 정보를 보다 손쉽게 확인하고 투자에 도움이 되길 바라며 제휴 증권사들을 점차 확대해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.07.09.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>[ESG] 토스뱅크, 국제 환경경영표준 ‘ISO14001’ 인증 획득</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003749273?sid=103</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 토스뱅크가 국제 환경경영표준 ‘ISO14001’ 인증을 획득했다고 9일 밝혔다. ISO14001은 국제표준화기구(ISO)가 제정한 환경경영체계 표준이다. 지난 2021년 10월 출범 후 토스뱅크는 ‘그린오피스’를 추구해 왔다. 우선 비대면 인터넷전문은행으로서 지점 건물 운영과 관련된 에너지 저감, 이산화탄소 배출감소가 가능하다. 폐기물 저감, 제로페이퍼, 절수, 원격 조명 조절 시스템 등도 대표적이다. 토스뱅크 관계자는 “환경경영시스템을 ESG(환경·사회·지배구조) 경영 기반으로 삼아 은행 책무를 강화하고 글로벌 기준에 발맞춘 은행으로 거듭나고자 한다”고 말했다. [사진 = 토스뱅크](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.07.11.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>걸을수록 쌓이는 마일리지…여행업계에도 '만보기' 떴다</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004866600?sid=103</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>하나투어, 보상 만보기 서비스 '여행만보' 론칭…"여행업계 최초"사진=게티이미지뱅크푼돈을 모으는 이른바 '짠테크'가 확산하면서 인기를 끈 보상 제공 만보기 애플리케이션(앱) 서비스가 여행업계에도 등장했다. 하나투어는 걸음 수에 따라 보상 마일리지를 지급하는 만보기 서비스 '여행만보'를 여행업계 최초로 자체 앱에서 선보였다고 11일 밝혔다.하나투어는 걸음 수에 따라 보상 마일리지를 지급하는 만보기 서비스 '여행만보'를 여행업계 최초로 자체 애플리케이션(앱)에서 출시했다고 11일 밝혔다. 사진=하나투어여행만보 서비스는 하나투어 앱에서 이용할 수 있다. 1000걸음, 5000걸음, 1만 걸음 미션을 달성하면 각각 하나투어 마일리지를 지급하는 방식이다. 하루 최대 140마일리지 적립이 가능하며, 출시 이벤트 기간에는 추가 마일리지도 적립할 수 있다. 하나투어는 상품 구입 시 마일리지로 결제 가능한 마일리지 적립 제도를 운영하고 있다.하나투어 관계자는 "고물가 시대 스마트폰으로 소액을 버는 앱테크 유행과 여행 상품 구매 및 후기, 이벤트 참여 외에도 하나투어 마일리지를 쉽게 쌓고, 쉽게 사용할 수 있는 방법의 일환으로 여행만보 서비스를 시작했다"고 설명했다. 앞서 짠테크 트렌드 속 돈 버는 만보기 앱 인기가 꾸준하자 금융업계에서는 적극적으로 만보기 기능을 자체 앱에 탑재하거나 관련 상품을 출시하고 있다. 대표적으로 금융앱 '토스'가 만보기 기능을 운영하고 있고, 삼성금융계열사 통합 플랫폼 '모니모'는 걷기 챌린지를 실시한다. 우리은행, 웰컴저축은행 등은 걸음 수에 따라 우대금리를 제공하는 적금 상품을 내놨다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.07.09.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>자금 빠질라… 저축은행 파킹통장 금리 다시 5%로</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002812053?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>저축은행들이 지난해 판매한 고금리 특판상품의 만기가 다가오자 수신 잔고를 유지하기 위해 파킹통장 금리 인상에 나서고 있다.9일 금융권에 따르면 SBI저축은행은 지난달 파킹통장 금리를 연 3.5%로 올렸다. 지난 3월 연 2.8%보다 0.7%포인트(p) 높은 수준이다.OK저축은행의 파킹통장인 '읏백만통장2'은 100만원 이하 예치금에 대해 최고 연 5% 이자를 제공한다. 100만∼500만원은 최고 연 3.5%, 500만∼2000만원은 최고 연 3% 금리를 적용한다.다올저축은행도 지난달 연 4% 금리를 제공하는 파킹통장 상품 'Fi 커넥트 통장'을 출시했다.저축은행들은 지난해 하반기 선보였던 연 5∼6%대의 고금리 특판상품의 만기를 앞두고 수신 잔고 급감을 막기 위해 금리를 올리고 있는 것으로 풀이된다. 저축은행권의 지난 4월 말 수신 잔액은 114조6159억원으로 고금리 특판 상품을 선보였던 지난해 11월보다 5.6% 줄었다.이에 따라 저축은행업권은 이자 비용이 높은 예·적금 상품보다 파킹통장으로 수신 유치에 주력하는 분위기다.파킹통장은 수시로 돈을 예치하고 인출할 수 있어 통상 정기예금보다 금리가 낫다. 약정금리도 바꿀 수 있어 시장 상황에 따라 유연하게 자금을 운용할 수 있다.저축은행업권은 지난해 말 예·적금 금리가 연 5.5%까지 치솟아 이자 비용이 상승하자 올해 초 정기예금 금리를 연 3%대로 내린 바 있다. 8일 기준 저축은행의 12개월 정기예금 상품의 평균 금리는 3.98%다.한편 카카오·케이·토스뱅크 등 인터넷전문은행 3사의 파킹통장 금리는 2%대다. 카카오뱅크, 케이뱅크, 토스뱅크의 파킹통장 금리는 각각 2.2%, 2.3%, 2.0%다. 지난달과 비교하면 0.1∼0.2%p 낮아졌다.연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>타다, 인력 절반 회사 떠난다…구조조정 영향</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000060418?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>이달 말 희망퇴직자 10여 명 포함 40여 명 떠나국회 '타다 금지법' 통과 이후 주요 수입원 잃어3일 모빌리티 스타트업계에 따르면, VCNC는 전체 직원 80여 명 중 지난달 희망퇴직한 임직원 수가 30명을 넘어섰다. 이달말 추가 퇴직 예정인 직원까지 포함하면 총 40명 안팎이 회사를 떠나는 것으로 전해졌다. ⓒ 연합뉴스타다의 운영사 브이씨엔씨(VCNC)가 인력의 절반 정도를 감축하는 구조조정 수순에 들어갔다.3일 모빌리티 스타트업계에 따르면, VCNC는 전체 직원 80여 명 가운데 30여 명이 지난달 말 희망퇴직 형식을 회사를 떠났다. 이달 말 추가 퇴직 예정인 직원까지 포함하면 총 40명 안팎이 회사를 떠나는 것으로 전해졌다. 앞서 타다는 지난달 14일부터 희망퇴직을 통해 인력을 절반으로 줄이는 구조조정을 진행하겠다고 직원들에게 알렸다.희망퇴직자에게는 퇴사와 동시에 2개월치 월급을 지급될 예정이다. 타다는 희망퇴직자 수가 애초 계획한 현재 인원의 절반 수준에 달함에 따라 직원들을 상대로 별도의 권고사직은 진행하지 않기로 했다. 타다가 고강도 인력 구조조정을 단행한 건 2020년 국회를 통과한 '타다 금지법' 이후 이렇다 할 성장 동력을 찾지 못해 경영이 불안정해졌기 때문이다. 타다는 2020년 여객 자동차 운수사업법 개정안의 국회 통과로 투자 유치와 사업 확대가 어려워져 회사 창립 이후 처음으로 희망퇴직을 실시했다.VCNC가 쏘카에서 빌린 렌터카를 운전자와 함께 다시 고객에게 빌려주는 방식으로 운영하면서 초기엔 혁신적인 서비스로 주목을 받았다. 그러나 택시업계가 '불법 콜택시'라고 반발하며 사회적 논란을 초래했고 회사는 결국 사업을 접어야 했다.타다는 이듬해인 2021년 모바일 금융 플랫폼 토스에 인수되며, 핀테크와 모빌리티 서비스의 시너지를 노렸으나 차량용 반도체 수급 문제로 차량 보급 등이 실적의 발목을 잡았다.현재 타다는 다른 회사와의 인수·합병(M&amp;A) 협상을 물밑에서 추진 중이다. 현재로서는 퍼스널·마이크로 모빌리티 공유 서비스 업체인 더스윙과의 합병이 가장 유력하다는 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>한국지역정보개발원, 6일 '데이터 보안 사례 공유' 온라인 세미나 개최</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005037234?sid=102</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>【파이낸셜뉴스】 한국지역정보개발원은 오는 6일 오후 2시 독일 프리드리히 나우만재단과 공동으로 '2023년 제3회 온라인 정기세미나'를 개최한다고 5일 밝혔다.   이번 세미나는 제1회 데이터거버넌스, 제2회 데이터 품질관리에 이어 데이터를 안정적이고 효율적으로 관리할 수 있는 국내외 데이터 보안 활용 사례를 공유하는 자리로, 개발원 유튜브 채널을 통해 실시간으로 진행된다.   세미나는 데이터 분야 국내 전문가들의 발표와 참석자들 간 토론 및 실시간 질의응답으로 진행된다.   먼저 레코디드퓨쳐 윤광택 인텔리전스 본부장이 '데이터 보안의 첫걸음'이라는 주제로 제로트러스트 보안모델, 계정의 유출사례를 자세히 소개하고, 이후 ㈜토스뱅크 전승재 변호사가 '국내외 고객 데이터 유출 사례와 시사점'을 주제로 오픈소스의 취약점 해킹, 지능혁 지속 공격 등 실제 기업 사례를 중심으로 발표한다.   발표 후에는 세미나 현장 참석자들과 온라인 참여자들이 실시간으로 자유롭게 소통하는 시간이 주어질 예정이며. 세미나 신청 시 미리받는 사전질문에 대해서도 함께 논의될 예정이다.   세미나 신청은 관심있는 사람이면 누구나 가능하며, 오는 6일 오전 11시까지 세미나 홍보 포스터의 QR코드를 통해 신청할 수 있다.   신청자에게는 행사당일 세미나 접속이 가능한 링크가 발송된다.   이재영 원장은 "디지털 전환 시대에 데이터가 항상 안전할 수 있도록 보호하고 조치하는 일은 필수적"이라며 "이번 세미나에서 다양한 데이터 보안 실사례가 공유되니 많은 분의 관심과 참여를 바란다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.07.07.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>현대카드, 대환대출 플랫폼 입점…추가되는 다른 카드사는</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011959861?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>신한·KB국민카드 이어 3번째 대환대출 플랫폼 진출롯데·우리카드 등 3분기 중 신규 진출 카드사도 등장[성남=뉴시스] 고승민 기자 = 김소영 금융위원회 부위원장이 30일 대환대출 인프라 관련 현장방문을 위해 경기 성남 금융결제원 분당센터를 찾아 통합관제실을 살펴보며 관계자의 설명을 듣고 있다. 금융위원회는 31일 오전9시부터 온라인, 원스톱 대출 갈아타기 서비스를 개시한다고 밝혔다. 대출 갈아타기가 가능한 앱은 크게 대출 비교 플랫폼 앱(네이버페이, 뱅크샐러드, 카카오페이, 토스 등)과 주요 금융회사 앱(NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등) 등이다. 2023.05.30. kkssmm99@newsis.com[서울=뉴시스] 한재혁 기자 = 현대카드가 카드사들 중 3번째로 대환대출 플랫폼 입점을 완료한 가운데 3분기 중 참여를 앞두고 있는 카드사도 나와 소비자의 선택 폭이 넓어질 것으로 보인다. 7일 업계에 따르면 현대카드는 핀다의 대환대출 비교 플랫폼에 장기카드대출(카드론) 상품을 입점하고 대환대출 전용 신상품의 출시를 검토 중이다. 현대카드 관계자는 "서민들의 대출 이자 부담 감소 및 대출 이동 편의성 확대하고자 입점하게 됐다"고 설명했다.카드사가 대환대출 플랫폼에 입점한 것은 이번이 세 번째다. 현대카드의 입점 전까지 플랫폼 내 진출을 마친 카드사는 신한카드와 KB국민카드 두 곳 뿐이었다. 참여 플랫폼으로는 신한카드가 카카오페이·토스·핀다에, 국민카드가 네이버페이와 카카오페이에 입점해 있던 상태였다.롯데카드와 우리카드 역시 3분기 내 입점을 준비하고 있다. 앞서 롯데카드는 대환대출 전용 상품인 '로카머니 대환대출'을 출시한 데 이어 카카오페이의 대환대출 플랫폼에 서비스 입점을 목표로 하고 있다. 우리카드는 현재 자체 애플리케이션(앱)에서 대환대출 서비스 제공 중이며 마찬가지로 3분기 내로 플랫폼에 입점할 계획이다. 우리카드 관계자는 "입점할 플랫폼은 아직 검토 중에 있다"며 "자체 앱의 원활한 서비스 제공을 확인한 뒤 플랫폼 입점을 결정한만큼 안정적인 서비스를 제공할 수 있도록 하겠다"고 말했다.그간 인터넷은행 등 타 업권이 영업확장을 위해 참여를 가속화한 것과는 달리 카드사들은 대환대출 플랫폼 입점에 미온적이었다. 플랫폼 입점을 위해 필요한 마이데이터 API 제공이 이달 1일부터 제공된 탓도 있지만 대출상품들이 타 업권 대비 높은 금리를 지니고 있어 고객을 유입시킬 메리트가 적다는 이유에서다. 지난 5월 말 기준 신한·삼성·KB국민·현대·우리·롯데·하나카드 등 7개 전업카드사의 카드론 평균 금리대는 13.58%~14.72%로 나타났다.다만 최근 당국이 카드업계를 대상으로 상생금융을 강조하는 등의 조치를 취하면서 이들의 진입도 빨라진 것으로 보인다. 앞서 이복현 금융감독원장은 지난달 29일 서울 영등포구 굿네이버스 회관에서 열린 '취약계층 지원을 위한 굿네이버스 후원금 전달식'에 참석해 "카드사 등 제2금융권은 경기 침체기에 취약계층에 대한 자금공급이 과도하게 위축되지 않도록 유념해야 한다"고 밝혔다.이어 "앞으로 은행·보험뿐만 아니라 카드·금투 등 다른 업권에서도 금융소비자에게 실질적으로 도움이 될 수 있는 다양한 상생 금융상품이 개발되길 기대한다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>'전국은행' 간판 다는 대구은행…31년만 새 시중은행 예고</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001111581?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>금융당국이 시중은행 중심의 은행권 과점 체제를 깨기 위해 기존 금융회사의 시중은행 전환을 허용키로 하면서 DGB대구은행이 첫 타자가 될 전망이다.5일 금융당국과 은행권 등에 따르면 금융위원회는 대구은행의 시중은행 전환 신청이 들어오는 대로 신속히 심사를 진행한다는 방침이다.김태오 DGB금융지주 회장은 이날 금융당국과 금융지주 회장단과의 간담회를 마친 뒤 기자들과 만나 "올해 중 시중은행 전환을 검토하고 추진할 예정"이라며 "대구에 본점을 둔 시중은행이자 지역 대표은행으로서 역할을 해나갈 것"이라고 말했다.김 회장은 "창립 이래 56년간 축적된 중소기업 금융 노하우를 활용해 수도권과 강원, 충청 등 보다 넓은 지역에서 중소기업과 함께 성장하겠다"는 계획을 밝혔다.금융당국의 심사 절차가 남아있지만, 현재로선 별다른 결격 사유가 없어 빠른 추진이 가능할 것으로 보인다.은행법 8조에 따르면 지방은행 인가를 위해서는 250억원 이상의 자본금만 있으면 되지만, 시중은행 인가를 받기 위해서는 1천억원 이상의 자본금을 갖춰야 한다.전자공시에 따르면 대구은행의 지난 1분기 자본금은 6천806억원으로, 이러한 자본금 요건을 충족한다.지배구조 요건에도 부합한다.현재 금산분리 원칙에 따라 비금융주력자(산업 자본)의 일반은행 지분 보유 한도는 4%로 제한된다. 지방은행의 경우 보유 한도가 15%로 조금 더 느슨하다.그러나 대구은행 지분 100%를 보유한 DGB금융지주의 경우 국민연금(보유 지분 8.78%), OK저축은행(8.0%) 등이 주요 주주로 산업 자본 요건 측면에서도 자유롭다.김소영 금융위 부위원장은 사전 브리핑을 통해 "대구은행이 자본금 요건은 충족하는 상태"라며 "추가로 볼 부분은 사업 계획이 얼마나 타당한지와 지배구조 이슈 등인데 현재까진 큰 문제가 없을 것으로 본다"고 말했다.예정대로 대구은행이 시중은행으로 전환한다면 31년 만에 새로운 시중은행의 출현이다. 시중은행 인가는 케이뱅크·카카오뱅크·토스뱅크 등 인터넷3사를 제외하면 1992년 평화은행이 마지막이었다.대구은행은 시중은행 전환 이유로 '조달 금리 이점'을 꼽고 있다. 자금조달 측면에서 유리해지면서 시중은행과 견줄 만큼 경쟁력 있는 금리를 제공할 수 있게 되고 이를 통해 다양한 고객군을 확보할 수 있게 된다는 것이다.다만 대구은행이 '5대 은행'과 실질적인 경쟁이 가능할지에 대해서는 회의적인 시각도 읽힌다. 자본금이 수조원 수준인 5대 은행과 체급 차이가 상당하기 때문에 여·수신 비중을 바꾸는 정도의 경쟁은 역부족이란 분석이다.인터넷전문은행도 기존 은행과 차별화된 서비스 및 금리 제공을 목표로 도입됐지만, '찻잔 속 태풍'에 그쳤다는 평가가 많다. 실제 인터넷은행 3사가 은행권 내에서 차지하는 비중은 약 2%(작년 말 기준 예금 2.6%·대출 2.0%) 수준에 그친다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>토스페이, CU에서 결제 가능…첫 오프라인 진출</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004211925?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>사진 제공=토스[서울경제] 토스는 간편결제 서비스 토스페이 결제 영역을 오프라인까지 확장한다고 10일 밝혔다.토스는 이날부터 편의점 CU 전국 지점에서 토스페이 오프라인 결제를 지원한다. 전국 CU 약 1만 7000여 곳에서 토스 애플리케이션 내 토스페이를 통해 결제할 수 있다.결제수단은 토스페이에 등록된 계좌, 신용카드 등으로, 결제 방법은 바코드 스캔이다. 가맹점 리더기로 바코드를 스캔하면 결제가 완료된다. 토스페이에 CU 멤버십을 등록한 이용자는 토스페이 결제와 동시에 CU 포인트를 자동 적립할 수 있다.토스 관계자는 “토스페이를 이용하면 더욱 빠르고 간편하게 오프라인 결제를 하면서 멤버십 적립을 자동으로 할 수 있다”며 “앞으로 커피 프랜차이즈, 주유소 등으로 제휴처를 적극 확대해 온·오프라인 일상생활에서 가장 많이 사용하는 결제수단이 될 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>얼마나 좋길래 아침 6시 오픈런?...3040대 직장인 주담대 성지된 ‘이곳’</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005154449?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>인뱅 대출 성장률 시중은행의 10배  카뱅, 금리 ‘최저’로 내려 상품 경쟁력 강화3040대 새벽6시 ‘주담대 오픈런’ 벌이기도케이뱅크, 올들어 주담대 금리 5차례 인하전체 대출 중 주담대 비중 15%→30%로토스뱅크도 전세대출 상품 곧 출시할 듯 [사진 = 연합뉴스]인터넷은행이 주택담보대출을 바탕으로 대출을 빠르게 늘리고 있다. 비대면 편의성과 금리 경쟁력 등 인터넷은행의 강점이 돋보이는데다 취급 규모도 커서 대출 성장을 확대하려는 인터넷은행의 전략과도 부합하는 것으로 풀이된다.5일 금융권에 따르면 인터넷은행 3사의 올해 2분기 원화대출 잔액은 53조9000억원으로 전년 동기대비 35.4% 증가할 것으로 예상된다. 지난 1분기보다 6.6% 늘었다.인터넷은행 3사 중 맏형 격인 카카오뱅크는 올 2분기 원화대출이 전년 동기대비 16% 이상 증가해 31조원을 가뿐히 넘어설 전망이다. 케이뱅크 원화대출도 작년 2분기 8조7265억원에서 올 2분기 12조7000억원으로 불어나며 1년 새 45.5% 성장했다. 가장 후발주자인 토스뱅크도 올 2분기 대출잔액은 전년 동기(4조2940억원)보다 두 배 이상 늘었다.반면 4대 은행(국민·신한·하나·우리)의 지난 6월말 기준 원화대출 잔액은 1159조6794억원으로 지난 1년간 2.86% 증가하는 데 그쳤다. 대출 성장률을 놓고 보면 인터넷은행 3사가 4대 은행보다 12배 가량 높다. 4대 은행의 가계대출은 2021년 12월부터 매달 줄다가 지난 5월과 6월에 증가세로 전환됐는데, 지난 1분기 대비 대출 성장률도 인터넷은행 3사가 4대 은행(1.2%)보다 5배 이상 높았다.인터넷은행들 대출이 뚜렷한 우상향 곡선을 그리는 배경에는 공격적으로 주택담보대출에 뛰어든 영향이 크다. 그동안 신용대출 상품이 주를 이뤘던 인터넷은행들은 작년부터 주택관련 대출 상품을 출시하고, 올들어선 시장금리 상승국면에도 고객 유치를 위해 금리할인 등 다양한 마케팅을 펼치고 있다.카카오뱅크는 지난 4월 주택담보대출 대상을 기존 아파트에서 연립주택과 다세대주택으로 확대하면서 지난 달말까지 금리 할인 혜택을 적용한 특판을 진행했다. 젊은 직장인들 사이에 매일 아침 새벽6시 ‘카뱅 주담대 오픈런’이 벌어질 정도로 흥행했다. 지난 5월 취급한 주담대 평균 금리는 은행권 통틀어 가장 낮은 연 3.88%였고, 지난달도 유일하게 연 3% 후반대 금리 상품으로 남았다.카카오뱅크에 따르면 지난 6월 말 기준 주택 구입 목적으로 대출을 받은 사람 중 생애 최초 고객 비중은 44%로 집계됐다. 카카오뱅크에서 주담대를 실행한 차주의 82%가 30·40대였다. 전체 주담대 신규 고객 중 다른 은행에서 카카오뱅크로 갈아탄 차주의 비중도 작년 4분기 28%에서 올 2분기 54%로 상승했다. 이자 부담을 줄이거나, 내 집 장만이나 좀 더 나은 집으로 옮기려는 실수요자들이 카카오뱅크에 몰린 셈이다.카카오뱅크 관계자는 “비대면의 편의성과 경쟁력 있는 금리가 실속을 추구하는 3040대를 사로잡은 것으로 보인다”고 말했다. 카카오뱅크는 올 하반기 보금자리론에 이어 내년 분양잔금대출 상품을 잇달아 출시할 계획이다. 현재 1주택자만 신청 가능한 주담대도 다주택자로 확대할 예정이다.케이뱅크는 올들어 전세대출과 주담대 금리를 각각 4, 5차례 내렸다. 금리 경쟁력을 높이기 위해 사실상 시장금리 상승분 만큼 대출 금리를 떨어뜨린 셈이다. 케이뱅크의 대출 잔액에서 주담대의 비중은 작년 말 14.5%에서 올 2분기 30%에 육박했다. 케이뱅크는 카카오뱅크처럼 집단대출 시장 진출도 저울질하고 있다.토스뱅크도 전세대출 상품 출시를 서두르기 위해 최근 인력 채용에 나섰다. 토스뱅크가 광주은행과 추진 중인 공동대출도 신용대출에서 시작해 주택 관련 대출 상품으로 확대할 것으로 업계는 보고 있다.업계 관계자는 “인터넷은행의 성장동력이 신용대출에서 주담대로 옮겨가는 모양새”라며 “집이라는 보증이 확실한 주담대는 대손비용 부담을 줄여주고 연체 등 건전성 관리에도 훨씬 유리하다”고 말했다. 올 연말 정부 주도의 대환대출 인프라가 주담대까지 확장되면 인터넷은행의 대출 수요가 더욱 확장될 것이란 전망이 나온다.시중은행 중심으로 굳어진 은행권 과점을 깬다는 점에서 인터넷은행의 대출 성장은 반갑지만, 그만큼 꺼지는 디레버리징(부채 축소) 불씨를 걱정하는 목소리도 나온다. 시중은행조차 부러워하는 넓은 고객 접점과 모객력, 금리 매력까지 갖춘 인터넷은행들이 최근 주식·부동산 시장 회복세 등으로 늘어나고 있는 대출 수요를 ‘블랙홀’처럼 흡수할 가능성이 높기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>올 상반기 체크카드 '1위'는?</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000341920?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>[카드고릴라가 '2023년 1분기 인기 체크카드 TOP10을 발표했다. (자료=카드고릴라)]올해 상반기 가장 인기가 많았던 체크카드는 '우리 010PAY 체크카드'인 것으로 나타났습니다.3일 신용카드 플랫폼 카드고릴라는 이 같은 내용을 담은 '2023년 1분기 인기 체크카드 TOP10'을 발표했습니다. 이번 순위는 지난 1월 1일부터 지난달 25일까지 카드고릴라 웹사이트에서 집계된 각 카드 상품조회수 및 신청 전환 수를 기준으로 산정됐습니다.1위에 이름을 올린 '우리 010PAY 체크카드'는 지난해 1분기부터 1년 반 동안 '1위'를 지키고 있습니다. 결제 시 최대 0.4%가 적립되며 매월 10일에 진행되는 '응DAY'에는 결제금액의 3.3%가 추가 적립됩니다. 계좌 잔액이 부족할 때는 월 최대 20만원까지 휴대폰으로 010PAY 머니를 충전해 쓸 수 있습니다. 2위는 NHN페이코의 'PAYCO 포인트 카드'가 차지했습니다. 전월실적 없이 온라인 1%, 오프라인 0.5%의 결제액이 적립됩니다. 매달 각각 온라인과 오프라인별로 브랜드를 선정해 최대 10% 적립 혜택도 제공합니다. 해외겸용 카드로 발급받을 경우 해외결제 수수료가 무료입니다. 3위엔 '우리카드 NU 오하쳌(오늘하루체크)'가 자리했습니다. 간편결제, 교통, 통신 등 생활 영역 캐시백과 함께 안경·렌즈, 무신사, 지그재그 등 독특한 혜택도 제공합니다. 해외겸용카드로 해외 이용 시 5% 캐시백 혜택을 줍니다. 이어 4위로는 '신한카드 Deep Dream 체크'가 선정됐습니다. 모든 가맹점에서 실적 조건 없이 0.2%가 적립되며 자주 가는 DREAM 영역에서 3배, DREAM 영역 중 가장 많이 이용한 영역은 5배가 적립됩니다. DREAM 영역은 할인점, 편의점·잡화, 영화·커피, 해외, 통신 등으로 구성돼 있습니다. KB국민카드의 '노리2 체크카드(KB Pay)'와 '노리체크카드'가 5위와 6위로 그 뒤를 이었고, 이 밖에도 ▲한패스의 '트리플카드'(7위) ▲네이버페이 우리카드 체크(8위) ▲네이버페이 머니 하나 체크카드(9위) ▲토스뱅크카드(10위) 등이 순위권에 이름을 올렸습니다. 고승훈 카드고릴라 대표는 "각 발급사의 머니, 포인트 등이 충전 후 차감되거나 실물카드 없이 앱만 있어도 결제가 가능해지는 등 체크카드의 모습도 다양해지고 있다"며 "최근에는 해외 이용 시 할인뿐만 아니라 수수료 무료, 환전 우대 등의 혜택을 기본으로 주는 카드가 많아 해외여행 시 체크카드를 찾는 이용자도 많은 것으로 보인다"고 말했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.07.07.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>"삼성 새 폴더블 열기 벌써 뜨겁네"…사전예약 알람하면 명품백, 노트북 쏜다</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011959431?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>삼성·이통3사, 갤럭시 언팩 앞서 사전예약 알림 이벤트 진행SKT 아이스크림 쿠폰, KT 갤럭시북, LGU+ 샤넬백 추첨 증정[서울=뉴시스] 삼성전자는 14일 오후 5시까지 삼성닷컴에서 알림 신청과 설문조사를 마친 고객 중 50명(1인 2매)을 추첨해 26일 예정된 갤럭시 언팩 라이브 뷰잉 행사에 참석할 혜택을 준다. (사진=삼성닷컴 홈페이지 캡처) *재판매 및 DB 금지[서울=뉴시스]윤정민 기자 = 삼성전자가 26일 갤럭시Z플립5·폴드5를 공개할 예정인 가운데 삼성전자와 SK텔레콤, KT, LG유플러스 등 이동통신3사가 사전예약 알람 이벤트로 고객 확보에 나섰다. 카카오페이·네이버페이 포인트부터 갤럭시 노트북, 샤넬과 보테가 베네타 등 명품 가방까지 다양한 선물을 제공해 가입자를 선점하겠다는 전략이다.7일 업계에 따르면 삼성전자와 이통3사는 전날 '새로운 갤럭시'라는 주제로 사전예약 알림 신청 이벤트를 시작했다.삼성전자는 14일 오후 5시까지 삼성닷컴에서 알림 신청과 설문조사를 마친 고객 중 50명(1인 2매)을 추첨해 26일 예정된 갤럭시 언팩 라이브 뷰잉 행사에 참석할 혜택을 준다. 해당 행사는 26일 오후 7시부터 10시까지 서울 중구 서울시청 앞 서울광장에서 진행할 예정이다.이밖에 알림 신청 후 삼성닷컴 또는 갤럭시 캠퍼스 스토어에서 갤럭시 신제품을 구매할 경우 선착순으로 1만5000원 상당의 해피머니 상품권을 선착순으로 증정한다. 선착순 대수는 언팩 행사 이후 공개될 예정이다.[서울=뉴시스] SK텔레콤, KT, LG유플러스 등 이동통신3사는 자사 직영몰에서 사전예약 알람 이벤트를 31일까지 진행한다. (사진=티다이렉트샵, KT샵, 유플러스닷컴 홈페이지 캡처) *재판매 및 DB 금지이통3사는 자사 직영몰에서 사전예약 알람 이벤트를 31일까지 진행한다. SK텔레콤은 티다이렉트샵에서 알림 신청 시 5000명을 추첨해 배스킨라빈스 싱귤레글러 아이스크림 기프티콘을 준다. 참여 방법은 플립, 폴드 등 본인이 원하는 디자인과 함께 고객 본인이 원하는 색상 9가지 중 1가지를 고르면 된다. 아울러 27일 오전 9시에 사전예약 혜택을 공개한다고 전했다.KT는 KT샵에서 사전예약 알람 신청 시 추첨을 통해 갤럭시 북3 360(1명), 하만카돈 블루투스 스피커(1명), 네이버페이 1000원권(1만명)을 증정한다. KT샵은 12일, 19일, 26일 오전 9시에 KT샵에서 이벤트와 관련한 새 혜택을 하나씩 선보인다고 밝혔는데 갤럭시 새 폴더블폰 사전예약자를 위한 추가 혜택을 공개할 것으로 보인다.LG유플러스는 유플러스닷컴과 모바일 금융 플랫폼 토스 앱에서 사전예약 알람 신청을 받는다. LG유플러스는 추첨을 통해 샤넬 미니백(1명), 보테가 베네타 카세트백(1명), 나이키 조던1X트래비스스캇(1명), 셀린느 트리옹프 선글라스(1명)를 증정한다.유플러스닷컴을 통해 사전알람을 신청한 고객 전원에게는 추후 진행할 사전예약 시 사용할 수 있는 2만원 할인 쿠폰을 제공한다. 선착순 9만명에게는 카카오페이 1000포인트를 준다. 토스도 자사 앱을 통해 사전알람을 신청한 고객 중 선착순 9만명에게 토스 1000포인트를 제공한다.한편 삼성전자는 26일 오후 8시 서울 강남구 코엑스에서 갤럭시 언팩 행사를 연다. 삼성전자가 공개한 초대장에는 갤럭시 Z플립5로 추정되는 스마트폰 아래 한글로 '언팩'이라는 단어가 쓰여있다. 업계에 따르면 이번 언팩에서 갤럭시Z플립·폴드5뿐만 아니라 갤럭시워치6, 갤럭시탭 S9 등 신작이 공개될 예정이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>저축은행도 '지금 이자 받기' 내놓는다</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000758942?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>작년 6%대 고금리 예금 만기…올해 수신 잔액 6조↓혜택·금리 올리며 고객 이탈 방지 총력앞으로 전국 79개 저축은행에서도 토스뱅크와 같은 '지금 이자 받기' 서비스를 할 수 있게 됐다. 올해 들어 수신 규모가 6조원 이상 줄어들자, 편의 서비스를 강화하고 금리를 끌어올려 추가 자금 이탈 방지에 사활을 걸고 있다.14일 금융권에 따르면 저축은행중앙회는 최근 입출금이 자유로운 예금, 저축예금, 기업자유예금 등 수시입출금식 예금에 고객이 요청하면 수시로 이자 지급을 할 수 있도록 표준약관을 개정했다.한 시민이 저축은행 앞을 지나가고 있다. [사진=아이뉴스24 DB]개정한 약관에 따라 개별 저축은행들은 인터넷전문은행 토스뱅크의 '지금 이자 받기'처럼 고객이 원하면 이자를 내주고 매일 남은 잔액을 기준으로 이자가 쌓이는 '일 복리' 구조의 수신 상품을 판매할 수 있다.저축은행권이 편의 서비스를 강화하는 데는 새마을금고에서 불어온 뱅크런(예금 대규모 인출) 위기감이 작용한 것으로 보인다. 저축은행권은 새마을금고와 함께 자금 이탈 규모가 큰 금융권이기도 하다.한국은행 경제통계시스템에 따르면 지난 1월 120조7천854억원이던 저축은행의 수신 잔액은 계속 감소해 지난 4월 기준 114조6천159억원까지 6조1천695억원이나 줄었다.무엇보다 지난해 11월 최고 6%대로 팔았던 고금리 예금 상품 만기가 다가오면서 우려가 커졌다. 수신 금리를 최근 4%대로 끌어올리긴 했지만, 상품 만기별로 금리가 1.15~1.65%포인트(p) 낮아져 재예치 유인이 적다.그렇다고 수신 금리를 더 높이면 이자 비용이 커져 수익성 악화가 불가피하다. 저축은행은 조달 자금 대부분을 수신에 의존하고 있다. 높은 금리로 예금을 받으면 그만큼 대출 금리도 올려 예대마진을 유지할 수는 있으나, 실제로는 그렇지 못해 예대마진이 줄어드는 문제가 생길 수 있다.무턱대고 금리만 높일 수 없는 상황에서 지금 이자 받기 등의 서비스가 수신 경쟁력을 강화하는 대안일 수 있다. 실제로 토스뱅크는 서비스 출시 약 1년 2개월 만에 이용 고객 수 330만 명을 모아 흥행에 성공했다.저축은행 뱅킹 애플리케이션(앱) 활성화 등 디지털 경쟁력 강화에도 긍정적이다. 돈을 맡긴 고객들이 이자를 받기 위해 앱을 찾는 빈도가 증가할 가능성이 크다.저축은행중앙회 관계자는 "고객이 요청하면 언제든지 이자 지급이 가능하게 됐다"며 "내부규정 정비, 전산 개발 과정 등을 거쳐 개별 저축은행에서 해당 상품을 출시할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>자동차 할부금융시장 뛰어든 토스, 카카오페이…신경전 가열</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005038132?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>토스, 이달 말 신차 카드 할부 비교 서비스 베타버전 오픈카카오페이 '자동차 카드결제 비교'에 롯데카드 합류자동차할부금융시장 지난해 취급잔액 약 41조원 육박 [서울=뉴시스]비바리퍼블리카(토스) 로고 이미지(사진=토스 제공)2023.04.24 photo@newsis.com *재판매 및 DB 금지 /사진=뉴시스  카카오페이 CI ⓒ News1 /사진=뉴스1 [파이낸셜뉴스]토스, 카카오페이 등 핀테크 기업들이 자동차 할부금융시장에 뛰어들고 있다. 자동차 할부금융 시장 규모가 약 40조원에 육박하면서 핀테크 기업들이 신차 카드 할부 결제 비교 서비스를 시작으로 자동차 힐부시장에 본격적으로 진출할 전망이다. 이에 여신업계와 캡티브 금융사들도 핀테크 기업들의 움직임을 예의주시하며 마케팅을 강화하고 있다.     ■토스 신차카드 할부 비교서비스 베타 출시  6일 금융권에 따르면 토스는 이달 말 신차 카드 할부 비교 서비스 베타 버전을 출시할 예정이다. 토스 관계자는 "일부 사용자에게 (서비스를) 먼저 오픈하는 형태로 시작해 순차적으로 (사용자를) 확대해 전체 오픈을 할 계획"이라고 밝혔다.   카카오페이도 지난달 30일 사용자가 신차를 구입할 때 카드사 금리와 캐시백 혜택을 비교하는 '신차 사고 캐시백 받기' 서비스를 기존 일시불에서 할부 영역까지 확대했다. '자동차 카드결제 비교'를 통해 할부 서비스 카드사도 우리카드에서 7일부터 롯데카드로 확대된다. 카카오페이 관계자는 "이달 안에 카드사 약 3곳이 추가될 예정"이라고 말했다.    카카오페이 '신차 사고 캐시백 받기' 서비스 화면. 일시불 서비스를 이용하려면 선수금을 100%로 설정하고, 할부 서비스를 이용할 경우 선수금을 그 이하로 줄이면 된다. 사진=카카오페이 제공 카카오페이의 '신차 사고 캐시백 받기' 서비스는 '선수금'에 따라 일시불 서비스와 할부 서비스가 결정된다. 선수금을 100%로 조절할 경우 일시불 결제로 인식되면서 그에 해당하는 캐시백을 비교할 수 있고, 선수금을 그 이하로 줄이면 나머지를 할부로 결제한다는 의미로, 그에 맞는 금리와 캐시백을 비교하는 식이다. 사용자의 신용점수 등을 기반으로 이용 가능한 상품을 조회할 수 있으며, 조건 설정에 따라 노출되는 상품도 달라진다.     '대세'로 떠오른 자동차 할부금융시장...지난해 취급잔액 약 41조원 육박  이같이 핀테크 기업들이 자동차할부금융서비스에 뛰어드는 것은 자동차할부금융시장 규모가 급속도로 성장하고 있어서다.   실제 여신금융협회에 따르면 자동차 할부금융 취급잔액은 8년 연속 증가세로, 지난 2014년 16조1534억원에서 지난해 40조7208억원으로 24조5674억원이나 늘어났다.   특히 여전채 금리가 하락하며 조달비용이 낮아지자 자동차 할부금융금리가 올 초 연 7%대에서 5%대로 하락하면서 자동차 할부금융시장이 대중화됐다. 신차 기준 현대자동차 쏘나타를 현금구매비율 30%, 대출기간 36개월로 잡아 조회하면 최저 연 5.2%의 금리를 적용받을 수 있다.     "사용자 편의성 극대화" vs "빅테크에 기울어진 운동장·출혈 경쟁 우려 "  핀테크 기업들이 본격적으로 자동차할부 금융시장에 뛰어들 기세에 업계 간 신경전도 고조되고 있다. 핀테크 기업들은 접근성과 편의성이라는 주특기로 자동차시장의 정보 비대칭성 문제를 해결해 사용자 편의성을 극대화하겠다는 각오지만 핀테크 플랫폼에 올라탄 여신업계나 캡티브 금융사의 시각은 다르다. 금융사가 규제로 타사 할부금융 서비스를 제공하지 못하는 가운데 핀테크 기업만 모든 금융사의 할부 비교 서비스를 제공하는 상황이 '기울어진 운동장'이라는 것이다.   여신업계의 한 관계자는 "자율시장 경쟁에 따라 (시장이) 움직이도록 하려면 빅테크뿐 아니라 금융사도 비교 서비스를 제공할 수 있도록 규제를 풀어줘야 한다"고 강조했다. 또 다른 업계 관계자도 "시장을 장악하는 기업은 빅테크가 될 확률이 큰데 편익에 대한 대가로 소비자가 부담스러워지는 상황이 발생할 수 있다"고 우려했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.07.11.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>‘온라인 대출 갈아타기’ 한달새 6700억 이동</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003774786?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>대출자들이 스마트폰으로 간편하게 기존 대출을 더 좋은 금리 조건으로 갈아탈 수 있는 ‘대환대출 인프라’ 서비스가 시작된 지 한 달 만에 6700억원의 대출이 금융사 간에 이동한 것으로 나타났다.10일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융위원회로부터 받은 자료에 따르면, 대환대출 인프라 서비스가 시작된 지난 5월 말부터 6월 말까지 한 달 동안 이 서비스를 통해 총 2만6883건, 6684억원의 대출 자산이 이동했다. 대환대출 인프라는 금융사들의 대출상품을 은행 앱이나 네이버, 카카오, 토스 같은 온라인 플랫폼에서 비교한 후 더 낮은 금리의 상품으로 손쉽게 갈아탈 수 있는 시스템이다.유형별로 보면, 은행으로 대표되는 1금융권 간의 이동이 대부분이었다. 1금융권에서 1금융권으로 이동한 경우가 6161억원(2만2052건)으로 금액 기준 전체의 92%를 차지했다. 은행 간 ‘대출 뺏고 뺏기기’ 전쟁이 치열한 것이다. 이어 카드사 등 2금융권에서 1금융권으로(315억원), 2금융권에서 2금융권으로(169억원), 1금융권에서 2금융권(39억원) 순으로 이동 금액이 컸다 .한편 김희곤 국민의힘 의원실 자료에 따르면, 대환대출 인프라 시작 첫 10일간 고객들은 기존 대출상품에서 하나은행(1497억원), 토스뱅크(885억원), 우리은행(762억원), 카카오뱅크(469억원) 순으로 많이 옮겼다. 금융업계 관계자는 “현재는 대출 금리가 비교적 낮은 은행들 사이에서 대출 전환 경쟁이 벌어지고 있지만, 대환대출 인프라에 참여하는 카드, 캐피털사들이 점점 많아지고 있어 2금융권 간의 경쟁도 곧 거세질 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.07.09.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>토스뱅크, 국제 환경경영표준 인증 'ISO14001' 획득</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002728845?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>토스뱅크는 국제표준화기구가 제정한 환경경영시스템 인증인 ISO14001을 취득했다고 9일 밝혔다. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크는 국제표준화기구가 제정한 환경경영시스템 인증인 ISO14001을 취득했다고 9일 밝혔다.ISO14001은 환경경영체계 표준으로 에너지 소비 최소화, 환경 보호 및 사고 예방, 환경 법규 준수 등 친환경 경영체계를 갖춘 기업에 부여한다. 국제표준화기구는 환경 문제를 개인, 지역을 넘어 전세계가 해결해야 할 문제로 인지하고 국제적으로 통일된 규정을 마련해 왔다.2021년 10월 출범과 함께 토스뱅크는 그린오피스를 추구해 왔으며, 이를 위한 여러 체계를 마련하고 실천해 왔다. 비대면 인터넷전문은행으로서 지점 건물의 운영과 관련된 에너지 저감, 이산화탄소 배출감소 정책을 이어온 것은 물론, 폐기물저감, 제로페이퍼를 통한 환경 보호, 절수 및 원격 조명 조절 시스템 등 각종 에너지 절약 등이 대표적이다.토스뱅크 관계자는 "토스뱅크가 글로벌 기준으로 자리잡은 환경경영에 발맞추어 체질 개선을 이어온 결과 세계 최고 수준의 인증기관으로부터 인증을 획득할 수 있었다"며 "환경경영시스템을 ESG경영의 기반으로 삼아 은행의 사회 및 환경에 대한 책무를 강화하고 글로벌 기준에 발맞춘 은행으로 거듭나고자 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.07.08.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>토스뱅크, 20여분 일부 서비스 먹통</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004211556?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>[서울경제] 8일 토스뱅크에서 일부 서비스에 오류가 발생해 이용자들이 불편을 겪었다.토스뱅크는 이날 오전 9시 10분부터 9시 30분까지 대출 실행과 신규 예·적금 가입 등 일부 서비스 접속이 원활하지 않았다고 밝혔다.토스뱅크는 "시스템 업데이트로 인해 일부 고객에게 오류가 발생했다"며 "현재는 조치를 완료한 상태"라고 말했다.이용자마다 기능에 대한 오류 시간은 달랐지만, 평균 20분가량 지속됐다고 회사는 설명했다.다만 토스뱅크는 잔액 조회와 송금 기능에는 문제가 없었다고 덧붙였다.일부 온라인 커뮤니티에는 토스뱅크 앱이 먹통이라는 글이 올라왔다.회사 측은 "이번 사안을 분석해 유사한 일이 발생하지 않도록 하겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>올해 상반기 최고 브랜드는 불황을 어떻게 극복했나</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000046964?sid=110</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>[2023 상반기 소비자 만족 브랜드 대상]이코노미스트 선정 ‘2023년 상반기 최고 브랜드’ 비결은“불황도 기회로…소비자 심리 변화를 브랜딩에 적용“[허태윤 한신대 IT영상콘텐츠학과 교수] 소비자가 불황기에 주머니를 닫는다는 생각은 순진한 발상이다. 리서치인터내셔널(RI)에 따르면 이들은 경기가 좋지 않을 때 품질은 같고 가격이 낮은 제품을 찾는다. 불황기일수록 지출한 금액에 맞는 가치를 추구한다는 뜻이다.소비자의 심리 변화를 브랜딩에 적용하면, 불황기는 기회가 된다. 어떤 브랜드는 매출 부진의 이유를 불황에서 찾고, 어떤 브랜드는 불황에도 시장 점유율을 확대한다. 이 차이는 불황기를 맞은 소비자의 심리를 이해하고, 여기에 맞는 가치를 만드는 데 달렸다.이코노미스트가 선정한 2023년 상반기 최고의 브랜드들은 가치에 민감해지는 불황기 소비자의 심리에 주목했다. 새로운 포지셔닝과 고객 경험, 혁신, 트렌드를 꿰뚫는 콘셉트의 힘을 통해 가치를 새롭게 제안하고 위기를 기회로 만들었다.올해 1월은 사회 전반에 불황의 그림자가 짙게 드리운 시기였다. 삼성전자는 이 시점에 신제품 ‘갤럭시 S23’을 출시해야 하는 위기를 맞았다. 삼성전자가 선택한 전략은 마케팅 기법의 ‘고전’으로 꼽히는 USP(Unique selling point)였다.삼성전자는 어둠 속에서도 밝은 사진을 촬영할 수 있는 ‘나이토그래피’ 기능을 강조했다. 브랜드 ‘갤럭시S’의 인지도는 충분했고 경쟁제품인 ‘아이폰’과 기능적 차별화를 추구하는 건 소비자에게 의미 없는 제안일뿐이었다.광고에선 3개의 렌즈를 통해 어둠 속에서 피어나는 꽃을 보여준다. ‘피어난다’는 뜻의 영어단어 ‘BLOOM’을 ‘BLOOOM’으로 변주해 나이토그래피의 기능을 브랜드의 감성적 가치로 치환하는 재치를 보여줬다.갤럭시 S23 광고는 이전 갤럭시S 시리즈의 이성적 광고와 달리 과감한 브랜드 전략이 돋보였다. 삼성전자는 실제 USP에 집중한 브랜딩으로 올해 1분기에만 1100만대의 갤럭시 S23을 팔아치웠다. 전작인 갤럭시 S22의 기록(3000만대)을 넘긴, 주목할 만한 성과다.LG전자 ‘LG 트롬 워시타워’(왼쪽)와 쿠팡 애플리케이션(앱) 실행 이미지. [사진 각 사]‘핸드폰=기능’, ‘백화점=명품’…공식을 깨다신종 코로나바이러스 감염증(코로나19)이 유행한 2020년. LG전자도 ‘LG 트롬 워시타워’를 출시해 시장의 ‘게임체인저’ 자리를 굳혔다. 워시타워는 세탁기와 건조기가 일체형으로 구성된 세탁·건조기다. 드럼세탁기와 건조기를 옆으로 나란히 설치할 때보다 제품이 차지하는 공간을 크게 줄여 효율성을 높였고, 위아래로 배치할 때보단 높이를 낮춰 소비자가 통상 위에 설치되는 건조기를 편하게 이용할 수 있도록 했다.핵심은 워시타워 중앙의 조작부다. 위아래로 설치하는 세탁·건조기는 북미나 유럽에서 일반화된 제품이다. 한국인은 세탁기를 사용할 때 허리를 숙이고, 건조기를 이용할 땐 손을 뻗어야 하는 불편함이 있었다. 워시타워의 조작부는 분리형 제품보다 100㎜ 높게 설계돼 소비자가 쉽게 기기를 조작하도록 했다. 이른바 ‘언멧 니즈’(Unmet needs·충족되지 않은 욕구)를 채워 매해 30%에 달하는 매출 성장도 기록했다.현대백화점이 서울 여의도에 세운 ‘더 현대 서울’의 성공담은 더 경이롭다. 이 부지는 여의도 백화점이 두 차례 철수한 후 ‘백화점의 무덤’으로 불렸다. 고급 백화점의 필수 입점 브랜드인 ‘에루샤’(에르메스·루이비통·샤넬)도 없었다. 코로나19가 한참이던 시기 문을 열기도 했다.더 현대 서울은 타기팅(Targeting) 차별화로 서울의 랜드마크가 됐다. 백화점은 구매력이 있는 중장년층이 대상이거나 주변 상권이 조성된 지역에 들어선다. 더 현대 서울은 MZ세대를 고객층으로 선정했다. 이 세대가 소셜미디어를 중심으로 활동해 영향력과 파급력이 크다는 점에 주목했다.더 현대 서울은 백화점에 통상 입점하는 브랜드를 과감히 떠났다. 소셜미디어에서 유명한 브랜드가 매장 곳곳을 채웠다. 스웨덴의 지속가능한 브랜드로 알려진 패션 브랜드 ‘아르켓’와 유기농 성분의 뷰티 스파 브랜드 ‘뱀포드’, 번개장터의 스니커즈 중심 중고 거래 브랜드 ‘브그즈트랩’(BGZT Lab) 등을 발굴해 가치소비를 추구하는 MZ세대를 모았다.포지셔닝(Positioning)도 더 현대 서울의 성공 비결이다. 더 현대 서울은 상권의 개념을 넓히기 위해 매장명에서 ‘여의도’를 뺐다. 인천공항과 가까운 서울 서부에 있다는 점을 고려해 ‘글로벌 서울의 중심’을 주제로 편의 시설을 구성했다. 더 현대 서울이 들어선 지역은 주말이면 유령 상권이 되는데, 상권을 확장해 지리적 한계를 돌파했다.파격적인 공간 구성도 눈여겨볼 지점이다. 더 현대 서울은 전체 면적의 절반에만 매장을 배치하고 남은 공간은 모두 고객의 휴식 공간으로 설계했다. 고객이 다른 고객과 적게 부딪힐수록 매장에 오래 머문다는 ‘엉덩이 부딪침 효과’(Butt brush effect) 이론에 충실했다. 오프라인 매장이 온라인 매장을 이기려면, 공간 자체를 체험 공간으로 구성해 매력적으로 만들어야 한다는 데도 주목했다.토스뱅크는 발상의 전환으로 혁신을 일궜다. ‘선이자 정기예금’의 성공이 대표적이다. 토스뱅크는 금융시장의 후발주자인 인터넷 은행이다. 수신예금의 86%는 불안정한 요구불 예금이었다. 토스뱅크는 예금상품의 구조를 안정적인 정기예금으로 바꿔야 했다. 아이디어는 ‘일수놀이’로 불린, 사금융에서나 가능했던 선이자에서 나왔다.토스뱅크의 선이자 정기예금은 이 회사가 금융사 최초로 선보인 서비스다. 수시입출금 통장을 보유한 고객은 하루 한 번, 원할 때 이자를 받을 수 있다. 통장 자금을 기준으로 이자가 쌓이는 일 복리 구조가 적용돼 돈을 많이 보관할수록, 이자를 자주 받을수록 유리한 상품이다. 가입과 동시에 연 3.5% 금리의 이자를 미리 지급하는, 국내 은행에선 볼 수 없었던 혁신적 서비스이기도 하다.토스뱅크는 이 상품으로 수시입출금 상품 비중을 줄이고 정기예금 비중을 높였다. 기존 사업자들이 구축한 ‘정기예금’의 이미지를 깨 브랜드 혁신도 실현했다. 고정관념을 비틀고 새로운 서비스 가치를 부여하는 브랜딩은 브랜드가 소비자에게 ‘자기다움’을 각인하는 강력한 무기다.무릎을 치게 한 마케팅…새로운 콘셉트 전달   사학의 경쟁자인 연세대와 고려대가 편의점 빵을 놓고 ‘연고전’을 벌였다. BGF리테일이 운영하는 편의점 브랜드 씨유(CU)의 협업 마케팅 때문이다. 이 회사의 마케팅은 무릎을 치게 한다. 사업 초기, CU는 우유로 유명한 ‘연세우유’와 함께 ‘연세우유 크림빵’을 출시했다. 생크림 함량을 80%까지 높여 입소문을 탄 제품이다. 이 제품은 빵을 반으로 갈라 사진을 찍는, 이른바 ‘반갈샷’으로 소셜미디어에서 유명해졌다. 연세우유 크림빵은 1000만개 이상 팔리며 대박 조짐을 보이기도 했다.CU는 이때 놀라운 생각을 한다. 연세대와 경쟁 대학인 고려대에 빵을 만들자고 제안한 것이다. 재학생과 졸업생은 물론 고려대에 애정이 있는 외부인, 교수진, 학부모를 고려해, 고려대에 브랜드 협업을 제안했다. CU는 곧 고려대의 상징색인 ‘크림슨’이 칠해진 사과잼 페스츄리 ‘고대 듬뿍앙버터’를 출시했다. 고려대의 영문명인 ‘KOREA UNIVERSITY’는 물론 고려대 교표까지 새겼다.이후 편의점에선 때아닌 ‘연고전’이 벌어졌다. 연대빵과 고대빵의 대결은 색다른 경쟁 구도라며 언론에 소개됐다. 대학의 이름을 건 이 빵들은 경쟁적으로 팔려나갔고 CU는 빠르게 실적을 키웠다. CU에 따르면 이 회사가 먼저 출시한 연세우유 크림빵은 올해 5월 기준 누적 판매량 3000만개를 돌파했다. 고대빵도 고려대가 있는 안암동은 물론 주변 지역 등에서 높은 매출을 기록했다.이번 사학전의 최종 승자는 CU로 보인다. 대학빵 시리즈가 불티나게 팔리자, 이 회사의 디저트 부문 매출은 올해 1월부터 4월까지 지난해 같은 기간과 비교해 281% 늘었다.(왼쪽부터) 농심 비빔면 브랜드 ‘배홍동비빔면’, SPC삼립 ‘포켓몬빵’, HK이노엔 ‘컨디션 스틱’. [사진 각 사]롯데칠성음료는 ‘처음처럼’ 이후 16년 만에 내놓은 새로운 소주 브랜드 ‘처음처럼(새로)’로 국내 소주 시장을 뒤흔들고 있다. 기존 소주 제품과 달리 과당을 사용하지 않은 ‘제로 슈거’ 콘셉트로 소주 시장의 강자인 하이트진로의 ‘진로’와 진검승부를 벌이고 있다. 소비자들의 반응도 놀랍다. ‘제로 슈거라 목 넘김이 부드럽다’, ‘알코올 특유의 향이 적다’, ‘무가당이라 숙취와 건강에 좋다’는 입소문을 타고 새로를 찾는 소비자들이 많아졌다.국내 소주 시장은 오랜 시간 하이트진로의 독무대였다. ‘참이슬’과 ‘진로이즈백’ 등을 성공적으로 시장에 안착시키며 이 회사 점유율은 60% 중후반으로 확대됐다. 하이트진로가 2019년 진로이즈백을 출시할 당시 발매 한 달 만에 누적 판매량은 6백만병을 돌파했다. 4개월째 4000만병을 넘겼고, 7개월째 1억병을 기록했다. 하이트진로는 올해 1월 진로이즈백을 제로 슈거로 리뉴얼하기도 했다.롯데칠성음료는 콘셉트에 초점을 맞춰 새로를 출시해 하이트진로가 지배해 온 제로 슈거 소주 시장에서 성공을 거뒀다. 소비자들이 과당이 들어간 제품을 어떻게 생각하는지 파악해 이를 소주 제품에 바로 반영했다. 주력 사업인 음료 사업에서 ‘과당을 없애는’ 아이디어를 얻었다. 제로 슈거 소주라는 새로운 시장에서 물리적·심리적으로 새로운 콘셉트를 소비자들에게 전달한 것이다.버크셔 해서웨이를 이끄는 세계적인 투자자 워런 버핏은 투자자에게 메일을 보내 “수영장에 물이 가득 찼을 때는 알 수 없지만, 수영장의 물이 다 빠진 후엔 누가 발가벗고 수영장에 들어왔는지 알 수 있다”고 전했다. 경기가 좋지 않은 시기에 기업의 진정한 경쟁력을 비로소 알 수 있다는 뜻이다. 마케팅에서도 이 말은 그대로 적용된다. 좋은 브랜드는 불황기에 더욱 빛을 발한다.&lt;심사평&gt; “브랜드의 ‘자기다움’으로 관계 구축”오늘날의 브랜드는 살아있는 인격체와 같다. 제품의 물리적 속성만으로 차별화가 어려운 시대이기에, 브랜드는 인격을 갖춘 사람처럼 이념과 철학이 필요하다. 소비자들이 제품의 차별적 우수성으로만 브랜드에 열광하는 시대는 지났다. 브랜드는 어려운 상황에서도 자기다움을 소비자에게 전달하고, 신념을 말할 수 있어야 소비자와의 관계를 지속할 수 있다. 감동적인 시(詩)가 더 큰 울림을 주듯, 좀 더 창조적인 아이디어로 말한다면 관계의 질은 더 높아질 수 있을 것이다.‘이코노미스트’가 엄선한 ‘소비자 만족 브랜드 대상’은 소비자 중심 서비스와 소비자 신뢰도, 소비자 공감도, 서비스의 지속가능성을 기준으로 삼고, 부문별 브랜드 가치를 공정하게 평가했다. 수상한 브랜드는 오랜 기간 혹은 단기간이라도 매력적인 자기다움을 표현한 기업이다. 더 많은 공감을 받는 브랜드가 되기 위해 소비자의 가치에 부합할 수 있도록 노력한 브랜드이기도 하다.이들 브랜드는 소비자가 추구하는 가치에 부합하는 자기다움, 지속가능한 세상을 만들기 위한 일관된 메시지, 소비자 중심의 제품과 서비스 철학, 말하지 않아도 알 수 있는 고객의 신뢰를 보유한 곳들이다. 크리에이티브한 아이디어로 감동적인 메시지를 만들고, 소비자와 밀접한 관계를 구축한 브랜드에 경의(敬意)의 박수를 보낸다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.07.07.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>토스증권, '글로벌 데이터 보안표준' PCI-DSS 인증 취득</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011959427?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>매년 심사 후 인증 발행·유지[서울=뉴시스] 박은비 기자 = 토스증권은 국내에서 처음 글로벌 데이터 보안표준(PCI-DSS) 인증을 취득했다고 7일 밝혔다.서울 강남구 역삼동 토스증권 본사에서 전날 진행된 인증서 수여식은 보안표준 인증기관 BSI 주관으로 진행됐다.PCI-DSS는 지불결제 산업의 정보 보호, 정보 유출을 방지할 목적으로 만든 금융 분야 특화 글로벌 보안표준이다. 주로 신용카드사, 지급결제(PG)사 등이 주요 인증 대상이다. 이 인증은 정보가 전송되는 과정에서 데이터가 안전하게 보호되는지 검증한다.이번에 취득한 인증은 가장 최상위 등급인 v4.0이라는게 토스증권 설명이다. 보안네트워크·시스템, 데이터 보호, 취약성 유지관리 프로그램, 정기적인 모니터링과 보안 정책 등으로 매년 현장 심사를 통해 모든 항목이 준수된 경우 인증서가 발행·유지된다.지정호 토스증권 최고정보보호책임자(CISO)는 "앞으로도 고객이 안전하게 거래할 수 있도록 신뢰받는 서비스를 제공하는데 최선을 다하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.07.09.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>쏟아지는 車 할부 비교 서비스…어디가 유리할까</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004865903?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크카카오페이, 할부때도 캐시백 혜택 계산핀다, 공채 매입비용정확도 대폭 높여핀크, 최적 결제법 제시Getty Images Bank핀테크기업들이 자동차 할부 비교 서비스 시장에 잇달아 진출하고 있다. 지난해 말 두 자릿수에 달했던 자동차 할부금리 하단이 연 5%대로 내려오면서 시장도 활기를 되찾는 분위기다. 사업 다각화를 위해 자동차 금융시장에 진출하려는 핀테크기업과 은행이 늘면서 경쟁이 치열해질 전망이다.여신금융협회에 따르면 자동차 할부금융 취급 잔액은 지난해 42조3424억원으로 전년(39조2221억원) 대비 3조1203억원(7.34%) 증가했다.카카오페이는 지난달 30일 사용자가 신차 구입 시 카드사별 금리와 캐시백 혜택을 비교할 수 있는 ‘신차 사고 캐시백 받기’ 서비스를 기존 일시불에서 할부 영역까지 넓혔다. 서비스 제공사는 기존 우리카드에서 롯데카드가 추가됐다. 이달 카드사 세 곳이 추가로 입점할 예정이다.카카오페이의 할부 비교 서비스는 일시불과 할부 두 가지로 나뉜다. 일시불 서비스는 선수금을 100%로 설정하고 할부는 그 이하로 줄이면 된다. 고객의 신용점수와 보유 대출 등을 바탕으로 이용 가능한 상품을 조회해 준다. 별도로 할부 방식을 설정하지 않아도 입력한 선수금에 따라 자동으로 견적을 내준다는 게 장점이다.대출비교 플랫폼인 핀다도 같은 달 공채비, 취득세, 자동차세 등 각종 부대비용을 포함한 자동차 할부·리스·렌트 비용을 비교해 가장 유리한 상품을 추천받을 수 있는 서비스를 내놨다. 할부와 리스 등 견적을 입력하면 최적 비용과 월 납입금 등을 출력해준다.부대비용 중 상당한 비중을 차지하는 공채비는 지역·차종별로 채권 매입 의무 비율이 달라지기 때문에 일반인이 시세를 정확하게 파악하기 어렵다는 문제가 있었다. 이에 핀다는 한국거래소(KRX) 채권 시세를 하루 단위로 업데이트해 정확한 비용을 자동으로 계산함으로써 고객 편의성을 높였다는 설명이다. 취득세도 고객이 직접 입력한 자동차 표준가액을 기준으로 계산해 더 정확한 산출 결과를 보여준다.비슷한 예산과 가격대의 리스·렌트 차량을 최대 4개까지 추천해준다는 것이 장점이다. 추천받은 차종과 이용법을 살펴본 뒤 마음에 드는 조건을 찾았다면 캐피털회사와 직접 계약할 수 있도록 후속 절차도 안내해준다.핀크는 신차 구매 시 카드사별 일시불 캐시백과 할부 조건을 비교해주는 서비스를 출시했다. 복잡한 비교 절차를 간소화해 간단한 개인정보 입력만으로 최적의 결제 조건을 찾을 수 있도록 서비스를 구성했다. 신차를 카드로 일시불 결제하면 카드사가 결제 대금 일부를 돌려주는 ‘오토 캐시백’ 혜택을 제공한다.자동차 할부 관련 금융 상품 및 서비스 출시를 앞둔 금융사도 있다. 케이뱅크는 이르면 이달 자동차 할부 대환대출 상품을 인터넷은행 중 최초로 출시한다. 올해 자동차 구매자금 대출 상품도 선보일 방침이다. 상대적으로 저렴한 대출금리를 앞세워 자동차 금융 수요를 끌어들이겠다는 전략이다. 토스는 이달 말 신차 카드 할부 비교 서비스 베타 버전을 내놓을 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>‘신세계 유니버스 클럽’ 멤버십 혜택 강화...회원수 확대 총력</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003114794?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>신세계그룹 통합 멤버십 '신세계유니버스클럽'신세계그룹이 통합 멤버십 '신세계 유니버스 클럽' 회원 수 확대에 총력을 쏟고 있다. 외부 파트너십 확장에 속도를 높이는 동시에 멤버십 전용 혜택을 강화하고 있다. 대규모 프로모션과 계열사 시너지 창출을 지속해 쿠팡·네이버 등 경쟁사와 대등한 유료 멤버십을 구축하겠다는 복안이다.6일 업계에 따르면 G마켓은 메가박스와 신세계 유니버스 클럽 제휴를 위한 협의를 진행 중이다. 현재 G마켓은 클럽 회원을 대상으로 메가박스 예매권을 특가 제공하는 등 혜택을 제공하고 있다. 양 사는 이같은 단기 협업을 넘어 중·장기 혜택을 제공하기 위해 세부 사항을 논의 중이다.이달부터 토스도 신세계 유니버스 클럽 금융 제휴사로 합류한다. 향후 토스 애플리케이션(앱)을 통해 신세계 유니버스 클럽 가입과 혜택 조회, 포인트 제휴 등을 추진할 전망이다. 특히 토스는 SSG페이·스마일페이 매각을 위한 우선 협상 대상자로 선정됐다. 계약이 성사될 경우 신세계의 '커머스' 사업과 토스의 '페이' 기능이 상호 보완하는 관계로 진화할 수 있다.신세계 유니버스 클럽 전용 상품과 프로모션도 늘어나고 있다. G마켓은 오는 10일부터 '여행 빅페스타'를 개최한다. 여행 성수기를 겨냥한 이번 행사는 신세계 유니버스 클럽 회원 혜택 강화에 초점을 뒀다. 일반 회원 대비 혜택을 3배 이상 키워 클럽 회원에게는 최대 30만원 상당 할인 쿠폰을 제공한다. 특가 상품이나 타임딜 코너에서도 클럽 전용 상품을 별도로 제공한다.SSG닷컴도 이달의 멤버십 전용 상품 코너를 신설했다. 지난 5일 오전 판매를 개시한 웨스틴 조선 서울 호텔 아리아 뷔페 전용딜은 반나절 만에 준비 수량이 완판 됐다. 타임딜로 판매한 CJ제일제당 스팸과 신세계푸드 삼계탕 제품도 품절됐다. 조선호텔앤리조트, 신세계푸드 등 계열사 상품의 특가 판매도 점차 늘어날 것으로 관측된다.멤버십 전용 이벤트도 추가하고 있다. 이달 개봉하는 영화 '미션 임파서블-데드레코닝' 시사회도 클럽 전용으로 개시했다.이같은 움직임은 더욱 활발해질 전망이다. 신세계 유니버스 클럽은 배송·적립 등을 앞세운 타사 유료 멤버십에 비해 킬러 콘텐츠가 없다는 평가를 받았다. 강점인 오프라인 매장, 계열사 시너지 창출을 통한 차별화가 필수적이라는 지적이다. 대한항공과 KT 등 외부 기업, 이마트24·신세계푸드·스타필드 등 계열사까지 멤버십 제휴를 신속하게 확대할 것으로 점쳐진다.업계 관계자는 “멤버십 확대를 위해 신세계그룹이 초반부터 전방위적인 혜택 강화에 나선 모습”이라며 “토스 등 외부 기업과의 제휴, 계열사 합류 등이 분위기를 반전시킬 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>알스퀘어디자인, 광진구 근린생활시설 건축 사업 수주</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011956496?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>알스퀘어, 자회사 통해 건축사업 본격화기존 인테리어·리모델링 사업과 시너지 기대알스퀘어의 자회사 알스퀘어디자인이 건축 사업에 나선다. 사진은 알스퀘어디자인이 시공한 강남구 이투데이 빌딩. (사진=알스퀘어 제공) *재판매 및 DB 금지[서울=뉴시스] 홍세희 기자 = 상업용 부동산 전문기업 알스퀘어는 자회사 알스퀘어디자인이 서울 광진구 근린생활시설 건축 사업을 수주했다고 6일 밝혔다.알스퀘어디자인은 이번 수주를 계기로 건축 사업을 본격화한다. 최근에는 삼성물산과 CJ대한통운 건설부문, 쿠팡 컨스트럭션(Construction) 총괄 디렉터 등을 거친 정일환 본부장을 영입했다.알스퀘어디자인은 오피스 건물과 소규모 공장, 물류센터, 상업시설 등 업무·상업용 건물을 설계하고 건설하는 조직이다.알스퀘어디자인의 인테리어·리모델링 사업과의 시너지도 기대된다. 알스퀘어디자인은 HMM, 비바리퍼블리카(토스), 무신사, 카카오페이증권 등의 오피스 인테리어와 서울 강남구 이투데이 빌딩(옛 논현빌딩), 서초구 방배빌딩, 영등포구 여의도 파이낸스타워 등의 리모델링 사업을 수행했다.알스퀘어디자인은 "인테리어·리모델링에 이어 건축을 더해 실내외 건축의 전 과정을 진행할 수 있게 됐다"며 "경쟁력을 높여 차별화된 원스톱 솔루션 서비스를 선보이겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘먼저 이자 받는 정기예금’…소비자들은 환호했다 [2023 상반기 소비자 만족 브랜드 대상]</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000046975?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>신종 코로나바이러스 감염증(코로나19)이 유행하는 동안 수많은 브랜드가 사라졌다. 그러나 위기를 기회로 만든 기업도 많았다. 다른 결과는 다른 판단에서 나왔다. 소비자의 목소리를 듣고 끊임없이 혁신한 브랜드는 흔들리는 경기 속에서도 살아남았다. 기업과 브랜드를 향한 소비자들의 믿음은 견고했기 때문이다.브랜드는 어떻게 생존할까. 정해진 답은 없다. 하지만 변화를 반복하며 살아남은 브랜드의 공통점은 있다. 소비자 만족이 기업 경영의 핵심이라는 가치를 믿었다는 점이다. 이코노미스트가 선정한 2023 상반기 소비자 브랜드 대상은 이런 기업들에 주어졌다. 소비자의 마음을 얻은 기업들은 도전과 변화로 소비자의 요구에 끊임없이 응답했다.사랑받는 브랜드는 시장 환경 변화에도 기민하게 반응했다. 소비자들이 상품과 서비스를 선택하는 데 사회적 가치를 고려했기 때문이다. 소비자들은 불황에도 더 건강하고 편리한, 지속가능한 삶을 지향했다. 이런 가치를 함께 좇은 기업들이 소비자 만족 브랜드 대상에 이름을 올린 이유다. [편집자주]토스뱅크의 ‘먼저 이자 받는 정기예금’ 서비스 이미지 [사진 토스뱅크][이코노미스트 이용우 기자] 토스뱅크가 은행업계 최초로 내놓은 ‘먼저 이자 받는 정기예금’이 시중 자금을 끌어오고 있다. 올해 3월 24일 출시된 이후 80여 일 동안 이 상품을 통해 모인 고객 예치액은 2조7000억원이다. 예금에 새로운 패러다임을 불러온 이 상품에 일평균 320억원에 달해 가파른 성장을 보이고 있다. 먼저 이자 받는 정기예금은 고객이 가입과 동시에 이자를 먼저 받을 수 있는 상품이다. 보통 은행의 정기예금은 만기를 지켜야만 이자를 받을 수 있지만 이 상품은 미리 이자를 받아 자금을 재투자할 수 있다는 장점이 있다. 특히 금리는 세전 연 3.5%로 은행의 정기예금과 큰 차이가 없고, 가입한도는 최소 100만원에서 최대 10억원으로 큰 금액으로도 자금 운용이 가능하다. 가입 기간도 3개월 또는 6개월로 짧게 유지할 수 있다. 예를 들어 고객이 1억원을 3개월간 맡기면 세전 금액인 약 88만원을 이자로 즉시 받는다.이런 장점으로 인해 출시 이후 높은 고객 관심을 모았다. 6월 16일까지 만들어진 계좌는 12만좌, 예치액은 2조7000억원에 달한다. 가입 고객 중 65%는 가입 기간을 3개월로 선택했다. 고객 1인당 평균 예치액은 2800만원으로, 지급된 이자는 평균 29만3400원이다. 가입 고객 연령대를 살펴보면 40대가 31.2%로 가장 높았고 ▲50대 이상 27.6% ▲30대 25.5% ▲20대 14.7% 등 순을 보였다. 목돈과 경제력이 있는 연령대가 먼저 이자 받는 정기예금을 선호하는 것으로 분석된다.토스뱅크는 지난달 17일부터는 이 상품에 대한 1인 1계좌 가입 제한도 없앴다. 고객이 이자를 먼저 받는다는 편의성만 아니라 자금 관리 유연성까지 높인다는 취지에서다. 이런 제도를 통해 토스뱅크는 한 고객이 최고 20개까지 계좌를 개설해 고액을 분산 예치했다고 설명했다. 특히 3개월 만기를 채운 고객은 ‘자동 재가입’ 서비스를 통해 최대 3회까지 재가입할 수 있다는 장점도 있다. 다만 중도해지를 할 경우 가입 기간에 비례한 중도해지 이자가 원금에서 차감된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.07.12.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>디플정, "국민드림 프로젝트 순항"···10개 사업 점검</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002298451?sid=105</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>주관부처 등 참석 '실손보험 간편 청구', '청약 정보 통합 제공' 등 살펴대통령 직속 디지털플랫폼정부위원회(위원장 고진)는 국민이 디지털플랫폼정부의 성과를 피부로 느낄 수 있으며 일상생활에 영향이 큰 사업인 31개 '국민드림 프로젝트’중 10개에 대해 진행상황을 점검했다고 12일 밝혔다.지난해 9월 정식 발족한 디플정위원회가 출범 1주년을 앞두고 성과가 확실히 눈에 보이는 '국민드림 프로젝트' 성과 창출에 본격 나선 모양세다. 위원회는 이날 관계부처와 함께 ‘국민드림 프로젝트 상반기 점검회의’를 대회의실에서 개최했다. 디플정위원회가 국민과 기업이 체감하는 맞춤형 서비스로 추진하는 것은 총 31개로 이중 20개는 작년에 올해 11개가 각각 선정, 추진중이다.이날 회의에는  31개 중 10개 프로젝트에 대해 주관부처에서 추진 실적과 향후 계획을 발표했고, 이들 서비스 구현시 국민과 기업에 미칠 효과 와 실제 사례를 구체적으로 논의했다. 위원회가 밝힌 과제별 추진상황과 성과는 아래와 같다.‘실손보험 간편청구’는 2009년 이래 답보상태에 있던 과제로 작년 10월부터 위원회가 주관하는 태스크포스(TF)에서 금융위, 복지부, 의료·보험업계 등이 참여해 추진방안을 논의했고, TF 논의내용 등을 반영한 보험업법 개정안이 지난 6월 정무위 전체회의를 통과했다. 향후 이 법안이 국회에서 통과해 시행할 경우 국민이 실손보험 청구서류를 일일이 발급받아 서면으로 제출하지 않아도 병원 창구, 모바일 앱 등을 통해 보험금을 편리하게 청구할 수 있을 전망이다. 특히, 절차가 불편해 청구포기 사례가 많은 소액보험금(연간 2~3천억원 추정)을 보다 편리하게 지급받을 수 있을 것으로 기대된다.‘청약정보 통합제공’ 과제는 청약홈(한국부동산원)과 마이홈(LH) 등에서 모든 분양‧임대주택 청약정보를 취합해 오픈 API(application Programming Interface) 방식(공공데이터포털 활용)으로 민간플랫폼에 제공(’22.10월)하고 있는데, 국민은 흩어진 청약정보와 신청자격을 일일이 확인하는 불편 없이 민간 앱(토스 등)을 통해 청약정보를 보고 맞춤형 안내를 받아 쉽게 청약할 수 있게 됐다.(작년 12월부터 민간에서 서비스 제공 중).‘일자리 지원’ 과제는 개인의 직업 선택과 취업 준비 지원을 위해 개발한 인공지능(AI)·빅데이터 분석 기반 '맞춤형 직업상담지원(잡케어-JobCare) 서비스'를 워크넷을 통해 모든 국민에게 개방(’23.3월)했으며, 디지털 온라인고용센터(가칭고용24) 시스템이 연말에 완성되면 내년부터 실업급여 등 고용보험 서비스의 신청 절차가 온라인으로 이뤄져 민원 편의성이 높아질 전망이다.‘무역금융 신청간소화’ 과제는 지난 6월 14일부터 무역기업이 자사의 수출입 데이터를 은행, 공공기관 등에 손쉽게 전송하고 관리할 수 있는 온라인 플랫폼 서비스를 본격 시작했다. 그동안 기업이 무역금융을 신청하거나 지원사업에 참여하기 위해서는 관세청에서 자사의 수출입 실적을 제공받아 은행이나 공공기관에 종이서류 형태로 제출해야 했으나, 이번 서비스 개시로 수출입 실적을 1분 만에 손쉽게 조회하고 전자적으로 전송할 수 있게 됐고, 특히 소액과 다회 수출 형태 특성상 무역금융 신청에 과다한 행정비용이 발생해 이를 사실상 포기해 온 중소 전자장거래(B2C) 수출업체도 무역금융을 활용할 수 있는 계기를 마련했다고 위원회는 설명했다.‘진료기록 조회·관리’ 과제는 국민이 자신의 의료데이터를 주도적으로 관리하고 활용할 수 있게 한 국가 의료데이터 중계 플랫폼(건강정보 고속도로)으로 이를 구축 중이다. 시스템에 대한 사전 검증을 위해 플랫폼과 의료기관(245개)을 연계해 시범운영을 실시(’22.8월~’23.2월)했고, 시스템 구축 및 운영 등을 위한 법적 근거도 마련했다. 즉, 의료법 시행령 제10조의3(본인진료기록열람지원시스템 구축·운영)을 신설해 올해 3월 5일부터 시행중이다. 하반기에 건강정보 고속도로가 본격적으로 가동되면 여러 기관에 흩어져 있는 진료기록을 개인이 모바일(나의건강기록 앱)을 통해 손쉽게 통합관리 할 수 있으며, 진료와 투약이력에 기반한 의료서비스 제공에 도움이 될 것으로 기대된다.앞으로 위원회는 이날 논의한 10개 과제 이외에도 복지 사각지대 발굴 등 21개 과제도 추진상황을 지속적으로 점검하고 부처의 애로사항 해소를 위해 위원회가 적극 지원하는 등 부처와 관계기관 간 협력을 강화할 계획이다. 고진 위원장은 "각 부처는 윤석열 정부의 디지털플랫폼정부의 철학에 맞게 부처 간 칸막이를 허물고, 민간의 플랫폼을 적극 활용하는 등 철저히 국민의 관점에서 서비스를 제공해 디지털플랫폼정부 성과가 조기에 실현될 수 있게 노력해 줄 것"을 당부했다.또한 서비스가 구현되어 디지털플랫폼정부의 변화내용과 성과들을 국민에게 적극 알리고 그 효과가 국민의 생활에서 체감될 수 있도록 부처와 관계기관들의 세심한 관심과 현장의 목소리에 귀 기울여주실 것”을 당부하였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>한국투자증권, 전기공급 이상으로 또 'MTS 먹통'</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006909253?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>최근 카카오페이증권·토스증권 MTS에서도 오류 있어한국투자증권 본사 전경.(한국투자증권 제공) ⓒ News1 이기림 기자(서울=뉴스1) 이기림 기자 = 한국투자증권의 모바일트레이딩시스템(MTS)에 접속장애가 발생했다.5일 금융투자업계에 따르면 이날 낮 12시30분쯤부터 한국투자증권의 MTS에 접속장애가 나타났다. 국내주식 거래는 15분 정도, 해외주식 및 파생상품의 경우 약 1시간 정도 먹통이었던 것으로 알려졌다.한국투자증권 관계자는 "본사 내 전기공급 이상으로 발생한 서비스 지연"이라며 "정확한 원인은 파악 중"이라고 밝혔다.한국투자증권은 80년 만의 기록적인 폭우가 내린 지난해 8월에도 전력 공급 문제로 MTS 등에서 접속 장애가 발생한 바 있다.한편 최근 카카오페이증권과 토스증권에서도 MTS 오류가 발생하면서 주식투자자들의 불편이 반복되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.07.11.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>‘日 오염수 방류’ 피해 우려되는 수산업계 위해 예산 3500억원 집행…금융 지원도 검토 [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003832370?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>일본의 후쿠시마 원전 오염수 방류가 임박한 가운데 우리 정부는 막대한 피해가 예상되는 수산업계를 지원하기 위해 올해 3500억여원의 예산을 집행할 방침이다. 수산물 정부 비축 예산은 지난해보다 두 배 이상 늘었고, 민간 수매 지원 예산도 1000억원 이상 편성했다. 정부는 어업인을 대상으로 한 금융 지원도 검토하고 있다.     지난 6일 인천 중구 인천종합어시장에서 상인들이 손님을 기다리고 있다. 연합뉴스    ◆정부, 수산물 비축 예산에 1750억원 책정…전국 각지에선 방류 반대 집회     10일 기획재정부에 따르면 정부는 올해 예산 편성 과정에서 후쿠시마 원전 오염수 방류 상황을 대비해 수산물 정부 비축 예산으로 1750억원을 책정했다. 이는 지난해 비축 예산(750억원)보다 두 배 이상 늘어난 규모다.     비축은 정부가 수산물을 산지나 시장에서 직접 구매해 냉동 창고에 보관하다가 필요한 시점에 시장에 푸는 방식으로 이뤄진다. 올해 비축 목표량은 역대 최대 규모인 7만6000t이다.      수산물 가공업체 등에 수매 자금을 융자해주는 민간 수매 지원 예산도 1150억원 편성했다. 아울러 수산물의 민간 소비를 촉진하기 위해 소비쿠폰도 640억원가량 지원한다. 총 3540억원 상당의 예산이 올해 수산업계 지원에 배정된 셈이다.     금융 지원도 검토 중이다. 정부와 금융당국은 어가의 경비를 낮은 이자로 빌려주는 영어자금의 지원 대상과 규모를 확대하는 방안을 살펴보고 있다. 일시적인 경영 위기에 처한 어업인을 대상으로 최대 3000만원 한도 내에서 자금을 융자지원하는 ‘어업인 긴급 경영안정 자금’을 활용하는 방안도 논의되고 있다. 방류 이후 생산·유통 단계 수산물 방사능 검사 건수를 확대하고, 일본산 수산물에 대해 미국이나 유럽보다 10배 이상 엄격한 방사능 검사 기준을 적용하는 등의 조치도 시행할 방침이다. 정치권 일각에서는 피해 수산업자들에게 ‘재난 지원금’을 지급해야 한다는 주장도 나오고 있다.      한편 수도권을 비롯한 곳곳에서는 일본의 오염수 방류 결정에 반대하는 집회가 열렸다. 인천에서는 지역연대와 기후위기 인천비상행동이 시청 앞에서 결정 철회를 촉구하는 기자회견을 열었다. 경기 수원에서도 시민·환경단체 50여 곳과 정당들이 모여 ‘후쿠시마 방사성 오염수 해양투기 저지 수원공동행동’을 출범했다. 이들은 바다에 오염수를 들이붓는 퍼포먼스를 선보였다. 경남에서는 릴레이 단식 투쟁이 예고되는 등 정치권의 오염수 방류 반대 목소리가 이어졌다. 더불어민주당 김두관 경남도당 위원장 등은 “국제원자력기구(IAEA) 측은 일본 정부로부터 막대한 예산 지원을 받아오던 기관이다. 당이 검토한 결과 해당 보고서는 일본 정부와 도쿄전력의 입장만을 받아 쓴 ‘깡통 보고서’일 뿐”이라고 주장했다.     서울시내 한 은행 외벽에 대출 안내문이 써붙어 있다. 연합뉴스    ◆“2017년 이후 강화된 대출규제, 자산 불평등엔 큰 영향 없어”     2017년 이후 대출규제가 더 강하게 적용된 조정대상지역 등의 주택 가격이 오히려 더 크게 올랐다는 분석이 나왔다. 다만 모든 소득 계층에서 주택 가격이 고르게 올라 규제가 자산의 불평등을 심화하지는 않은 것으로 나타났다. 가계부채는 고소득층 중심으로 감소했다.     한국은행이 발표한 ‘BOK이슈노트’ 보고서에 따르면 조정대상지역에 적용된 주택담보인정비율(LTV)·총부채상환비율(DTI) 규제 이후 해당 지역 가구의 주택자산 규모가 대조군(이외 지역) 대비 9.3% 오른 것으로 나타났다.     한은은 2017년부터 시행된 부동산 조정대상지역에 대한 LTV·DTI 규제 강화를 규제충격으로 보고 그 충격이 국내 가구의 부채와 주택자산에 미친 영향을 분석했다. LTV는 주택 가격 대비 대출 가능 금액을, DTI는 대출 이용자의 연소득 대비 대출 상환액을 가리킨다.     2017년은 문재인정부가 투기지역 및 투기과열지구와 조정대상지역으로 나눠 대출규제 강화를 시작했던 때다. 당시 투기지역 및 투기과열지구에서는 주택담보대출 시 LTV 40%, DTI 40%가 적용되고, 조정대상지역에선 LTV 60%, DTI 50%가 적용됐다. 가계부채 관리를 통해 부동산 시장의 과열을 막겠다는 의도였다.     그러나 주택자산 가격이 상승하며 취지를 살리지 못했다는 분석이다. 김민수 한은 금융안정국 금융안정연구팀 차장은 “(조정대상지역 등에) 더 강한 규제를 적용했음에도 부동산 가격 상승에 대한 기대심리 등으로 이 지역의 부동산 가격 상승이 억제되지 못했다”며 “규제가 부동산 가격 상승 모멘텀을 꺾을 만큼 강력하지는 못했다”고 해석했다.     남산에서 바라본 서울 시내 아파트. 연합뉴스    규제 지역의 주택자산 가격 상승도는 소득 분위별로 큰 차이를 보이지 않았다. 한은의 분석에 따르면 소득 5분위별 분류에서 5분위(상위 20%)와 4분위의 자산 가격 상승도는 모두 8.9%를 기록했다. 3분위는 11.2%, 2분위는 12.9%, 소득이 가장 낮은 1분위(하위 20%)는 9.0%였다. 규제가 자산 불평등 효과를 가져오지는 않은 셈이다.     다만 이는 증가 폭인 만큼, 보유 자산 규모가 큰 고소득층에서는 증가액이 더 많았을 것이란 예상이다. 김 차장은 “증가율 자체는 같더라도 절댓값 자체는 자산 상위 가구에서 크게 나타났을 것”이라며 “같은 증가율이라면 불평등도는 증가하지 않는 것으로 파악된다”고 설명했다.     규제는 해당 지역의 가계부채를 5.7% 감소시키는 효과를 가져왔다. 5분위와 4분위 가구에서 가계부채가 각각 10.9%, 13.9% 감소하는 등 고소득층의 부채 위주로 감소한 것으로 나타났다. 1∼3분위는 부채가 소폭 증가하거나 제자리걸음 수준이었다. 규제가 가계부채가 많은 가구의 부채를 감소시키는 방향으로 작용해 부채 불평등을 완화하는 효과를 냈다는 분석이다.     김 차장은 “대출규제 강화가 자산을 적게 보유한 가구의 대출 접근성을 제약해 부채·자산 불평등을 초래할 수 있다는 주장이 적어도 우리나라의 2017년 이후 규제 강화 사례에서는 실증적으로 나타나지 않았다”며 “(대출)규제가 의도하지 않게 불평등을 심화할 가능성에 대해 우려하기보다는 거시 건전성 제고라는 원래의 취지에 맞게 시행하는 것이 바람직함을 시사한다”고 설명했다.     그러면서도 “규제 강화로 자산 및 소득 하위 가구, 특히 제도권 대출에 대한 접근이 어려운 가구의 자금 조달 애로가 커질 수 있으므로 보다 세심하고 엄밀한 분석 및 지원 대책이 병행될 필요가 있다”고 강조했다.     서울 시내에 설치된 시중은행들의 ATM기와 카카오페이 대출 비교 서비스 '대출 갈아타기' 화면 모습. 연합뉴스    ◆대환대출 인프라 시행 한 달간 6700억원 규모 ‘대출 갈아타기’…‘2금융권→1금융권’은 4.7% 불과     스마트폰 애플리케이션(앱)을 통해 대출 상품을 비교하고 기존 신용대출을 갈아탈 수 있도록 한 ‘온라인·원스톱 대환대출’ 인프라 시행 이후 한 달간 6700억원가량의 대출 자산 이동이 발생한 것으로 나타났다. 대출 갈아타기 중 90% 이상은 1금융권에서 1금융권으로 옮긴 은행 간 이동이었다. 저축은행 등 2금융권에서 1금융권으로 이동한 ‘성공’ 케이스는 5%에도 못 미쳤다.     국민의힘 윤창현 의원이 금융위원회로부터 받은 자료에 따르면 대환대출 인프라가 시행된 지난 5월31일부터 6월30일까지 22영업일 동안 인프라를 통해 총 6684억원(2만6883건)의 대출 자산이 이동했다. 이는 금융결제원 대출이동시스템을 통해 상환된 기존 대출의 총계를 기준으로 집계됐다.     이동 유형은 은행 간 대출 이동이 대부분을 차지했다. 1금융권에서 1금융권으로 이동한 액수가 6161억원(2만2052건)으로 전체의 92.2%(금액 기준) 수준이었다.      반면 저축은행 등 2금융권에서 1금융권으로 이동한 액수는 315억원(2352건)으로 4.7%(금액 기준)에 불과했다. 2금융권에서 2금융권으로의 이동은 169억원(2098건), 1금융권에서 2금융권 이동은 39억원(381건)이었다.     대환대출 인프라 개시 초기 10일간(5월31일∼6월9일) 1금융권에서 1금융권으로의 이동이 전체 이동금액의 94.6%를 차지했던 것과 비교하면 1금융권 간 이동 비중은 2.4%포인트 줄었지만, 여전히 10건 중 9건 이상을 차지하고 있다. 2금융권에서 1금융권으로 이동한 비중은 0.9%포인트(3.8→4.7%) 오르는 데 그쳤다.      대출 갈아타기로 이자 비용을 줄이기 위해선 금리 수준이 가장 낮은 은행권으로 이동하는 게 유리하지만, 시중은행은 대출 평가 기준이 엄격해 2금융권을 이용해 온 저신용자나 다중채무자는 부적격 판정을 받을 가능성이 비교적 높을 수밖에 없다. 이를 두고 정치권에선 2금융권 대출 이용자의 1금융권 전환 및 2금융권 간 대출 전환이 활성화할 수 있도록 제도 개선이 필요하다는 지적이 나온다.     다만 타 금융권으로의 고객 유출 등을 우려해 대환대출 인프라 참여에 다소 소극적이었던 카드사들도 최근 인프라 참여에 속속 나서면서 2금융권 대환대출 경쟁은 보다 활성화할 것으로 보인다. 앞서 신한카드(카카오페이·토스·핀다)와 KB국민카드(카카오페이·네이버페이)가 대환대출 인프라 플랫폼에 입점했고, 현대카드도 지난 6일 핀다에 입점했다. 롯데카드도 올해 3분기 중 플랫폼 입점을 계획하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>알체라, 인천공항 스마트패스 시스템 사업 참여</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002152319?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>ⓒ알체라[디지털데일리 이종현기자] 영상인식 인공지능(AI) 기업 알체라는 인천국제공항이 추진하는 스마트패스 시스템에 자사 얼굴인식 솔루션을 공급한다고 14일 밝혔다. 인천공항의 복잡한 출입국 절차를 간소화함으로써 여행자의 편의성과 공항 운영의 효율성을 높인다는 계획이다.인천국제공항공사의 스마트패스 시스템은 여권이나 탑승권 없이도 사전등록한 얼굴정보를 통해 체크인, 수하물 위탁, 출국장 보안검색, 항공기 탑승 등의 절차를 빠르게 진행할 수 있도록 지원한다.국제항공운송협회(IATA)는 얼굴인식 등 생체인식 출국 서비스를 도입했을 때 체크인에 걸리는 시간이 10%, 탑승은 40%가량 감소한다고 예측한 바 있다. 알체라는 자사 솔루션 도입을 통해 여객이 몰리는 극성수기에도 원활한 공항운영을 돕고, 여객 편의성을 획기적으로 개선할 것으로 기대된다고 전했다.스마트패스 2차 사업자 선정을 위한 경쟁입찰에서 KT 컨소시엄이 1위를 차지함에 따라, 공급사로서 알체라는 관련 솔루션을 납품하게 됐다.알체라는 2D 카메라 방식으로 미국 아이베타(iBeta)의 ‘얼굴 위·변조 탐지 성능(PAD)’ 테스트를 통과한 기업이다. 2022년 행정안전부 주관 스마트 정부청사 통합관리체계 구축사업 벤치마크테스트(BMT)에서도 1위를 차지한 바 있다. 서울·대전·과천 4대 청사에 얼굴인식 시스템 구축을 완료했으며, 올해 4월부터 22만명이 넘는 공무원의 효율적인 출입관리를 지원하고 있다.알체라 황영규 대표는 “코로나19 이후 비대면 트렌드가 가속화되면서, 전세계 공항에서 얼굴인식 기반 출입국 시스템을 빠르게 도입하고 있다”며 “알체라의 얼굴인식 AI 솔루션은 고도화된 보안 절차를 제공하는 동시에 여행자의 신원 확인과 출입 관리를 간소화하며, 안전하고 효율적인 여행 환경 조성을 위한 중요한 역할을 할 것”이라고 말했다.한편 알체라는 얼굴인식 AI 솔루션의 적용 분야를 공공부문에 더해 금융기업을 대상으로도 확장하는 중이다. 은행권을 중심으로 내부 정보접근통제를 강화하기 위해 얼굴인증을 통한 생체인증 도입 의무화가 주목받고 있고, 현재 토스뱅크와 신한카드, 현대해상 등을 대상으로 서비스를 공급했다는 것이 알체라의 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.07.13.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>[MK라씨로] 기관, 현대百 집중 매수</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005158121?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>이번주 기관투자자들이 보유 비중을 확대한 종목은 클리노믹스, 디와이파워, 엔비티, 제이티, 코스메카코리아 등으로 나타났다.기관투자자들은 이달 6일부터 12일까지 진단기기 개발 기업인 클리노믹스를 89만9975주 순매수했다. 클리노믹스의 상장주식 수 대비 6.6%에 해당하는 물량이다.모바일 포인트 플랫폼인 엔비티에 대해서도 기관투자자들의 보유 비중이 늘어난 것으로 나타났다. 기관투자자들은 엔비티를 37만8690주, 상장주식 수 대비 2.2% 순매수했다. 채윤석 IBK증권 연구원은 엔비티에 대해 "현재 네이버페이, 토스, 카카오톡 등 국내 주요 대형 금융·메신저 플랫폼으로 제휴사를 확장했다"고 밝혔다.기관투자자들은 현대백화점에 대해 33만3215주, 상장주식 수 대비 1.4%를 순매수했다. 조상훈 신한증권 연구원은 "현대백화점의 올해 2분기 영업이익은 컨센서스에 부합할 것으로 전망된다"며 "단일 지주회사 체제는 기업가치에 긍정적"이라고 밝혔다.기관투자자들은 반도체 검사장비 및 산업용 가스 제조업체인 제이티도 22만9799주, 상장주식 수 대비 2.2% 순매수했다. KG모빌리언스도 64만8064주, 상장주식 수 대비 1.7% 순매수했다.외국인 투자자들이 상장주식 수 대비 높은 비중의 물량을 매수한 종목은 성우하이텍, 피엔티, 진성티이씨, 인산가, 우진 등이었다.외국인은 자동차 차체 부품 전문업체인 성우하이텍을 474만4936주, 상장주식 수 대비 5.9% 순매수했다. 성우하이텍은 현대차그룹에 자동차 부품을 공급하고 있다. 진성티이씨에 대해 외국인들의 보유 비중이 상장주식 수 대비 3.5%만큼 늘어난 것으로 나타났다. 외국인들은 원전 계측기 업체인 우진도 54만1905주, 상장주식 수 대비 2.7% 순매수했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.07.09.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>토스뱅크, 국제 환경경영표준 인증 획득</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003115542?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>토스뱅크는 국제표준화기구(ISO) 환경경영시스템 인증 ISO14001 인증을 획득했다고 9일 밝혔다.토스뱅크는 국제표준화기구(ISO) 환경경영시스템 인증 ISO14001 인증을 획득했다고 9일 밝혔다.ISO14001은 환경경영체계 표준으로 에너지 소비 최소화, 환경 보호 및 사고 예방, 환경 법규 준수 등 친환경 경영체계를 갖춘 기업에 부여한다. 국제표준화기구는 환경 문제를 개인, 지역을 넘어 전세계가 해결해야 할 문제로 인지하고 국제적으로 통일된 규정을 마련해 왔다.2021년 10월 출범과 함께 토스뱅크는 '그린오피스'를 추구해 왔고, 이를 위한 여러 체계를 마련하고 실천해 왔다. 비대면 인터넷전문은행으로서 지점 건물의 운영과 관련된 에너지 저감, 이산화탄소 배출감소 정책을 이어온 것은 물론, 폐기물저감, 제로페이퍼를 통한 환경 보호, 절수 및 원격 조명 조절 시스템 등 각종 에너지 절약 등이 대표적이다.토스뱅크는 인증 획득을 기점으로 환경경영의 큰 틀을 지속적으로 이어가는 한편, 각종 자원의 효과적 관리와 함께 환경 성과 개선을 이어갈 방침이다.토스뱅크 관계자는 “토스뱅크가 글로벌 기준으로 자리잡은 환경경영에 발맞추어 체질 개선을 이어온 결과 세계 최고 수준의 인증기관으로부터 인증을 획득할 수 있었다”며 “환경경영시스템을 ESG경영의 기반으로 삼아 은행의 사회 및 환경에 대한 책무를 강화하고 글로벌 기준에 발맞춘 은행으로 거듭나고자 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>"공모주 청약 일정 확인부터 실제 청약까지 한 번에" 토스뱅크, '공모주 청약 일정' 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005039224?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>토스[파이낸셜뉴스] 토스뱅크가 코스피, 코스닥 시장에 상장을 앞둔 공모주의 청약 일정 확인부터 실제 청약까지 가능한 ‘공모주 청약 일정’ 서비스를 시작했다고 10일 밝혔다.   토스뱅크 ‘공모주 청약 일정’ 서비스는 제휴 증권사의 계좌개설은 물론 모바일 웹을 통해 바로 청약까지 한 번에 진행할 수 있다는 점이 특징이다. 기존에 고객들은 공모주 청약을 위해 증권사 앱을 다운로드 받아 공모주 청약을 위한 경로를 직접 찾아 들어갔어야 했다.   이에 토스뱅크는 한국투자증권과의 제휴를 통해 증권계좌 개설 서비스를 제공하고 한국투자증권이 주간사인 공모주 청약은 토스뱅크에서 한국투자증권의 모바일 웹을 통해 청약까지 바로 진행할 수 있게 했다.   ‘공모주 청약 일정’ 서비스에서는 현재 청약 중인 공모주는 물론 3일 이내 청약을 앞둔 공모주, 앞으로 다가오는 공모주 등의 정보를 제공하며, 상장 완료한 공모주의 공모가 대비 시초가 수익률도 확인할 수 있다.   고객이 청약을 희망하는 기업 클릭 시, 청약일과 주식 배정 및 환불일, 상장 매매 시작 등 기본 정보를 제공하고 청약 경쟁률도 확인할 수 있다. 기관 수요예측 결과와 청약 시작 후 각 증권사에서 고객들이 얼마나 청약에 참여하고 있는 지를 보여주는 청약 경쟁률을 실시간으로 제공한다.   청약 일정을 놓치지 않게 알림도 받을 수 있다. 공모주와 관련된 청약 일정과 예상 공모가 등의 정보를 안내하는 ‘공모주 청약 알림’은 공모주 알림 관리는 화면 하단에 ‘공모주 알림 설정’을 클릭하면 된다.   토스뱅크 관계자는 “‘공모주 청약 일정’ 서비스에서 고객이 증권사 모바일 웹으로 청약까지 가능케 하는 등 고객 편의성을 높였다”며 “이를 통해 고객들이 공모주 관련 정보를 보다 손쉽게 확인하고 투자에 도움이 되길 바라며, 제휴 증권사들을 점차 확대해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>대구은행, ‘전국은행’ 된다</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003234290?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>이르면 올해 안 ‘시중은행’ 인가31년 만에…은행 과점 체제 깨기지방은행인 대구은행이 이르면 올해 안으로 시중은행으로 전환될 것으로 보인다. 전국 단위 영업을 할 수 있고 낮은 금리로 자금을 조달할 수 있는 시중은행 인가는 31년 만이다. 금융당국은 은행 간 금리 경쟁이 촉진돼 소비자의 선택권이 확대될 것으로 기대했다. 은행 간 경쟁 촉진을 위해 검토했던 스몰 라이선스 등 소규모 특화은행 도입, 은행 외 증권사 등 다른 금융사가 계좌 개설을 할 수 있게 하는 지급결제업 확대는 보류했다.김주현 금융위원장은 5일 서울 명동 은행회관에서 은행지주 회장 간담회를 열고 ‘은행권 경영·영업관행·제도 관련 개선방안’을 발표하고 이같이 밝혔다.김소영 금융위 부위원장은 사전브리핑에서 “대구은행이 최근 시중은행 전환 의향을 밝혔다”면서 “현 상황에서 지배구조 요건은 큰 문제가 없어 신청서를 받으면 사업계획 등의 타당성을 신속히 심사해 전환 여부를 결정하겠다”고 말했다. 김 부위원장은 “빠르게 진행하면 올해 안에 (인가가) 가능하지 않을까 생각한다”고 말했다.대구은행은 시중은행 인가에 필요한 최소자본금 요건 1000억원과 지배구조 요건(산업자본 보유 한도 4%·은행 보유 한도 10%)을 모두 충족한다. 지방은행은 필요 자본금이 250억원이고 지배구조 요건도 시중은행보다 완화돼 있다.‘은행 과점 해소’로 검토한 특화전문은행은 사실상 유보대구은행의 자본금은 올 1분기 말 기준 6806억원이다. 지분은 DGB금융지주가 100%를 보유하고 있고, DGB금융지주 주요 주주는 지난해 말 기준 국민연금(8.78%), 오케이저축은행(8.00%), 우리사주조합(3.95%) 등이다.나머지 지방은행 5곳인 BNK부산(9774억원)·BNK경남(4321억원)·JB전북(4616억원)·JB광주(2566억원)·제주은행(1606억원)은 필요한 자본금은 충분하지만 제주은행을 제외한 4곳은 지배구조 요건을 충족하지 못한다. 제주은행은 신한금융지주(지분율 75.31%)가 대주주이지만 지방은행 중 규모가 가장 작다. 대구은행 관계자는 “금융당국의 입장을 확인한 만큼 구체적인 시중은행 전환 신청 계획을 만들 예정”이라고 말했다.시중은행 인가는 1992년 11월 설립된 평화은행이 마지막이었다. 평화은행을 비롯한 일부 은행은 1997년 외환위기 이후 통폐합됐고 조흥은행(2006년), 외환은행(2015년)도 각각 신한은행과 하나은행에 합병됐다. 현재 시중은행은 신한·KB국민·하나·우리·NH농협 등 5곳이다. 2015년 이후에는 케이뱅크(2016년 12월), 카카오뱅크(2017년 4월), 토스뱅크(2021년 6월) 등 인터넷전문은행 인가만 있었다.금융위는 대구은행이 시중은행으로 전환하면 수도권, 지방은행이 없는 충청과 강원 등에서 여수신 경쟁이 확대할 것으로 기대했다. 금융당국은 인터넷전문은행을 비롯한 다른 신규 인가도 자금력이 충분하고 사업계획이 실현 가능하다면 적극적으로 추진하기로 했다. 다만 일각에서는 신규 은행이 난립하면 제살 깎아먹기 경쟁이 심화돼 은행산업 경쟁력이 도리어 약해질 수 있다는 우려도 나온다.특화전문은행에 대해서는 “향후 필요성, 안정성 등을 종합적으로 감안해 도입 여부를 검토하겠다”고 밝혔다. 특화전문은행은 윤석열 대통령이 지난 2월 은행 과점체제를 개선하라고 지시한 후 관련 태스크포스(TF)에서 가장 먼저 검토했던 사안이다. 한 달 후 미국 실리콘밸리은행(SVB)이 파산하면서 소규모 은행이 금융 안정성을 해칠 수 있다는 우려가 커졌다. 결과적으로 금융위는 새로운 전문은행 설립은 유보하고 지방은행인 대구은행을 시중은행으로 전환시키는 선에서 은행 간 경쟁 촉진을 유도하기로 한 셈이 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>대구공항서 몽골 하늘길 여는 티웨이항공</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005039315?sid=102</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>28일부터 대구∼울란바토르 정기편 취항, 몽골 여행 편의 증대취항 기념 특가 판매 23일까지 진행 티웨이항공이 오는 28일 대구국제공항에서 출발하는 울란바토르(몽골) 노선에 신규 취항한다. 사진은 티웨이항공 항공기. 김장욱 기자 【파이낸셜뉴스 대구=김장욱 기자】 티웨이항공이 대구국제공항을 통한 몽골 하늘길을 열면서 대구경북 지역민들의 여행 편의에 앞장선다.   10일 티웨이항공에 따르면 오는 28일 대구에서 출발하는 울란바토르(몽골) 노선을 신규 취항한다고 밝혔다.   또 앞서 홈페이지와 모바일 웹(앱)에서 오는 23일까지 특가 프로모션을 선보인다고 덧붙였다.   유류할증료와 공항세를 포함한 1인 편도 총액 기준 17만5600원부터 특가 판매한다. 해당 항공권의 탑승기간은 오는 8월 27일부터 10월 8일까지다(일부 기간 제외).   할인권 검색 시 할인코드 '대구몽골'을 입력하면 운임의 10%가 즉시 할인 적용된다. 할인코드는 편도와 왕복 예약 모두 적용 가능하다.   특히 기본으로 제공되는 20㎏에 23㎏이 추가된 최대 43㎏(2PC)까지 무료로 수하물을 위탁할 수 있는 혜택도 누릴 수 있어 수하물 무게 걱정 없이 합리적인 운임의 해외여행이 될 것으로 기대된다.   이외 신규 가입 2만원 할인 쿠폰과 카카오페이, 토스페이, 우리카드, NH농협카드로 결제 시 최대 2만원 추가 할인 쿠폰도 만나볼 수 있다.   티웨이항공 관계자는 "티웨이항공은 지난 2014년부터 꾸준히 대구공항을 통한 하늘길을 넓혀가며 지역민 여행 편의를 확대하고자 노력하고 있다"면서 "앞으로도 더욱 다양한 노선과 서비스로 대구경북 지역민들의 사랑에 보답하는 시민들의 항공사가 되겠다"라고 강조했다.   대구∼울란바토르 노선은 28일부터 8월14일까지 주 2회(월·금), 8월 17일부터 10월 8일까지 주 2회(목·일) 스케줄로 운항한다.   몽골은 카자흐스탄 다음으로 세계에서 두 번째로 큰 내륙국가로 수도 울란바토르는 수많은 기암괴석과 푸른 초원, 야생화로 둘러싸인 '테를지 국립공원'을 비롯해 밤하늘 무수한 별을 볼 수 있는 '고비사막' 등 신비로운 경험으로 가득 찬 도시이다.   한편 티웨이항공은 지난해 7월부터 9월까지 3개월간 인천∼울란바토르 노선을 신규 취항 후 총 76편의 항공편을 운항해 1만7000여명의 승객 수송을 통해 몽골 여행객들의 편의를 크게 높였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>온라인으로 ‘대출 갈아타기’ 한 달…6700억원 이동했다</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003235024?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>1금융권 간 이동이 대부분대환대출 서비스 이용 방법‘온라인 대환대출 인프라’ 개시 후 지난 한 달간 6700억원가량의 대출자산이 이동한 것으로 나타났다. 온라인 대환대출은 스마트폰으로 기존 신용대출을 더 낮은 금리로 갈아탈 수 있게 하는 서비스다.10일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융위원회로부터 받은 자료에 따르면 5월31일부터 6월30일까지 대환대출 인프라를 통해 6684억원(2만6883건)의 대출 자산이 이동했다.대환대출 인프라 개시 초기 2금융권의 참여가 저조하면서 1금융권 간 대출 이동이 대부분을 차지했다. 1금융권에서 1금융권으로 이동한 액수가 6161억원(2만252건)으로 전체의 92% 수준이었다.2금융권에서 1금융권으로 이동한 액수는 315억원(2352건)에 불과했다. 이외에 2금융권에서 2금융권 169억원(2098건), 1금융권에서 2금융권 39억원(381건) 등이었다.다만, 카드사들이 대환대출 인프라 참여에 나서면서 2금융권의 대환대출 경쟁도 활성화될 것으로 기대된다. 신한카드(카카오페이·토스·핀다), KB국민카드(카카오페이·네이버페이), 현대카드(핀다) 등이 대환대출 서비스 플랫폼에 입점한 것에 이어 롯데카드도 3분기 중 대환대출 플랫폼에 입점을 계획하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>"토스뱅크서 미래에셋증권 주식계좌 만들 수 있다"</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005036463?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공.[파이낸셜뉴스] 토스뱅크는 ‘목돈 굴리기’ 서비스에서 미래에셋증권의 주식계좌인 ‘Direct 주식계좌’ 개설 서비스를 개시하고, 최대 6만5000원 상당의 현금 혜택 이벤트도 실시한다고 4일 밝혔다.   미래에셋증권의 ‘Direct 주식계좌’는 국내 및 해외주식, 채권, 펀드 등 금융투자상품 거래가 가능한 계좌로, 19세 이상의 한국 거주 내국인이라면 가입이 가능하다.   미래에셋증권의 ‘Direct 주식계좌’ 개설은 토스뱅크 내에서 ‘목돈 굴리기’ 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 가능하고 1인 1계좌까지 개설할 수 있다.   최초 신규 주식계좌 개설 고객을 대상으로 8월 말까지 다양한 혜택도 제공한다. 토스뱅크에서 미래에셋증권 계좌를 개설하면 1만5000원 현금을 토스뱅크 통장으로 즉시 지급하고, 해외주식 매수 시 투자지원금 5만원도 제공한다. 주식 매수시 부과되는 수수료 무료 혜택과 환전 우대 혜택도 제공된다.   현재 토스뱅크에서 주식계좌 개설이 가능한 증권사는 이번 미래에셋증권을 비롯해 한국투자증권, KB증권과 같은 국내 대표 대형 증권사들이 입점해 있다.   토스뱅크 관계자는 “주식계좌 개설 서비스 대상 증권사가 국내 대형 증권사들을 시작으로 점차 확대되며 고객의 선택권을 넓혀가는 중”이라며 “앞으로도 더욱 다양한 증권사와의 제휴를 통해 고객 중심의 다양한 혜택을 제공해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>'네이버로 주식 거래?'…투자자는 '환영' 증권사는 '글쎄'</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000227559?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>네이버, 증권사 계좌연동 주식거래 서비스 추진업계 상반된 시각 눈길금융투자업계는 국내 최대 포털사이트 네이버가 증권사 계좌연동을 통한 주식거래 서비스를 제공할 경우, 장점도 있으나 단점도 분명할 것으로 전망하고 있다. /더팩트 DB 네이버가 자회사 네이버파이낸셜을 통해 증권사 계좌연동을 통한 주식거래 서비스를 추진 중이다. 네이버파이낸셜 관계사인 미래에셋증권은 물론, 타 증권사도 네이버 측 제안서를 받고 사업협력을 검토하고 있어 투자자들의 관심을 끌고 있다. 다만 일각에서는 우려의 목소리도 나온다.네이버파이낸셜이 주식거래 서비스를 추진한다는 소식에 투자자는 대체로 반기는 분위기다. 주식을 투자할 때 기준이 되는 국내외 각종 경제지표나 상장사의 재무정보 등을 국내 최대 포털사이트인 네이버로 확인하면서 주식 거래까지 한 번에 이뤄질 수 있어서다. 종목에 대한 이야기를 나눌 수 있는 종목별 토론방이 네이버 증권 섹션에 자리한 것도 투자에 대한 접근성을 높일 수 있다.반면 증권가는 기대와 우려가 섞인 시각을 보내고 있다. 네이버가 추진하는 주식거래 서비스가 네이버가 독자적으로 증권사업 인가를 받고 플랫폼을 별도로 반드는 형태가 아니기 때문이다.금융투자업계는 네이버의 주식거래 서비스가 포털사이트 내에서 예비 투자자들의 매매 및 매도 주문을 받고 실제 거래는 연동된 증권사 계좌로 이뤄지는 형태로 추진할 것으로 보고 있다. 금융투자업 인가를 받고 주식 투자 플랫폼을 별도로 만들어 기존 증권사와 정면 승부를 하는 카카오페이증권이나 토스증권과 대조적이다.네이버는 자회사 네이버파이낸셜을 통해 금융부터 증권, 부동산 등 관련 서비스를 네이버페이로 통합하는 금융 관련 사업을 추진하고 있다. /네이버 증권 캡처이 경우 네이버가 주식 거래 수수료를 중간에서 받는 형태가 아닐 가능성이 높다. 따라서 신규 고객 유치가 급한 중소 증권사 입장에서는 네이버와 손을 잡는다면 접근성이 뛰어난 플랫폼을 통해 주식 거래를 유도하고 수수료까지 챙길 수 있는 이점이 있다.한 금융투자업계 관계자는 "증권사 계좌 연동을 통한 주식거래 서비스를 시도한 플랫폼 업체들이 그간 몇군데 있었으나 시장 파급력이 높진 않았다. 다만 네이버라면 얘기가 달라질 수 있다"며"주식 투자 서비스도 결국 접근성과 편의성을 통해 이용자 수급을 할 수 있어야 이윤을 낼 수 있다"고 전망했다.반대로 중소 증권사들이 오히려 네이버의 주식거래 서비스 추진을 꺼려할 수 있다는 목소리도 나온다. 기존 고객들이 많은 대형 증권사가 네이버와 손을 잡게 된다면 파이를 더욱 뺏길 수 있어서다. 또 대형 증권사 역시 네이버를 통한 증권거래로 수수료를 챙길 수 있더라도 증권 거래 외 마케팅이나 광고비 등은 모두 네이버에게 뺏길 수 있는 우려도 있어 신중한 판단이 요구된다는 입장이다.익명을 요구한 한 증권사 관계자는 "대중에게 접근성이 높은 대형 포털사이트가 한 페이지에서 주식거래를 가능하게 만든다면 증권 거래시 발생되는 트래픽을 모두 소화해버리기 때문에 광고나 마케팅 분야에서 발생할 시장까지 우위에 설 가능성이 높다"며 "포털사이트의 주된 수익원은 이용자 수가 높은 플랫폼을 활용한 광고비다. 거래 수수료를 받지 않더라도 광고비 명목으로 증권사가 지불할 추가 비용이 발생할 여지도 농후하다"고 진단했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.07.11.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>알리익스프레스, 여름휴가 시즌 필수품 최대 70% 할인</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002298239?sid=105</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>‘두근두근 바캉스’ 기획전 진행크로스보더 커머스(해외 직구) 플랫폼 알리익스프레스는 여름휴가 시즌을 맞아 오는 13일까지 해외직구 상품을 최대 70% 할인가에 판매하는 ‘두근두근 바캉스’ 기획전을 진행한다고 11일 밝혔다.이번 기획전에는 샤오미, 레노버, QCY, 제우스랩 등의 인기 전자기기 브랜드를 포함해 캠핑 브랜드 네이처하이크와 모비가든, 커피머신 브랜드 하이브루, 아트토이 브랜드 팝마트 등의 인기 브랜드가 참가한다.행사 기간, 최소 구매 금액에 제한 없이 모든 제품을 무료 배송으로 받아볼 수 있으며 구매 금액대별로 할인을 누릴 수 있다. 4만원 이상 구매 시 4 천원, 8만원 이상 구매 시 8천원, 12만원 이상 구매 시 1만 2천원의 할인이 적용된다. 또한, 토스페이 간편결제를 활용해 60달러 이상 결제 시 4달러의 추가 할인을 누릴 수 있다.알리익스프레스_두근두근 바캉스 프로모션알리익스프레스에 따르면 한국 소비자가 자주 찾는 일상복, 바캉스룩, 스포츠 의류 등의 다양한 여성 의류를 합리적인 가격에 제공하는 ‘에이스튜디오(A. Studio)’를 통해 시원한 여름나기에 필요한 패션 아이템을 한눈에 둘러보고 구매할 수 있다.레이장 알리익스프레스 한국 대표는 “이번 프로모션을 통해 국내 소비자들이 부담 없는 가격으로 설렘 가득한 바캉스를 준비하기를 바란다. 알리익스프레스는 해외직구를 쉽고 재미있게 느낄 수 있도록 하기 위해 앞으로도 계속해서 다양한 제품과 이벤트를 제공할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.07.03.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>토스, 신세계 쓱페이·스마일페이도 품는다</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004863324?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>우선협상자 선정...연내 거래 종결 목표로 내주부터 실사현금과 토스 주식 일부로 인수 예정이 기사는 06월 30일 08:46 마켓인사이트에 게재된 기사입니다.토스(비바리퍼블리카)가 신세계그룹 간편결제 사업부를 인수한다. 올 초 한 차례 인수 협의가 무산됐다가 다시 협상장에 앉아 우선협상대상자로 선정됐다. 30일 투자은행(IB) 업계에 따르면 토스 운영사 비바리퍼블리카는 최근 신세계그룹 쓱페이·스마일페이 매각 협상의 우선협상 대상자로 선정됐다. 연내 거래 완료를 목표로 내주부터 본격적인 실사를 진행한다.비바리퍼블리카는 인수 이후에도 신세계그룹과 파트너십을 강화한다는 전제로 인수에 나섰다. 이를 위해 매각 대금 일부를 현금이 아닌 주식으로 지급하는 방안을 검토 중이다. 신세계 또한 사업부 매각 이후에도 비바리퍼블리카 주주 지위를 지니면서 결제사업 관련 협력을 이어갈 수 있다고 판단한 것으로 알려졌다. 이 경우 주식 가치 평가를 위해 비바리퍼블리카 역시 실사 대상이 될 수 있다. 신세계그룹은 올초부터 쓱페이와 2021년 인수한 이베이코리아 산하 G마켓의 스마일페이를 묶어 페이 사업 매각을 추진해왔다. 2015년 유통업계 최초로 간편결제 시장에 뛰어들었지만 카카오페이(점유율 42.4%), 삼성페이(24%), 네이버페이(24%) 3곳이 과점을 이루면서 존재감을 보이지 못했다. 최근엔 애플페이 상륙으로 경쟁 강도가 거세졌다. 이에 그룹 차원에서 선택과 집중에 나선 것으로 풀이된다.이들의 협상은 앞서 한 차례 무산됐던 바 있다. 비바리퍼블리카는 지난 4월 "신세계와의 매각 협상은 3월 무산됐다"고 밝혔다. 당시 거래 조건에 대한 이견이 커 인수를 포기한 것으로 알려졌다. 하지만 자회사 토스페이먼츠의 간편결제 사업 확대를 위해 다시 협상을 재개했다. 비바리퍼블리카는 2020년 LG유플러스 PG(전자지급결제대행) 사업부를 인수해 토스페이로 이름을 바꿔 온라인 결제 시장에 진입했다. 지난 3월 애플페이의 공식 PG 파트너로 선정되기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>취객 지문으로 '잠금 해제'...강남 돌며 5천여만 원 빼갔다</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001906554?sid=102</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>[앵커]서울 강남 일대에서 만취한 사람의 스마트폰을 잠금 해제한 뒤 수천만 원을 빼간 남성이 경찰에 붙잡혔습니다.다음날 기억조차 못 할 정도로 술에 취한 사람들을 노린, 신종 퍽치기 수법으로 보입니다.강민경 기자가 보도합니다.[기자]늦은 밤 서울 강남.몸도 제대로 못 가누는 남성이 다른 남성에게 이끌려 골목을 지나갑니다.기둥 뒤에서는 몸싸움이 벌어집니다.제압된 취객의 손가락은 휴대전화 잠금을 푸는 데 사용됐고, 계좌에선 돈이 빠져나갔습니다.서울 강남과 서초, 송파구 유흥가를 돌며 만취한 사람을 노려 돈을 빼앗은 혐의로 32살 남성 장 모 씨가 경찰에 구속됐습니다.장 씨가 지난 1년 동안 가로챈 돈은 모두 5천5백만 원.취객의 계좌에 충분한 돈이 없으면 스마트폰으로 실시간 대출을 받아 이체하기도 했습니다.[A 씨 / 피해자 : 사무실에 있는 PC에서 카카오톡을 보니까 카드론을 돈을 찾아서 카드론을, 휴대전화에 있는 토스(앱)를 통해서 1천만 원을 인출했더라고요.]그런데 장 씨의 범행은 여기서 끝이 아니었습니다.[A 씨 / 피해자 : 다음 날 아침에 전화가 왔어요. 저한테 다짜고짜 사과해야 하지 않느냐 이런 소리를 하는 거죠. 제가 자기 아내를 끌어안았다느니 이상한 소리를 하더라고요.]피해자들에게 다음 날 전화를 걸어 '차량에 토했다'는 등의 거짓말로 협박해 돈을 더 뜯어낸 겁니다.피해자들이 술에 취했을 때의 일을 기억하지 못하는 걸 악용했습니다.[피의자 장 씨 (피해자 통화 내용) : 저희 집사람 옷에도 토했어요. 차 보셨겠지만, 신형인 거 아시죠? 시트하고 다 바꿔야 해요. 40만 원 먼저 어떻게 해주세요.]잇따른 신고로 범행을 인지한 경찰은 지난달 30일, 강남구 선릉역 인근 거리에서 장 씨를 체포했습니다.이미 사기 등 전과 17범인 장 씨는 현재 범행을 부인하고 있습니다.경찰은 장 씨처럼, 스마트폰의 보안이 허술할 수 있다는 점을 이용한 신종 '퍽치기범'이 더 있을 수 있다며 주의해 달라고 당부했습니다.YTN 강민경입니다.영상편집: 문지환그래픽: 지경윤화면제공: 서울 강남경찰서※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>31년만에 시중은행 인가 추진…대구은행 "검토" [금융 경쟁촉진]①</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000756615?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>금융위 "지방은행 →시중은행, 저축은행 → 지방은행 허용"금융위 "지방에 본점 둔 첫 시중은행, 빠르면 연내 승인"31년 만에 새로운 시중은행이 등장할 전망이다. 당국이 은행권 경쟁을 촉진한다는 취지로 지방 대구은행을 시중은행으로 전환해 줄 방침이다.5일 금융위원회가 금융지주 회장들과 감담회를 갖고 지난 2월부터 4개월간 은행권 경영·영업 관행 제도 개선 태스크포스(TF)를 운영해 15차례 회의를 집중적으로 논의한 결과를 발표했다.은행권의 경쟁 촉진과 구조 개선을 위해 기존 금융사의 은행 전환을 적극적으로 허용하겠다는 방침이다. 이를테면 지방은행은 시중은행으로, 저축은행은 지방은행으로 인가를 허용하겠다는 것이다.김주현 금융위원장이 5일 오전 서울 중구 은행회관에서 개최한 금융위원장·금융감독원장·은행지주회장 간담회에서 은행권 경영·영업 관행·제도 개선 TF를 거쳐 마련한 개선 방안에 대해 은행지주회장들과 논의했다. [사진=금융위원회]이를 위해 금융사가 전환을 신청하는 경우 금융당국은 전환 요건 충족 여부를 심사해 전환 여부를 결정하겠다고 밝혔다. 현재로선 지방은행인 대구은행이 시중은행으로 전환할 의향이 있는 상황이라 당국이 시중은행 인가를 추진할 계획이다.금융당국 관계자는 "대구은행은 자본금 규제의 경우는 충족하는 상태"라며 "추가로 사업계획, 타당성 여부, 지배구조 이슈가 있는데 현재 상황에서는 큰 문제가 없지 않을까 생각하고 있어서 신청서가 오면 조금 더 자세하게 검토할 계획"이라고 밝혔다.이어 "대구은행은 정확히 언제 제출할지를 모르는 상황이기에 정확히 말씀드리기는 어렵지만, 아마도 빠르게 진행하면 올해 안에 가능하지 않을까 생각한다"고 밝혔다.대구은행이 시중은행으로 전환하면 31년 만에 새로운 시중은행이 탄생하는 것이다. 특히 대구은행은 지역에 본점을 둔 시중은행의 출현이라는 의미가 있다고 금융위는 설명했다.시중은행 인가는 1992년 평화은행이 마지막이었다. 인터넷전문은행 3사가 인가를 받기는 했지만, 대면 지점을 열지 않는 전문은행이다. 케이뱅크와 카카오뱅크는 각각 2016년 12월, 2017년 4월에 인가를 받았다. 토스뱅크는 2021년 6월에 인가를 받았다.수도권과 지방은행이 없는 충청·강원 등에서 여·수신 경쟁이 확대되고 대구은행이 외국계 은행 규모로 성장할 수 있다는 기대감도 있다. 올해 1분기 말 기준 대구은행은 대구 ·경상북도 지역에 기업영업부를 포함해 지점 123개, 출장소 58개를 운영하고 있다. 서울·인천·경기 지역에는 현재 8개 지점이 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.07.12.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>한경연 "유니콘기업 17곳, 한국서 사업못해…규제 풀어야"</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004911170?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>한국경제연구원이 발표한 글로벌 100대 유니콘기업과 국내 규제로 인한 사업 가능성 분석자료./자료=한국경제연구원글로벌 100대 유니콘기업(기업가치 1조원 이상 비상장사) 중 17곳은 한국에서 규제 때문에 사업을 하기 어려울 것이란 분석이 나왔다. 대기업의 스타트업(초기 창업기업) 투자 등 민간 투자를 활성화 할 수 있도록 규제를 완화해야 한다는 주장이다.전국경제인연합회 산하 한국경제연구원(이하 한경연)은 '글로벌 100대 유니콘기업과 국내 신산업 규제 개선방향' 보고서에서 글로벌 100대 유니콘 기업의 사업을 국내에서 추진했을 때 불가능한 곳이 8개, 제한적인 사업은 9곳이라고 12일 밝혔다. 업종별로는 △공유숙박 △승차공유 △원격의료 △드론 △로보택시 △핀테크 △게임 등이 제한을 받을 것으로 나타났다.미국 기업분석회사 CB인사이트에 따르면 올해 5월 기준 글로벌 100대 유니콘기업 중 한국은 토스 1곳만 포함된 것으로 조사됐다. 국가별 비중은  △미국 59개 △중국 12개 △영국 7개 △인도 6개 △독일 3개 △캐나다 2개 △이스라엘 2개 순이다. 한경연은 국내 스타트업 산업 현실과 기술발전 속도에 맞춘 규제 개선이 필요하다고 주장했다.실증특례 사업인 '규제샌드박스' 도입 이후 발생하는 공백해소 방안이 필요하다고 지적했다. 정부는 2019년 규제샌드박스를 도입한 이래 918건의 규제를 완화하고 포괄적 네거티브 규제(안 되는 것만 정의하고 나머지는 다 허용하는 규제)  방식을 도입했다. 하지만 실증특례 2년 후에도 근거 법령이 개정되지 않는 사례가 많다고 분석했다.일례로 공유숙박 규제샌드박스 실증특례 사업에서 내·외국인 대상 공유숙박 비즈니스가 제한적으로 출시됐으나, 법령이 개정되지 않고 실증기간 연장으로 이어졌다. 승차공유와 원격의료, 리걸테크 등도 규제로 산업이 성장하지 못하고 있다.이규석 한경연 부연구위원은 "결국 국내 소비자 후생을 해치는 결과를 초래하고 있다"고 설명했다.보고서는 대기업과 스타트업 간에 멘토링 프로그램, 교육 서비스, 투자 등이 원활하게 이루어질 수 있는 환경 조성도 필요하다고 설명했다. 특히 민간 M&amp;A(인수·합병) 활성화를 위해서는 CVC(기업형 벤처캐피탈)가 활성화돼야 하지만 국내 대기업은 이를 통한 투자·인수 등에 규제가 있다고 지적했다. 보고서에 따르면 CVC 투자는 국내 전체 VC 투자의 23% 수준에 그친다.한경연은 대기업의 스타트업 인수시 유예기간을 거쳐 대기업 집단에 적용되는 규제도 개선돼야 한다고 촉구했다. 부당지원행위 금지과 일감 몰아주기 금지, 계열회사 간 상호출자 및 채무보증 금지, 공시의무 부과 등으로 대기업이 스타트업 지분을 인수할 때 부담으로 작용하고 있다는 분석이다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.07.01~2023.07.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.07.01~2023.07.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.07.07.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>토스증권, 국내증권사 최초 글로벌 데이터 보안표준인증 취득</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002166405?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>지난 6일 역삼동 토스증권 본사에서 진행된 PCI-DSS v4.0 수여식에서 지정호 토스증권 CISO(왼쪽)와 임성환 BSI코리아 대표(오른쪽)가 기념 촬영을 하고 있다. [토스증권 제공][헤럴드경제=권제인 기자] 토스증권은 국내 증권사 중 처음으로 글로벌 데이터 보안 표준인 PCI-DSS(Payment Card Industry Data Security Standard) 인증을 취득했다고 7일 밝혔다.PCI-DSS는 지불 결제 산업의 정보 보호, 정보 유출을 방지하기 위해 만든 금융 특화 글로벌 보안 표준이다. 주로 신용카드사, 지급결제(PG)사 등이 주요 인증 대상이다. PCI-DSS는 정보가 전송되는 과정에서 데이터가 안전하게 보호되고 있는지 검증한다.토스증권이 이번에 취득한 PCI-DSS 보안 표준은 가장 최상위 등급인 v4.0으로 총 6가지의 목표 항목과 12개의 요건으로 구성돼 있다. 6가지 목표는 ▷보안 네트워크 및 시스템 ▷데이터 보호 ▷취약성 유지관리 프로그램 ▷정기적인 모니터링 및 보안 정책 등으로 매년 현장 심사를 통해 모든 항목이 준수된 경우 인증서가 발행되고 유지된다.지난 6일 강남구 역삼동 토스증권 본사에서 진행된 인증서 수여식은 보안 표준 인증기관인 BSI 주관으로 진행됐다.임성환 BSI 코리아 대표는 “최고 수준의 보안 표준인 PCI-DSS 인증을 획득한 증권사는 토스증권이 최초”라며 “더 안전한 금융 서비스를 제공하려는 회사의 노력에 박수를 보낸다”라고 밝혔다지정호 토스증권 CISO(최고정보보호책임자)는 “자체 인력만으로 이뤄낸 PCI-DSS 인증 취득은 토스증권의 보안 수준이 글로벌 최고 수준으로 인정받은 결과”라며 “앞으로도 고객이 안전하게 거래할 수 있는 신뢰받는 서비스를 제공하는 데 최선을 다할 것”이라 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.07.13.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>[데스크라인]KB 알뜰폰과 우리은행 위비, 그리고 혁신</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003117175?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>길재식 기자KB국민은행이 통신업에 진출했다. 지난 4월 KB국민은행 알뜰폰 사업인 '리브엠(Liiv M)'이 금융위원회로부터 정식 서비스 승인을 받았다. 더 이상 특례가 아닌 은행 부수 업무로 자유롭게 서비스를 제공할 수 있는 정식사업으로 시장에 등장한 것이다.KB국민은행 외에도 신한은행 배달주문 '땡겨요', 하나은행 중고차거래 '원더카', NH농협은행 꽃배달 '올원플라워' 등 다른 은행들도 앞다퉈 금융 본업과는 다소 거리가 멀어 보이는 다양한 서비스를 출시하고 있다.은행은 언제부터, 또 왜 이렇게 기존에는 전혀 생각하지도 못한 사업에 뛰어드는 걸까.발상을 전환해 달걀을 깨뜨려 세운 '콜럼버스'처럼 선구자들은 누구도 생각하지 못한 새로운 시도를 통해 세상을 변화시키는데 중요한 역할을 한다.은행업의 콜럼버스 달걀은 무엇일까? 비(非)금융 사업의 시초로 우리은행의 '위비(Wibee)'를 꼽는데 별다른 이견이 없을 듯하다.위비는 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷 전문은행이 출범하기 전인 2015년 우리은행이 금융권에서는 전혀 생소한 '생활금융 플랫폼'을 내세우며 선보인 모바일 기반 은행 서비스다. 우리은행은 국내 처음으로 인터넷 전문은행의 시범모델인 '위비뱅크'를 출시한 데 이어 금융권 최초 모바일 메신저 '위비톡', 멤버십 통합관리 플랫폼 '위비멤버스', 오픈마켓 쇼핑몰 '위비마켓' 등을 모두 1년 만에 빠르게 시장에 내놨다.새로운 서비스의 출시를 신선하게 바라보긴 했지만, 속으로는 '은행이 왜 본업과 무관한 저런 사업에 뛰어들지' 하는 의구심으로 가득했었다.특히, 카카오톡이 메신저 시장에서 독점적 지위를 차지하고 있는 상황에서 위비톡에 대한 시장의 반응은 예상대로 차가웠다.하지만 지금 와서 생각해보면 위비톡은 매우 혁신적인 서비스였던 것으로 보인다. 공인인증서가 필요 없는 간편송금, 실시간 대화의 영문 번역, 예약 메시지 발송 등 후발주자로 뛰어든 만큼 더욱 세심하게 고객들의 니즈에 맞는 다양한 서비스를 제공했다. 또한 당시 신기술 활용에 보수적이던 은행권의 성향과는 달리 퍼블릭 클라우드 기반의 시스템을 구축하는 등 지금도 쉽게 시도하기 힘든 발상의 전환과 새로운 도전이 담겨 있었다.은행권 최초로 자체 캐릭터인 '위비 프렌즈'를 앞세운 라이선싱 사업을 시작해 다양한 상품을 출시했고, 애니메이션으로 제작해 금융 교육에도 활용했다. 이로 인해 '위비'와 그의 친구들인 '위비 프렌즈'는 지금도 많은 어린이들의 기억 속에 남아있다.이렇듯 최근 은행권이 집중하고 있는 생활금융 플랫폼 전략의 기반을 일찌감치 마련했던 위비가 출시 8년만에 우리 곁을 떠난다. 알뜰폰, 배달서비스, 중고차거래 등 경쟁 은행들이 다양한 소비자 편의 서비스를 출시하도록 불을 지피고 역사 속으로 사라지는 것이다.지금은 민간 기업도 활발하게 나서는 우주 개척의 시작을 인류 최초로 지구 밖을 향해 쏘아 올린 옛 쏘련의 스푸트니크(Sputnik) 무인위성에서 찾는다면, 우리나라 전통 금융권의 핀테크 혁신은 우리은행의 위비가 그 시작점으로 기록되지 않을까.편의는 물론 보호 측면에서도 오로지 소비자만을 바라보며 달렸던, 금융권 핀테크 혁신의 처음부터 최고까지 모두를 응원한다.기득권만 누리는 폐쇄적이고 배타적 조직이 아닌 새로운 혁신의 촉진자로서의 은행이라면 어떤 산업 영역에서도 환영받을 것으로 생각한다. 이른바 '코피티션(Coopetition) 시대 아닌가.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>신세계 ‘유니버스 클럽’ 혜택 대폭 확대 [숏잇슈]</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003114885?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>출범 한 달을 맞은 신세계그룹 통합 멤버십 '신세계 유니버스 클럽'이 혜택을 키우고 파트너십을 확장하는 등 광폭행보를 이어가고 있다. 멤버십 전용 상품을 확대하는 한편 계열사 시너지 창출에도 총력을 기울인다.최근 조선호텔앤리조트 웨스틴 조선 아리아 뷔페, 그래비티 호텔 판교 뷔페 이용권을 멤버십 회원 전용으로 할인 판매했다. 신세계면세점 여름 성수기 캠페인에도 교차 판촉전을 실시했다. 토스와 금융 파트너십을 체결했으며 G마켓 스마일클럽 무료 배송 혜택도 새롭게 추가했다.신세계 유니버스 클럽은 타 멤버십과 비교해 킬러 콘텐츠가 없다는 평가가 있었다. 때문에 호텔, 편의점 등 그룹 내 주요 계열사는 물론 외부 기업과 파트너십을 확장하는 데 주력하는 것으로 풀이된다.※[숏잇슈]는 'Short IT issue'의 준말로 AI가 제작한 숏폼 형식의 뉴스입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.07.02.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>애플페이 한국 상륙 100일…카드업계 불러온 변화 셋</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002726698?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>전체 결제 2580만건삼성전자 상생안 제시과감한 고객 혁신 필요ⓒ현대카드[데일리안 = 이세미 기자] 현대카드가 애플페이를 한국에 도입한 지 100일 동안 국내 카드업계 시장에는 많은 변화가 일어났다. 애플페이가 당초 찻잔 속 태풍이라는 시선과 달리 안정적으로 자리매김 하며 업계 판을 뒤집어 놓고 있는 것. 애플페이 도입 후 카드사들의 달라진 표정과 시장 변화 세 가지를 살펴봤다.◆'맛있는 사과'에 덩치 커진 현대카드2일 현대카드의 '애플페이 출시 100일간 결제 관련 주요 지표와 회원별 개인화 리포트'에 따르면 애플페이는 지난 3월 21일 첫 출시 이후 지난달 27일까지 총 10만8000여곳 가맹점에서 결제가 이뤄졌다.전체 결제 건수는 2580만건을 돌파했다. 이 중 93%가 오프라인에서 결제됐고, 7%가 온라인에서 결제됐으며, 해외서도 전체 결제 금액의 9.4%가 결제됐다. 최다 이용 고객의 누적 결제 건수는 800건을 넘어섰다.금융권은 당초 우려와 달리 애플페이가 시장에서 순항하고 있다는 평가가 나온다. 그 효과로 현대카드의 시장 점유율도 덩달아 높아지며 업계 내 입지를 단단히 하고 있는 모습이다.여신금융협회에 따르면 지난 5월 말 기준 현대카드 전체 회원 수는 1173만4000명으로, 회원수 3위였던 KB국민카드(1172만6000명) 제치고 3위에 올랐다. 현대카드 앞에는 업계 1위인 신한카드(1429만6000명)에 이어 삼성카드(1272만8000명)가 자리잡고 있다.올해 누적된 개인 일시불 카드 사용 내역에서도 현대카드는 2위를 기록했다. 지난 5월 현대카드의 개인 일시불 카드 누적 금액은 37조7911억원으로 집계됐다. 현대카드보다 높은 금액을 기록한 곳은 신한카드(40조6363억원) 뿐이다. 같은 기간 삼성카드와 국민카드의 경우, 35조8716억원과 32조804억원으로 각각 3, 4위를 기록했다.◆수수료 유료화 vs 상생 '갈림길'금융권은 애플페이가 흥행하면서 삼성페이 수수료 유료화 전환 가능성에 일찌감치 무게를 실었다. 실제 삼성전자는 카드업계에 오는 8월 종료되는 삼성페이 계약을 연장하지 않겠다는 내용의 공문을 발송해 업계를 긴장케 했다.그동안 삼성페이는 결제 수수료를 책정하지 않고 서비스를 제공했다. 애플페이가 0.15%의 수수료를 받는 다는 사실이 알려지면서 유료화에 나선 것으로 풀이된다. 애플페이가 수수료를 받는데 삼성페이가 굳이 무료로 제공할 이유가 사라진 것이다.카드사들은 이에 대해 상당한 우려를 표했다. 지난해 일평균 휴대폰 제조사의 이용 금액은 1853억2000만원이다. 간편결제 서비스를 제공하는 유일한 휴대폰 제조사가 삼성전자임을 감안하면 삼성페이를 통해 하루 1800억원대 결제가 이뤄진 것이다.이를 연간으로 환산하면 약 67조6400억원 규모가 되는데, 여기에 만약 0.15%의 수수료율을 책정하면 1014억6000만원 정도의 수수료가 발생한다. 7개 전업 카드사들이 연간 100억원 이상의 추가 비용을 부담해야 한다는 의미다.다만 최근 삼성전자가 카드사로부터 삼성페이 관련 수수료를 받되 각 사 기여도에 따라 일부 금액을 공동 마케팅 금액으로 지원하는 방안을 검토 중인 것으로 알려지면서 업계는 한 시름 놓은 모습이다. 이는 삼성전자가 애플페이처럼 카드사에 수수료를 부과하면서도 업계의 비용 부담 등 어려움을 고려한 조치로 해석된다.◆간편결제 시장 경쟁력 '잰걸음'애플페이가 촉발한 카드업계 변화의 정점은 바로 간편결제 시장에서의 경쟁력이다. 이미 국내 카드사들은 빅테크사와의 간편결제 전쟁터에서 밀려나 있었지만 애플페이 도입으로 입지가 더욱 좁아진 것이다.한국은행에 따르면 국내 하루 평균 간편결제 이용금액은 2020년 4492억원에서 지난해 7326억원까지 늘었다.문제는 이렇게 간편결제 시장 비중이 커지고 있지만 카드사들의 존재감은 작아지고 있다는 점이다. 지난해 카카오페이, 네이버페이, 토스 등 전자금융업자 비중은 47.9%에 달한 반면 카드사와 은행 등 금융사 비중은 26.8%에 그쳤다.반면 빅테크 페이 서비스는 애플페이 상륙 이후 공격적으로 덩치를 키우고 있다. 네이버페이 앱은 지난 3월 삼성페이 현장결제 연동 이후 4월 한 달 동안 신규 설치 약 47만건을 기록했하며 전월 대비 186% 증가했다. 과감한 이벤트와 프로모션을 이어간 결과다.카카오페이 역시 3월 말 기준 온·오프라인 가맹점 수를 전년 동기 대비 30% 늘려 총 196만개까지 확대했다. 1분기 오프라인 결제액은 전년 동기 대비 37% 성장하는 등 고객잡기에 사활을 건 모습이다.카드사들도 애플페이 대항마로 카드사 공동 간편결제 서비스인 ‘오픈페이’를 시작했다. 한 카드사의 앱에 다른 카드사의 앱을 등록해 사용할 수 있는 서비스로, 삼성‧애플페이는 물론 빅테크사 맞서기 위해 카드사간 연합전선을 구축한 것이다. 그러나 현재까지 신한·국민·롯데·하나카드 4개사만 참여해 사실상 실패에 가깝다는 지적이 나온다.전문가들은 카드사들이 간편결제 시장에서 생존하기 위해선 과감한 시도가 필요하다고 입을 모은다.류창원 하나금융연구소 연구위위원은 “카드사들이 빅테크와 같이 타사 카드를 연결해 사용할 수 있는 오픈페이를 구축하고 있으나, 개방형 플랫폼에 걸맞는 혁신적인 고객경험을 제공해야 성공이 가능하다”며 “카드사간 과감한 개방으로 여러 카드사들의 우수한 기능을 자유롭게 선택 사용할 수 있도록 하는 고객의 결제경험 혁신이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.07.01.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>토스, APEC 국경 간 프라이버시 규칙 인증 획득</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005520718?sid=105</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>"글로벌 수준 개인정보보호 역량 증명"[이데일리 임유경 기자]모바일 금융 서비스 토스를 운영하는 비바리퍼블리카(이하 토스)는 아시아태평양경제협력체(APEC) 국경 간 프라이버시 규칙(CBPR)인증을 취득했다고 1일 밝혔다.APEC CBPR은 2011년 APEC이 자유롭고 안전한 개인정보 이전과 전자상거래 활성화 등을 지원하기 위해 만든 개인정보보호 자율인증 제도이다. 한국·미국·일본·싱가포르 등 9개국이 참여 중으로, 애플·시스코·IBM 등 60여 개의 글로벌 기업들이 해당 인증을 받았다. 한국에서는 개인정보보호위원회와 한국인터넷진흥원(KISA)이 2022년 5월부터 정식으로 운영을 시작했으며 지금까지 총 8개의 국내 기업이 해당 인증을 취득했다.지난달 26일일 한국인터넷진흥원 가락청사에서 진행된 APEC CBPR 인증 수여식에서 김주영 한국인터넷진흥원 개인정보본부 본부장(왼쪽)과 김성태 토스 개인정보보호 책임자(오른쪽)이 기념 촬영을 하고 있다.인증 평가는 APEC의 9개 프라이버시 원칙을 기반으로 △개인정보 관리 체계 수립 △개인정보 수집 △개인정보 이용·위탁·제공 △정보주체 권리 △무결성 △보호 대책 등 50개의 인증 기준 항목에 맞춰 종합적으로 진행된다.이번 APEC CBPR 취득은 글로벌에서도 토스의 개인정보관리 체계가 인정받고 있음을 보여준 결과라고 회사는 평가했다. 더불어 일본, 싱가포르 등 CBPR을 자국의 개인정보 보호 규범과 동등한 수준의 보호체계로서 인정하는 국가에서 사업을 하는 기업과 제휴를 할 때, 별도의 절차를 거치지 않고도 개인정보를 관리할 수 있게 됐다.김성태 토스 개인정보보호 책임자는 “APEC CBPR은 법적 의무가 없는 인증임에도 자발적으로 취득했다”며 “특히 핀테크 업계에서는 최초로 해당 인증을 받았다는 점에서 더욱 의미가 크다“라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>청년은 무관심 '동생'은 모시기…8월 카뱅 '미니' 연령 7세로 낮춘다</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000342113?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[앵커] 최근 청년도약계좌를 중심으로 청년의 저축에 대한 관심이 커진 가운데, 이 사업에 참여하지 않은 인터넷은행들이 새로운 시도를 하고 있습니다. 더 어린 연령층의 공략에 나선 건데요. 오서영 기자, 확실한 움직임을 보인 곳이 일단 카카오뱅크네요? [기자] 카카오뱅크는 미니(mini) 상품의 이용 연령을 만 14세에서 만 7세로 내립니다. 카카오뱅크 미니는 약 3년 전 출시된 청소년용 선불전자지급수단입니다. 미리 돈을 충전해서 쓰는 체크카드입니다. 최근 카카오뱅크는 선불전자지급수단 이용약관을 바꿨고, 이어 지난달 말 위치기반 서비스 이용약관도 개정했습니다. 고객이 확대되면서 추가 약관 동의가 필요한 건데, 특히 만 14세 미만은 보호자 동의가 있어야 해서 이 부분을 손본 겁니다. 이달 내로 준비되면 다음 달부터 만 14세 미만도 미니 상품에 가입할 수 있게 될 것으로 보입니다. 앞서 김석 카카오뱅크 COO가 지난 5월 1분기 실적발표 때 밝히기도 했습니다. [앵커] 관련 업계의 전반적인 상황은 어떤가요? [기자] 현재 카카오뱅크 미니 가입자 수는 지난 5월 말 기준 174만 명으로 전체 만 14세~18세 인구의 약 76%의 비중을 차지하고 있습니다. 토스가 지난 2021년 출시한 만 7세~16세 대상의 '유스카드'는 6월 말 기준 현재 누적 발급량 116만 장인데요. 그동안 카카오뱅크 미니에 가입 못 하는 청소년은 유스카드에 가입하기도 했습니다. 케이뱅크도 지난해 만 14세~18세 미만 청소년 대상의 상품을 내놨습니다. 공격적인 영업을 이어가는 인뱅들이 최근 대환대출 플랫폼과 청년도약계좌 참여에는 빠지면서 비판받고 있는데요. 이번 카카오뱅크의 '미니' 연령 하향으로 인터넷은행들의 어린이 고객 확보 경쟁은 더욱 치열하게 전개될 전망입니다. SBS Biz 오서영입니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.07.15.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>"'미래 고객' 모으자"… 금융사와 협업하는 유통업체</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005286797?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>포화 상태 시장서 차별화 전략젊은 층에 익숙한 금융과 협업"유통업체·금융사에 모두 윈윈"편의점 GS25는 최근 카카오뱅크와 손잡고 10대 청소년을 위한 저금 상품을 내놨다. 500원부터 2000원까지 저축 금액을 설정해서 최대 5만2000원까지 저금하는 서비스다. GS25는 연속 저금에 성공한 일자에 따라 대상 청소년들에게 간식 교환권이나 할인쿠폰을 증정하기로 했다. GS25 관계자는 "주요 고객인 10대 청소년에게 재밌는 경험과 혜택을 제공하기 위해 금융사와 손잡고 협업 마케팅을 진행하게 됐다"며 "금융사와 제휴를 통해 고객 혜택을 지속 강화해 나갈 것"이라고 밝혔다.이마트24가 KB국민은행과 협업해 충북 청주시 서원구 분평동에 내놓은 금융특화점포. 단순 현금자동입출금기(ATM)를 설치하는 차원을 넘어 화상 상담창구나 스마트 텔러머신 등을 설치한 것이 특징이다. [사진제공=이마트24]유통업체가 은행 등 금융사와 협업한 마케팅을 강화하고 있다. 예·적금 수신 상품을 공동으로 운영하거나 멤버십 포인트 제휴 등 방법도 다양하다. 미래 고객인 젊은 세대를 포섭하고 점포를 차별화하기 위해 소비자와 접점이 많은 금융사를 하나의 채널로 활용하는 것으로 분석된다.11일 업계에 따르면, 편의점 CU가 지난달 페퍼저축은행과 협업으로 내놓은 최대 6% 금리 적금이 96%의 가입률로 판매가 마감됐다. CU 측은 이번 적금 판매로 신규 고객 창출은 물론 집객 효과까지 거뒀다고 분석했다. CU 관계자는 "고객들의 높은 반응에 맞춰 추후 다른 금융 상품들도 꾸준히 선보일 예정"이라고 했다.앞서 경쟁 편의점인 세븐일레븐과 이마트24도 지난해 각각 DGB대구은행, KB국민은행 등과 제휴를 맺고 금융특화점포를 선보였다. 금융특화점포는 기존 편의점에 은행 지점을 융합한 형태로, 단순 현금자동입출금기(ATM)를 설치하는 차원을 넘어 화상 상담창구나 스마트 텔러머신 등을 설치한 것이 특징이다. 이마트24는 아울러 지난해 신한투자금융과 협업해 테슬라, 마이크로소프트, 애플 등 인기 미국 주식 1주를 동봉한 도시락을 판매한 바 있다.금융사와 손잡는 건 편의점만이 아니다. 마트에서도 금융사와 협약을 맺고 여러 마케팅을 선보이는 추세다. 대표적으로 이마트를 운영하는 신세계그룹은 최근 발표한 통합 멤버십 '신세계 유니버스 클럽' 금융 부문 제휴사로 토스를 선정하고, 파트너십을 추진 중이다. 멤버십 혜택을 금융 분야로 확대하는 것으로, 신세계그룹은 사업 경쟁력은 물론 고객 혜택이 늘어나는 시너지 효과가 창출될 것으로 기대하고 있다. 홈플러스도 여러 카드사와 협업해 매주 할인 행사를 진행하고 있다. 최근에는 삼계탕, 수박 등 초복과 여름 시즌 맞춤 상품을 최대 40% 할인된 가격에 판매 중이다.전문가들은 유통업체와 금융사 간 협업 사례에 대해 젊은 고객의 유입하려는 전략이 맞아떨어진 결과물이라고 분석한다. 이은희 인하대 소비자학과 교수는 "유통업체로서는 포화 상태인 시장 환경에서 젊은 소비자들에게 차별화를 어필할 필요가 있을 것"이라며 "금융사 입장에선 편의점, 마트를 찾는 젊은 세대에게 금융에 대한 인지도를 넘어 친숙도를 형성하면서 '미래 고객'을 확보하는 효과가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.07.08.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스뱅크, 시스템 업데이트로 일부 오류 발생</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001112245?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>토스뱅크 일부 서비스에서 8일 오류가 발생해 이용자들이 불편을 겪었다.토스뱅크는 이날 오전 9시 10분부터 9시 30분까지 대출 실행, 신규 예·적금 가입 등 일부 서비스 접속이 원활하지 않았다고 밝혔다.이용자마다 기능 오류 시간이 달랐지만, 평균 20분가량 지속됐다고 토스뱅크는 설명했다.다만 토스뱅크는 잔액 조회와 송금 기능에는 문제가 없었다고 덧붙였다.토스뱅크는 "시스템 업데이트로 인해 일부 고객에게 오류가 발생했다"며 "현재는 조치를 완료한 상태"라고 설명했다.이어 "이번 사안을 분석해 유사한 일이 발생하지 않도록 하겠다"고 덧붙였다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.07.08.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>토스뱅크 20분간 먹통…"시스템 업데이트로 일부 오류"</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000607736?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>토스뱅크에서 일부 서비스에 오류가 발생해 이용자들이 불편을 겪었습니다.토스뱅크는 오늘(8일) 오전 9시 10분부터 20분 가량 대출 실행, 신규 예·적금 가입 등 일부 서비스 접속이 원활하지 않았다고 밝혔습니다.토스뱅크는 "시스템 업데이트로 인해 일부 고객에게 오류가 발생했다"며 "현재는 조치를 완료한 상태"라고 설명했습니다.김동욱 기자 (dk1@yna.co.kr)#토스뱅크 #시스템_업데이트_오류연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>현대카드도 대환대출 시장 뛰어든다… 신한·국민 이어 세 번째</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000914841?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>대환대출 플랫폼 핀다 입점… 카드론 상품 출시/현대카드 제공        현대카드는 대환대출 플랫폼 핀다에 입점하며 대환대출 시장에 진출했다고 6일 밝혔다. 대환대출 시장에 뛰어든 카드사로서는 신한카드, KB국민카드에 이어 세 번째다.이날 현대카드는 온라인 대환대출 서비스를 제공하는 핀테크(FinTech·기술과 금융의 합성어) 업체 핀다에 입점했다고 밝혔다. 현대카드 관계자는 “현재 핀다에 카드론 상품 입점을 완료했다”며 “앞으로 대환대출 전용 신상품도 출시 검토 중이다”라고 했다.이전부터 카드업계는 대환대출 시장에 열을 올려왔다. 현재 대환대출 시장에 뛰어든 카드사로는 현대카드를 포함해 신한카드, KB국민카드 등이 있다. 신한카드는 카카오페이, 토스, 핀다에 관련 상품을 입점했고, KB국민카드의 경우, 카카오페이와 네이버페이에 입점한 상태다. 롯데카드 역시 카카오페이와 계약은 마쳤으나 실제 상품 출시는 7월 말에 이뤄질 예정이다.현대카드 관계자는 “서민들의 대출이자 부담 감소와 대출 이동의 편의성 확대 측면에서 플랫폼에 입점하게 됐다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>카드사 車 할부금융 수익 벌써 1000억 '가뭄 속 단비'</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002730505?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>업황 악화 해법으로 '부상'인뱅·핀테크 진출은 '변수'서울 성동구 장한평 중고차매매시장 모습.(자료사진) ⓒ뉴시스[데일리안 = 이세미 기자] 카드사들이 자동차 할부금융으로 벌어들인 돈이 올해 들어 석 달 동안에만 1000억원에 육박하며, 지난해 같은 기간보다 200억원 가까이 불어난 것으로 나타났다. 업황 악화를 겪으며 부진한 성적표를 받아들었던 카드사들은 그나마 자동차 시장에서 숨통이 트였다는 입장이다.카드사들이 자동차 금융 비즈니스에서의 입지를 다지기 위해 공을 들이는 가운데, 새롭게 시장을 노크하고 있는 인터넷전문은행과 핀테크업계와의 경쟁은 앞으로의 숙제가 될 것으로 보인다.14일 금융감독원에 따르면 올해 1분기 신한‧KB국민‧삼성‧롯데‧하나‧우리카드 등 6개 카드사의 자동차 할부금융 수익은 962억원으로 전년 동기 대비 24.5%(189억원) 늘었다. 1분기 기준으로 보면 2019년 기록인 626억원 이후 4년 만에 최대치다.카드사별로 보면 신한카드가 399억원으로 가장 많았고, 이어 ▲국민카드 258억원 ▲하나카드 131억원 ▲우리카드 107억원 ▲삼성카드 37억원 ▲롯데카드 27억원 순이었다.카드사들의 할부금융 수익이 늘어난 배경에는 올해 채권 금리가 안정화된 영향이 꼽힌다. 채권 금리가 내려가면서 할부금리도 덩달아 하락하고 있기 때문이다.여신금융협회에 따르면 6개 전업카드사의 신차 기준(현대 더 뉴 아반떼·현금구매 비율 20%·36개월) 자동차 할부 금리는 5.2~9.2%로 집계됐다. 금리 상단이 10%대를 넘어섰던 지난해 말과 비교하면 금리 상단과 하단 각각 2%포인트 정도 내려갔다. 반면 캐피탈사의 경우 최저 5.7%에서 최고 13.2%의 수준을 나타냈다.금융권은 이미 카드사들이 자동차 시장에서 존재감이 캐피탈사를 뛰어넘었다고 평가한다. 실제 나이스신용평가에 따르면 신차금융시장에서 카드사의 점유율은 지난 2016년 15.1%에서 2020년 27.9%로 꾸준히 늘고 있다. 특히 현대캐피탈을 제외한 나머지 캐피탈사의 신차금융시장 점유율은 2020년 기준 23.4%로 카드사들보다 입지가 더 좁아진 상황이다.카드사들이 이처럼 자동차 할부 시장에 적극적인 이유는 가맹점 수수료율 인하, 조달비용 가중 등의 영향으로 업황이 악화된 데 따른 것이다. 올해 1분기 7개 카드사의 당기순이익은 5854억원으로 전년 동기 대비 23.4% 감소하며 카드사 모두 지난해보다 부진한 성적표를 받았다.이런 와중 매년 매년 몸집이 커지고 있는 자동차 할부 시장은 카드사들의 새로운 먹거리로 급부상했다. 자동차 할부금융 취급잔액은 8년 연속 증가세로, 지난 2014년 16조1534억원에서 지난해 40조7208억원으로 24조5674억원이나 늘어났다.업계는 앞으로 자동차 할부 시장을 이용하는 고객들은 더욱 늘어날 것이라는 전망과 함께 경쟁력 확보를 위해 포트폴리오 다각화에 힘쓸 것이라는 계획이다. 다만 카드사 뿐만 아니라 인터넷은행 등 제 1금융권도 자동차 시장을 노리고 있는 점은 또 다른 변수가 될 것으로 보인다.케이뱅크는 자동차대출 대환상품은 물론 올해 안에 자동차 구입자금 대출도 출시할 예정이다. 토스도 이달 말 신차 카드 할부 비교 서비스 베타 버전을 출시할 계획이다. 카카오페이는 사용자가 신차를 구입할 때 카드사 금리와 캐시백 혜택을 비교하는 신차 사고 캐시백 받기 서비스를 기존 일시불에서 할부 영역까지 확대했다. 대출 비교 플랫폼 핀다는 앞서 지난 4월 핀테크 업계 최초로 자동차 리스 및 렌트 시장에 진출한 바 있다.상황이 이렇다 보니 카드업계에서는 또 다시 수익악화를 염려하는 목소리가 나온다. 카드업계 관계자는 “본업에서 수익을 기대할 수 없는 상황에서도 포트폴리오 다각화를 위해 노력하고 있다”며 “다만 이제 막 입지를 다지고 있는 시장에 핀테크 등이 진출하게 된다면 업계는 수익을 고민할 수 밖에 없다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.07.02.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>신변 위협 시달리는 전세계 팩트체커들, 그래도 계속 싸우는 이유</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002397677?sid=102</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>세계 최대 팩트체크 컨퍼런스 '글로벌 팩트10' 성료... 권력의 압박에도 굴하지 않는 팩트체크 연대▲ 요엘 로스와 1:1 대담 지난 6월 30일, 트위터의 신뢰 및 안전 부서 책임자였던 요엘 로스가 '글로벌 팩트10'의 마지막 날 세션에 참여해 일론 머스크의 트위터 취임 첫 주 동안 있었던 비하인드 스토리를 소개하고, 소셜미디어 기업들이 거짓 및 허위정보와 어떻게 싸우고 있는지 밝혔다.ⓒ The Poynter Institute and "비는 왔지만, 그 비가 우리 마음까지 어둡게 하지는 못했습니다." 서울대학교 언론정보연구소의 정은령 SNU팩트체크센터 센터장이 '글로벌 팩트 10(Global Fact 10)'의 폐막을 선언했다. 장마 기간 도중 치러진 행사였지만, 서울 삼성동 코엑스에서 치러진 '글로벌 팩트 10'은 여느 해가 그랬듯 성공리에 마무리됐다. 컨퍼런스룸에 모인 수백 명의 팩트체커들은 내년에 다시 만날 것을 약속하며 박수로 인사했다. '글로벌 팩트 10'은 세계 최대 규모의 팩트체크 컨퍼런스 '글로벌 팩트'의 10번째 행사이다. 지난해 '글로벌 팩트 9'이 노르웨이 오슬로(관련 기사: '가짜뉴스 확산, 페북·인스타는 책임 없나'... 날 세운 팩트체커들)에서 성황리에 치러진 데 이어, 올해 6월 28일 대한민국 서울에서 열리게 된 것이다. SNU팩트체크센터와 IFCN(국제팩트체킹연맹)의 공동 주최로 열렸으며, 아시아권 국가에서 진행된 건 이번이 처음이다. 전 세계 75개국에서 온 550여 명의 팩트체커, 언론인, 학자들은 '허위조작정보(학계에서는 정치적 구호로 쓰이는 '가짜뉴스' 대신 '허위 조작정보'라는 용어를 사용할 것을 권하고 있다)'에 맞서 팩트체크가 어떻게 싸워 나가야 할지 심도 있는 논의를 올해도 이어갔다. 정은령 센터장은 이날 폐회사에서 "우리는 이 컨퍼런스에서 팩트체커들이 맞닥뜨린 도전들이 얼마나 크고 어려운 것들인지를 확인했다"라면서도 "그러나 그것들을 헤쳐나가고자 하는 팩트체커들의 의지, 그리고 사회가 우리에게 기대하는 것들은 그 어려움보다 더 크다는 것을 확인하였다"라고 강조했다. 신변 위협 받는 전세계 팩트체커들, 하지만 포기하지 않았다 ▲ 개회사 중인 정은령 SNU팩트체크 센터장 정은령 SNU팩트체크 센터장이 28일 오전 서울 코엑스에서 개막한 글로벌 팩트 10 행사에서 개회사를 하고 있다.ⓒ The Poynter Institute and 정 센터장이 시사한 것처럼, 팩트체크를 향한 위협과 압박은 전세계에서 벌어지고 있는 공통의 현상임을 이번 컨퍼런스에서 재확인할 수 있었다. 당초 러시아 독립신문 &lt;노바야 가제타&gt; 소속 탐사 저널리스트가 '글로벌 팩트10'의 기조연설을 맡아 한국에 올 예정이었으나 갑자기 연락이 끊기는 사고가 있었다(관련 기사: 글로벌팩트 연설 차 방한 앞둔 러시아 기자, 갑자기 연락 끊겨). 3일의 기간 동안 다양한 사례들이 팩트체커들 사이에서 공유됐다. '미디어 리터러시 버스'를 타고 스페인 곳곳을 돌며 팩트체크 교육에 나섰던 언론인들은 첫날부터 사이버 테러와 협박에 시달리며 프로젝트 중단을 진지하게 고민해야 했다. 브라질의 팩트체크 전문매체 &lt;아오스파토스&gt; 역시 부정선거를 주장하며 브라질 의사당을 점거한 이들에게 매도당하며 공격받았다. 우크라이나에서는 '가짜 팩트체크'가 팩트체크인 것처럼 행세하며 허위조작정보를 퍼트리고 있다. 필리핀 비영리 매체 &lt;베라파일즈&gt;는 정부와 대통령에 비판적인 팩트체크에 나섰으나, 로드리고 두테르테 대통령이 직접 TV에 나와서 해당 팩트체크를 오히려 사실이 아니라고 거짓 반박했고, 지지자들로부터 소총을 든 남자들의 사진을 전송받는 등 신변의 위협을 받았다. 당장 대한민국에서도 비슷한 일이 벌어지고 있다. 첫날 세션에서부터 한국의 팩트체커들은 ' '진실 판정의 사법화' 현상을 지적하며, 한국의 정치권력이 어떻게 팩트체크를 위축시키는지 공통의 우려를 표했다(관련 기사: 국제 행사까지 열었지만... 한국은 '팩트체크' 위축 걱정). 팩트체크, 허위조작정보와 맞서 싸우다 ▲ 글로벌 팩트가 걸어온 지난 10년에 대한 회고 '글로벌 팩트10'의 첫날인 지난 6월 28일, 빌 아데어 듀크대 실용저널리즘 및 공공정책 석좌교수가 지난 10년 동안 글로벌 팩트가 걸어온 길을 유쾌하게 소개하며 그 발자취를 돌아보고 있다. 발표 도중 코엑스에서 컨퍼런스 장소를 찾는 게 매우 어려웠음을 유쾌하게 꼬집어서 박수를 받기도 했다.ⓒ Poynter&amp;IFCN 3일 간의 세션에서 가장 많이 눈과 귀에 들어온 단어들은 'Battle', 'Combat', 'Fight', 'Counter' 등이었다. 전세계 곳곳에서 팩트체크와 허위조작정보 간의 전투가 벌어지고 있다. 어떤 전투에서는 팩트체크가 충분하지 않았을지 모르지만, 어떤 전투에서는 분명한 성과를 거뒀다. 컨퍼런스 기간 동안 팩트체커들은 서로의 노하우를 공유하며 어떻게 효율적으로 허위조작정보와 싸울지 이야기를 나눴다. 나이지리아와 케냐, 튀르키예와 브라질 등 세계 여러 나라들이 선거를 앞두고 벌어지는 여러 문제들을 각자의 방법대로 우직하게 돌파해나갔다. 조르지아와 나이지리아, 몽골의 팩트체커들은 사실에 기반한 합법적이고 정당한 비판조차 찍어누르는 각국 정부의 검열과 어떻게 맞서고 있는지를 소개했다. 학계와의 협력 증진에 대해 논의하고, 미디어 리터러시 교육을 통해 미래의 '팩트체크' 세대를 양성하는 방안도 제시됐다. AI가 허위조작정보를 유통하는 새로운 수단으로 조명되면서, 오히려 AI를 팩트체크에 활용해 효율적으로 이를 교정하는 방법에 대한 연구들도 공유됐다. 추락하고 있는 언론의 신뢰도를 끌어올리기 위한 방안에 대한 이야기들도 나왔다. 새로운 방법론으로 단순한 '폭로(debunking)'를 넘어 '사전폭로(pre-bunking)'하는 개념도 활발히 제시됐다. 허위조작정보가 횡행하기 전에 선제적으로 팩트체크가 대처하는 방향이다. 이는 갑작스럽게 허위조작정보가 등장하더라도 그 유통을 억제하고, 다시 팩트체크하는 수고도 덜 수 있도록 한다. 스페인 바르셀로나에서는 아예 시장 선거에 나선 후보들이 '사전에 검증된' 통계와 사실들만을 가지고 토론하는 실험이 열리기도 했다. 토론 도중에 어떤 숫자나 주장이 '사실이다 아니다'로 싸우며 시간을 허비하는 대신, 모든 후보가 공통의 데이터를 제공받고 그 안에서만 토론을 진행하는 형식이다. 사전 검증되지 않은 자료가 제시되거나, 팩트체크가 필요한 주장이 갑자기 등장할 경우, 토론 현장의 팩트체커들이 이를 실시간으로 검증하거나 사후 검증해 보도하기도 했다. 또한, 전세계 팩트체커들은 지난해에 이어 올해도 글로벌 팩트의 최대 후원사인 동시에 허위조작정보 전파의 가장 큰 책임을 지고 있는 메타와 여러 소셜 미디어들을 다그치며 제 역할을 할 것을 주문했다. 특히 트위터의 신뢰 및 안전 부서 책임자였던 요엘 로스는, 컨퍼런스의 마지막 날 마이크를 잡고 그가 트위터를 그만두기 직전까지 일론 머스크와 나누었던 대화들을 폭로하며 트위터가 왜 허위조작정보 유통을 억제하는 데 실패했는지 비판적으로 성찰하기도 했다.  박수 받고 눈물 흘린 핀란드 기자... 서로 응원하는 팩트체커들   ▲ 제시카 아로와 1:1 대담-푸틴의 트롤에 관하여 '글로벌 팩트10'의 둘째날인 지난 6월 29일, 친러시아 인터넷 트롤들의 활동을 조사한 핀란드 언론인 제시카 아로가 기조 발표에 나서고 있다. 러시아의 허위조작정보를 파헤친 그는 여러 혐오발언으로 공격받은 바 있다. 미국 국무부로부터 '용기 있는 국제여성상'을 받을 예정이었으나, 도널드 트럼프 대통령을 비판했던 사실이 드러나 수상이 철회된 적도 있다.ⓒ Poynter&amp;IFCN 정은령 센터장이 폐회사에서 "우리에겐 할 일이 많다"라고 말한 것처럼, 전세계의 팩트체커들은 이처럼 무수한 압력에도 굴하지 않고 다양한 시도를 통해 시민의 알 권리와 민주주의를 지키기 위해 분투하고 있었다. 컨퍼런스 기간 중 구체적으로 언급되지는 않았지만, 집권여당은 잘못된 사실관계를 가지고 여러차례 SNU팩트체크센터를 공격했다가 망신을 산 바도 있다(관련 기사: MBC 때리려다 망신살 제대로 뻗친 국힘 박성중 팩트체크 공격 박성중의 자폭? '정부여당 부정비율 79%' 공개). '글로벌 팩트'는 이처럼 허위조작정보와 맞서 싸우는 제1방어선의 팩트체커들이 매년 서로 연대하고 응원하는 자리이다. 또 다음해 글로벌 팩트를 기약하며, 1년을 더 싸워나갈 힘을 얻는 자리이기도 하다. 러시아의 선전·선동 목적으로 만들어진 '트롤 공장'의 실체를 폭로했던 핀란드 탐사전문기자 제시카 아로는 친러시아 성향 매체들과 해커 등으로부터 신상털기와 모욕에 시달리다 고국을 떠나야 했다. 이날 마이크를 잡은 그는 현장의 팩트체커들로부터 격려의 박수가 쏟아지자 잠시 감정을 추스르지 못하고 눈물을 보이기도 했다. 특히 올해는 다른 해와 달리 한국에서 개최됐다는 장점을 최대한 살릴 수 있었다. 거의 대부분의 세션에 동시통역이 제공되면서, 영어에 익숙하지 않은 한국 참가자들 역시 높은 수준으로 세션을 이해할 수 있었다. 한국의 상황과 사례에 관한 분과 회의들도 여럿 열렸고, 여기에 참석하는 영어권 참가자들에게 역시 동시통역이 제공되는 섬세함이 돋보였다.전세계에서 모인 팩트체커들은 샴페인을 부딪치며 내년에도 다시 한 자리에 모일 것을 약속했다. 2024년 열릴 '글로벌 팩트 11' 개최지는 오는 9월 중 결정될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>토스뱅크, 미래에셋증권 ‘주식계좌 개설’ 서비스 오픈</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002164576?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>최초 신규 고객 기준, 계좌만 만들어도 1만5000원[헤럴드경제=서정은 기자] 토스뱅크는 ‘목돈 굴리기’ 서비스에서 미래에셋증권의 주식계좌인 ‘다이렉트(Direct) 주식계좌’ 개설 서비스를 개시하고, 최대 6만5000원 상당의 현금 혜택 이벤트도 실시한다고 4일 밝혔다.미래에셋증권의 ‘Direct 주식계좌’는 국내 및 해외주식, 채권, 펀드 등 금융투자상품 거래가 가능한 계좌로, 19세 이상의 한국 거주 내국인이라면 가입이 가능하다. 미래에셋증권의 ‘Direct 주식계좌’ 개설은 토스뱅크 내에서 ‘목돈 굴리기’ 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 가능하고 1인 1계좌까지 개설할 수 있다.최초 신규 주식계좌 개설 고객을 대상으로 8월 말까지 다양한 혜택도 제공한다. 토스뱅크에서 미래에셋증권 계좌를 개설하면 1만 5천원 현금을 토스뱅크 통장으로 즉시 지급하고, 해외주식 매수 시 투자지원금 5만원도 제공한다. 주식 매수시 부과되는 수수료 무료 혜택과 환전 우대 혜택도 제공된다.현재 토스뱅크에서 주식계좌 개설이 가능한 증권사는 이번 미래에셋증권을 비롯해 한국투자증권, KB증권과 같은 국내 대표 대형 증권사들이 입점해 있다.토스뱅크 관계자는 “주식계좌 개설 서비스 대상 증권사가 국내 대형 증권사들을 시작으로 점차 확대되며 고객의 선택권을 넓혀가는 중”이라며 “앞으로도 더욱 다양한 증권사와의 제휴를 통해 고객 중심의 다양한 혜택을 제공해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>5대 시중銀 '그들만의 리그' 깨기… "판 뒤집기엔 역부족" [시중은행 과점체제 깬다]</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005037600?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>특화전문銀·스몰라이선스 무산'킬러 콘텐츠 없다' 절반의 성공대환대출 인프라·금리체계 개선'돈잔치' 성과급체계 개편은 성과 지난 1월 윤석열 대통령의 '은행은 공공재' 발언으로 시작된 은행권 경영·영업 관행·제도 개선 태스크포스(TF)가 5일 내놓은 제도개선 방안의 골자는 5대 시중은행(KB국민·신한·하나·우리·NH농협)이 지배하던 은행업을 상시진입 가능한 시장으로 개편하는 것이다. 시장에서는 30여년 만에 새로운 시중은행 탄생과 카카오뱅크·케이뱅크·토스뱅크에 이은 제4의 인터넷은행 탄생을 기대하는 분위기다. 다만 전문가들은 '업계 판을 뒤흔들 만한' 과점 해소대책은 빠져 있어 절반의 성공에 그쳤다는 지적이다. 스몰라이선스를 통한 특화전문은행 인가, 증권·보험·카드의 종합결제업무가 무산되면서 '1금융권 리그 내 경쟁'만 촉진될 수 있다는 점에서다.   ■판 흔들기보다 '리그 내 경쟁' 방점   금융위원회와 금융감독원은 5일 DGB대구은행의 시중은행 전환 등 은행권 경쟁 촉진방안 등 은행권 경영·영업 관행·제도개선TF 결과를 발표했다.   당국에서 은행권이 역대 최대 이자수익을 낸 배경이 '과점체제'에 있었다고 지목한 만큼 관련 대책이 주목을 받았다. 당국에 따르면 DGB대구은행이 시중은행에 진입할 경우 충청·강원 등에서 여수신 경쟁이 확대 수 있다.   하지만 '킬러 콘텐츠'가 없다는 지적이 나온다. 서지용 상명대 교수는 "종합적으로 봤을 때 A학점을 주기는 어렵다. B학점 정도의 대책"이라며 "겸업 허용이 글로벌 트렌드이고 오히려 은행들이 보험, 증권, 카드까지 겸하게 해줘야 (은행과 비은행) 양쪽이 긴장을 하는데 카르텔을 깨지 못했기 때문에 누구도 떨지 않을 것"이라고 했다.   실제 증권사 등 비은행권의 종합지급결제 업무 허용은 이번에도 무산됐다. 당국은 동일기능·동일리스크·동일규제 원칙하에 지급결제 안정성을 확보할 수 있도록 추가 검토한다는 입장이나 '1금융권만의 리그'가 깨지지 못했다는 비판도 나온다.   소규모 특화은행을 키울 수 있는, 새로운 인허가 제도로 주목받은 스몰라이선스는 무산됐다. 현행 제도의 틀 안에서 인적·물적 설비나 건전성·유동성 규제 차등화를 포함한 제도 도입방안을 검토키로 했다.   기존 플레이어들을 키워 경쟁을 촉진하는 환경도 만든다.   금융당국은 이달중 저축은행 인가지침을 개선해 구조조정 목적이나 비수도권 저축은행의 경우 영업구역 제한없이 4개사까지 인수할 수 있도록 한다. 외은지점 예대율 규제를 4조원으로 완화하는 등 기업대출 공급 여력을 늘릴 예정이다.   ■절반의 성공이지만…   소비자 입장에서 당장 와닿는 성과도 작지 않다. 대표상품이 그간 금융당국이 숙원처럼 추진해온 온라인 원스톱 대환대출 인프라를 구축해 현재 신용대출은 더 낮은 금리로 갈아타기가 가능하다.   예금상품을 비교해 맞춤형 상품에 가입할 수 있는 온라인 예금중개 서비스도 출시된다. 예대금리차 공시도 기존의 신규취급액 기준에서 잔액 기준으로 확대되고, 전세대출금리도 비교공시 항목에 추가돼 소비자의 알 권리가 강화된다.   손실흡수능력 제고와 성과보수체계 개편은 그동안 추진하지 못했던 걸 해냈다는 평가다. 경기대응완충자본을 1%p 부과하고, 특별대손준비금 적립 요구권을 도입해 향후 부실에 대비토록 한 게 대표적이다.   성과보수체계의 경우 장기성과를 기준으로 성과를 받도록 이연지급을 확대하고, 성과급 환수제(claw back) 도입을 추진한다. 내년 4월부터는 은행이 경영 현황을 공개해 스스로 수익과 배당을 잘 관리토록 유도한다.   지금까지 과점체제를 통한 경쟁 촉진과 상생금융을 압박했다면 하반기에는 '비이자수익 확대' 차원에서 금융권에도 움직일 공간을 줄 전망이다.   하반기 내 신탁업 혁신을 위한 자본시장법 개정을 추진, 은행도 종합재산관리 서비스를 출시토록 지원할 예정이다. 투자일임 허용 문제도 일단 검토는 이어가기로 했다.   3·4분기 내 은행이 비금융업을 합리적 범위 내에서 수행할 수 있도록 방안을 발표하고, 이달 중 은행의 해외진출 확대 지원방안도 발표할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.07.01.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>장지호 닥터나우 대표 “현실과 동떨어진 규제도 거스르는 게 창업가 정신”</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003233357?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>전경련 ‘드림워크 토크콘서트’에 멘토로 출연이승건 토스 대표·방송인 타일러 라쉬도 강연“현실과 동떨어진 규제에도 거스를 수 없는 흐름을 이끌어 가는 게 창업가 정신이다.”장지호 닥터나우 대표는 23일 서울 동대문구 브이스페이스에서 전국경제인연합회 주관으로 열린 국민 소통 프로젝트 ‘드림워크 토크콘서트’에서 이같이 말했다.장 대표는 ‘고객 집착에 진심, 혁신을 찾는 창업가 정신’이라는 주제로 국내 최대 의료 플랫폼으로 자리잡은 닥터나우의 시작과 국내 규제 환경에 맞서고 있는 창업가로서의 이야기를 전했다. 닥터나우는 원격의료 규제를 풀고 비대면 진료 시장을 활성화하겠다고 목표를 세운 회사다.그는 “현실과 동떨어진 규제와 변화를 거부하는 이익단체의 압력이 스타트업의 혁신을 가로막고 있다”며 “그럼에도 결국 고객이 원하는 대로 세상이 움직인다는 믿음, 그 ‘거스를 수 없는 흐름’을 인지하고 직접 이끌어 가는 게 바로 창업가 정신”이라고 말했다.이날 드림 멘토로는 장 대표 외에도 이승건 비바리퍼블리카(토스) 대표와 방송인 타일러 라쉬가 나섰다.이 대표는 ‘나 자신을 찾는 여행’을 주제로 한 강연에서 ‘8전 9기’의 기업가가 될 수 있었던 이유를 얘기했다. 그는 “기업가는 세상에 풍요를 공급하고, 모든 사람의 삶에 긍정적인 변화를 미칠 수 있다는 사명감을 가져야 한다”면서 “꿈을 찾는 과정에서 실패를 두려워하지 말고 크게 좌절하지도 말아야 한다”고 말했다.‘당신이 인생의 파일럿’이라는 주제로 운을 뗀 라쉬는 청춘들을 향해 기존 공식을 따르기보다 새로운 작은 실험을 하자는 메시지를 전달했다.이날 토크콘서트에 참석한 시각장애인 A씨는 “많은 관중이 모이는 콘서트에 힘든 걸음을 했는데, 멘토들의 도전 경험을 듣고 많은 인사이트를 얻었고, 미래 설계를 하는 데 큰 도움이 됐다”고 말했다.예비 창업가인 B씨는 “도전을 통해 내 꿈을 이루는 동시에 세상에 기여도 할 수 있다는 생각을 갖게 돼 가슴이 벅차다”며 “기업가 정신이라는 단어가 나와 먼 개념이 아니라는 것을 알게 됐다”고 말했다.이상윤 기업의사회적책임(CSR) 본부장은 “미래에 대한 고민이 많은 MZ세대가 이 시대 최고 멘토들을 만나 강연도 듣고 대담을 나눔으로써, 청년들에게 소중한 경험과 추억이 되었을 것”이라며 “도전과 열정에 대한 멘토들의 응원이 미래의 리더가 될 청춘들에게 많은 도움이 되길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>“카카오뱅크가 달라졌어요” 1년 만에 사회공헌액 8배↑</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005039539?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>카뱅, 2021년 사회공헌액 비중 ‘최저’ 불명예지난해엔 8배 늘리며 상생금융 본격화햇살론 등 취약계층 대상 대출도 2000억 넘겨케뱅·토뱅도 올해 사회공헌활동 확대 전망 (카카오뱅크 제공) /사진=뉴스1[파이낸셜뉴스]금융당국의 상생금융 압박이 2금융권까지 확장되는 가운데 1금융권 중 가장 미진한 사회공헌활동을 펼쳐온 카카오뱅크가 달라졌다. 지난해 출범한 ESG위원회를 통해 전년 대비 8배 이상 사회공헌금액을 늘리는 등 포용금융에 적극 나서고 있다. 케이뱅크와 토스뱅크도 지난해부터 상생금융 활동을 늘리는 추세라 올해 인터넷전문은행의 사회공헌활동액은 크게 확대될 전망이다.    10일 금융권에 따르면 지난해 카카오뱅크의 사회공헌액은 25억6000만원으로 전년 대비 753.3%(22억6000만원) 증가했다. 순이익 대비 사회공헌액 비중도 지난 2021년 0.15%에서 2022년 0.97%까지 확대됐다.   특히 햇살론 등 취약계층을 대상으로 하는 사회책임금융액이 크게 늘었다. 카카오뱅크의 지난해 사회책임금융액은 2204억원으로 전년(830억원) 대비 165.54% 늘어났다. 대출 이자 감면을 포함하는 포용금융액도 지난해 1753억원에 달했다.   이는 당기순이익에 비해 사회공헌금액이 저조했던 카카오뱅크가 ESG위원회를 신설해 본격적인 사회공헌활동에 나섰기 때문이다. 카카오뱅크는 당기순이익이 2020년 1136억원에서 2021년 2041억원으로 79.67% 증가하는 동안 사회공헌액을 오히려 4800만원 가량 줄이는 등 소극적인 태도를 보였다. 지난 2021년 카카오뱅크의 이익 대비 사회공헌 비율은 전체 1금융권 중 꼴찌에 머물기도 했다.   이에 카카오뱅크는 지난 3월 인터넷전문은행 최초로 대표이사 직속 ESG전담 부서를 신설하고 이사회 내 ESG위원회를 구성했다. 사회공헌 전담 직원 수가 기존 5명에서 3명으로 줄어들자, 포용금융 확대를 위해 조직 쇄신에 나선 것이다.   카카오뱅크 관계자는 “지난해 ESG위원회를 5차례 개최해 포용금융의 사회적 가치를 측정하고 지속가능경영보고서 발간하는 등의 활동을 통해 사회공헌 활동을 강화하고 있다"고 설명했다.   한편 지난 2017년 출범한 이후 사회공헌액이 줄곧 1억원 미만에 머물렀던 케이뱅크도 지난해 2억7000만원 규모의 사회공헌활동을 펼쳤다. 지난 2020년까지 줄곧 1000억원 가량의 적자를 기록한 후 지난 2021년에 흑자 전환한 케이뱅크는 지난해 당기순이익 830억원을 기록하는 등 이익이 확대되자 취약계층 아동 주거환경 개선부터 기부 캠페인까지 사회공헌활동폭을 늘리는 추세다.   출범 2년 차로 인터넷은행 중 가장 후발주자인 토스뱅크도 올해 사회공헌액을 늘릴 계획이다. 지난해 2644억원의 당기순손실을 기록한 토스뱅크의 사회공헌액은 1억원에 그쳤다.   토스뱅크 관계자는 “중도상환수수료 등 수수료 전면 무료 정책과 보이스피싱 피해고객 대상 ‘안심보상제’ 운영 등 다각도로 사회공헌 활동을 이어가고 있다”며 “적자를 기록하는 상황이라 당기순이익의 1%를 의무적으로 사회공헌에 출연해야 하는 것은 아니지만 올해에도 사회공헌금액을 더욱 확대할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.07.13.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>토스뱅크, 무단 해외결제에도 '세월아 네월아'…소비자 불만 고조</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000227153?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>"'매입 전' 상태이니 일단 기다려봐라""보상 확답할 수 없다"토스뱅크가 당사 카드 해외도용에 대해 안일하게 대응한 것으로 확인됐다. /더팩트 DB토스뱅크가 당사 카드 해외도용에 관해 안일하게 대응한 것으로 나타나 금융 소비자들의 불만을 사고 있다.더팩트 취재 결과 최근 30대 A씨는 본인의 토스뱅크 카드로 미국 월마트 홈페이지에서 180달러가 결제됐다는 알림 문자를 확인했다. 본인이 사용한 내역이 아니기 때문에 A씨는 즉시 앱을 통해 해외결제를 차단하고 토스뱅크 고객센터에 연락을 했다.고객센터에서는 "해당 결제 건이 '매입 전' 상태로 확인된다"며 "가맹점 측에서 매입 처리를 하지 않을 경우 자동 결제 취소가 될 것이고, 매입이 된다면 이의신청 접수를 해야 한다. 매입 전 상태에서는 접수를 도와줄 수 없다"는 답이 돌아왔다.아울러 "해외 결제건의 경우 이의신청 접수가 단 한 번만 가능하기 때문에 가맹점 측에 연락을 직접 해봤다는 내용을 증명해야 한다. 취소 요청을 해봤다는 이메일 등 증빙 자료가 있어야 보상 절차가 진행될 수 있다"고 말한 것으로 확인됐다.A씨는 월마트 측에 연락을 취했으나 회신을 받지 못했다. 토스뱅크 고객센터에 상황을 설명하니 또다시 "매입 전 상태이니 상황을 더 지켜보자"는 말이 돌아왔다는 설명이다. 매입 처리가 되지 않는 상황으로 종결된다면 결제된 날로부터 11일 뒤에 자동적으로 결제금이 환불될 것이니 기다려보라는 의미로 파악됐다.해외결제가 실패했다는 내용의 토스뱅크 알림 팝업. /더팩트 DB결과적으로 A씨에게 돌아온 건 세 차례의 해외 결제 실패 알림이었다. 해외이용을 차단해둔 덕에 결제는 되지 않았지만 A씨는 불안한 마음에 고객센터에 재차 문의했다.이에 토스뱅크 고객센터 관계자는 "일단 이의신청 접수 처리를 하겠다. 접수가 되면 3영업일 이내에 담당자가 배정되긴 한다. 하지만 해외 결제 건의 경우에는 종결까지 약 2~3개월이 소요될 수 있다. 저희가 보상을 확답드리는 게 아니라 사고 신고를 접수, 조사하는 과정"이라고 말했다. 애당초 매입 전 상황에서도 이의신청 접수는 가능하다고 해석되는 대목이다.A씨가 "본인 사용이 아니라면 무조건적으로 환급을 받을 수 있는 것으로 안다"고 반문하자 고객센터 관계자는 "그 부분은 잘못 안내를 받으신 듯하다"고 선을 그었다는 전언이다. 여신금융업법 제162조 5항 2호는 해킹 등 부정한 방법으로 얻은 정보로 신용카드가 이용된 경우 카드사는 카드 사용으로 생기는 책임을 진다고 명시하고 있다.한국소비자원 관계자는 "금융사 입장에서는 책임을 지기 싫으니 회피하는 것일 수 있다"며 "해킹 등 부정한 방법으로 얻은 카드 정보를 이용한 부정 사용에 대해서는 해당 금융사가 전액 보상을 해야 한다는 게 금융감독원의 입장이다. 처리가 지체될 경우 금융 민원 센터에 연락하는 것도 방법"이라고 말했다.다만 고객센터의 설명과 달리 토스뱅크 본사 관계자는 &lt;더팩트&gt; 취재진에 "부정사용에 대한 피해는 절차에 따라 구제(보상)돼 본인 피해는 발생하지 않는다"고 설명했다. 취재진이 본사 측에 확인하지 않았다면 피해자의 이의신청이 차일피일 지연될 수 있고, 피해자는 보상에 대한 확답을 듣지 못했을 수 있다는 이야기다.토스뱅크 관계자는 "해외 이의신청을 접수하면 국내 카드대행사에서 마스터를 통해 Chargeback을 요청하고, 마스터에서 가맹점을 통하여 본인사용여부 등을 판단한 결과에 따라 본인 미사용으로 인정되면 고객에게 환급이 되는 구조"라며 "이때 가맹점과 컨택한 증빙자료가 있다면 고객님께 좀 더 유리할 수 있어 가맹점에 확인요청 해보시길 안내드린 것"이라고 부연했다.다만 금융 소비자 사이에서는 토스뱅크의 자체적인 사고 탐지 모형에도 아쉬움이 있다는 목소리가 나온다. 카드사들은 고객의 연령·성별·결제금액대 등 다양한 기준과 결제 패턴 등을 적용해 데이터를 분석한다. 유의가맹점이나 업종 등을 수시로 업데이트해 이상 또는 부정거래를 인식한다. 특히 최근 들어서는 인공지능(AI) 기반의 사고 탐지 모형을 통해 고객들의 여러 사고를 학습하는 게 일반적이다.한 카드사 관계자는 "고객의 결제 패턴이 가장 주효하게 작용한다. 고객마다 카드를 쓰던 패턴이 있는데 이례적인 사용건이 발생하면 이상·부정거래를 의심하게 된다. 다만, 최근 해외결제 내역이 있다면 이상을 감지하기 어려웠을 수 있다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SW개발자 인력난에… 해외로 눈 돌리는 中企 [세계로 뛰는 중소기업]</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003831162?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>대기업과 연봉 격차 등 이유 채용·유지 어려움기업 55%가 채용 의사… 비용절감 효과도 기대보안솔루션 중소기업 A업체는 지난해부터 소프트웨어(SW) 개발자 인력난에 시달렸다. IT업계 종사자들이 선호하는 회사인 소위 ‘네카라쿠배당토’(네이버, 카카오, 라인, 쿠팡, 배달의민족, 당근마켓, 토스)로 인력이 조금씩 빠져나간 탓이다. A사의 개발자 인력은 90여명으로 전체 직원의 절반에 달하는 핵심축이다. 핵심 조직이 흔들리자 A사는 시험 삼아 3명의 해외 개발자를 원격으로 채용하는 결단을 내렸다. 채용 결과 국내 개발팀에 견주어 실력이 뒤처지지 않는다고 판단해 최근 9명의 해외 인력을 추가로 채용했다. A사 관계자는 “해외 개발자가 투입되면서 개발 속도가 2배 이상 높아졌다”고 말했다.     중소벤처기업부. 뉴시스    개발자 인력난에 시달리는 중소기업계에서 해외 인재를 영입하는 일이 빈번해지고 있다. 6일 업계에 따르면 메타버스(확장 가상 세계) 전문 중소기업 B사도 국내에서 개발자 인력을 찾지 못하자 해외 개발자를 대거 채용했다. 베트남에서 최고기술책임자(CTO)를 채용한 뒤 추가로 8명의 개발자를 해외에서 구했다. 지연될 뻔한 제품도 제때 출시했고 국내 개발자 대비 비용도 절감했다.  최근 정부가 시행한 여론조사에서도 이 같은 현실이 드러났다. 3일 중소벤처기업부 조사에 따르면 중소기업 75.4%가 SW 전문 인력 채용 및 유지에 어려움을 느끼는 것으로 나타났다. 개발자 인력난의 주요 원인으로는(중복응답 허용) ‘대기업과의 연봉 격차로 인한 기업군 간 경쟁 심화’(68.4%), ‘중급이상 개발자 인력 부족’(64.2%) 등이 꼽혔다.  중기부 조사에서 현재 외국 국적 직원을 채용한 기업은 27.3%였으나 향후 외국인 SW 전문인력 채용 의사를 피력한 기업은 54.5%로 나타났다. 외국인 경력직 개발자 채용 시 장점으로는 ‘동일 수준 개발자를 저렴한 임금으로 채용해 비용 절감’(68.4%)을 가장 많이 꼽았다. 기업이 선호한 국가로는 인도(36.4%), 베트남(31%), 중국(11.8%) 순이었다. 조사는 기업체 187개사를 대상으로 지난달 13∼23일 진행됐다.  해외 개발자 채용을 대행해 주는 시장은 호황이다. 해외 개발자를 국내 기업과 연결하는 인재관리(HR) 서비스 기업 슈퍼코더는 지난해 4월 플랫폼 출시 뒤 연간 1140% 성장했다고 밝혔다. 슈퍼코더는 현지에서 개발자를 모집해 24시간 이내에 인재를 추천하고 2주 안에 채용이 완료되도록 진행한다.  조범식 슈퍼코더 최고운영책임자(COO)는 최근 기억에 남는 고객 사례로 교육서비스 대기업 W사를 꼽았다. 글로벌 사업 진출을 위해 해외 법인을 설립하려던 이 회사는 슈퍼코더를 통해 현지 인력을 채용했고, 법인 설립 대신 국내에서 해외향 서비스를 출시했다. 조 COO는 “개발도상국 출신 개발자는 비슷한 수준 국내 개발자보다 인건비가 50% 저렴하다”며 “앞으로 검증된 해외 개발자를 국내 기업에 원활히 공급할 수 있도록 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>토스뱅크, 미래에셋증권과 손잡고 '주식계좌 개설' 서비스 열어</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000932595?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크 토스뱅크는 '목돈 굴리기' 서비스에서 미래에셋증권의 주식계좌인 '다이렉트(Direct) 주식계좌' 개설 서비스를 개시하고 최대 6만5000원 상당의 현금 이벤트를 실시한다고 4일 밝혔다. 미래에셋증권의 '다이렉트(Direct) 주식계좌'는 국내와 해외주식, 채권, 펀드 등 금융투자상품 거래가 가능한 계좌로 19세 이상의 한국 거주 내국인이라면 가입이 가능하다. 미래에셋증권의 '다이렉트(Direct) 주식계좌' 개설은 토스뱅크 내에서 '목돈 굴리기' 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 가능하고 1인 1계좌까지 개설할 수 있다. 8월 말까지 토스뱅크에서 미래에셋증권 계좌를 개설하면 1만5000원 현금을 토스뱅크 통장으로 즉시 지급하고 해외주식 매수 시 투자지원금 5만원을 제공한다. 주식 매수시 부과되는 수수료 무료 혜택과 환전 우대도 제공된다. 현재 토스뱅크에서 주식계좌 개설이 가능한 증권사는 이번 미래에셋증권을 비롯해 한국투자증권, KB증권과 같은 국내 대표 대형 증권사들이 입점해 있다. 토스뱅크 관계자는 "주식계좌 개설 서비스 대상 증권사가 국내 대형 증권사들을 시작으로 점차 확대되며 고객의 선택권을 넓혀가는 중" 이라며 "앞으로도 더욱 다양한 증권사와의 제휴를 통해 고객 중심의 다양한 혜택을 제공해 나갈 것" 이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>13억 조회수에 5500억 매출…라방 조회수 84% 급증한 이유</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004867990?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>사진=게티이미지뱅크올 상반기 라이브커머스 거래액이 5500억원을 돌파했다. 이 기간 라이브커머스 방송 횟수는 15만 회에 달했다. 단일 방송 기준 매출 1위는 두 시간 방송만에 128억원 매출을 올린 11번가의 '갤럭시S23 시리즈' 사전 판매였다. 역대급 더위와 장마가 예고되면서 에어컨, 제습기 등 계절 가전의 2분기 거래액은 전년보다 67% 증가했다.  상반기 조회수만 13억회…'라방 전성시대'이커머스 데이터 분석 기업 씨브이쓰리의 ‘2023 상반기 라이브커머스 결산 리포트’에 따르면 상반기 라이브커머스 거래액은 5532억원으로 추산됐다. 전년 같은 기간과 비교해 57% 늘었다. 학교 입학을 앞둔 2월, 여름 가전 수요가 많은 6월에 거래액이 각각 1000억원을 돌파했다. 씨브이쓰리는 네이버쇼핑라이브, 그립 등 국내 주요 라이브커머스의 데이터를 모아 분석하는 스타트업이다.  상반기 라이브커머스 월 방송 건수는 2만4000~2만5000건 수준이다. 월별 방송 횟수는 1~6월이 비슷했지만 방송 조회수는 지난 1월 기준 1억7259만 회에서 6월 2억9703억 회까지 늘었다. 반 년 만에 조회수가 2배 가까이 불어난 것이다. 상반기 조회수를 합치면 12억9843회에 달한다. 전년보다 84% 늘었다. 방역 조치가 점진적으로 완화되며 오프라인 활동이 늘었음에도 라이브커머스는 지속 성장하는 모습을 보인 셈이다. 특히 분기 거래액은 지난해 2분기 1973억원에서 올해 2분기 2811억원으로 43% 불었다. 이 기간 조회수도 4억2488회(2022년 2분기)에서 7억6370억회(올해 2분기)로 80% 증가했다. 코로나 정국이 끝났지만 라이브커머스 수요는 줄어들지 않은 셈이다. 김세훈 씨브이쓰리 매니저는 "오프라인 활동 증가가 라이브커머스 인기 하락으로 이어질 것이란 업계의 우려가 있었지만 2분기 거래액이 전년 대비 43% 증가했다"며 "라이브커머스가 일시적 유행이 아닌 하나의 판매 채널로서 자리를 잡았음을 보여주는 것"이라고 말했다.   두시간 방송에 128억 '대박'가장 거래액이 높았던 카테고리는 ‘디지털·가전’이었다. 상반기 전체 거래액 중 28%를 차지했다. 전년과 비교하면 거래액이 95%나 늘었다. 그 중 계절가전의 성장이 두드러졌다. 역대급 더위와 장마가 예고된 여름인 만큼 에어컨, 제습기 등의 2분기 거래액이 전년 대비 67% 증가했다.  단일 방송 매출 1위는 지난 2월 11번가에서 진행된 ‘갤럭시 S23 시리즈’ 제품의 사전 판매 방송이었다. 자정에 시작된 해당 방송은 2시간 동안 128억원이라는 매출을 발생시켰다. ‘로보락’의 인기도 두드러졌다. 무선청소기 제품군의 인기를 증명하듯 ‘로보락’은 라이브커머스로만 약 105억원이 넘게 판매되었을 것으로 추정됐다. 가장 높은 거래액을 기록한 달은 2월이었다. 김 매니저는 "이 기간 삼성 갤럭시 신제품 출시와 더불어 신학기 노트북 교체 수요를 노린 라이브 방송이 집중적으로 진행됐다"고 말했다.   성장 배경은 '오퍼월 광고'라이브커머스의 성장 배경에는 ‘오퍼월 광고 서비스’의 역할도 컸다. 지난해 말과 올해 초 사이 신한카드, 토스, SK플래닛 등 많은 유저를 가진 다양한 플랫폼에서 라이브커머스를 결합한 오퍼월 광고 서비스를 경쟁적으로 출시했다. 해당 플랫폼에 라이브커머스가 지속적으로 노출되면서 조회수는 물론 거래액도 폭발적으로 성장했다. 양진호 씨브이쓰리 대표는 “이번 발표가 라이브커머스 관계자분들께 작게나마 도움이 되었으면 한다”며 “라이브커머스 판매 데이터를 넘어 대한민국 이커머스 전체의 판매 데이터를 아우르는 플랫폼을 다음달 출시할 예정”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>토스페이, 오프라인 간편결제로 네이버·삼성·카카오페이에 '도전장'</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005039621?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>쓱페이·스마일페이와 시너지 '관건' 토스 운영사 비바리퍼블리카 로고 이미지. 이미지=토스 제공 [파이낸셜뉴스] SSG페이(쓱페이) 인수에 나선 토스페이가 오프라인 결제를 본격화하면서 간편결제 시장의 3강인 네이버페이,카카오페이와 삼성페이에 도전장을 냈다. 특히 일평균 7000억원이 사용되는 간편결제 시장에서 네이버, 카카오, 토스가 맞붙게 되면서 '3강 구도'로 굳혀진 간편결제 시장에 토스가 지각변동을 일으킬 수 있을 지 주목된다.   금융플랫폼 토스 운영사 비바리퍼블리카는 간편결제 서비스 '토스페이'의 오프라인 결제 서비스를 편의점 CU 1만7000여개에서 시작한다고 10일 밝혔다. 토스는 올해 하반기 토스페이의 오프라인 가맹점을 커피 프랜차이즈, 주유소 등으로 확대하며 토스페이의 공격적인 확장에 나설 전망이다.   특히 토스가 신세계그룹 간편결제서비스인 쓱페이와 스마일페이 인수를 마무리하면 토스페이의 오프라인 결제 사용처는 이마트, 신세계백화점, 스타벅스, CGV, 신라호텔 등으로 확대된다.   토스는 쓱페이와 스마일페이 매각을 위한 우선협상대상자로 선정돼 이르면 이달 말께 영업 양수도 계약을 체결할 것으로 알려졌다. 쓱페이와 스마일페이 가입자수는 각각 약 950만명과 1600만명으로 추정된다. 두 서비스 가입자를 단순히 합치면 약 2550만명으로, 토스는 편의성에 쓱페이·스마일페이 가입자와의 시너지를 최대한 모색해 공격적인 마케팅으로 오프라인 결제시장에서 추격적에 나설 것으로 관측된다.    다만 삼성페이와 네이버페이가 이미 확보한 국내 오프라인 가맹점 개수는 약 300만개, 카카오페이는 약 196만개로 추산된다. 국회 정무위원회 소속 국민의힘 윤창현 의원이 지난해 4월 금융감독원에서 받은 자료에 따르면 지난 2021년 네이버파이낸셜에서 결제된 금액(선불전자지급수단·계좌이체 포함)은 44조188억원, 카카오페이에서 결제된 금액은 17조4536억원에 달한다. 같은 기간 토스에서는 2조1978억원이 결제됐다. 이에 토스가 3강 구도에 균열을 내고 빠르게 시장점유율을 확대하기 위해서는 금융앱인 토스와 쓱페이·스마일페이와의 시너지를 최대한 끌어내는 것이 관건이 될 것이라는 분석이다.   핀테크 업계의 한 관계자는 "토스가 금융 앱으로는 어느 정도 자리매김한 것처럼 보이지만 금융 서비스가 매일 이용하는 서비스는 아니다 보니 사용자가 계속 플랫폼에 들어올 수 있도록 오프라인 확장 필요성을 느낀 것 같다"면서 "결국 중요한 것은 어디서든 결제할 수 있는 결제 범용성인데 성과가 어떻게 나올지는 지켜봐야 할 것 같다"고 말했다.   토스는 금융 소비자의 편의성을 지속적으로 높이기 위해서는 오프라인 결제 시장 진출이 불가피하다는 입장이다. 토스 관계자는 "오프라인 결제는 소비자 금융생활 편의에 있어 빠질 수 없는 부분"이라면서 "토스는 오프라인에서도 안전하고 빠른 결제 경험을 제공하며 충성 고객을 확보할 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>토스뱅크, 공모주 청약 일정 조회 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011962672?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 공모주 청약 일정 서비스를 출시했다고 10일 밝혔다. 토스뱅크에 따르면 해당 서비스는 코스피, 코스닥 시장에 상장을 앞둔 공모주의 청약 일정 확인과 실제 청약이 가능하다. 고객은 자신이 원하는 공모주의 희망 가격, 경쟁률 등도 확인할 수 있다. 제휴 증권사의 계좌개설과 모바일 웹으로 바로 청약까지 진행할 수 있다.공모주 청약 일정 서비스에서는 현재 청약 중인 공모주는 물론 3일 이내 청약을 앞둔 공모주, 앞으로 다가오는 공모주 등의 정보를 제공한다. 상장 완료한 공모주의 공모가 대비 시초가 수익률도 확인할 수 있다.고객이 청약을 희망하는 기업 클릭 시 청약일과 주식 배정·환불일, 상장 매매 시작 등 기본 정보를 제공하고 청약 경쟁률도 확인할 수 있다. 기관 수요예측 결과와 청약 시작 후 각 증권사에서 얼마나 청약에 참여하고 있는지를 보여주는 경쟁률을 실시간으로 제공한다.청약 일정을 놓치지 않게 알림도 받을 수 있다. 공모주 청약 알림은 공모주와 관련된 청약 일정과 예상 공모가 등의 정보를 안내한다. 공모주 알림 관리는 화면 하단에 공모주 알림 설정을 클릭하면 된다.앞서 토스뱅크는 다양한 투자 소식을 콘텐츠로 알려주는 투자 소식 서비스를 런칭한 바 있다. 투자소식 서비스는 론칭 한 달여 만에 구독자 35만명을 넘어섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>온라인 대환대출 1달간 6700억 육박…은행권 편중 지적</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/654/0000045614?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>▲ 금융권의 온라인·원스톱 대환대출 플랫폼이 시행된 지난 5월 31일 오후 서울 시내에 설치된 시중은행들의 ATM기와 카카오페이 대출 비교 서비스 '대출 갈아타기' 화면 모습. [연합뉴스 자료사진]기존 높은 금리의 신용대출을 스마트폰을 이용해 낮은 금리의 상품으로 갈아탈수 있는 '온라인 대환대출 인프라' 개시 이후 한 달간 6700억원에 육박하는 대출자산이 이동한 것으로 나타났다.그러나 대부분의 대환대출이 은행간 이동에 집중되면서 2금융권에서 1금융권으로 이동하거나 2금융권 간 대출 전환이 활성화돼야 한다는 지적이 제기된다.10일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융위원회로부터 받은 자료에 따르면 5월 31일부터 6월 30일까지 22영업일 동안 대환대출 인프라를 통해 총 2만6883건, 6684억원의 대출 자산이 이동했다.이동 유형은 은행 간 대출 이동이 대부분을 차지했다.1금융권에서 1금융권으로 이동한 액수가 6161억원(2만2052건)으로 전체의 92% 수준이었다.2금융권에서 1금융권으로 이동한 액수는 315억원(2352건)에 불과했다.나머지는 2금융권에서 2금융권 169억원(2098건), 1금융권에서 2금융권 39억원(381건)이었다.  ▲ 지난 1월 12일 서울 시내 한 SC제일은행에 대출 관련 안내문이 부착돼 있다. [연합뉴스 자료사진] 앞서 김희곤 국민의힘 의원이 금융감독원으로부터 받은 자료에 따르면 대환대출 인프라 개시 초기 10일간 고객들은 기존 거래 은행에서 하나은행(1497억원), 토스뱅크(885억원), 우리은행(762억원), 카카오뱅크(469억원) 순으로 많이 옮겼다.같은 기간 전체 대환대출 이동 금액은 3844억원이었고, 1금융권에서 1금융권으로 옮긴 액수가 3636억원으로 95%에 달했다.다만 타 금융권 고객 유출을 우려해 대환대출 플랫폼 참여에 다소 소극적이었던 카드사들도 최근 플랫폼 참여에 나서면서 2금융권 대환대출 경쟁도 보다 활성화될 것으로 기대된다.앞서 신한카드(카카오페이·토스·핀다), KB국민카드(카카오페이·네이버페이)가 대환대출 서비스 플랫폼에 입점했고, 현대카드도 이달 6일 핀다에 입점했다.롯데카드도 이달 중 대환대출 플랫폼에 입점을 계획하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>토스, '10대' 모의투자 대회…최대 10만 포인트 지급</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011963917?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>10일부터 14일까지 닷새간 진행[서울=뉴시스] 박은비 기자 = 토스는 10일부터 14일까지 닷새간 어린이·청소년 대상 '틴즈 모이투자 대회'를 개최한다고 밝혔다.만 7세부터 만 18세 이하 사용자를 대상으로 하는 이번 대회는 기존 토스 모의투자 서비스를 이용하는 틴즈 사용자들이 참가할 수 있다. 토스는 지난 4월 틴즈 사용자들이 가상의 1000달러로 직접 주식 투자를 경험할 수 있는 토스 모의투자 서비스를 출시했다.대회 참여시 본인의 기존 투자 내역은 백업되며, 대회가 끝날 때까지는 기존 서비스를 이용할 수 없다. 대회가 종료되면 참여 전 보유하고 있던 본인의 모의투자 내역이 복구될 예정이다.모의투자 대회에서는 투자 금액으로 가상의 1000만원이 지급된다. 대회 기간 동안 투자 가능 종목으로 넷플릭스, 나이키, 코카콜라, 현대자동차, 하이브 등 국내외 주식 일부를 선정해 제공하고, 가격은 시세 정보를 활용해 실시간으로 반영할 예정이다.랭킹은 투자 수익 금액 기준이다. 본인 뿐만 아니라 타인 성적도 확인할 수 있으며, 금액이 동일하면 선착순으로 순위가 기록된다. 1등에게는 10만 토스포인트, 2·3등에게는 각 5만·3만 포인트 등을 지급한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>토스, SSG페이·스마일페이 인수?</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002298746?sid=105</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>우선협상대상자 선정…"구체적인 협상안 논의 중"신세계그룹이 쓱닷컴의 SSG페이와 지마켓의 스마일페이 사업 매각을 추진하는 가운데 토스의 인수 가능성이 큰 것으로 보인다.14일 투자은행업계에 따르면 신세계그룹은 SSG페이와 스마일페이 매각을 위한 우선협상대상자로 토스를 지정했다.토스는 SSG페이와 스마일페이의 가치를 약 7천억원으로 평가하고 700억원은 현금으로, 나머지 6천300억원은 지분 6%를 신세계에 양도하는 방식으로 협상을 논의 중인 것으로 알려졌다.토스 로고현재 토스의 최대 주주는 창업자 이승건 대표로 15.69%의 지분을 보유 중이다. 신세계가 토스 지분 6%를 받게 된다면 벤처캐피털 알토스벤처스(8.66%), 굿워터캐피털(6.21%)에 이어 4대 주주에 오르게 되는 셈이다.토스 관계자는 “아직 우선협상대상자가 된 것일 뿐 구체적인 향후 경영 방향은 정해진 바 없다”며 “아직 논의 중이고 확정된 것은 없다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>은행권 과점깨기 탄력 붙나… `제4인뱅` 플레이어는?</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002811838?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜·키움·더존 언급김소영 "언제든 경쟁자 진입 가능"인터넷은행 3사. 디지털타임스 DB.    31년만에 새로운 시중은행이 탄생한 가운데 카카오·케이·토스뱅크에 이은 '제4인터넷전문은행'이 나올지 관심이 집중되고 있다. 지난 5일 금융위원회와 금융감독원은 은행권 경쟁 촉진 및 구조개선 방안'은행권 경영·영업 관행·제도 개선 방안'을 발표했다. 이번 대책의 핵심은 현재 5대 시중은행 중심으로 굳어진 은행권 과점 체제를 깨기 위해 '신규 플레이어'를 투입해 경쟁을 촉진하는 것이다.우선 금융당국은 단시일 내 기존 지방은행의 시중은행 전환을 적극적으로 허용하기로 했다. 대구은행은 이미 시중은행 전환을 공식적으로 선언한 상태다. 김태오 DGB금융 회장은 "시중은행은 지방은행보다 금리 면에서 조달이 유리하다"며 "컨설팅사와 논의해 그룹 차원에서 TF를 구성, 빠른 시일 내에 인가를 진행할 수 있도록 하겠다"고 말했다.당국은 인터넷전문은행의 신규 인가도 추진한다. 기존에는 금융당국에서 인가 방침을 먼저 발표한 뒤 신규 인가 신청·심사가 진행됐으나 자금력과 적절한 사업 계획만 갖췄다면 언제든 인가 신청을 할 수 있게 된다. 다만 신규 인가는 현행 법령상 요건과 함께 현 인터넷전문은행 3사의 성과 및 안정성 등 제반 상황을 감안해 심사한다는 계획이다. 김소영 금융위 부위원장은 "은행 산업을 언제든 경쟁자가 진입할 수 있는 경합 시장으로 바꿔 나갈 것"이라며 "실제 경쟁자가 진입하지 않더라도 잠재적 경쟁자에 대해 인식하게 될 경우 경쟁 효과를 불러일으킬 수 있다"고 설명했다.업계에서 제4 인터넷은행 후보로는 자본력을 갖춘 네이버파이낸셜과 키움증권, 더존그룹 등이 언급되고 있다. 키움증권은 지난 2019년 제3인터넷은행 예비인가 신청을 한 이력이 있다. 네이버파이낸셜의 모기업인 네이버 역시 제3인터넷은행 예비인가 신청을 앞두고 인터넷전문은행 사업 진출을 긍정적으로 검토했던 것으로 전해진다. 기업용 소프트웨어기업인 더존그룹도 후보자 중 하나로 거론되고 있다.신규 인터넷은행이 등장할 경우 업권 간 경쟁이 촉진되고, 기존 은행들의 서비스 개선 노력 등이 촉발돼 산업 전반적인 경쟁력이 향상될 수 있다는 기대감이 나온다. 회의적인 시각도 존재한다. 지난 2017년 시중은행들의 과점 체제를 바꾸고 경쟁을 촉진하겠다는 취지로 출범한 인터넷은행들도 아직까지는 틈새시장의 이상의 역할을 수행하고 있지 못하다는 평을 받고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>뇌과학 전문기업 파낙토스, '뇌 훈련 프로그램' 의료기 인증받아</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004908331?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>뇌과학 전문기업 파낙토스는 최근 자사 의료용 훈련 프로그램 '뉴로하모니MD'가 의료용 바이오피드백계로서 식품의약품안전처의 의료기 인증을 획득했다고 5일 밝혔다.파낙토스 관계자는 "'뉴로하모니M2'(뇌파계)에 이어 '뉴로하모니MD'(의료용바이오피드백계)가 의료기 인증을 받았다"며 "이제 뇌파 진단뿐만 아니라 훈련에 대해서도 의료기로 정식 사용할 수 있게 됐다"고 말했다.회사에 따르면 뉴로하모니M2는 의료보험 급여 처리가 가능해 뇌파를 측정할 때마다 보험수가가 적용된다. 뉴로하모니MD는 의료보험이 비급여로 처리돼 훈련 시마다 병원이 정한 금액을 지불해야 하지만 실비보험이 적용된다.파낙토스 관계자는 "이번 의료기 인증을 통해 본격적으로 의료기관과 보건소, 치매안심센터, 교육기관 등을 대상으로 '뉴로하모니M2'와 '뉴로하모니MD'를 적극 보급할 수 있게 됐다"며 "질병별 치료기로 의료기 인증을 받기 위해 더욱 노력할 것"이라고 했다. 파낙토스는 독자 기술력을 기반으로 20년간 전 세계에서 100여 개 센터를 운영 중인 뇌과학 전문기업이다. 100만 건의 빅데이터와 200여 편의 임상 논문을 보유했다. 최근 업계 유일의 의료용 AI(인공지능) 뉴로피드백 시스템을 출시하고, 국내는 물론 전 세계로 제품을 수출하면서 글로벌 기업으로 역량을 넓혀 가고 있다.사진제공=파낙토스</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.07.08.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>토스뱅크, 20여분간 일부 서비스 오류…“같은 문제 없도록 조치”</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003292365?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>토스뱅크. 뉴스1       토스뱅크에서 8일 일부 서비스에 오류가 발생해 이용자들이 불편을 겪었다.      이날 토스뱅크는 오전 9시 10분부터 9시 30분까지 대출 실행, 신규 예·적금 가입 등 일부 서비스 접속이 원활하지 않았다고 밝혔다.      이용자마다 기능 오류 시간이 달랐지만, 평균 20분가량 지속됐다고 토스뱅크는 설명했다.      다만 토스뱅크는 잔액 조회와 송금 기능에는 문제가 없었다고 덧붙였다.      일부 온라인 커뮤니티에는 토스뱅크 앱이 먹통이라는 글이 올라오기도 했다.      토스뱅크는 “시스템 업데이트로 인해 일부 고객에게 오류가 발생했다”며 “현재는 조치를 완료한 상태”라고 말했다.      이어 “이번 사안을 분석해 유사한 일이 발생하지 않도록 하겠다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.07.15.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>통신비부터 PC방 할인까지…'잘파세대' 위한 카드 살펴보니</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011975344?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>잠재 구매력 높은 알파세대…미래 큰 손 되나금융사들, 1020 노린 체크카드 등 출시 이어가[서울=뉴시스] 조수정 기자 = 2024학년도 대학수학능력시험 6월 모의평가가 열린 1일 오전 서울 양천구 목동 종로학원에서 수험생들이 답안지와 문제지를 배부받고 있다. (공동취재사진) 2023.06.01. chocrystal@newsis.com[서울=뉴시스] 한재혁 기자 = 금융사들이 1020 고객층인 '잘파세대' 공략에 나섰다. 타 세대에 비해 경제적으로 여유롭고 풍족한 환경에서 자란만큼 그 구매력이 뛰어날 것이라는 계산에서다. 카드사들을 비롯한 다수의 금융사들은 잘파세대의 수요가 높은 혜택이 담긴 체크카드를 만들거나 자립적인 금융 거래를 할 수 있는 상품을 내놓고 있다.15일 업계에 따르면 금융사들은 '잘파세대'를 겨냥한 상품들을 꾸준히 출시하고 있다.잘파세대는 Z세대와 알파세대의 합성어로 이 중 알파세대는 2010년~2014년 사이 태어난 이들을 지칭하는 말이다. 타 세대에 비해 경제적으로 풍족한 지원을 받아 잠재적인 구매력 또한 고평가 받고 있다.KB금융지주경영연구소는 과거 보고서에서 "알파 세대는 이전 세대에 비해 부유하고 기술적으로 발전된 세대"라며 "알파 세대 중 연령이 높은 아이들은 용돈 사용 등으로 부모의 지출에 영향을 미치는 등 확실히 가정 구매 결정에 중요한 역할을 하고 있다"고 분석했다.이에 금융사들도 공략에 나섰다. 대표적인 곳이 토스다. 어린이·청소년용 선불 카드인 유스(USS)카드의 누적 발급량은 지난 4월 일찍이 100만장을 돌파했다. 만 7세부터 만 16세 어린이나 청소년이 보호자의 동의가 있을 시 자신의 명의로 사용할 수 있는 카드로 CU 등 편의점에서 현금을 충전해 사용할 수 있는 카드로 온·오프라인 가맹점 내 결제나 교통카드 기능 등을 제공한다.선불카드인 만큼 할인 혜택을 제공하지 않으나 청소년들이 주체적으로 소비습관을 결정할 수 있다는 설명이다. 해당 카드는 보호자의 명의가 아닌 청소년 본인 명의와 전화번호로 카드를 발급한다. 때문에 이용내역을 보호자가 아닌 청소년 사용자 본인이 확인할 수 있다. 단 청소년 제한업종이나 자동·해외결제는 차단돼 있어 오남용도 예방할 수 있다.카카오뱅크에는 카카오뱅크 mini가 있다. 카카오의 대표적인 캐릭터 니니즈를 플레이트 디자인으로 사용했으며 대다수의 간편결제 서비스와 연동이 된다. 토스의 유스카드와 마찬가지로 사용내역은 보호자가 아닌 청소년 사용자 본인에게만 전달이 된다.KB국민카드는 지난달 '노리2 체크카드 play'를 출시했다. 이 카드는 커피, 편의점, 배달 등 10개 업종에서 할인 받는 일상 혜택을 기본으로 제공하고 플레이(Play)형 발급 시 PC방과 패스트푸드점 할인 혜택을 추가로 제공한다.일상 혜택은 ▲커피(스타벅스·커피빈) 10% ▲모바일(구글플레이스토어·앱스토어) 10% ▲문화(인터파크티켓) 10% ▲뷰티(올리브영·미용실 업종) 5% ▲편의점(GS25·CU) 5% ▲구독(넷플릭스·유튜브프리미엄) 1000원 ▲배달(배달의민족·요기요) 1000원 ▲이동통신(SKT·KT·LG U+·Liiv M) 2500원 ▲영화(CGV) 4000원 ▲놀이공원(에버랜드·롯데월드) 1만5000원 할인을 제공한다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.07.09.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>8번째 사업자 찾기…제4 이동통신에 외국기업도 고려</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000607781?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[앵커] 정부가 조만간 8번째 제4이동통신 사업자 선정에 나섭니다. 하지만 이전처럼 유력 후보자가 나오기는 쉽지 않은 상황입니다. 자율주행차나 가상현실 구현처럼 고주파 대역의 통신 인프라 구축이 시급한데 투자비는 막대하고 이익 회수엔 시간이 걸리기 때문입니다. 배삼진 기자입니다. [기자] 2027년 운전자 개입이 불필요한 레벨4 자율주행차 상용화가 목표인 정부. 그러려면 차량간, 도로 인프라간 실시간 통신이 전제돼야 하는데, 그 기반인 28㎓ 고주파 대역 주파수를 통신 3사가 모두 반납해 불투명해졌습니다. 정부가 제4이동통신 재추진에 나선 건, 통신비 인하뿐 아니라 이런 인프라 마련을 위한 투자가 시급하기 때문이기도 합니다.고주파인 28㎓는 도달거리가 짧아 50m마다 기지국을 세워야 하는데, 300개만 구축해도 3,000억원이 들어갑니다. &lt;신민수 / 한양대 경영학과 교수&gt; "B2B(기업간거래) 모델 혁신을 통해서 어떻게 수익을 발생시킬 수 있을 것이냐가 성공이냐 실패이냐의 관건이 될 것으로 보입니다."후보로는 재무적 능력이나 영업망이 있는 쿠팡과 KB국민은행, 토스 운영사 비바리퍼블리카 등이 거론되는데, 외국자본의 참여도 고려되고 있습니다. &lt;홍진배 / 과기정통부 네트워크정책실장&gt; "외국인 투자에 대해서는 간접투자뿐만 아니라 직접투자에 대해서도 저희가 개방할, 제도를 제도개선을 통해서 개방할 의지를 충분히 갖고 있다."정부는 진입 문턱을 낮추고 유인책도 마련했습니다. 1만5,000개인 기지국 의무 구축 개수를 낮춰주고, 2,000억원대인 주파수 할당 대가도 줄여줄 방침입니다. 또 최대 4,000억원 융자와 세제 혜택, '황금주파수'로 불리는 700㎒ 또는 1.8㎓ 등의 할당에도 나설 계획입니다. 8번째 시도되는 제4이동통신 사업자 선정.과거 후보업체들이 재정능력 불확실 탓에 고배를 마셨던 만큼, 정부의 지원이 이번에는 효과를 낼지 관심이 쏠리고 있습니다. 연합뉴스TV 배삼진입니다. (baesj@yna.co.kr)#제4이동통신 #8번째도전 #28㎒연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.07.13.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>넥슨 ‘블루아카이브’, 메인 스토리 1부 최종편 예고</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005158104?sid=105</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>넥슨(대표 이정헌)은 자회사 넥슨게임즈(대표 박용현)가 개발한 서브컬처 게임 ‘블루 아카이브’의 메인 스토리 1부 최종편 업데이트를 앞두고 특별 페이지를 개설했다고 13일 밝혔다.이번 특별 페이지를 통해 메인 스토리 1부 최종편 ‘그리고 모든 기적이 시작되는 곳’의 업데이트 일정이 담긴 로드맵을 공개했다. 총 4장으로 구성된 최종편 이야기는 7월 21일 제1장 ‘샬레 탈환 작전’을 시작으로 9월 5일까지 순차적으로 추가될 예정이다.이와 함께 특별 생방송 ‘블루 아카이브 키보토스 라이브’를 예고했다. 생방송은 7월 21일 오후 6시 공식 유튜브 채널에서 시청할 수 있다. 최종편과 관련한 다양한 정보와 혜택을 만나볼 수 있다.최종편 업데이트를 앞두고 이벤트도 진행한다. 7월 21일부터 특별 페이지 미니게임을 통해 ‘대책위원회 편’, ‘에덴조약 편’ 등 메인 스토리 메모리얼 앨범을 완성하면 ‘크레딧 포인트’, ‘기초·일반·상급 전술 교육 BD 선택권’, ‘기초·일반·상급 기술 노트 선택권’ 등 다양한 보상을 획득할 수 있는 쿠폰을 지급한다. 7월 25일에는 모든 이용자에게 특별 보상으로 ‘청휘석’ 1200개를 선물한다.넥슨은 지난 11일에는 ‘트리니티 종합학원’ 소속 신규 학생 ‘미네’를 추가했다. 이벤트 스토리 ‘샬레의 해피 발렌타인 순찰’, ‘코사카 와카모의 침묵과 축연’ 및 ‘세나’, ‘치히로’ 모집도 복각한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.07.07.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>정용진 야심작 ‘신세계 유니버스’…토스와 윈윈 할까</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000047173?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>신세계 유니버스, 이마트·스타벅스 등 오프라인까지 확장온라인 넘어 오프라인 결제 확대 나선 토스와 협업금융·유통 장점 가진 양사의 통합 시너지 기대한국시리즈 동안 경기장을 방문하며 팀을 응원했던 SSG 구단주인 정용진 신세계그룹 부회장이 눈밑에 종이 꽃을 붙이고 선수들을 바라보고 있다. [사진 연합뉴스][이코노미스트 마켓in 이승훈 기자] 신세계그룹의 간편결제 사업 매각 우선협상대상자로 토스가 선정됐다. 정용진 신세계그룹 부회장의 야심작인 ‘신세계 유니버스 클럽’(신세계 유니버스)의 금융 부문 제휴사로서 토스와의 첫 단추를 꿸 것으로 보인다. 양사는 ‘신세계 페이’ 운영에 대해 협의를 시작, 올 연말까지 거래를 완료해 사업 시너지를 확장해 나갈 전망이다. 7일 업계에 따르면 토스는 지난달 26일 쓱페이(SSG페이)·스마일페이 매각 협상의 우선협상 대상자로 선정됐다. 신세계와 토스는 올해 안에 매각 절차를 완전히 마친다는 데 잠정 합의했다. 이번 주부터 본격적인 실사(기업 가치평가)에 들어간다. 이후 일정은 주주총회를 비롯한 각 사 내부사정을 고려해 확정할 예정이다.신세계그룹은 토스에 SSG페이·스마일페이 사업부 지분을 전량 매각한다. 구체적인 매각 금액이나 토스가 지급할 주식의 규모 등은 아직 미정이다. 토스는 인수 이후에도 신세계그룹과 파트너십을 강화한다는 전제로 인수에 나섰다. 토스는 매각 대금 일부를 현금이 아닌 주식으로 지급하는 방안을 검토 중이다. 이에 따라 신세계그룹은 매각 이후에 토스 주주 지위를 지니면서 결제사업 관련 협력을 이어갈 예정이다. 양사는 향후 토스페이의 결제 영역 확대와 함께 SSG페이·스마일페이와의 시너지 창출 전략을 협의하기로 했다. 신세계그룹의 온·오프라인 커머스 인프라와 토스의 금융 역량을 합쳐 경쟁력을 향상을 꾀할 것으로 보인다. 신세계그룹의 통합 멤버십 신세계 유니버스의 금융 부문 제휴사로 토스와 파트너십을 추진하기로 한 것도 이러한 일환으로 으로 볼 수 있다. 신세계 유니버스는 신세계그룹의 SSG닷컴·G마켓 온라인 통합 멤버십 ‘스마일클럽’에 이마트, 신세계백화점, 스타벅스, 신세계면세점 등 오프라인 핵심 계열사의 혜택까지 더한 유료 멤버십이다.신세계·토스, 온·오프라인 통합 멤버십 협력 기대 신세계 유니버스 클럽. [사진 신세계그룹]신세계 유니버스는 정 부회장이 지난해부터 야심차게 준비해 온 신세계그룹의 ‘최종 병기’로 거론됐다. 그룹 내 계열사의 콘텐츠와 자산을 모두 연계해 온·오프라인 구분을 없애고 고객이 신세계 생태계 안에서 더 많은 시간을 보내게 하는 것이 통합 멤버십의 핵심이다. 이렇게 되면 식음료부터 리테일까지 강력한 ‘록인’(LOCK-IN) 효과를 기대할 수 있어서다. 앞으로 토스와 신세계, 양사의 멤버십 혜택 증대를 위한 다양한 협업이 기대된다. 구체적으로는 토스 모바일앱을 통해 신세계 유니버스를 가입하고 포인트를 조회·관리하는 등의 방식이다. 또 오프라인에서 토스페이 결제시 신세계 유니버스 클럽 할인 및 적립을 자동으로 적용하는 안도 논의하고 있다. 양사 간 포인트 상호 교환을 통해 사용 범위를 늘리는 것도 가능하다. 토스페이가 가맹점 확대를 위해 오프라인 결제 기능 탑재를 추진해온 만큼 시너지가 예상되는 측면이다. 신세계그룹은 토스의 파트너십이 본격화되면 전 연령층을 아우르는 유통·금융 서비스가 가능할 것이란 예상도 나온다. 지난 3월 기준 토스의 월간활성이용자수는 약 1500만명이다. 여기에 SSG페이 고객 960만명, 스마일페이 고객 1650만명까지 더해지게 되는 셈이다. 쓱페이의 경우 여성 사용자 비율이, 스마일페이의 경우 40대 사용자와 직장인 사용자 비율이 높은 모습이다. 이렇게 신세계그룹이 축적한 고객과 토스 주 고객인 2030세대들과 만나 고객층이 한층 확대될 것이란 기대다. 양사의 협업은 어쩌면 예견된 수순일지도 모른다. 간편결제 시장이 치열해지고 있는 상황에서 양사 모두 상대적으로 존재감이 약한 상황이기 때문이다. 국내 간편결제 시장은 카카오페이(42.4%), 삼성페이(24%), 네이버페이(24%)가 사실상 나눠 가지고 있다. 최근엔 애플페이의 국내 서비스 개시 경쟁이 더욱 치열해지고 있다. 지난해 말 기준 SSG페이의 매출이익률이 0.3~0.4% 수준으로 현저히 낮은 수준이다. 신세계는 SSG페이 개발에 100억원이 넘는 돈을 사용했지만 벌어들이는 수익성은 미미했다. 카카오, 삼성, 네이버가 이미 시장 점유율 90%를 차지하고 있고, 10% 시장 안에서 경쟁을 해야 하는 만큼 투자 대비 수익이 나지 않아 간편결제 사업 매각에 나선 것으로 풀이된다. 토스 역시 지난해 2472억원의 영업손실을 기록한 상황이라 오프라인 확대 등 성장 돌파구를 찾아야만 했다. 앞서 이들의 협상은 거래조건 이견 등으로 한 차례 무산됐던 바 있다. 하지만 협상을 재개한 것도 경쟁이 치열해진 시장 환경에서 양사의 시너지가 필요했을 것이란 관측이다. 신세계 관계자는 “저희가 신세계 유니버스 클럽이라고 얼마 전에 통합 멤버십을 론칭했다”며 “신세계 관계사뿐만 아니라 외부 제휴사들과도 계속 제휴 같은 거를 확장할 계획이다”고 말했다. 그는 이어 “금융 쪽의 파트너로 토스와 파트너십을 맺게 되는 것”이라며 “아직 정해지지는 않았지만 토스와 포인트를 교환한다거나 파트너십을 맺을 예정이고, 페이 운영에 대해 토스 쪽에 넘기는 방안을 이제 막 협의를 시작하는 단계다”고 설명했다. 토스 관계자는 “신세계 측과 이제 대화를 막 시작하는 단계다”며 “올해 연말까지 지금 논의되고 있는 요건이 잘 마무리가 되기를 기대하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.07.12.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리]LG전자 '탈가전' 선언 창사 65년만에 대변신</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005528739?sid=102</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>[이데일리 송승현 기자] 다음은 13일자 이데일리 신문 주요 뉴스다.△1면- LG전자 ‘탈가전’ 선언 창사 65년만에 대변신- “젊어서 낸 세금, 두터운 노후보장으로 돌아오죠”- 서울 버스 300원, 지하철 150원 인상- 尹 “오염수 점검 韓전문가 참여” 기시다 “기준 초과땐 방출 중단”- [사설]멀어진 10위권 경제대국, 구조개혁 없인 미래 없다- [사설]퇴근길 교통대란 뻔해도 집회 허가, 현실 고민해 봤나△2면-‘강남 물바다’ 악몽 재현할라…車 고지대로 옮기고, 모래주머니 설치 분주- “긴장감 최대치로 무장 과잉대응 원칙으로 대처”- ‘진짜 장마’ 이제 시작…日 떄린 ‘물폭탄’ 한반도 상륙△3면- 어르신 댁 빠짐없이 찾아 돕고 말동무…여긴 ‘노인 고독사’ 없죠- “1000만원 휠체어 무료”…이동의 자유 보장- 노부부 태우고 동네 한바퀴…삶의 질 높이는 자전거 봉사단△4면- 尹대통령 “나토와 군사정보 공유 확대…北규탄 성명은 엄중한 경고”- 尹, G7 이어 나토서 젤렌스키와 깜짝 조우- “대가 따를 것”…尹대통령, 北도발에 화상 NSC주재△5면- 주택거래 늘자 가계대출 다시 꿈틀…6월 주담대 한달새 7조 늘었다- “채권자인 은행, 취약 채무자 보호 노력 기울여야”- 금리 4연속 동결 무게…한은, 가계부채 증가 ‘고민’△6면- 플랫폼·전장·전기차 ‘新 성장엔진’ 달고…2030년 ‘트리플 7’ 이룬다- 최태원 “中 대체시장 뚫어야”…추경호 “경제 체질 바꿀 것”- 혼인신고 전후 2년간 받은 결혼자금 증여세 공제할 듯- 국민연금 20년 이상 가입자, 월평균 수령액 100만원 첫 돌파△8면- 野 혁신위 “쇄신안 안받으면 민주당 망해”…무용론 잠재울까- 이재명 “양평고속道 의혹 국정조사 하자”…윤재옥 “정쟁 확대” 일축- “실업급여, 달콤한 ‘시럽급여’ 안돼”…칼빼든 당정- 오염수 공포에 9만개 업소 피해…팔걷은 국민의힘- 이종성 국방 장관 “인구위기, 국가안보에 심대한 도전”△9면- 엔데믹에 서비스업 호조…청년 고용은 줄어- “美 ‘하피파머’ 사로잡은 K농기계”- 일손 없는 10개 업종…외국인력 투입 등 전방위 지원- 가스公, 에너지 위기 속 해외자원개발 속속 성과△10면- 5대 시중은행 ‘내부통제·리스크 관리’ 나선다- 이복현 금감원장 “건전성 유지에 만전을”- “엄카 말고 내카” 초등학생 사로잡은 토스 카드- 하나금융, SKT와 금융·통신 초협력으로 AI 스타트업 키운다△12면- ‘폭탄세일’ 아마존 프라임데이, 美 소비 가늠자로 주목- 케리 기후특사도 방중, 미·중 ‘소통’ 이어간다- 中 정부 비판했다가…마윈, 자산 ‘반토막’- 美 법원, 가처분 기각…MS, 블리자드 인수 순항- “홍콩증시, 위완화 거래로 글로벌 기업 IPO 늘 것”- ‘고객 몰래 카드 만들고 수수료 이중부과’ 뱅크오브아메리카, 벌금 등 3000억원 낸다△13면- 9000억원 투입해 ‘소부장’ 특화단지 조성 SK하이닉스, 용인 미니팹 밑그림 나와- LG화학 교환사채 대흥행 신학철 주도 사업개편 속도- ‘LGD 패널’ 탑재 삼성 TV 떴다…‘OLED 동맹’ 결실- 한화오션, 잠수함 핵심 음향장비 국산화…비용 50% 절감- 위기의 한샘, 대표 전격 교체 40대 ‘여성 CEO’ 구원 등판△14면- LG, 초거대 AI 업그레이드 ‘투트랙’으로 간다- ‘개인정보 유출’ LGU+에 68억 과징금- “금융위 가상자산 회계·공시기준 마련 환영”- 국정원 “2035년까지 양자내성암호 체계 완비”△15면- 국산 치매치료재 후보물질, 기술수출 출사표- 바텍, 북미 1위 유통업체와 맞손 美 치과기자재 시장 선두 노린다- “바이오 CDAO 특화, 유연하고 재빠른 사업화 강점”- 지니너스, AI신약개발사 도약…개인 맞춤형 항암 백신 임상 곧 돌입△16면- “한인 첫 노벨 과학상 나오려면…상만 좇지말고 연구 즐기시라”- “테트리스 대중화 경험 살려, 게임으로 기후변화 대응 앞장”△18면- 화장품株, 대형사 울고 ODM사 웃고- ‘과열 논란도 없다’…날개 단 엔터株- 일주일 만에 두배 뛴 금양…“기업 가치 넘어섰다”△19면- 서머랠리 기대 시들하지만…‘배당주는 제철’ 주목- ‘빠저씨 픽’ 포함…미래운용, K배터리 ETF 출시- STO 법제화 시동…증권사 “23조 시장 잡아라”- ‘어닝쇼크’ 에코프로 2형제 주가 5%대 급락△20면- 폭우만 오면 ‘물난리’ 새 아파트 건설사, 재발 방지 대책 골머리- 강남 역삼2동 빌라촌, 2592가구 대단지 탈바꿈- 구설 무릅쓴 서울시…압구적 3구역 설계 공모사 고발, 왜?- 삼성물산, 저탄소 콘크리트 기술 보유사 지분 투자- SK에코플랜트, ‘AI소각로’, 유해물질 절반 뚝△22면- 방어율 말고 ‘평균자책점’ 원정경기는 ‘방문경기’로- 희차르트, 엄마팬덤 날 보러 와요- “데이터 장애로 멈춰버린 도시…동시대 감성 구현했죠”△24면- “‘초전기념식’ 국가행사로 격상해야”- KG모빌리티, 상반기 우수 판매점 시상- 최정균 KAIST 교수 “AI로 암백신·면역치료제 효능 향상”- 두산연강재단, ‘마이스터고 장학금’ 신설- ‘참을 수 없는 존재의 가벼움’ 밀란 쿤데라 별세…향년 94세△25면- 저출산시대 혁신 시급한 양병정책- 무엇을 위한 이민 확대 정책인가- 금융위 코인사기 방지책, 허점 너무 많다△26면- ‘지옥철’ 계양역, 대장홍대선 연결해 승객 분산해야- “양평고속도로 타당성 재조사 가능성…원안대로 추진해야”- 또 미뤄진 ‘공공기관 이전’ 충청권 “희망고문 언제까지”△27면- 적자 눈덩이…“지하철·버스 태울수록 손해”- “가족 비상장주식 송구 취득 원가에 모두 처분”- “풀빌라 1박에 80만원?…휴가는 무슨”- 제자에 스토킹 당한 교사…교총, 소송비 1.6억 지원 ‘역대 최고’- 비상장주식 27배 부풀려 판매…110억 꿀꺽- ‘하자’ 벤츠 정가에 판매…경찰, 더클래스 효성 수사</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>'대환대출 플랫폼' 인기…3주 만에 5000억 대출 갈아탔다</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004864069?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>플랫폼마다 입점 은행 달라여러 플랫폼 사용해야 유리은행들 최저금리 적용 시점 달라시차 두고 꾸준히 조회 바람직불법광고·피싱 범죄 기승사칭 문자 클릭 땐 핸드폰 해킹여러 은행의 대출을 한꺼번에 비교해 금리가 낮은 곳으로 갈아탈 수 있는 ‘대환대출 플랫폼’이 흥행을 이어가고 있다. 정부 주도로 지난 5월 31일 민간 플랫폼에서 일제히 출시된 이후 약 3주 만인 지난달 21일까지 대환대출 플랫폼을 통해 이동한 대출자산이 5000억원을 돌파했을 정도다. 다만 플랫폼마다 조회할 수 있는 은행이 다른 데다 대환대출을 사칭한 피싱 범죄도 기승을 부리고 있는 만큼 실제 대환대출에 나서기 전에 충분한 주의를 기울여야 한다는 조언이 나온다. ○여러 플랫폼 모두 사용하는 것이 유리4일 금융위원회에 따르면 이날 기준 대출비교와 대환대출 서비스를 함께 제공하는 플랫폼은 네이버페이·뱅크샐러드·신한은행·웰컴저축은행·카카오페이·토스·핀다·핀크·KB국민카드 등 총 9곳이다. 이들 9개 플랫폼에선 플랫폼에 입점한 금융기관 어디로든 신용대출을 갈아탈 수 있다. 이밖에 35개 금융회사도 자사 앱을 통해 대환대출 서비스를 제공하지만, 타사의 신용대출을 자사의 신용대출로 갈아타는 대환대출만 가능하다.대환대출 서비스를 이용할 계획이라면 플랫폼마다 입점한 은행이 모두 다르다는 점에 유의해야 한다. 예를 들어 토스를 사용하면 농협·신한·하나은행으로 갈아탈 수는 있지만, 우리은행 대출로는 갈아탈 수 없다. 우리은행이 토스의 대환대출 플랫폼에 입점하지 않았기 때문이다.반면 네이버페이를 이용하면 우리은행 대출로 갈아탈 수는 있지만, 토스에서 가능했던 신한은행으로의 대환대출이 불가능하다. 5대 시중은행(국민·신한·하나·우리·농협)이 모두 입점한 대환대출 플랫폼은 카카오페이가 유일하다. 이에 최대한 낮은 금리의 대출로 갈아타기 위해선 하나의 플랫폼보다는 여러 플랫폼에서 신용대출 금리를 조회해보는 것이 유리하다. ○조회 날짜마다 최저금리 달라지난해 우리은행에서 연 6%대 금리로 8000만원의 신용대출을 빌린 직장인 정모씨(30)는 최근 한 플랫폼사의 대환대출 서비스를 이용해 연 4%대 금리를 제공하는 하나은행으로 신용대출을 갈아탔다. 지난 5월 31일 대환대출 플랫폼이 처음 출시됐을 때만 해도 기존 신용대출보다 낮은 금리를 제공하는 은행이 없었다고 한다. 정씨는 “모든 대환대출 플랫폼에서 하루에 한 번씩 금리를 조회한 결과 며칠 뒤 금리를 낮게 제시하는 은행을 찾을 수 있었다”고 말했다.정씨처럼 낮은 금리를 제시하는 은행을 바로 찾지 못하는 경우가 발생하는 이유는 은행들이 대환대출을 통한 신용대출에 우대금리를 저마다 다른 시기에 적용하기 시작했기 때문이다. 우리은행은 지난달 29일부터 우량 협약기업 임직원 대출(PPL), 우리 WON하는 직장인대출 등 2개 신용대출 상품으로 대환대출을 실행한 경우에 한해 최대 1.4%포인트의 우대금리를 추가 적용하기로 했다.이에 대환대출 플랫폼에서 기존 신용대출보다 유리한 조건을 제시하는 은행을 찾지 못했더라도 시차를 두고 꾸준히 조회를 해보는 것이 바람직하다는 분석이 나온다. 또 대환대출 플랫폼을 이용하더라도 같은 은행으로는 대환대출이 불가능하다는 점도 소비자들이 유의해야 할 부분이다. ○피싱범죄 기승…사칭 문자 조심해야대환대출 플랫폼을 사용하면 실제 이자 부담이 줄어든다는 입소문이 퍼지면서 대환대출을 사칭한 불법광고와 피싱범죄도 속출하고 있다. 지난달엔 강원 화천에서 금융기관을 사칭해 대환대출 서비스를 제공하겠다며 피해자 20명으로부터 5억원을 송금받은 조직원 2명이 경찰에 붙잡혀 검찰에 송치되기도 했다.피싱범죄는 대환대출을 홍보하는 문자 메시지를 보내는 형태로도 이뤄진다. 문자에 첨부된 링크를 클릭하거나 앱을 깔면 핸드폰이 해킹되는 방식이다. 금융위원회는 문자·전화를 통한 타인 계좌로의 입금, 특정 앱을 설치해달라는 요구에 각별히 유의해야 한다고 강조했다.올 하반기엔 대출뿐만 아니라 예·적금 금리를 비교하는 중개 서비스도 본격적으로 시작될 전망이다. 이미 신한은행은 지난달 21일 예·적금 상품을 비교하고 추천하는 서비스를 시작했다. 신한은행 외에도 핀테크와 카드사를 비롯한 24개 금융회사가 올 하반기 예·적금 중개 서비스를 출시할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스, 오프라인 결제 시작...첫 제휴처 CU</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003115865?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>토스가 자사 간편결제 서비스 토스페이 오프라인 결제 서비스를 시작한다고 10일 밝혔다.토스가 자사 간편결제 서비스 토스페이 오프라인 결제 서비스를 시작한다고 10일 밝혔다.토스는 하반기부터 기존 온라인에서 오프라인으로 서비스 범위를 확대, 토스페이의 범용성을 높일 계획이다.토스페이 오프라인 진출의 첫 제휴처는 편의점 CU다. 전국 CU 1만7000여개 지점에서 토스페이로 결제할 수 있다.결제수단은 토스페이에 등록된 계좌, 신용카드 등이며 결제 방법은 바코드 스캔이다. 토스 애플리케이션(앱) 하단에서 토스페이 버튼을 누른 후에 화면 오른쪽 상단의 바코드 아이콘을 선택하면 현장 결제를 할 수 있는 바코드가 생성된다. 가맹점 리더기로 바코드를 스캔하면 결제가 완료되는 방식이다. 토스페이에 CU 멤버십을 등록한 이용자들은 토스페이 결제와 동시에 CU포인트가 자동으로 적립된다.토스 관계자는 “토스페이를 이용하면 더욱 빠르고 간편하게 오프라인 결제를 하면서 멤버십 적립을 자동으로 할 수 있다”면서 “커피 프랜차이즈, 주유소 등으로 제휴처를 적극 확대하며 온오프라인 일상생활에서 가장 많이 사용하는 결제수단이 될 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>"고객 보호에 최선"</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004908471?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[2023 금융소비자권익대상] 금융소비자보호상-토스뱅크, 웰컴저축은행, NH투자증권홍민택 토스뱅크 대표/사진=토스뱅크2023년 대한민국 금융소비자권익대상에서 토스뱅크, 웰컴저축은행, NH투자증권이 '금융소비자보호상'을 수상했다. 토스뱅크는 국내 은행 최초로 보이스피싱, 부정송금 등 금융사기 피해를 입은 고객에게 적절한 보상을 하는 '안심보상제'를 도입했다. 고객이 피해 발생 30일 이내(중고거래 사기의 경우 15일 이내) 토스뱅크 고객센터로 접수하면 수사기관의 신고 증빙 등의 절차를 거쳐 보상금을 받을 수 있다.  토스뱅크는 2021년 10월부터 올 3월까지 피해 고객이 접수한 1620건에 대해 약 12억원의 보상을 했다. 심사위원들은 피해 예방을 넘어 실질적으로 적극적인 피해 구제로 나아갔다는 점에서 사회적 책임을 실천한 제도라고 평가했다. 김대웅 웰컴저축은행 대표/사진=웰컴저축은행웰컴저축은행은 2020년 11월 저축은행 업계 최초로 자사 앱 내 악성앱 탐지 기술을 적용했다. 이를 통해 올 5월까지 고객의 휴대폰에 숨어있는 1만3350건의 악성앱을 찾아냈다. 웰컴저축은행은 서민 취약계층과 가장 가까이 있는 2금융사로서 악성앱 탐지기술을 통해 실제로 고객의 보이스피싱 피해를 예방한 성과가 높게 평가됐다.정영채 NH투자증권 대표/사진=NH투자증권NH투자증권은 금융소비자보호를 위한 내부통제체계 구축, 소비자 보호 전담조직과 인력 관리, 금융상품 개발과 판매, 관리 단계의 기준과 절차를 체계적으로 갖춰 심사위원들로부터 높은 점수를 받았다. NH투자증권은 특히 고객의 목소리(VOC)로 접수된 의견을 소관부서에 전달해 제도개선을 요청하는 등 고객제안을 반영하는 절차를 마련해 운영하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.07.11.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>복수의결권·RSU…벤처기업법 상시화로 스케일업 지원</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003116498?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>정부가 벤처기업 스케일업을 안정적으로 지원하기 위해 특별법인 벤처기업법을 상시화하고, 정책지원 수단도 지속 확충한다. 이의 일환으로 비상장 벤처기업이 복수의결권주식에 이어 성과조건부주식 등 다양한 주식을 활용할 수 있도록 제도 개선을 추진한다.11일 관련 업계에 따르면 중소벤처기업부는 벤처기업법을 개정해 성과조건부주식에 특례를 제공하는 방안을 추진하기로 했다. 앞서 발표한 하반기 경제정책방향에 담긴 사안이다. 중기부는 관계 부처와 성과조건부주식 도입을 논의하고 있다.성과조건부주식은 흔히 양도제한조건부주식(RSU)으로 부른다. 성과 달성시 정해진 가격으로 주식을 매수할 권리를 주는 스톡옵션과 달리 회사가 자사주를 매입해 고성과자에게 무상으로 주식을 제공하는 방식이다. 앞서 쿠팡과 토스 등이 RSU를 도입하면서 대기업 등에서도 도입이 확산되고 있다.도입 방식은 앞서 복수의결권 사례와 같이 벤처기업법 개정을 통해 비상장 벤처기업에 한해 특례를 제공하는 방식이 될 전망이다. 복수의결권주식 도입 내용을 담은 벤처기업법 개정안은 오는 11월부터 시행된다. 성과조건부주식에 대한 특례 역시 비상장 벤처기업에 한해 제공하는 방식으로 법안 개정이 이뤄질 것으로 보인다.중기부는 성과조건부주식 도입과 함께 벤처기업법 상시화 추진계획을 이날 발표한 중소기업 육성 종합계획에서 재차 강조했다. 벤처기업법 상시화에 대한 업계 기대는 크다. 제도 도입 30년이 지나서야 이뤄지는 실질적 개편이기 때문이다. 실제 벤처기업 특별법이 처음 제정된 1997년 이후 제도는 큰 틀의 변화 없이 조문 개정만을 이어오며 일몰 기한을 늘렸다. 결과적으로 벤처기업 인증에 따른 혜택 역시 30년 가까이 큰 변화가 없었다. 오히려 벤처투자법 제정으로 관련 조항 상당 부분이 삭제되기도 했다. 복수의결권주식 도입에 따른 벤처기업계 기대가 큰 것 역시 마찬가지 이유에서다.벤처업계 관계자는 “벤처기업법에 복수의결권에 대한 특례가 허용되면서 앞으로 복수의결권 외에도 다양한 종류주식을 활용할 수 있는 길이 열린 셈”이라면서 “비상장 벤처기업에는 상장사와는 다른 벤처기업만의 특례를 제공할 수 있기를 기대한다”고 말했다.벤처업계에서는 벤처기업법 상시화 과정에서 기존 상법이나 자본시장법 또는 정치권과 학계를 중심으로 논의되는 상장회사법 등과 차별화 방안을 모색해야 한다고 입을 모은다. 기존 특별법 지위를 유지하는 방안부터, 벤처기업기본법으로 전면 개편까지 다양한 방안이 거론된다.벤처기업협회는 “벤처기업법 상시화를 통해 벤처생태계 고도화 및 벤처기업 경쟁력 제고를 위한 정책을 지속적·안정적으로 추진할 장기적인 정책 동력을 얻을 것으로 기대한다”고 밝혔다.A man holds a magnifying glass over a list of financial words that includes investment, stock, bonds, and profits that are printed on a sheet of paper.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.07.08.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>[취업게시판]SK케미칼·바디프랜드 등 채용</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005038856?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>커리어 매칭 플랫폼 사람인 추천 사람인 신촌 카페 전경. 사람인 제공. [파이낸셜뉴스] BGF리테일과 SK케미칼, 바디프랜드 등이 인재 확보에 나섰다.   8일 커리어 매칭 플랫폼 사람인에 따르면 BGF리테일과 SK케미칼, 롯데렌탈, 토스증권, 바디프랜드 등이 인턴과, 신입, 경력사원을 채용 중이다.   우선 BGF리테일이 채용연계형 인턴을 채용한다. 모집분야는 △영업관리(SC) △IT(개발운영, 인프라, IT기획, 정보보안)이다. 4년제 대학 졸업자 및 오는 8월 또는 내년 2월 졸업예정자로, 학점 4.5점 만점 기준 3.0 이상인 자, 외국어와 유통, 역사, 한자, OA 중 1개 이상 자격을 취득한 자면 지원 가능하다. IT 직군은 정보처리(산업)기사, 전자계산기기능사 등을 우대하고 직군과 무관하게 산업안전지도사, 산업안전산업기사 등 자격 보유자를 우대한다. 전형 절차는 △서류 전형 △인공지능(AI) 역량 검사 △1차 면접 △인턴 실습 △최종 면접 △최종 입사 순이다. 오는 11일 오후 2시까지 채용 홈페이지를 통해 지원할 수 있다.   SK케미칼은 신입사원을 채용한다. 채용 부문은 △공정기술 R&amp;D △영업·마케팅(유럽 영업·마케팅, 국내외 영업·마케팅) △울산공장(기계설비 엔지니어, 고정장치 검사 엔지니어)이다. 부문별 지원 자격 및 우대사항이 상이하니 공고를 확인해야 한다. 전형 절차는 △서류전형 △인적성검사 △면접 △채용 검진 △최종 합격 순이다. 오는 16일까지 채용 홈페이지를 통해 지원 가능하다.   롯데렌탈이 채용연계형 인턴을 채용한다. 모집 분야는 △오토렌탈영업 △중고차영업 △일반렌탈영업(고소장비, 로봇)이다. 4년제 대학 졸업자 및 오는 8월 졸업예정자로 운전면허 2종 보통 이상을 보유한 자, 오는 8~9월 인턴십 참여 및 10월 중 입사가 가능한 자면 지원할 수 있다. 운전면허 1종 보통 이상 및 TOEIC, TOEFL, TOEIC스피킹, OPIc 보유자는 우대한다. 전형 절차는 △서류 전형 △인성검사·면접전형 △인턴 실습 △최종 면접 △건강 검진 △최종 입사 순이다. 오는 16일까지 채용 홈페이지에서 지원하면 된다.   토스증권이 데이터 애널리스트 채용연계형 인턴을 채용한다. 인턴십 기간 참여 및 정규직 입사가 가능한 자면 지원할 수 있다. 학생은 졸업자 또는 노는 8월 졸업예정자여야 한다. 전형 절차는 △서류 전형 △과제 전형 △직무·문화적합성 인터뷰 △입사 순이다. 3개월 계약직 근무 후 평가를 통해 정규직 전환을 검토한다. 오는 12일까지 채용 홈페이지에서 지원하면 된다.   바디프랜드가 영업부문 B2C팀 라운지 영업사원을 모집한다. 학력과 무관하게 지원 가능하며 보험과 자동차, 가전가구 영업 경험자는 우대한다. 전형 절차는 △채용 박람회 참여 신청 △서류 전형 △현장 면접 △채용 여부 현장 확정 순이다. 서류 합격자에 한해 채용박람회 참여가 가능하다. 오는 12일까지 사람인 온라인 입사지원으로 원서를 접수할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>티웨이항공, 대구-몽골 하늘길 열었다… 울란바타르 신규 취항</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000934009?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>티웨이항공이 대구-울란바토르 하늘길을 연다. /사진=티웨이항공 티웨이항공이 대구공항을 통한 몽골 하늘길을 열며 대구·경북 거주 이용객의 여행 편의 제고에 나섰다.10일 티웨이항공에 따르면 오는 28일 대구에서 출발하는 울란바타르(몽골) 노선 신규 취항을 앞두고 홈페이지와 모바일 애플리케이션(앱) 등에서 이달 23일(일)까지 특가 행사를 진행한다.유류할증료와 공항세를 포함한 1인 편도 총액 기준 17만5600원부터 특가 판매하며 해당 항공권의 탑승기간은 오는 8월27일~10월8일까지(일부 기간 제외)다. 할인권 검색 시 할인코드 '대구몽골'을 입력하면 운임의 10%가 즉시 할인 적용된다. 할인코드는 편도와 왕복 예약 모두 적용 가능하다.이번 행사는 기본 제공되는 20kg에 23kg이 추가된 최대 43kg(2PC) 까지 무료로 수하물을 위탁할 수 있는 혜택도 누릴 수 있다.신규 가입 2만원 할인 쿠폰과 카카오페이, 토스페이, 우리카드, NH농협카드로 결제 시 최대 2만원 추가 할인 쿠폰도 받을 수 있다.대구-울란바타르 노선은 7월28일~8월14일까지 주 2회(월·금) 운항하며 8월17일~10월8일까지 주 2회(목·일) 일정으로 운항된다.행사 관련 자세한 사항은 티웨이항공 공식 웹사이트에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.07.07.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>통신 3사 20년 과점체제 깬다… 제4 이통사 육성, 알뜰폰 지원</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003774167?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>신규 사업자 진입 장벽 대폭 완화요금 경쟁시켜 통신비 인하 유도이종호 과학기술정보통신부 장관이 6일 오후 서울 종로구 정부서울청사에서 열린 통신 시장 경쟁 촉진 활성화 방안 발표 기자회견에 참석해 발언하고 있다. 2023.7.6 /연합뉴스										정부가 20년 넘게 국내 이동통신 서비스 시장에서 이어진 SK텔레콤·KT·LG유플러스 3사의 과점을 깨기 위해 제4 이동통신 도입에 본격 나선다. 또 최근 대항마로 뜨고 있는 알뜰폰에 대한 통신 3사의 영향력이 더 이상 커지지 않도록 점유율 산정 방식도 바꿔 규제를 강화하기로 했다.이종호 과학기술정보통신부 장관은 6일 정부 서울청사에서 이 같은 내용의 ‘통신 시장 경쟁촉진 방안’을 발표했다. 이 장관은 “그동안 (통신 3사) 독과점 체계에서 비롯된 카르텔적 상황으로 인해 통신 시장 내 경쟁이 약화되고 있다”며 “근본적인 시장 경쟁 구조를 개선해 국민에게 그 편익이 돌아갈 수 있도록 하겠다”고 했다. 지난 2002년부터 형성된 현 통신 3사 체제를 제4 이통 추진과 알뜰폰 육성을 통해 흔들고, 3사 과점으로 만들어진 요금 체계도 정부가 적극적으로 요금 인하를 유도해 바꾸겠다는 것이다.제4 이통은 과거 정부에서도 7차례에 걸쳐 도입을 추진했지만, 후보 기업들이 높은 투자 비용 등 진입 조건을 충족하지 못해 선정에 실패했다. 하지만 현 정부는 금융 지원과 인프라 구축 의무 완화 등 대대적 지원을 통해 이전보다 진입 문턱을 원활히 넘을 수 있게 관련 준비를 하고 있다.이번 방안은 윤석열 대통령이 올 2월 “통신 시장 과점 해소를 위한 특단의 대책을 마련하라”고 지시한 데 따른 것이다. 정부가 통신 시장에 본격 개입하는 이유는 통신 3사의 시장 점유율이 80%를 넘는(가입 회선 기준) 상황이 고착화되면서 통신사 간 서비스와 요금 경쟁은 둔화되고 그 피해가 고스란히 국민에게 돌아간다고 봤기 때문이다. 실제로 통신 3사는 5G 요금제를 중간 데이터 구간이 없는 10GB(기가바이트) 이하 또는 100GB 이상으로만 내놨다가 5G 서비스 상용화 3년 만인 지난해에야 이를 보완했다. 이 기간동안 소비자들은 기형적인 요금 구조 때문에 어쩔 수 없이 가격이 더 비싼 대용량 요금제에 가입해야 했다. 통계청에 따르면, 가계 통신비 지출은 지난 2020년 12만원에서 올 1분기 기준 13만원으로 집계됐다. 반면 올 1분기 통신 3사의 합산 영업이익은 1조2411억원으로 5분기 연속 1조원을 돌파했다.그래픽=이지원										정부는 올 2월 말부터 외부 전문가와 연구기관이 참여하는 태스크포스(TF)를 구성해 통신 시장 경쟁 촉진 방안을 준비해왔다.◇경쟁 구도 바꾼다... 외국 기업 참여도 유도정부는 지난해 말부터 통신 3사로부터 회수한 5G 주파수 28GHz(기가헤르츠) 대역을 기반으로 제4 이통 사업자를 유치하겠다는 방침이다. 이달 중 제4 이통 후보 기업 모집을 위한 주파수 할당 공고를 낼 예정이다. 정부는 성공 가능성이 큰 제4 이통 후보군으로 쿠팡과 KB국민은행, 토스 앱 운영사인 비바리퍼블리카 등을 꼽고, 이들과 사전 접촉해 참여 검토를 요청한 것으로 알려졌다. 또 외국 기업들의 제4 이통 사업 참여를 이끌어 내기 위해 보다 과감한 제도 개선을 추진하기로 했다.정부는 제4 이통 지원을 위해 5G 주파수 할당 대가도 통신 3사 때(2072억원)보다 낮게 산정하고, 통신 3사에 부과했던 기본 망 인프라 구축 의무(1사당 기지국 1만5000개 구축)도 완화해준다는 방침이다. 또 정책금융기관을 통해 최대 4000억원 자금 융자를 지원하고, 주파수 할당 대가 납부 방식도 현재 ‘1년 차에 총액의 25% 납부’에서 10%로 고쳐 초기 투자 비용 부담을 낮춰주기로 했다.이와 함께 정부는 알뜰폰 키우기에도 나선다. 특히 중소 알뜰폰 업체들이 제대로 성장할 수 있도록 통신 3사의 알뜰폰 자회사들의 시장 점유율 제한을 강화한다. 현재 법적으로 통신 3사 자회사의 합산 점유율은 알뜰폰 시장의 50%를 넘지 못하게 돼있지만, 집계할 때 차량용 IoT(사물인터넷) 회선 등이 함께 포함돼 점유율이 30%대에 불과했다. 하지만 이번에 정부가 점유율 산정 방식을 바꿔 차량용 IoT 회선을 제외키로 하면서 통신 3사의 알뜰폰 자회사 점유율이 45%로 올라가게 됐다. 정부가 새로운 알뜰폰 업체의 성장 여지를 확보하기 위해 통신 3사 자회사 규제를 강화한 것이다. 또 지난해 9월 일몰된 통신 3사의 알뜰폰 업계에 대한 도매제공 의무제를 상설화해 알뜰폰 사업자가 장기적 관점에서 설비 등에 투자할 수 있도록 유도한다는 계획도 발표했다.◇요금 구조에도 개입해 인하 유도정부는 통신 3사의 요금 인하에도 적극 나선다는 방침이다. 현재 4만원대부터 시작하는 5G 요금제를 3만원대로 낮출 수 있도록 최저 구간 요금 조정을 유도하기로 했다. 이전 정부에서도 요금 인하를 추진했지만 이번에 비해 소비자의 선택권을 최대한 보장하자는 차원에서 한층 촘촘해진 요금제를 도입하는 방식으로 통신사들을 압박하고 있다. 또 정부는 통신 3사가 연 2회 가입자들의 이용 패턴을 분석해 가장 적합한 최적의 요금제를 안내토록 하는 고지 서비스 도입도 추진하기로 했다.국민의 휴대전화 구입 부담을 낮춰주기 위해 통신 3사 대리점에서 제공하는 추가 보조금 한도를 현재 공시지원금의 15%에서 30%로 높이는 방안도 추진한다. 또 선택권 확대를 위해 5G 스마트폰을 구매할 때 LTE(4세대 이동통신) 요금제에도 가입이 가능하게 된다. 그동안 통신 3사 대리점에선 5G 스마트폰을 살 때 5G 요금제만 가입됐지만, 앞으론 이용자가 스마트폰에 상관없이 LTE 또는 5G 요금제 선택이 가능해지는 것이다.그래픽=정다운</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>토스뱅크에서 미래에셋증권 계좌 개설 가능…"개설 축하금 지급"</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000342079?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>오늘(4일)부터 토스뱅크에서 미래에셋증권 주식계좌를 개설할 수 있게 됩니다.미래에셋증권은 토스뱅크 내 디지털 브랜치를 오픈하고, 계좌개설 서비스를 시작한다고 이날 밝혔습니다.기존 토스뱅크 고객은 토스 앱을 통해 간단한 고객정보를 입력 후, 미래에셋증권 계좌를 개설할 수 있습니다.토스뱅크 디지털 브랜치를 통해 미래에셋증권 계좌를 개설하는 고객들은 토스뱅크 연결 계좌로 1만 5천 원의 개설 축하금을 즉시 지원받습니다.만약 미래에셋증권을 최초로 이용하는 신규고객의 경우 기존 이벤트 혜택을 포함하여 최대 6만 5천 원까지 투자지원 혜택을 받을 수 있습니다.미래에셋증권 관계자는 "미래에셋증권의 투자전문성을 활용하여 토스뱅크의 젊은 고객들이 건강한 투자경험을 쌓을 수 있는 고객 동맹의 시작점이 될 것으로 기대된다"라면서 "토스뱅크 고객들의 투자성장을 위한 맞춤형 서비스로 확장을 준비할 것"이라고 말했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>34조 토큰시장 잡아라… 증권사, ICT 손잡고 토큰증권 연합체 출범</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000932867?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>증권업계가 정보통신기술(ICT) 기업과 손을 잡고 STO시장 선점에 나섰다. /사진=이미지투데이 34조원 규모  토큰증권(ST·Security Token)이 금융투자업계의 새로운 먹거리로 떠올랐다. 토큰증권은 분산원장(블록체인) 기술로 전자화한 증권이다.금융당국이 올해 초 토큰증권을 증권의 한 형태로 인정하고 토큰증권 발행(STO·Security Token Offering)과 유통을 제도화키로 하면서 증권업계가 정보통신기술(ICT) 기업과 손을 잡고 STO시장 선점에 나섰다. 5일 금융투자업계에 따르면 미래에셋증권은 SK텔레콤, 하나금융그룹이 참여하는 토큰증권 컨소시엄 '넥스트파이낸스 이니셔티브'(NFI)를 구성했다. NFI는 토큰증권 사업은 물론 금융 혁신과 웹3.0 사업를 추진하는 협의체다. 한국투자증권은 카카오뱅크, 토스뱅크 등 인터넷 은행 2곳 및 카카오엔터프라이즈 등과 손을 잡고 '한국투자 ST프렌즈'를 결성했다. 한국투자증권을 주축으로 카카오뱅크와 토스뱅크가 토큰증권을 기록할 블록체인 금융기관 시범 운영을 맡는다. 오픈에셋, 카카오엔터프라이즈는 블록체인 시스템 개발을 담당하고 문화 콘텐츠 투자 플랫폼 펀더풀과 밸류맵은 토큰증권 상품화를 맡는다. KB증권이 만든 'ST 오너스'는 서울옥션블루(미술품)·SK C&amp;C(블록체인·Web3) 등 13곳이 회원사로 참여했다. NH투자증권의 'STO 비전그룹', 신한투자증권의 'STO 얼라이언스'를 구축했다. 증권사들이 STO 시장에 뛰어든 이유는 투자자들이 기존의 주식·부동산 외 다양한 기초자산에 소액으로 투자할 수 있어서다.하나금융경영연구소는 국내 토큰증권시장이 2024년 34조원, 2030년 367조원까지 성장할 것으로 내다봤다. 여기에 정부가 STO 전면 허용 방침을 밝히면서 제도권 입성을 앞둔 만큼 국내 금융사들의 시장 진출 속도에 속도가 붙을 전망이다. 윤유동 NH투자증권 연구원은 "STO 이용자 다수는 개인 투자자일 것으로 예상되는 만큼 시장의 관심을 끌 수 있는 매력적인 자산 확보가 중요하다"며 "조각투자사가 발행인계좌관리기관으로서 토큰증권을 직접 발행하려면 증권사 수준의 인프라를 갖춰야 하기 때문에 증권-ICT 협업이 이뤄질 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.07.10.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>오프라인으로 발 넓히는 토스페이… 전국 CU편의점서 결제</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000933844?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>사진=토스페이 토스는 자사의 간편결제 서비스 토스페이 결제 영역을 오프라인까지 확장한다고 10일 밝혔다.토스는 올해 하반기부터는 온라인에서 오프라인으로 서비스 범위를 확대해 토스페이의 범용성을 높여갈 계획이다. 토스페이 오프라인 진출의 첫 제휴처는 편의점 CU로 전국 1만7000여개 지점에서 토스페이로 결제할 수 있다.결제수단은 토스페이에 등록된 계좌, 신용카드 등이며 바코드 스캔을 통해 결제가 이뤄진다. 토스앱 하단에서 토스페이 버튼을 누른 후에 화면 오른쪽 상단의 바코드 아이콘을 선택하면 현장 결제를 할 수 있는 바코드가 생성된다.가맹점 리더기로 바코드를 스캔하면 결제가 완료되는 방식이다. 토스페이에 CU 멤버십을 등록한 이용자들은 토스페이 결제와 동시에 CU포인트가 자동으로 적립된다.토스 관계자는 "토스페이를 이용하면 더욱 빠르고 간편하게 오프라인 결제를 하면서 멤버십 적립을 자동으로 할 수 있다"며 "앞으로 커피 프랜차이즈, 주유소 등으로 제휴처를 적극 확대해 온·오프라인 일상생활에서 가장 많이 사용하는 결제수단이 될 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.07.13.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>“세계 100대 유니콘 기업 중 17곳 규제 때문에 한국서 사업 어렵다”</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001623119?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>전경련 분석… 한국기업 토스 1곳 뿐세계 100대 유니콘 기업 가운데 17곳은 규제 때문에 한국에선 사업을 영위하기 어렵다는 분석이 나왔다. 유니콘 기업은 10억 달러(약 1조2900억원)를 넘는 기업가치를 지닌 비상장 스타트업을 말한다.전국경제인연합회 산하 한국경제연구원은 글로벌 100대 유니콘 기업 중 한국에서 사업 가능한 기업은 83개에 그친다고 12일 밝혔다. 규제로 아예 사업이 불가능한 곳은 8개, 제한적으로 가능한 기업은 9개였다. 올해 5월 말 기준으로 세계 100대 유니콘 중 한국 기업은 토스 뿐이다. 기업분석 업체인 CB 인사이트에 따르면 세계 100대 유니콘은 국가별로 미국 59개, 중국 12개, 영국 7개, 인도 6개, 독일 3개, 캐나다·이스라엘 각 2개 등이다.한경연은 사업에 차질이 있을 것으로 예상되는 분야로 공유숙박, 승차공유, 원격의료, 드론, 로보택시, 핀테크, 게임 등을 지목했다. 공유숙박 및 글로벌 호텔 체인 사업은 농어촌정비법, 관광진흥법, 외국인관광도시민박업 관련 지침, 공중위생관리법, 한옥 건축자산법 등의 규제를 받는다. 승차공유 서비스는 여객자동차운수사업법, 여객운송사업법 개정안, 주차장법 등의 제한을 받는다.이규석 한경연 부연구위원은 “정부의 여러 노력에도 불구하고 공유경제, 신기술, 신산업 분야 규제가 지금도 과도하다. 완화가 필요하다”고 강조했다. 한국 정부는 지난 2019년 규제 샌드박스(새로운 제품이나 서비스가 출시될 때 일정 기간 기존 규제를 면제·유예하는 제도)를 도입하고, 신사업 규제 918건을 완화하는 등 노력을 기울였다. 하지만 추가로 규제 개선작업이 필요하다는 지적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.07.06.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>오죽했으면 외국인 끌어들일 수 있다는 제4 이동통신사...지원자는 나타날까</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000748327?sid=105</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>과기정통부, 제4 이통사 유치 위한 지원책 발표신규 사업자 배려한 할당 조건·납부 방식업계에선 "이미 포화 시장, 유치 어려울 듯"통신3사 견제할 알뜰폰 지원책도 내놔6일 오전 서울 시내 한 휴대폰 대리점 앞으로 시민이 지나가고 있다. 뉴시스필요하다면 외국 사업자가 들어올 수 있도록 제도를 개선할 계획이다. 이종호 과학기술정보통신부 장관제4 이동통신사 유치를 위한 윤석열 정부의 간절한 바람은 과연 이뤄질 수 있을까. 정부가 좀처럼 나타나지 않은 제4 이통사 지원자를 찾기 위해 주파수 구축 부담을 줄여주는 한편 해외 사업자에게도 참여의 길을 열 수 있게 하는 등 당근책을 내놨다. SK텔레콤, KT, LG유플러스 등 통신 3사의 과점 체계를 깨 가계 통신비를 낮추겠다는 목적에서다. 이미 과거 이명박, 박근혜 정부 때에도 제4 이통사 지정을 추진했지만 일곱 차례나 실패로 끝난 경험이 있는 만큼 이번에는 유치에 성공할지 주목된다.과학기술정보통신부가 6일 미래 통신 시장의 지속 발전과 국민의 통신비 부담 완화를 위한 '통신시장 경쟁 촉진 방안'을 발표했다. 윤석열 대통령은  2월 비상경제민생회의에서 통신시장 과점 문제를 비판하면서 경쟁을 촉진하기 위한 특단의 대책을 지시했다. 이에 과기정통부는 '통신시장 경쟁촉진 정책방안 태스크포스(TF)'를 꾸리고 제4 이통사 출범을 위한 다양한 정책을 준비했다.   제4 이통사 유치 위해 진입 장벽 낮추고, 외국인 제한도 푼다이종호 과학기술정보통신부 장관이 6일 오후 서울 종로구 정부서울청사에서 열린 통신 시장 경쟁 촉진 활성화 방안 발표 기자회견에 참석해 발언하고 있다. 연합뉴스이번 대책의 핵심은 신규 사업자의 진입 장벽을 크게 낮추는데에 있다. 초기 투자 비용을 낮추기 위한 각종 지원책이 총망라됐다. 우선 과기정통부는 주파수 이용 기간을 기존 10년에서 5년으로 줄여 총 주파수 이용 비용을 낮췄고, 최저 경쟁 가격과 망 구축 의무도 시장 진입에 걸림돌이 되지 않도록 산정한다는 방침이다. 할당대가 납부 방식도 사용 기간에 따른 균등 분납 방식에서 주파수 이용 기간 후반부에 더 많이 부담하는 방식으로 바꾼다. 기존에는 5년 기준 매년 총 할당대가의 20%를 냈다면, 첫 해에는 10%만 내고 수익을 거둔 이후 더 많은 할당대가를 내는 식으로 개선한다는 것이다.주파수 대역은 차별화된 5세대(5G) 이동통신 서비스를 제공할 수 있도록 28기가헤르츠(㎓) 대역 전용 주파수와 함께 신호제어용 주파수(앵커 주파수) 700메가헤르츠(㎒) 또는 1.8㎓ 대역을 추가 할당한다.   신규 사업자가 네트워크를 구축하지 않는 지역에서는 타사 네트워크를 공동 이용할 수 있도록 해 줄 방침이다. 이용자가 많은 수도권 지역부터 망을 구축해 빠르게 시장에 안착하도록 혜택을 주겠다는 것이다. 투자 부담을 줄이기 위해 최대 4,000억 원 규모의 정책 금융도 내밀었다. 특히 과기정통부는 새 이통사 사업 참여 신청이 있을 경우 통신 시장에 외국인 참여까지 가능하게 해 볼 생각이다. 현행법에서는 외국인이 국내 이동통신사업자 지분을 최대 49%까지만 보유할 수 있도록 규제하고 있다. 홍진배 과기정통부 홍진배 네트워크정책실장은 "해외 사업자가 희망하는 경우 간접투자뿐 아니라 직접투자도 가능하도록 제도를 개선할 의지가 있다"면서도 "아직까지 해외 사업자측으로부터 문의가 들어온 곳은 없다"고 말했다.통신3사 알뜰폰 자회사 점유율 규제…"KB·토스 키워 견제"게티이미지뱅크하지만 통신 산업이 대표적 규제 산업일 뿐 아니라 이미 수년 전부터 시장은 포화 상황인 만큼 천문학적 투자 비용을 내면서 통신 시장에 신규 사업자가 진입할지는 미지수라는 것이 업계의 반응이다. 실제 아직까지 대규모 인프라 구축 여력을 갖춘 대기업 중 제4 이통사에 적극 관심을 보이는 기업은 없는 것으로 전해진다.  게다가 주파수 할당 대역의 경우 기존 이통 3사도 결국 사용처를 찾지 못해 수천억 원을 날리면서 포기한 28㎓ 대역이 포함된 만큼 사업의 한계도 명확하다. 이에 과기정통부는 제4이통사를 유치하는 동시에 통신 3사 자회사를 위협할 수 있는 알뜰폰 사업자 키우기에도 적극 나서고 있다. 이를 위해 과기정통부는 알뜰폰 업체들에 대한 지원책과 통신3사 알뜰폰 자회사에 대한 규제책을 동시에 내놨다. 우선 ①알뜰폰 시장(자동차 등 사물인터넷용  회선 제외)에서 통신3사의 알뜰폰 자회사의 점유율이 50%를 넘지 못하는 규제를 도입할 방침이다. 현재 통신 3사 자회사의 점유율 합은 40%대 중반이다. 더불어 ②알뜰폰 업체가 통신사로부터 데이터를 대량으로 선구매할 경우 할인 폭을 크게 넓혀주는 제도를 마련하고 ③알뜰폰 업체들이 안정적으로 사업을 할 수 있도록 기존 일몰제로 운영되었던 SK텔레콤의 알뜰폰에 대한 망 제공 의무도 상설화하기로 했다. 이로 인해 자체적인 마케팅 역량을 갖춘 KB국민은행이나 토스와 같은 알뜰폰 진출 기업들이 보다 적극적으로 사업에 뛰어들 수 기반이 마련됐다.이종호 과기정통부 장관은 "근본적으로 통신 시장의 경쟁 구조를 개선하고 요금‧마케팅‧투자 등 시장 전반의 경쟁이 활성화되어 국민에게 편익이 돌아갈 수 있게 통신 시장 경쟁 촉진 방안을 속도감 있게 추진하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.07.05.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>한투證, MTS 전산장애 발생…1시간 넘게 고객 불편</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002727885?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>서버실 전력 공급 이상…지난해 8월에도 먹통1주일 새 오류 3건…시스템 안정화 노력 지적서울 여의도 한국투자증권 사옥 전경. ⓒ한국투자증권[데일리안 = 황인욱 기자] 한국투자증권 모바일트레이딩시스템(MTS)에서 1시간 넘게 접속 장애가 발생해 고객들이 이용에 불편을 겪었다.5일 금융투자업계에 따르면 이날 오후 12시30분경 한국투자증권 MTS에서 접속 장애가 발생했다. 국내 주식 거래는 약 15분 만에 정상화됐으나 해외주식과 파생상품거래는 오후 1시 40분이 되서야 가능해졌다.이번 접속 장애는 서버실 전력 공급에 문제가 발생한 것이 원인으로 작용한 것으로 알려졌다. 한국투자증권은 지난해 8월 폭우에 따른 중앙감시실 전력공급 마비로 MTS가 약 15시간 가량 먹통이 된 바 있다. 다만 이번 접속 장애 건은 작년에 발생한 먹통 사태와 별개 사안이라는 게 회사 측의 설명이다.회사 관계자는 “이번 건은 지난해 발생했던 먹통 사태와 연관이 없다”며 “정확한 원인은 현재 파악 중”이라고 말했다.최근 일주일 새 MTS 오류가 3건이나 발생해 증권사들이 MTS 시스템 안정화에 더 노력해야 한다는 지적이 나오고 있다.지난 3일 오후 10시 30분경 카카오페이증권 MTS에서는 서비스 지연에 따른 접속 장애가 발생했고 지난달 30일에는 토스증권 MTS 일부 계좌에서 보유 종목의 실제 수익률과 관련 없이 수익률이 1000% 혹은 -99% 수익률이 표기되는 문제가 발생했다.금융투자협회에 따르면 올해 1분기 전산 장애 관련 민원 건수는 1만5128건으로 전년 동기(6056건) 대비 249.8%나 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.07.14.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>KDB생명 품는 하나금융, 생보 10위 ‘눈앞’</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002582707?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>매각 우선협상대상자 지정非은행부문 수익개선 기대비은행 부문 강화를 위해 KDB생명 인수전에 참여한 하나금융지주가 매각 우선협상자로 선정됐다. 하나금융은 이번 인수가 성공하면 생명보험 시장 10위권에 진입하게 될 전망이다. 14일 산업은행에 따르면 하나금융은 전날 KDB생명 매각 우선협상대상자로 선정됐다. KDB생명 지분 92.73%를 보유 중인 산업은행과 칸서스자산운용은 지난해 말부터 삼일회계법인을 주관사로 선정해 매각 절차를 진행해 왔다. 하나금융은 앞으로 6~7주 동안 실사를 진행한 뒤 산업은행과 매각가 등을 협상할 계획이다. 이번 인수가 성공하면 하나금융은 비은행 부문의 수익성을 개선할 수 있을 것으로 기대된다. 하나금융의 올해 1분기 당기순이익(1조1095억 원) 가운데 87.5%는 은행 부문에서 나왔다. 생명보험업계는 하나금융과 KDB생명의 합병에 관심을 갖고 있다. 지난해 기준으로 하나생명(6조 원)과 KDB생명(17조1433억 원)의 자산총액을 합하면 업계 10위인 메트라이프생명(21조8013억 원)을 뛰어넘는다. 시장은 매각 가격 협상이 2000억 원 수준에서 시작할 것으로 예상한다. 하지만 KDB생명 인수 후에도 8000억 원 이상의 자금 투입이 이뤄져야 할 것으로 보여 향후 재무구조 개선을 위해 투입해야 할 금액 규모가 최종적인 인수 여부를 가를 것으로 보인다.한편, 토스는 간편결제 시장 점유율을 높이기 위해 신세계그룹의 SSG페이와 스마일페이에 대한 인수를 진행하고 있다. 토스가 평가한 SSG페이와 스마일페이의 기업 가치는 약 7000억 원이며, 올해 안에 신세계와 매각 과정을 마치는 것을 목표로 실사 중이다. 신세계가 인수 대금 일부를 토스 지분으로 받는 방안이 검토되고 있는 가운데, 3대 주주인 굿워터캐피털(6.21%)에 이어 주요 주주에 오를 가능성이 있는 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.07.09.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>문턱 낮아진 은행업 인가…과점 깰 '새 플레이어' 더 나올까</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006915619?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>금융당국, 5대은행 '과점체제' 깨기…은행 진입 문턱 대폭 낮춰금산분리 등 규제 여전해 추가 가능성 의문…"유인효과 크지 않아"김주현 금융위원회 위원장이 5일 오전 서울 중구 전국은행연합회에서 열린 은행지주회장 간담회에서 모두 발언을 하고 있다.  2023.7.5/뉴스1 ⓒ News1 박정호 기자(서울=뉴스1) 신병남 기자 = 금융당국이 신규 플레이어라는 '시장의 힘'을 통해 KB국민·신한·하나·우리·NH농협 등 5대 은행 중심의 과점 체제 해소에 나선다. 지방은행인 대구은행의 시중은행 전환을 시작으로 은행업에 관심 있는 사업자에게 진입로를 열어준다는 것이다. 이미 소상공인 특화 은행을 설립하겠다고 표명하는 곳이 나오는 등 시장을 흔들 '메기'가 나올지 주목되는 가운데, 지금의 은행 인가 기준에서 추가 플레이어가 나올 가능성은 낮다며 이번 제도개선 방안이 구호에 그칠 것이란 관측도 나온다.9일 금융권에 따르면 최근 금융당국이 발표한 '은행권 경영·영업 관행·제도 개선 방안'의 핵심은 지방은행의 시중은행, 저축은행의 지방은행 전환과 추가 인터넷전문·특화은행 등 신규 사업자 진입 허용이다.특히 금융당국은 직전까지는 정부의 은행 인가방침 발표 후 신규 인가 신청‧심사가 진행됐던 것에서, 앞으로는 은행업에 대한 문호를 상시 열어두고 신청받겠다는 입장이다. 이에 지난 5일에는 한국신용데이터가 소상공인 특화은행 설립을 추진하겠다고 밝히는 등 신규 은행에 대한 등장 가능성이 높아진 상태다.하지만 현실적인 어려움이 크다. 우선 지방은행의 시중은행 진출은 지주사인 산업자본(비금융주력자) 규제에 추가적인 허용이 사실상 막혀있다.현재 은행법상 지방은행 중 시중은행 규제요건을 충족하는 곳은 대구은행뿐이다. 시중은행의 최저자본금 기준은 1000억원이며, 또한 금산분리(금융자본과 산업자본의 분리) 원칙에 따라 비금융주력자는 일반은행과 지방은행 지분을 각각 4%와 15% 넘게 보유할 수 없다.대구은행의 대주주는 DGB금융지주(139130)로 지분 100%를 보유하고 있다. 지난 3월 말 기준 DGB금융의 주요 주주는 국민연금(8.78%), OK저축은행(8.0%), 우리사주(3.95%) 등으로 구성돼 있어 BNK금융지주(138930), JB금융지주(175330) 등 지방금융지주 중 요건을 유일하게 충족한다.이 때문에 금융권 일각에서는 산업자본이 은행 지분을 일부 허용할 방안이 열리지 않고서는 추가적인 은행 인가가 어려울 것이라는 평가가 많다.금융권 고위 관계자는 "은산분리가 있지만 과거와 달리 현재는 자금흐름이 투명해 일부 산업자본이 진입해도 되지 않겠나 하는 생각이 있다"며 "DGB금융을 제외한 지방금융사들은 계열사 내 은행이 2개이기에 한 곳은 지방에, 나머지는 시중은행으로 전환하고자 하는 의지가 클텐데 주주구성까지 바꿀지는 의문이다"라고 말했다.저축은행의 지방은행에 대해서도 현재 기준만 놓고 보면 시장의 판단은 부정적이다. 성장요소가 적고, 은행이라는 틀에 들어오면 규제의 기준이 대폭 높아진다는 이유에서다.또 다른 관계자는 "지방 저축은행 대표들은 일부는 골프장도 소유하는 등 소위 금융이 아닌 일반적인 사업체 대표와 다를 것 없는 지분과 지위를 누리고 있다"며 "일부 수도권 대형사가 관심을 보이는 것으로 알고 있지만 굳이 몸집을 키워 지방은행으로 도약을 시도하기엔 유인 효과가 현재로선 적어 보인다"고 말했다.추가 인터넷은행에 대해서는 금융당국 내에서도 회의적인 시각이 적지 않다. 당장 중금리대출 확대도 버거워하는 데다 직전 제3인터넷은행 설립에서도 내부에서 많은 부침을 겪었기 때문이다. 실제 추가 인터넷은행의 경우 금융당국도 현재 카카오·케이·토스 등 인터넷은행 3사의 성과와 안정성 등 제반 상황을 감안해 심사할 것이라는 방향을 밝히고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>"보이스피싱? 바로 전화하세요" 영업 끝났어도 계좌지급정지 가능</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005522650?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>5일부터 본인계좌 일괄지급정지 서비스 확대은행 포함 2금융권 수시입출계좌, 증권사도 대상영업점 및 비대면 체널 오픈뱅킹 등 거래 정지[이데일리 전선형 기자] 앞으로 보이스피싱 피해가 우려될 때, 금융회사 영업시간이 끝났어도 본인계좌라면 일괄 지급정지를 신청할 수 있다. 영업점 영업시간 외에도 고객센터를 통해 서비스 이용이 가능해진다.(사진=게티이미지)4일 금융위원회는 오는 5일부터 본인계좌 일괄지급정지 서비스를 영업점 및 고객센터까지 확대한다고 밝혔다. 보이스피싱 등으로 피해 발생(우려)시, 피해자가 본인명의 계좌를 일괄 또는 선택해 지급정지할 수 있는 일괄지급정지 서비스가 온라인 채널 뿐만아니라 오프라인 채널까지 확대되는 것이다.금융당국은 보이스피싱으로 피해자의 여러 금융계좌에서 자금이 한 번에 편취당하는 피해를 방지하기 위해, 온라인 신청을 통한 본인계좌 일괄지급정지 서비스를 지난해 12월 27일부터 시행 중에 있다. 다만, 온라인 이용이 어려운 디지털 소외계층의 서비스 이용 편의성 제고를 위해 신청채널을 영업점 및 고객센터까지 확대하는 2단계 운영방안을 마련하게 됐다.금융소비자는 본인이 거래하는 금융회사 영업점에 방문하거나 고객센터로 전화해 본인 명의로 개설된 모든 금융계좌 현황을 일괄 조회하고, 보이스피싱 등 금융사기 피해가 우려되는 계좌를 선택(전체 또는 일부)해 즉시 지급정지를 신청할 수 있게 된다.일괄지급정지 대상 계좌는 고객 본인 명의로 개설된 은행 및 제2금융권의 수시입출금식계좌 및 증권사의 금융투자회사계좌다. 일괄지급정지가 신청되면 영업점 및 비대면 채널, 자동이체, 오픈뱅킹 등을 포함한 모든 출금거래가 정지된다. 물론 고객 불편 등 부작용 방지를 위해 일괄지급정지 이후에도 해당 계좌로의 입금은 허용된다.이후 ‘피해 우려가 종료됐다’고 판단되는 경우에는 거래 금융회사 영업점을 방문해 지급정지한 본인 명의 모든 계좌의 해제도 가능하다. 고객센터 전화를 통한 지급정지 해제는 불가하다.(자료=금융위)본인계좌 일괄지급정지 2단계 서비스 이용 가능 금융회사는 은행 19곳(산업, 농협, 신한, 우리, 기업, 국민, SC제일, 하나, 씨티, 수협, 대구, 부산, 광주, 제주, 전북, 경남, 케이, 카카오, 토스), 증권사 20곳(DB금융투자, KB, NH투자, 교보, 다올, 대신, 메리츠, 미래에셋, 부국, 삼성, 신영, 신한금융투자, 유안타, 유진투자, 케이프투자, 키움, 하나, 한국투자, 한화투자, 현대차), 제2금융권 6곳(농협중앙회, 수협중앙회, 산림조합중앙회, 신협중앙회, 저축은행중앙회, 새마을금고중앙회)이다. 추후 증권사 세 곳(이베스트투자, SK, 하이투자)과 제2금융권 1곳(우정사업본부)이 추가될 예정이다. 금융당국은 이번 서비스 확대를 통해 디지털 기기 사용이 익숙하지 않은 디지털 소외계층도 해당 서비스 이용 혜택을 누릴 수 있어 금융소비자의 편의가 증대되고, 영업시간 외 야간 및 주말에도 고객센터를 통해 해당 서비스를 제공함으로써 신속한 피해 예방에 크게 도움이 될 것으로 기대하고 있다. 금융위는 “일괄지급정지 2단계 서비스의 제공 현황 및 소비자 만족도 등을 금융결제원과 함께 지속적으로 모니터링하여 불편사항이 발생하는 즉시 개선해나갈 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.07.04.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>토스뱅크, 미래에셋증권 주식계좌 개설 시작</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003113962?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>토스뱅크는 미래에셋증권 주식계좌 '다이렉트(Direct) 주식계좌' 개설 서비스를 개시한다고 4일 밝혔다.토스뱅크는 미래에셋증권 주식계좌 '다이렉트(Direct) 주식계좌' 개설 서비스를 개시한다고 4일 밝혔다.미래에셋증권 'Direct 주식계좌'는 국내 및 해외주식, 채권, 펀드 등 금융투자상품 거래가 가능한 계좌다. 19세 이상 한국 거주 내국인이라면 가입이 가능하다.계좌 개설은 토스뱅크 내에서 '목돈 굴리기' 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 1인 1계좌까지 개설할 수 있다.최초 신규 주식계좌 개설 고객을 대상으로 8월 말까지 다양한 혜택도 제공한다. 토스뱅크에서 미래에셋증권 계좌를 개설하면 1만5000원 현금을 토스뱅크 통장으로 즉시 지급하고, 해외주식 매수 시 투자지원금 5만원도 제공한다. 주식 매수시 부과되는 수수료 무료 혜택과 환전 우대 혜택도 제공된다.토스뱅크 관계자는 “주식계좌 개설 서비스 대상 증권사가 국내 대형 증권사들을 시작으로 점차 확대되며 고객의 선택권을 넓혀가는 중” 이라며 “더욱 다양한 증권사와의 제휴를 통해 고객 중심의 다양한 혜택을 제공할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
